--- a/upload/dict.xlsx
+++ b/upload/dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingz\Documents\GitHub\jw3\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D21958-1725-451C-A59D-443FB14B8E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCA91CD-FDED-4437-B29E-5861B76D1F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="858" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="858" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明（请勿修改此页内容）" sheetId="21" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5455" uniqueCount="1185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5461" uniqueCount="1186">
   <si>
     <t>模板名称</t>
   </si>
@@ -4076,6 +4076,10 @@
     <t xml:space="preserve">1、字典表新增大客户接入交换机角色:PSW
 2、字典表管理汇聚交换机:MCS修改为MCSW
 </t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCS</t>
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
 </sst>
@@ -7195,7 +7199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -20956,10 +20960,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="158" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
@@ -21086,10 +21090,10 @@
       <c r="A10" s="40" t="s">
         <v>1127</v>
       </c>
-      <c r="B10" s="136" t="s">
-        <v>441</v>
-      </c>
-      <c r="C10" s="136" t="s">
+      <c r="B10" s="139" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C10" s="139" t="s">
         <v>223</v>
       </c>
       <c r="D10" s="137"/>
@@ -21099,7 +21103,7 @@
         <v>1127</v>
       </c>
       <c r="B11" s="136" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C11" s="136" t="s">
         <v>223</v>
@@ -21110,10 +21114,10 @@
       <c r="A12" s="40" t="s">
         <v>1127</v>
       </c>
-      <c r="B12" s="139" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C12" s="139" t="s">
+      <c r="B12" s="136" t="s">
+        <v>449</v>
+      </c>
+      <c r="C12" s="136" t="s">
         <v>223</v>
       </c>
       <c r="D12" s="137"/>
@@ -21122,10 +21126,10 @@
       <c r="A13" s="40" t="s">
         <v>1127</v>
       </c>
-      <c r="B13" s="136" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C13" s="136" t="s">
+      <c r="B13" s="139" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C13" s="139" t="s">
         <v>223</v>
       </c>
       <c r="D13" s="137"/>
@@ -21135,10 +21139,10 @@
         <v>1127</v>
       </c>
       <c r="B14" s="136" t="s">
-        <v>1182</v>
+        <v>1101</v>
       </c>
       <c r="C14" s="136" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="D14" s="137"/>
     </row>
@@ -21147,7 +21151,7 @@
         <v>1127</v>
       </c>
       <c r="B15" s="136" t="s">
-        <v>447</v>
+        <v>1182</v>
       </c>
       <c r="C15" s="136" t="s">
         <v>241</v>
@@ -21159,7 +21163,7 @@
         <v>1127</v>
       </c>
       <c r="B16" s="136" t="s">
-        <v>1102</v>
+        <v>447</v>
       </c>
       <c r="C16" s="136" t="s">
         <v>241</v>
@@ -21171,10 +21175,10 @@
         <v>1127</v>
       </c>
       <c r="B17" s="136" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C17" s="136" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D17" s="137"/>
     </row>
@@ -21183,10 +21187,10 @@
         <v>1127</v>
       </c>
       <c r="B18" s="136" t="s">
-        <v>244</v>
+        <v>1103</v>
       </c>
       <c r="C18" s="136" t="s">
-        <v>480</v>
+        <v>252</v>
       </c>
       <c r="D18" s="137"/>
     </row>
@@ -21195,7 +21199,7 @@
         <v>1127</v>
       </c>
       <c r="B19" s="136" t="s">
-        <v>1104</v>
+        <v>244</v>
       </c>
       <c r="C19" s="136" t="s">
         <v>480</v>
@@ -21207,7 +21211,7 @@
         <v>1127</v>
       </c>
       <c r="B20" s="136" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C20" s="136" t="s">
         <v>480</v>
@@ -21219,7 +21223,7 @@
         <v>1127</v>
       </c>
       <c r="B21" s="136" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C21" s="136" t="s">
         <v>480</v>
@@ -21231,10 +21235,10 @@
         <v>1127</v>
       </c>
       <c r="B22" s="136" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="C22" s="136" t="s">
-        <v>1119</v>
+        <v>480</v>
       </c>
       <c r="D22" s="137"/>
     </row>
@@ -21243,7 +21247,7 @@
         <v>1127</v>
       </c>
       <c r="B23" s="136" t="s">
-        <v>1091</v>
+        <v>1107</v>
       </c>
       <c r="C23" s="136" t="s">
         <v>1119</v>
@@ -21255,7 +21259,7 @@
         <v>1127</v>
       </c>
       <c r="B24" s="136" t="s">
-        <v>1108</v>
+        <v>1091</v>
       </c>
       <c r="C24" s="136" t="s">
         <v>1119</v>
@@ -21267,7 +21271,7 @@
         <v>1127</v>
       </c>
       <c r="B25" s="136" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="C25" s="136" t="s">
         <v>1119</v>
@@ -21279,10 +21283,10 @@
         <v>1127</v>
       </c>
       <c r="B26" s="136" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C26" s="136" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="D26" s="137"/>
     </row>
@@ -21291,7 +21295,7 @@
         <v>1127</v>
       </c>
       <c r="B27" s="136" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C27" s="136" t="s">
         <v>1120</v>
@@ -21303,7 +21307,7 @@
         <v>1127</v>
       </c>
       <c r="B28" s="136" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C28" s="136" t="s">
         <v>1120</v>
@@ -21315,7 +21319,7 @@
         <v>1127</v>
       </c>
       <c r="B29" s="136" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C29" s="136" t="s">
         <v>1120</v>
@@ -21327,7 +21331,7 @@
         <v>1127</v>
       </c>
       <c r="B30" s="136" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C30" s="136" t="s">
         <v>1120</v>
@@ -21339,7 +21343,7 @@
         <v>1127</v>
       </c>
       <c r="B31" s="136" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C31" s="136" t="s">
         <v>1120</v>
@@ -21351,7 +21355,7 @@
         <v>1127</v>
       </c>
       <c r="B32" s="136" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C32" s="136" t="s">
         <v>1120</v>
@@ -21363,7 +21367,7 @@
         <v>1127</v>
       </c>
       <c r="B33" s="136" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C33" s="136" t="s">
         <v>1120</v>
@@ -21375,10 +21379,10 @@
         <v>1127</v>
       </c>
       <c r="B34" s="136" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="C34" s="136" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="D34" s="137"/>
     </row>
@@ -21387,7 +21391,7 @@
         <v>1127</v>
       </c>
       <c r="B35" s="136" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="C35" s="136" t="s">
         <v>1121</v>
@@ -21399,7 +21403,7 @@
         <v>1127</v>
       </c>
       <c r="B36" s="136" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="C36" s="136" t="s">
         <v>1121</v>
@@ -21411,10 +21415,10 @@
         <v>1127</v>
       </c>
       <c r="B37" s="136" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C37" s="136" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="D37" s="137"/>
     </row>
@@ -21423,7 +21427,7 @@
         <v>1127</v>
       </c>
       <c r="B38" s="136" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="C38" s="136" t="s">
         <v>1122</v>
@@ -21431,52 +21435,52 @@
       <c r="D38" s="137"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="138" t="s">
+      <c r="A39" s="40" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B39" s="136" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C39" s="136" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D39" s="137"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="138" t="s">
         <v>1140</v>
       </c>
-      <c r="B39" s="139" t="s">
+      <c r="B40" s="139" t="s">
         <v>1096</v>
       </c>
-      <c r="C39" s="139" t="s">
+      <c r="C40" s="139" t="s">
         <v>1085</v>
       </c>
-      <c r="D39" s="140" t="s">
+      <c r="D40" s="140" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="40" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B40" s="136" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C40" s="136" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D40" s="41"/>
-    </row>
-    <row r="41" spans="1:4" ht="16.95" customHeight="1">
+    <row r="41" spans="1:4">
       <c r="A41" s="40" t="s">
         <v>1140</v>
       </c>
       <c r="B41" s="136" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C41" s="136" t="s">
-        <v>1128</v>
+        <v>1086</v>
       </c>
       <c r="D41" s="41"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" ht="16.95" customHeight="1">
       <c r="A42" s="40" t="s">
         <v>1140</v>
       </c>
       <c r="B42" s="136" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C42" s="136" t="s">
-        <v>1087</v>
+        <v>1128</v>
       </c>
       <c r="D42" s="41"/>
     </row>
@@ -21485,10 +21489,10 @@
         <v>1140</v>
       </c>
       <c r="B43" s="136" t="s">
-        <v>1139</v>
+        <v>1099</v>
       </c>
       <c r="C43" s="136" t="s">
-        <v>440</v>
+        <v>1087</v>
       </c>
       <c r="D43" s="41"/>
     </row>
@@ -21497,10 +21501,10 @@
         <v>1140</v>
       </c>
       <c r="B44" s="136" t="s">
-        <v>1100</v>
+        <v>1139</v>
       </c>
       <c r="C44" s="136" t="s">
-        <v>1083</v>
+        <v>440</v>
       </c>
       <c r="D44" s="41"/>
     </row>
@@ -21509,58 +21513,58 @@
         <v>1140</v>
       </c>
       <c r="B45" s="136" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C45" s="136" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D45" s="41"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="40" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B46" s="136" t="s">
         <v>435</v>
       </c>
-      <c r="C45" s="136" t="s">
+      <c r="C46" s="136" t="s">
         <v>436</v>
       </c>
-      <c r="D45" s="41"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="138" t="s">
+      <c r="D46" s="41"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="138" t="s">
         <v>1140</v>
       </c>
-      <c r="B46" s="139" t="s">
+      <c r="B47" s="139" t="s">
         <v>1183</v>
       </c>
-      <c r="C46" s="139" t="s">
+      <c r="C47" s="139" t="s">
         <v>1129</v>
       </c>
-      <c r="D46" s="41"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="40" t="s">
+      <c r="D47" s="41"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="138" t="s">
         <v>1140</v>
       </c>
-      <c r="B47" s="136" t="s">
+      <c r="B48" s="139" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C48" s="139" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D48" s="41"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="40" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B49" s="136" t="s">
         <v>441</v>
       </c>
-      <c r="C47" s="136" t="s">
+      <c r="C49" s="136" t="s">
         <v>442</v>
-      </c>
-      <c r="D47" s="41"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="40" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B48" s="136" t="s">
-        <v>449</v>
-      </c>
-      <c r="C48" s="136" t="s">
-        <v>260</v>
-      </c>
-      <c r="D48" s="41"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="138" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B49" s="139" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C49" s="139" t="s">
-        <v>1180</v>
       </c>
       <c r="D49" s="41"/>
     </row>
@@ -21569,22 +21573,22 @@
         <v>1140</v>
       </c>
       <c r="B50" s="136" t="s">
-        <v>1101</v>
+        <v>449</v>
       </c>
       <c r="C50" s="136" t="s">
-        <v>1084</v>
+        <v>260</v>
       </c>
       <c r="D50" s="41"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="40" t="s">
+      <c r="A51" s="138" t="s">
         <v>1140</v>
       </c>
-      <c r="B51" s="136" t="s">
-        <v>445</v>
-      </c>
-      <c r="C51" s="136" t="s">
-        <v>446</v>
+      <c r="B51" s="139" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C51" s="139" t="s">
+        <v>1180</v>
       </c>
       <c r="D51" s="41"/>
     </row>
@@ -21593,10 +21597,10 @@
         <v>1140</v>
       </c>
       <c r="B52" s="136" t="s">
-        <v>447</v>
+        <v>1101</v>
       </c>
       <c r="C52" s="136" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="D52" s="41"/>
     </row>
@@ -21605,10 +21609,10 @@
         <v>1140</v>
       </c>
       <c r="B53" s="136" t="s">
-        <v>1102</v>
+        <v>445</v>
       </c>
       <c r="C53" s="136" t="s">
-        <v>1090</v>
+        <v>446</v>
       </c>
       <c r="D53" s="41"/>
     </row>
@@ -21617,10 +21621,10 @@
         <v>1140</v>
       </c>
       <c r="B54" s="136" t="s">
-        <v>1103</v>
+        <v>447</v>
       </c>
       <c r="C54" s="136" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D54" s="41"/>
     </row>
@@ -21629,10 +21633,10 @@
         <v>1140</v>
       </c>
       <c r="B55" s="136" t="s">
-        <v>244</v>
+        <v>1102</v>
       </c>
       <c r="C55" s="136" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="D55" s="41"/>
     </row>
@@ -21641,10 +21645,10 @@
         <v>1140</v>
       </c>
       <c r="B56" s="136" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C56" s="136" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D56" s="41"/>
     </row>
@@ -21653,10 +21657,10 @@
         <v>1140</v>
       </c>
       <c r="B57" s="136" t="s">
-        <v>1105</v>
+        <v>244</v>
       </c>
       <c r="C57" s="136" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="D57" s="41"/>
     </row>
@@ -21665,10 +21669,10 @@
         <v>1140</v>
       </c>
       <c r="B58" s="136" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="C58" s="136" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="D58" s="41"/>
     </row>
@@ -21677,10 +21681,10 @@
         <v>1140</v>
       </c>
       <c r="B59" s="136" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="C59" s="136" t="s">
-        <v>56</v>
+        <v>1094</v>
       </c>
       <c r="D59" s="41"/>
     </row>
@@ -21689,10 +21693,10 @@
         <v>1140</v>
       </c>
       <c r="B60" s="136" t="s">
-        <v>1091</v>
+        <v>1106</v>
       </c>
       <c r="C60" s="136" t="s">
-        <v>1130</v>
+        <v>1095</v>
       </c>
       <c r="D60" s="41"/>
     </row>
@@ -21701,10 +21705,10 @@
         <v>1140</v>
       </c>
       <c r="B61" s="136" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="C61" s="136" t="s">
-        <v>1131</v>
+        <v>56</v>
       </c>
       <c r="D61" s="41"/>
     </row>
@@ -21713,10 +21717,10 @@
         <v>1140</v>
       </c>
       <c r="B62" s="136" t="s">
-        <v>1109</v>
+        <v>1091</v>
       </c>
       <c r="C62" s="136" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="D62" s="41"/>
     </row>
@@ -21725,10 +21729,10 @@
         <v>1140</v>
       </c>
       <c r="B63" s="136" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="C63" s="136" t="s">
-        <v>256</v>
+        <v>1131</v>
       </c>
       <c r="D63" s="41"/>
     </row>
@@ -21737,10 +21741,10 @@
         <v>1140</v>
       </c>
       <c r="B64" s="136" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="C64" s="136" t="s">
-        <v>210</v>
+        <v>1132</v>
       </c>
       <c r="D64" s="41"/>
     </row>
@@ -21749,10 +21753,10 @@
         <v>1140</v>
       </c>
       <c r="B65" s="136" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="C65" s="136" t="s">
-        <v>1133</v>
+        <v>256</v>
       </c>
       <c r="D65" s="41"/>
     </row>
@@ -21761,10 +21765,10 @@
         <v>1140</v>
       </c>
       <c r="B66" s="136" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C66" s="136" t="s">
-        <v>1134</v>
+        <v>210</v>
       </c>
       <c r="D66" s="41"/>
     </row>
@@ -21773,10 +21777,10 @@
         <v>1140</v>
       </c>
       <c r="B67" s="136" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C67" s="136" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="D67" s="41"/>
     </row>
@@ -21785,10 +21789,10 @@
         <v>1140</v>
       </c>
       <c r="B68" s="136" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C68" s="136" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="D68" s="41"/>
     </row>
@@ -21797,10 +21801,10 @@
         <v>1140</v>
       </c>
       <c r="B69" s="136" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C69" s="136" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="D69" s="41"/>
     </row>
@@ -21809,10 +21813,10 @@
         <v>1140</v>
       </c>
       <c r="B70" s="136" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C70" s="136" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="D70" s="41"/>
     </row>
@@ -21821,10 +21825,10 @@
         <v>1140</v>
       </c>
       <c r="B71" s="136" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="C71" s="136" t="s">
-        <v>1118</v>
+        <v>1137</v>
       </c>
       <c r="D71" s="41"/>
     </row>
@@ -21833,10 +21837,10 @@
         <v>1140</v>
       </c>
       <c r="B72" s="136" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="C72" s="136" t="s">
-        <v>1123</v>
+        <v>1138</v>
       </c>
       <c r="D72" s="41"/>
     </row>
@@ -21844,111 +21848,111 @@
       <c r="A73" s="40" t="s">
         <v>1140</v>
       </c>
-      <c r="B73" s="40" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C73" s="40" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D73" s="40"/>
+      <c r="B73" s="136" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C73" s="136" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D73" s="41"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="40" t="s">
         <v>1140</v>
       </c>
-      <c r="B74" s="40" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C74" s="40" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D74" s="40"/>
+      <c r="B74" s="136" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C74" s="136" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D74" s="41"/>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="40" t="s">
         <v>1140</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="D75" s="40"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="138" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B76" s="138" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C76" s="138" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D76" s="138" t="s">
-        <v>1141</v>
-      </c>
+      <c r="A76" s="40" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B76" s="40" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C76" s="40" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D76" s="40"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="40" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B77" s="40" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C77" s="40" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="D77" s="40"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="138" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B78" s="138" t="s">
-        <v>1144</v>
+        <v>1171</v>
       </c>
       <c r="C78" s="138" t="s">
-        <v>1144</v>
+        <v>1166</v>
       </c>
       <c r="D78" s="138" t="s">
-        <v>1082</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="40" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B79" s="40" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C79" s="40" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D79" s="40"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="138" t="s">
         <v>1143</v>
       </c>
-      <c r="B79" s="40" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C79" s="40" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D79" s="40"/>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="40" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B80" s="40" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C80" s="40" t="s">
-        <v>1147</v>
-      </c>
-      <c r="D80" s="40"/>
+      <c r="B80" s="138" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C80" s="138" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D80" s="138" t="s">
+        <v>1082</v>
+      </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="40" t="s">
         <v>1143</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="D81" s="40"/>
     </row>
@@ -21957,10 +21961,10 @@
         <v>1143</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="D82" s="40"/>
     </row>
@@ -21969,10 +21973,10 @@
         <v>1143</v>
       </c>
       <c r="B83" s="40" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="D83" s="40"/>
     </row>
@@ -21981,10 +21985,10 @@
         <v>1143</v>
       </c>
       <c r="B84" s="40" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="D84" s="40"/>
     </row>
@@ -21993,10 +21997,10 @@
         <v>1143</v>
       </c>
       <c r="B85" s="40" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="D85" s="40"/>
     </row>
@@ -22005,10 +22009,10 @@
         <v>1143</v>
       </c>
       <c r="B86" s="40" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D86" s="40"/>
     </row>
@@ -22017,10 +22021,10 @@
         <v>1143</v>
       </c>
       <c r="B87" s="40" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
       <c r="D87" s="40"/>
     </row>
@@ -22029,7 +22033,7 @@
         <v>1143</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="C88" s="40" t="s">
         <v>1151</v>
@@ -22041,43 +22045,43 @@
         <v>1143</v>
       </c>
       <c r="B89" s="40" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C89" s="40" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D89" s="40"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="40" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B90" s="40" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C90" s="40" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D90" s="40"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="40" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B91" s="40" t="s">
         <v>1158</v>
       </c>
-      <c r="C89" s="40" t="s">
+      <c r="C91" s="40" t="s">
         <v>1159</v>
       </c>
-      <c r="D89" s="40"/>
-    </row>
-    <row r="90" spans="1:4" ht="14.4">
-      <c r="A90" s="40" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B90" s="136" t="s">
-        <v>445</v>
-      </c>
-      <c r="C90" s="141" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D90" s="41"/>
-    </row>
-    <row r="91" spans="1:4" ht="14.4">
-      <c r="A91" s="40" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B91" s="136" t="s">
-        <v>447</v>
-      </c>
-      <c r="C91" s="141" t="s">
-        <v>1177</v>
-      </c>
-      <c r="D91" s="41"/>
+      <c r="D91" s="40"/>
     </row>
     <row r="92" spans="1:4" ht="14.4">
       <c r="A92" s="40" t="s">
         <v>1169</v>
       </c>
       <c r="B92" s="136" t="s">
-        <v>1102</v>
+        <v>445</v>
       </c>
       <c r="C92" s="141" t="s">
         <v>1177</v>
@@ -22089,34 +22093,34 @@
         <v>1169</v>
       </c>
       <c r="B93" s="136" t="s">
-        <v>1170</v>
+        <v>447</v>
       </c>
       <c r="C93" s="141" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D93" s="41"/>
     </row>
     <row r="94" spans="1:4" ht="14.4">
       <c r="A94" s="40" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B94" s="136" t="s">
-        <v>445</v>
+        <v>1102</v>
       </c>
       <c r="C94" s="141" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D94" s="41"/>
     </row>
     <row r="95" spans="1:4" ht="14.4">
       <c r="A95" s="40" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="B95" s="136" t="s">
-        <v>447</v>
+        <v>1170</v>
       </c>
       <c r="C95" s="141" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="D95" s="41"/>
     </row>
@@ -22125,22 +22129,46 @@
         <v>1175</v>
       </c>
       <c r="B96" s="136" t="s">
-        <v>1102</v>
+        <v>445</v>
       </c>
       <c r="C96" s="141" t="s">
         <v>1176</v>
       </c>
       <c r="D96" s="41"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" ht="14.4">
       <c r="A97" s="40" t="s">
         <v>1175</v>
       </c>
       <c r="B97" s="136" t="s">
+        <v>447</v>
+      </c>
+      <c r="C97" s="141" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D97" s="41"/>
+    </row>
+    <row r="98" spans="1:4" ht="14.4">
+      <c r="A98" s="40" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B98" s="136" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C98" s="141" t="s">
+        <v>1176</v>
+      </c>
+      <c r="D98" s="41"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="40" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B99" s="136" t="s">
         <v>1170</v>
       </c>
-      <c r="C97" s="41"/>
-      <c r="D97" s="41"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="51" type="noConversion"/>

--- a/upload/dict.xlsx
+++ b/upload/dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingz\Documents\GitHub\jw3\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCA91CD-FDED-4437-B29E-5861B76D1F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76516F4-79B8-4D25-8FA3-5CBF090885A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="858" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5461" uniqueCount="1186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5494" uniqueCount="1188">
   <si>
     <t>模板名称</t>
   </si>
@@ -4014,7 +4014,6 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>其他</t>
     </r>
@@ -4080,6 +4079,14 @@
   </si>
   <si>
     <t>MCS</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>4A-web资产</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>13表-4A资产信息-web</t>
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
 </sst>
@@ -4498,7 +4505,6 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -4525,7 +4531,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -20960,10 +20965,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="158" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="158" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
@@ -22169,6 +22174,168 @@
       </c>
       <c r="C99" s="41"/>
       <c r="D99" s="41"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="139" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B100" s="139" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C100" s="138"/>
+      <c r="D100" s="138" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="136" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B101" s="136" t="s">
+        <v>447</v>
+      </c>
+      <c r="C101" s="41"/>
+      <c r="D101" s="41"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="136" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B102" s="136" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C102" s="41"/>
+      <c r="D102" s="41"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="136" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B103" s="136" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C103" s="41"/>
+      <c r="D103" s="41"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="136" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B104" s="136" t="s">
+        <v>244</v>
+      </c>
+      <c r="C104" s="41"/>
+      <c r="D104" s="41"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="136" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B105" s="136" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C105" s="41"/>
+      <c r="D105" s="41"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="136" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B106" s="136" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C106" s="41"/>
+      <c r="D106" s="41"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="136" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B107" s="136" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C107" s="41"/>
+      <c r="D107" s="41"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="136" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B108" s="136" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C108" s="41"/>
+      <c r="D108" s="41"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="136" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B109" s="136" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C109" s="41"/>
+      <c r="D109" s="41"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="136" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B110" s="136" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C110" s="41"/>
+      <c r="D110" s="41"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="136" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B111" s="136" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C111" s="41"/>
+      <c r="D111" s="41"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="136" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B112" s="136" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C112" s="41"/>
+      <c r="D112" s="41"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="136" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B113" s="136" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C113" s="41"/>
+      <c r="D113" s="41"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="136" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B114" s="136" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C114" s="41"/>
+      <c r="D114" s="41"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="136" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B115" s="136" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C115" s="41"/>
+      <c r="D115" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="51" type="noConversion"/>

--- a/upload/dict.xlsx
+++ b/upload/dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingz\Documents\GitHub\jw3\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76516F4-79B8-4D25-8FA3-5CBF090885A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA283389-F13C-4929-B07C-0591A52F6C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="858" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5494" uniqueCount="1188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5576" uniqueCount="1197">
   <si>
     <t>模板名称</t>
   </si>
@@ -3855,9 +3855,6 @@
     <t>核心路由器(出口路由器)</t>
   </si>
   <si>
-    <t>管理汇聚交换机</t>
-  </si>
-  <si>
     <t>KVM网关</t>
   </si>
   <si>
@@ -4014,6 +4011,7 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
+        <charset val="134"/>
       </rPr>
       <t>其他</t>
     </r>
@@ -4087,6 +4085,46 @@
   </si>
   <si>
     <t>13表-4A资产信息-web</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>15表普罗米修斯</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理汇聚交换机</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSW</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理交换机</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSW</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>串口交换机</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>HSW</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换机</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASW</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>普罗米修斯</t>
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
 </sst>
@@ -4505,6 +4543,7 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -4531,6 +4570,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -7341,10 +7381,10 @@
         <v>44940</v>
       </c>
       <c r="B13" s="150" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C13" s="151" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
   </sheetData>
@@ -20965,10 +21005,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="158" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
@@ -21048,7 +21088,7 @@
         <v>1127</v>
       </c>
       <c r="B6" s="136" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C6" s="136" t="s">
         <v>223</v>
@@ -21083,10 +21123,10 @@
       <c r="A9" s="40" t="s">
         <v>1127</v>
       </c>
-      <c r="B9" s="139" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C9" s="139" t="s">
+      <c r="B9" s="136" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C9" s="136" t="s">
         <v>223</v>
       </c>
       <c r="D9" s="137"/>
@@ -21095,10 +21135,10 @@
       <c r="A10" s="40" t="s">
         <v>1127</v>
       </c>
-      <c r="B10" s="139" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C10" s="139" t="s">
+      <c r="B10" s="136" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C10" s="136" t="s">
         <v>223</v>
       </c>
       <c r="D10" s="137"/>
@@ -21131,10 +21171,10 @@
       <c r="A13" s="40" t="s">
         <v>1127</v>
       </c>
-      <c r="B13" s="139" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C13" s="139" t="s">
+      <c r="B13" s="136" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C13" s="136" t="s">
         <v>223</v>
       </c>
       <c r="D13" s="137"/>
@@ -21156,7 +21196,7 @@
         <v>1127</v>
       </c>
       <c r="B15" s="136" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C15" s="136" t="s">
         <v>241</v>
@@ -21453,7 +21493,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="138" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B40" s="139" t="s">
         <v>1096</v>
@@ -21467,7 +21507,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B41" s="136" t="s">
         <v>1097</v>
@@ -21479,7 +21519,7 @@
     </row>
     <row r="42" spans="1:4" ht="16.95" customHeight="1">
       <c r="A42" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B42" s="136" t="s">
         <v>1098</v>
@@ -21491,7 +21531,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B43" s="136" t="s">
         <v>1099</v>
@@ -21503,10 +21543,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B44" s="136" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="C44" s="136" t="s">
         <v>440</v>
@@ -21515,7 +21555,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B45" s="136" t="s">
         <v>1100</v>
@@ -21527,7 +21567,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B46" s="136" t="s">
         <v>435</v>
@@ -21538,68 +21578,68 @@
       <c r="D46" s="41"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="138" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B47" s="139" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C47" s="139" t="s">
-        <v>1129</v>
+      <c r="A47" s="40" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B47" s="136" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C47" s="136" t="s">
+        <v>1188</v>
       </c>
       <c r="D47" s="41"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="138" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B48" s="139" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C48" s="139" t="s">
-        <v>1129</v>
+      <c r="A48" s="40" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B48" s="136" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C48" s="136" t="s">
+        <v>1188</v>
       </c>
       <c r="D48" s="41"/>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B49" s="136" t="s">
-        <v>441</v>
+        <v>1189</v>
       </c>
       <c r="C49" s="136" t="s">
-        <v>442</v>
+        <v>1190</v>
       </c>
       <c r="D49" s="41"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B50" s="136" t="s">
-        <v>449</v>
+        <v>1191</v>
       </c>
       <c r="C50" s="136" t="s">
-        <v>260</v>
+        <v>1192</v>
       </c>
       <c r="D50" s="41"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="138" t="s">
-        <v>1140</v>
-      </c>
-      <c r="B51" s="139" t="s">
+      <c r="A51" s="40" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B51" s="136" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C51" s="136" t="s">
         <v>1179</v>
-      </c>
-      <c r="C51" s="139" t="s">
-        <v>1180</v>
       </c>
       <c r="D51" s="41"/>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B52" s="136" t="s">
         <v>1101</v>
@@ -21611,7 +21651,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B53" s="136" t="s">
         <v>445</v>
@@ -21623,7 +21663,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B54" s="136" t="s">
         <v>447</v>
@@ -21635,7 +21675,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B55" s="136" t="s">
         <v>1102</v>
@@ -21647,7 +21687,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B56" s="136" t="s">
         <v>1103</v>
@@ -21659,7 +21699,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B57" s="136" t="s">
         <v>244</v>
@@ -21671,7 +21711,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B58" s="136" t="s">
         <v>1104</v>
@@ -21683,7 +21723,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B59" s="136" t="s">
         <v>1105</v>
@@ -21695,7 +21735,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B60" s="136" t="s">
         <v>1106</v>
@@ -21707,7 +21747,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B61" s="136" t="s">
         <v>1107</v>
@@ -21719,43 +21759,43 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B62" s="136" t="s">
         <v>1091</v>
       </c>
       <c r="C62" s="136" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D62" s="41"/>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B63" s="136" t="s">
         <v>1108</v>
       </c>
       <c r="C63" s="136" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="D63" s="41"/>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B64" s="136" t="s">
         <v>1109</v>
       </c>
       <c r="C64" s="136" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="D64" s="41"/>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B65" s="136" t="s">
         <v>1110</v>
@@ -21767,7 +21807,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B66" s="136" t="s">
         <v>1111</v>
@@ -21779,79 +21819,79 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B67" s="136" t="s">
         <v>1112</v>
       </c>
       <c r="C67" s="136" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="D67" s="41"/>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B68" s="136" t="s">
         <v>1113</v>
       </c>
       <c r="C68" s="136" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="D68" s="41"/>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B69" s="136" t="s">
         <v>1114</v>
       </c>
       <c r="C69" s="136" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="D69" s="41"/>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B70" s="136" t="s">
         <v>1115</v>
       </c>
       <c r="C70" s="136" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="D70" s="41"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B71" s="136" t="s">
         <v>1116</v>
       </c>
       <c r="C71" s="136" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="D71" s="41"/>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B72" s="136" t="s">
         <v>1117</v>
       </c>
       <c r="C72" s="136" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="D72" s="41"/>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B73" s="136" t="s">
         <v>1118</v>
@@ -21863,7 +21903,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B74" s="136" t="s">
         <v>1123</v>
@@ -21875,75 +21915,75 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B75" s="40" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C75" s="40" t="s">
         <v>1160</v>
-      </c>
-      <c r="C75" s="40" t="s">
-        <v>1161</v>
       </c>
       <c r="D75" s="40"/>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B76" s="40" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C76" s="40" t="s">
         <v>1162</v>
-      </c>
-      <c r="C76" s="40" t="s">
-        <v>1163</v>
       </c>
       <c r="D76" s="40"/>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="40" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B77" s="40" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C77" s="40" t="s">
         <v>1164</v>
-      </c>
-      <c r="C77" s="40" t="s">
-        <v>1165</v>
       </c>
       <c r="D77" s="40"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="138" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B78" s="138" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="C78" s="138" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="D78" s="138" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="40" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B79" s="40" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C79" s="40" t="s">
         <v>1167</v>
-      </c>
-      <c r="C79" s="40" t="s">
-        <v>1168</v>
       </c>
       <c r="D79" s="40"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="138" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B80" s="138" t="s">
         <v>1143</v>
       </c>
-      <c r="B80" s="138" t="s">
-        <v>1144</v>
-      </c>
       <c r="C80" s="138" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="D80" s="138" t="s">
         <v>1082</v>
@@ -21951,245 +21991,245 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="40" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C81" s="40" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="D81" s="40"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="40" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B82" s="40" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C82" s="40" t="s">
         <v>1146</v>
-      </c>
-      <c r="C82" s="40" t="s">
-        <v>1147</v>
       </c>
       <c r="D82" s="40"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="40" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B83" s="40" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C83" s="40" t="s">
         <v>1148</v>
-      </c>
-      <c r="C83" s="40" t="s">
-        <v>1149</v>
       </c>
       <c r="D83" s="40"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="40" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B84" s="40" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D84" s="40"/>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="40" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B85" s="40" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D85" s="40"/>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="40" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B86" s="40" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="D86" s="40"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="40" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B87" s="40" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C87" s="40" t="s">
         <v>1153</v>
-      </c>
-      <c r="C87" s="40" t="s">
-        <v>1154</v>
       </c>
       <c r="D87" s="40"/>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="40" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D88" s="40"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="40" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B89" s="40" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C89" s="40" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D89" s="40"/>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="40" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B90" s="40" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="C90" s="40" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D90" s="40"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="40" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B91" s="40" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C91" s="40" t="s">
         <v>1158</v>
-      </c>
-      <c r="C91" s="40" t="s">
-        <v>1159</v>
       </c>
       <c r="D91" s="40"/>
     </row>
     <row r="92" spans="1:4" ht="14.4">
       <c r="A92" s="40" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B92" s="136" t="s">
         <v>445</v>
       </c>
       <c r="C92" s="141" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D92" s="41"/>
     </row>
     <row r="93" spans="1:4" ht="14.4">
       <c r="A93" s="40" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B93" s="136" t="s">
         <v>447</v>
       </c>
       <c r="C93" s="141" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D93" s="41"/>
     </row>
     <row r="94" spans="1:4" ht="14.4">
       <c r="A94" s="40" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="B94" s="136" t="s">
         <v>1102</v>
       </c>
       <c r="C94" s="141" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D94" s="41"/>
     </row>
     <row r="95" spans="1:4" ht="14.4">
       <c r="A95" s="40" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B95" s="136" t="s">
         <v>1169</v>
       </c>
-      <c r="B95" s="136" t="s">
-        <v>1170</v>
-      </c>
       <c r="C95" s="141" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D95" s="41"/>
     </row>
     <row r="96" spans="1:4" ht="14.4">
       <c r="A96" s="40" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B96" s="136" t="s">
         <v>445</v>
       </c>
       <c r="C96" s="141" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D96" s="41"/>
     </row>
     <row r="97" spans="1:4" ht="14.4">
       <c r="A97" s="40" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B97" s="136" t="s">
         <v>447</v>
       </c>
       <c r="C97" s="141" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D97" s="41"/>
     </row>
     <row r="98" spans="1:4" ht="14.4">
       <c r="A98" s="40" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B98" s="136" t="s">
         <v>1102</v>
       </c>
       <c r="C98" s="141" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D98" s="41"/>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="40" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B99" s="136" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C99" s="41"/>
       <c r="D99" s="41"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="139" t="s">
-        <v>1186</v>
+      <c r="A100" s="138" t="s">
+        <v>1185</v>
       </c>
       <c r="B100" s="139" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C100" s="138"/>
       <c r="D100" s="138" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="136" t="s">
-        <v>1186</v>
+      <c r="A101" s="40" t="s">
+        <v>1185</v>
       </c>
       <c r="B101" s="136" t="s">
         <v>447</v>
@@ -22198,8 +22238,8 @@
       <c r="D101" s="41"/>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="136" t="s">
-        <v>1186</v>
+      <c r="A102" s="40" t="s">
+        <v>1185</v>
       </c>
       <c r="B102" s="136" t="s">
         <v>1102</v>
@@ -22208,8 +22248,8 @@
       <c r="D102" s="41"/>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="136" t="s">
-        <v>1186</v>
+      <c r="A103" s="40" t="s">
+        <v>1185</v>
       </c>
       <c r="B103" s="136" t="s">
         <v>1103</v>
@@ -22218,8 +22258,8 @@
       <c r="D103" s="41"/>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="136" t="s">
-        <v>1186</v>
+      <c r="A104" s="40" t="s">
+        <v>1185</v>
       </c>
       <c r="B104" s="136" t="s">
         <v>244</v>
@@ -22228,8 +22268,8 @@
       <c r="D104" s="41"/>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="136" t="s">
-        <v>1186</v>
+      <c r="A105" s="40" t="s">
+        <v>1185</v>
       </c>
       <c r="B105" s="136" t="s">
         <v>1104</v>
@@ -22238,8 +22278,8 @@
       <c r="D105" s="41"/>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="136" t="s">
-        <v>1186</v>
+      <c r="A106" s="40" t="s">
+        <v>1185</v>
       </c>
       <c r="B106" s="136" t="s">
         <v>1105</v>
@@ -22248,8 +22288,8 @@
       <c r="D106" s="41"/>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="136" t="s">
-        <v>1186</v>
+      <c r="A107" s="40" t="s">
+        <v>1185</v>
       </c>
       <c r="B107" s="136" t="s">
         <v>1106</v>
@@ -22258,8 +22298,8 @@
       <c r="D107" s="41"/>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="136" t="s">
-        <v>1186</v>
+      <c r="A108" s="40" t="s">
+        <v>1185</v>
       </c>
       <c r="B108" s="136" t="s">
         <v>1110</v>
@@ -22268,8 +22308,8 @@
       <c r="D108" s="41"/>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="136" t="s">
-        <v>1186</v>
+      <c r="A109" s="40" t="s">
+        <v>1185</v>
       </c>
       <c r="B109" s="136" t="s">
         <v>1111</v>
@@ -22278,8 +22318,8 @@
       <c r="D109" s="41"/>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="136" t="s">
-        <v>1186</v>
+      <c r="A110" s="40" t="s">
+        <v>1185</v>
       </c>
       <c r="B110" s="136" t="s">
         <v>1112</v>
@@ -22288,8 +22328,8 @@
       <c r="D110" s="41"/>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="136" t="s">
-        <v>1186</v>
+      <c r="A111" s="40" t="s">
+        <v>1185</v>
       </c>
       <c r="B111" s="136" t="s">
         <v>1113</v>
@@ -22298,8 +22338,8 @@
       <c r="D111" s="41"/>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="136" t="s">
-        <v>1186</v>
+      <c r="A112" s="40" t="s">
+        <v>1185</v>
       </c>
       <c r="B112" s="136" t="s">
         <v>1114</v>
@@ -22308,8 +22348,8 @@
       <c r="D112" s="41"/>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="136" t="s">
-        <v>1186</v>
+      <c r="A113" s="40" t="s">
+        <v>1185</v>
       </c>
       <c r="B113" s="136" t="s">
         <v>1115</v>
@@ -22318,8 +22358,8 @@
       <c r="D113" s="41"/>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="136" t="s">
-        <v>1186</v>
+      <c r="A114" s="40" t="s">
+        <v>1185</v>
       </c>
       <c r="B114" s="136" t="s">
         <v>1116</v>
@@ -22328,14 +22368,340 @@
       <c r="D114" s="41"/>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="136" t="s">
-        <v>1186</v>
+      <c r="A115" s="40" t="s">
+        <v>1185</v>
       </c>
       <c r="B115" s="136" t="s">
         <v>1117</v>
       </c>
       <c r="C115" s="41"/>
       <c r="D115" s="41"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="138" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B116" s="139" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C116" s="139" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D116" s="140" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B117" s="136" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C117" s="136" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D117" s="137"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B118" s="136" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C118" s="136" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D118" s="137"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B119" s="136" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C119" s="136" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D119" s="137"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B120" s="136" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C120" s="136" t="s">
+        <v>223</v>
+      </c>
+      <c r="D120" s="137"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B121" s="136" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C121" s="136" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D121" s="137"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B122" s="136" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C122" s="136" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D122" s="137"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B123" s="136" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C123" s="136" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D123" s="137"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B124" s="136" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C124" s="136" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D124" s="137"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B125" s="136" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C125" s="136" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D125" s="137"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B126" s="136" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C126" s="136" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D126" s="137"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B127" s="136" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C127" s="136" t="s">
+        <v>241</v>
+      </c>
+      <c r="D127" s="137"/>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B128" s="136" t="s">
+        <v>447</v>
+      </c>
+      <c r="C128" s="136" t="s">
+        <v>241</v>
+      </c>
+      <c r="D128" s="137"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B129" s="136" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C129" s="136" t="s">
+        <v>241</v>
+      </c>
+      <c r="D129" s="137"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B130" s="136" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C130" s="136" t="s">
+        <v>252</v>
+      </c>
+      <c r="D130" s="137"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B131" s="136" t="s">
+        <v>244</v>
+      </c>
+      <c r="C131" s="136" t="s">
+        <v>480</v>
+      </c>
+      <c r="D131" s="137"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B132" s="136" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C132" s="136" t="s">
+        <v>480</v>
+      </c>
+      <c r="D132" s="137"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B133" s="136" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C133" s="136" t="s">
+        <v>480</v>
+      </c>
+      <c r="D133" s="137"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B134" s="136" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C134" s="136" t="s">
+        <v>480</v>
+      </c>
+      <c r="D134" s="137"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B135" s="136" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C135" s="136" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D135" s="137"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B136" s="136" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C136" s="136" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D136" s="137"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B137" s="136" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C137" s="136" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D137" s="137"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B138" s="136" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C138" s="136" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D138" s="137"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B139" s="136" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C139" s="136" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D139" s="137"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B140" s="136" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C140" s="136" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D140" s="137"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B141" s="136" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C141" s="136" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D141" s="137"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="40" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B142" s="136" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C142" s="136" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D142" s="137"/>
     </row>
   </sheetData>
   <phoneticPr fontId="51" type="noConversion"/>
@@ -22599,7 +22965,7 @@
         <v>155</v>
       </c>
       <c r="C1" s="126" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1">
@@ -26179,7 +26545,7 @@
     </row>
     <row r="327" spans="1:3" ht="19.95" customHeight="1">
       <c r="A327" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B327" s="9" t="s">
         <v>34</v>
@@ -26190,7 +26556,7 @@
     </row>
     <row r="328" spans="1:3" ht="19.95" customHeight="1">
       <c r="A328" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B328" s="19" t="s">
         <v>759</v>
@@ -26201,7 +26567,7 @@
     </row>
     <row r="329" spans="1:3" ht="19.95" customHeight="1">
       <c r="A329" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B329" s="19" t="s">
         <v>761</v>
@@ -26212,7 +26578,7 @@
     </row>
     <row r="330" spans="1:3" ht="19.95" customHeight="1">
       <c r="A330" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B330" s="19" t="s">
         <v>763</v>
@@ -26223,7 +26589,7 @@
     </row>
     <row r="331" spans="1:3" ht="19.95" customHeight="1">
       <c r="A331" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B331" s="19" t="s">
         <v>765</v>
@@ -26234,7 +26600,7 @@
     </row>
     <row r="332" spans="1:3" ht="19.95" customHeight="1">
       <c r="A332" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B332" s="19" t="s">
         <v>767</v>
@@ -26245,7 +26611,7 @@
     </row>
     <row r="333" spans="1:3" ht="19.95" customHeight="1">
       <c r="A333" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B333" s="19" t="s">
         <v>603</v>
@@ -26256,7 +26622,7 @@
     </row>
     <row r="334" spans="1:3" ht="19.95" customHeight="1">
       <c r="A334" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B334" s="19" t="s">
         <v>338</v>
@@ -26267,7 +26633,7 @@
     </row>
     <row r="335" spans="1:3" ht="19.95" customHeight="1">
       <c r="A335" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B335" s="19" t="s">
         <v>768</v>
@@ -26278,7 +26644,7 @@
     </row>
     <row r="336" spans="1:3" ht="19.95" customHeight="1">
       <c r="A336" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B336" s="19" t="s">
         <v>336</v>
@@ -26289,7 +26655,7 @@
     </row>
     <row r="337" spans="1:3" ht="19.95" customHeight="1">
       <c r="A337" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B337" s="19" t="s">
         <v>769</v>
@@ -26300,7 +26666,7 @@
     </row>
     <row r="338" spans="1:3" ht="19.95" customHeight="1">
       <c r="A338" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B338" s="19" t="s">
         <v>770</v>
@@ -26311,7 +26677,7 @@
     </row>
     <row r="339" spans="1:3" ht="19.95" customHeight="1">
       <c r="A339" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B339" s="19" t="s">
         <v>332</v>
@@ -26322,7 +26688,7 @@
     </row>
     <row r="340" spans="1:3" ht="19.95" customHeight="1">
       <c r="A340" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B340" s="19" t="s">
         <v>771</v>
@@ -26333,7 +26699,7 @@
     </row>
     <row r="341" spans="1:3" ht="19.95" customHeight="1">
       <c r="A341" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B341" s="19" t="s">
         <v>772</v>
@@ -26344,7 +26710,7 @@
     </row>
     <row r="342" spans="1:3" ht="19.95" customHeight="1">
       <c r="A342" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B342" s="19" t="s">
         <v>774</v>
@@ -26355,7 +26721,7 @@
     </row>
     <row r="343" spans="1:3" ht="19.95" customHeight="1">
       <c r="A343" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B343" s="19" t="s">
         <v>744</v>
@@ -26366,7 +26732,7 @@
     </row>
     <row r="344" spans="1:3" ht="19.95" customHeight="1">
       <c r="A344" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B344" s="19" t="s">
         <v>775</v>
@@ -26377,7 +26743,7 @@
     </row>
     <row r="345" spans="1:3" ht="19.95" customHeight="1">
       <c r="A345" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B345" s="19" t="s">
         <v>776</v>
@@ -26388,7 +26754,7 @@
     </row>
     <row r="346" spans="1:3" ht="19.95" customHeight="1">
       <c r="A346" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B346" s="19" t="s">
         <v>777</v>
@@ -26399,7 +26765,7 @@
     </row>
     <row r="347" spans="1:3" ht="19.95" customHeight="1">
       <c r="A347" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B347" s="19" t="s">
         <v>778</v>
@@ -26410,7 +26776,7 @@
     </row>
     <row r="348" spans="1:3" ht="19.95" customHeight="1">
       <c r="A348" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B348" s="19" t="s">
         <v>779</v>
@@ -26421,7 +26787,7 @@
     </row>
     <row r="349" spans="1:3" ht="19.95" customHeight="1">
       <c r="A349" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B349" s="19" t="s">
         <v>780</v>
@@ -26432,7 +26798,7 @@
     </row>
     <row r="350" spans="1:3" ht="19.95" customHeight="1">
       <c r="A350" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B350" s="19" t="s">
         <v>641</v>
@@ -26443,7 +26809,7 @@
     </row>
     <row r="351" spans="1:3" ht="19.95" customHeight="1">
       <c r="A351" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B351" s="19" t="s">
         <v>781</v>
@@ -26454,7 +26820,7 @@
     </row>
     <row r="352" spans="1:3" ht="19.95" customHeight="1">
       <c r="A352" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B352" s="19" t="s">
         <v>782</v>
@@ -26465,7 +26831,7 @@
     </row>
     <row r="353" spans="1:3" ht="19.95" customHeight="1">
       <c r="A353" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B353" s="19" t="s">
         <v>783</v>
@@ -26476,7 +26842,7 @@
     </row>
     <row r="354" spans="1:3" ht="19.95" customHeight="1">
       <c r="A354" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B354" s="19" t="s">
         <v>784</v>
@@ -26487,7 +26853,7 @@
     </row>
     <row r="355" spans="1:3" ht="19.95" customHeight="1">
       <c r="A355" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B355" s="19" t="s">
         <v>785</v>
@@ -26498,7 +26864,7 @@
     </row>
     <row r="356" spans="1:3" ht="19.95" customHeight="1">
       <c r="A356" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B356" s="19" t="s">
         <v>212</v>
@@ -26509,7 +26875,7 @@
     </row>
     <row r="357" spans="1:3" ht="19.95" customHeight="1">
       <c r="A357" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B357" s="19" t="s">
         <v>786</v>
@@ -26520,7 +26886,7 @@
     </row>
     <row r="358" spans="1:3" ht="19.95" customHeight="1">
       <c r="A358" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B358" s="19" t="s">
         <v>787</v>
@@ -26531,7 +26897,7 @@
     </row>
     <row r="359" spans="1:3" ht="19.95" customHeight="1">
       <c r="A359" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B359" s="19" t="s">
         <v>788</v>
@@ -26542,7 +26908,7 @@
     </row>
     <row r="360" spans="1:3" ht="19.95" customHeight="1">
       <c r="A360" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B360" s="19" t="s">
         <v>789</v>
@@ -26553,7 +26919,7 @@
     </row>
     <row r="361" spans="1:3" ht="19.95" customHeight="1">
       <c r="A361" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B361" s="19" t="s">
         <v>790</v>
@@ -26564,7 +26930,7 @@
     </row>
     <row r="362" spans="1:3" ht="19.95" customHeight="1">
       <c r="A362" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B362" s="19" t="s">
         <v>791</v>
@@ -26575,7 +26941,7 @@
     </row>
     <row r="363" spans="1:3" ht="19.95" customHeight="1">
       <c r="A363" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B363" s="19" t="s">
         <v>792</v>
@@ -26586,7 +26952,7 @@
     </row>
     <row r="364" spans="1:3" ht="19.95" customHeight="1">
       <c r="A364" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B364" s="19" t="s">
         <v>793</v>
@@ -26597,7 +26963,7 @@
     </row>
     <row r="365" spans="1:3" ht="19.95" customHeight="1">
       <c r="A365" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B365" s="19" t="s">
         <v>794</v>
@@ -26608,7 +26974,7 @@
     </row>
     <row r="366" spans="1:3" ht="19.95" customHeight="1">
       <c r="A366" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B366" s="19" t="s">
         <v>795</v>
@@ -26619,7 +26985,7 @@
     </row>
     <row r="367" spans="1:3" ht="19.95" customHeight="1">
       <c r="A367" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B367" s="19" t="s">
         <v>796</v>
@@ -26630,7 +26996,7 @@
     </row>
     <row r="368" spans="1:3" ht="19.95" customHeight="1">
       <c r="A368" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B368" s="19" t="s">
         <v>346</v>
@@ -26641,7 +27007,7 @@
     </row>
     <row r="369" spans="1:3" ht="19.95" customHeight="1">
       <c r="A369" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B369" s="19" t="s">
         <v>797</v>
@@ -26652,7 +27018,7 @@
     </row>
     <row r="370" spans="1:3" ht="19.95" customHeight="1">
       <c r="A370" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B370" s="19" t="s">
         <v>798</v>
@@ -26663,7 +27029,7 @@
     </row>
     <row r="371" spans="1:3" ht="19.95" customHeight="1">
       <c r="A371" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B371" s="19" t="s">
         <v>799</v>
@@ -26674,7 +27040,7 @@
     </row>
     <row r="372" spans="1:3" ht="19.95" customHeight="1">
       <c r="A372" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B372" s="19" t="s">
         <v>235</v>
@@ -26685,7 +27051,7 @@
     </row>
     <row r="373" spans="1:3" ht="19.95" customHeight="1">
       <c r="A373" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B373" s="19" t="s">
         <v>800</v>
@@ -26696,7 +27062,7 @@
     </row>
     <row r="374" spans="1:3" ht="19.95" customHeight="1">
       <c r="A374" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B374" s="19" t="s">
         <v>801</v>
@@ -26707,7 +27073,7 @@
     </row>
     <row r="375" spans="1:3" ht="19.95" customHeight="1">
       <c r="A375" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B375" s="19" t="s">
         <v>360</v>
@@ -26718,7 +27084,7 @@
     </row>
     <row r="376" spans="1:3" ht="19.95" customHeight="1">
       <c r="A376" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B376" s="19" t="s">
         <v>802</v>
@@ -26729,7 +27095,7 @@
     </row>
     <row r="377" spans="1:3" ht="19.95" customHeight="1">
       <c r="A377" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B377" s="19" t="s">
         <v>803</v>
@@ -26740,7 +27106,7 @@
     </row>
     <row r="378" spans="1:3" ht="19.95" customHeight="1">
       <c r="A378" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B378" s="19" t="s">
         <v>804</v>
@@ -26751,7 +27117,7 @@
     </row>
     <row r="379" spans="1:3" ht="19.95" customHeight="1">
       <c r="A379" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B379" s="19" t="s">
         <v>355</v>
@@ -26762,7 +27128,7 @@
     </row>
     <row r="380" spans="1:3" ht="19.95" customHeight="1">
       <c r="A380" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B380" s="19" t="s">
         <v>358</v>
@@ -26773,7 +27139,7 @@
     </row>
     <row r="381" spans="1:3" ht="19.95" customHeight="1">
       <c r="A381" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B381" s="19" t="s">
         <v>805</v>
@@ -26784,7 +27150,7 @@
     </row>
     <row r="382" spans="1:3" ht="19.95" customHeight="1">
       <c r="A382" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B382" s="19" t="s">
         <v>807</v>
@@ -26795,7 +27161,7 @@
     </row>
     <row r="383" spans="1:3" ht="19.95" customHeight="1">
       <c r="A383" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B383" s="19" t="s">
         <v>603</v>
@@ -26806,7 +27172,7 @@
     </row>
     <row r="384" spans="1:3" ht="19.95" customHeight="1">
       <c r="A384" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B384" s="19" t="s">
         <v>338</v>
@@ -26817,7 +27183,7 @@
     </row>
     <row r="385" spans="1:3" ht="19.95" customHeight="1">
       <c r="A385" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B385" s="19" t="s">
         <v>768</v>
@@ -26828,7 +27194,7 @@
     </row>
     <row r="386" spans="1:3" ht="19.95" customHeight="1">
       <c r="A386" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B386" s="19" t="s">
         <v>336</v>
@@ -26839,7 +27205,7 @@
     </row>
     <row r="387" spans="1:3" ht="19.95" customHeight="1">
       <c r="A387" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B387" s="19" t="s">
         <v>769</v>
@@ -26850,7 +27216,7 @@
     </row>
     <row r="388" spans="1:3" ht="19.95" customHeight="1">
       <c r="A388" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B388" s="19" t="s">
         <v>770</v>
@@ -26861,7 +27227,7 @@
     </row>
     <row r="389" spans="1:3" ht="19.95" customHeight="1">
       <c r="A389" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B389" s="19" t="s">
         <v>332</v>
@@ -26872,7 +27238,7 @@
     </row>
     <row r="390" spans="1:3" ht="19.95" customHeight="1">
       <c r="A390" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B390" s="19" t="s">
         <v>771</v>
@@ -26883,7 +27249,7 @@
     </row>
     <row r="391" spans="1:3" ht="19.95" customHeight="1">
       <c r="A391" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B391" s="19" t="s">
         <v>772</v>
@@ -26894,7 +27260,7 @@
     </row>
     <row r="392" spans="1:3" ht="19.95" customHeight="1">
       <c r="A392" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B392" s="19" t="s">
         <v>809</v>
@@ -26905,7 +27271,7 @@
     </row>
     <row r="393" spans="1:3" ht="19.95" customHeight="1">
       <c r="A393" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B393" s="19" t="s">
         <v>811</v>
@@ -26916,7 +27282,7 @@
     </row>
     <row r="394" spans="1:3" ht="19.95" customHeight="1">
       <c r="A394" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B394" s="19" t="s">
         <v>812</v>
@@ -26927,7 +27293,7 @@
     </row>
     <row r="395" spans="1:3" ht="19.95" customHeight="1">
       <c r="A395" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B395" s="19" t="s">
         <v>528</v>
@@ -26938,7 +27304,7 @@
     </row>
     <row r="396" spans="1:3" ht="19.95" customHeight="1">
       <c r="A396" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B396" s="19" t="s">
         <v>813</v>
@@ -26949,7 +27315,7 @@
     </row>
     <row r="397" spans="1:3" ht="19.95" customHeight="1">
       <c r="A397" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B397" s="19" t="s">
         <v>814</v>
@@ -26960,7 +27326,7 @@
     </row>
     <row r="398" spans="1:3" ht="19.95" customHeight="1">
       <c r="A398" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B398" s="19" t="s">
         <v>815</v>
@@ -26971,7 +27337,7 @@
     </row>
     <row r="399" spans="1:3" ht="19.95" customHeight="1">
       <c r="A399" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B399" s="19" t="s">
         <v>816</v>
@@ -26982,7 +27348,7 @@
     </row>
     <row r="400" spans="1:3" ht="19.95" customHeight="1">
       <c r="A400" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B400" s="19" t="s">
         <v>817</v>
@@ -26993,7 +27359,7 @@
     </row>
     <row r="401" spans="1:3" ht="19.95" customHeight="1">
       <c r="A401" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B401" s="19" t="s">
         <v>818</v>
@@ -27004,7 +27370,7 @@
     </row>
     <row r="402" spans="1:3" ht="19.95" customHeight="1">
       <c r="A402" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B402" s="19" t="s">
         <v>819</v>
@@ -27015,7 +27381,7 @@
     </row>
     <row r="403" spans="1:3" ht="19.95" customHeight="1">
       <c r="A403" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B403" s="19" t="s">
         <v>820</v>
@@ -27026,7 +27392,7 @@
     </row>
     <row r="404" spans="1:3" ht="19.95" customHeight="1">
       <c r="A404" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B404" s="19" t="s">
         <v>280</v>
@@ -27037,7 +27403,7 @@
     </row>
     <row r="405" spans="1:3" ht="19.95" customHeight="1">
       <c r="A405" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B405" s="19" t="s">
         <v>821</v>
@@ -27048,7 +27414,7 @@
     </row>
     <row r="406" spans="1:3" ht="19.95" customHeight="1">
       <c r="A406" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B406" s="19" t="s">
         <v>822</v>
@@ -27059,7 +27425,7 @@
     </row>
     <row r="407" spans="1:3" ht="19.95" customHeight="1">
       <c r="A407" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B407" s="19" t="s">
         <v>823</v>
@@ -27070,7 +27436,7 @@
     </row>
     <row r="408" spans="1:3" ht="19.95" customHeight="1">
       <c r="A408" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B408" s="19" t="s">
         <v>824</v>
@@ -27081,7 +27447,7 @@
     </row>
     <row r="409" spans="1:3" ht="19.95" customHeight="1">
       <c r="A409" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B409" s="19" t="s">
         <v>825</v>
@@ -27092,7 +27458,7 @@
     </row>
     <row r="410" spans="1:3" ht="19.95" customHeight="1">
       <c r="A410" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B410" s="19" t="s">
         <v>826</v>
@@ -27103,7 +27469,7 @@
     </row>
     <row r="411" spans="1:3" ht="19.95" customHeight="1">
       <c r="A411" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B411" s="19" t="s">
         <v>827</v>
@@ -27114,7 +27480,7 @@
     </row>
     <row r="412" spans="1:3" ht="19.95" customHeight="1">
       <c r="A412" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B412" s="19" t="s">
         <v>574</v>
@@ -27125,7 +27491,7 @@
     </row>
     <row r="413" spans="1:3" ht="19.95" customHeight="1">
       <c r="A413" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B413" s="19" t="s">
         <v>828</v>
@@ -27136,7 +27502,7 @@
     </row>
     <row r="414" spans="1:3" ht="19.95" customHeight="1">
       <c r="A414" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B414" s="19" t="s">
         <v>829</v>
@@ -27147,7 +27513,7 @@
     </row>
     <row r="415" spans="1:3" ht="19.95" customHeight="1">
       <c r="A415" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B415" s="19" t="s">
         <v>830</v>
@@ -27158,7 +27524,7 @@
     </row>
     <row r="416" spans="1:3" ht="19.95" customHeight="1">
       <c r="A416" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B416" s="19" t="s">
         <v>831</v>
@@ -27169,7 +27535,7 @@
     </row>
     <row r="417" spans="1:3" ht="19.95" customHeight="1">
       <c r="A417" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B417" s="19" t="s">
         <v>832</v>
@@ -27180,7 +27546,7 @@
     </row>
     <row r="418" spans="1:3" ht="19.95" customHeight="1">
       <c r="A418" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B418" s="19" t="s">
         <v>833</v>
@@ -27191,7 +27557,7 @@
     </row>
     <row r="419" spans="1:3" ht="19.95" customHeight="1">
       <c r="A419" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B419" s="19" t="s">
         <v>834</v>
@@ -27202,7 +27568,7 @@
     </row>
     <row r="420" spans="1:3" ht="19.95" customHeight="1">
       <c r="A420" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B420" s="19" t="s">
         <v>835</v>
@@ -27213,7 +27579,7 @@
     </row>
     <row r="421" spans="1:3" ht="19.95" customHeight="1">
       <c r="A421" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B421" s="19" t="s">
         <v>836</v>
@@ -27224,7 +27590,7 @@
     </row>
     <row r="422" spans="1:3" ht="19.95" customHeight="1">
       <c r="A422" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B422" s="19" t="s">
         <v>837</v>
@@ -27235,7 +27601,7 @@
     </row>
     <row r="423" spans="1:3" ht="19.95" customHeight="1">
       <c r="A423" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B423" s="19" t="s">
         <v>838</v>
@@ -27246,7 +27612,7 @@
     </row>
     <row r="424" spans="1:3" ht="19.95" customHeight="1">
       <c r="A424" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B424" s="19" t="s">
         <v>839</v>
@@ -27257,7 +27623,7 @@
     </row>
     <row r="425" spans="1:3" ht="19.95" customHeight="1">
       <c r="A425" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B425" s="19" t="s">
         <v>840</v>
@@ -27268,7 +27634,7 @@
     </row>
     <row r="426" spans="1:3" ht="19.95" customHeight="1">
       <c r="A426" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B426" s="19" t="s">
         <v>841</v>
@@ -27279,7 +27645,7 @@
     </row>
     <row r="427" spans="1:3" ht="19.95" customHeight="1">
       <c r="A427" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B427" s="19" t="s">
         <v>842</v>
@@ -27290,7 +27656,7 @@
     </row>
     <row r="428" spans="1:3" ht="19.95" customHeight="1">
       <c r="A428" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B428" s="19" t="s">
         <v>843</v>
@@ -27301,7 +27667,7 @@
     </row>
     <row r="429" spans="1:3" ht="19.95" customHeight="1">
       <c r="A429" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B429" s="19" t="s">
         <v>844</v>
@@ -27312,7 +27678,7 @@
     </row>
     <row r="430" spans="1:3" ht="19.95" customHeight="1">
       <c r="A430" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B430" s="19" t="s">
         <v>845</v>
@@ -27323,7 +27689,7 @@
     </row>
     <row r="431" spans="1:3" ht="19.95" customHeight="1">
       <c r="A431" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B431" s="19" t="s">
         <v>846</v>
@@ -27334,7 +27700,7 @@
     </row>
     <row r="432" spans="1:3" ht="19.95" customHeight="1">
       <c r="A432" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B432" s="19" t="s">
         <v>847</v>
@@ -27345,7 +27711,7 @@
     </row>
     <row r="433" spans="1:3" ht="19.95" customHeight="1">
       <c r="A433" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B433" s="19" t="s">
         <v>848</v>
@@ -27356,7 +27722,7 @@
     </row>
     <row r="434" spans="1:3" ht="19.95" customHeight="1">
       <c r="A434" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B434" s="19" t="s">
         <v>849</v>
@@ -27367,7 +27733,7 @@
     </row>
     <row r="435" spans="1:3" ht="19.95" customHeight="1">
       <c r="A435" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B435" s="19" t="s">
         <v>850</v>
@@ -27378,7 +27744,7 @@
     </row>
     <row r="436" spans="1:3" ht="19.95" customHeight="1">
       <c r="A436" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B436" s="19" t="s">
         <v>851</v>
@@ -27389,7 +27755,7 @@
     </row>
     <row r="437" spans="1:3" ht="19.95" customHeight="1">
       <c r="A437" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B437" s="19" t="s">
         <v>852</v>
@@ -27400,7 +27766,7 @@
     </row>
     <row r="438" spans="1:3" ht="19.95" customHeight="1">
       <c r="A438" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B438" s="19" t="s">
         <v>278</v>
@@ -27411,7 +27777,7 @@
     </row>
     <row r="439" spans="1:3" ht="19.95" customHeight="1">
       <c r="A439" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B439" s="19" t="s">
         <v>853</v>
@@ -27422,7 +27788,7 @@
     </row>
     <row r="440" spans="1:3" ht="19.95" customHeight="1">
       <c r="A440" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B440" s="19" t="s">
         <v>854</v>
@@ -27433,7 +27799,7 @@
     </row>
     <row r="441" spans="1:3" ht="19.95" customHeight="1">
       <c r="A441" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B441" s="19" t="s">
         <v>855</v>
@@ -27444,7 +27810,7 @@
     </row>
     <row r="442" spans="1:3" ht="19.95" customHeight="1">
       <c r="A442" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B442" s="19" t="s">
         <v>856</v>
@@ -27455,7 +27821,7 @@
     </row>
     <row r="443" spans="1:3" ht="19.95" customHeight="1">
       <c r="A443" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B443" s="19" t="s">
         <v>857</v>
@@ -27466,7 +27832,7 @@
     </row>
     <row r="444" spans="1:3" ht="19.95" customHeight="1">
       <c r="A444" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B444" s="19" t="s">
         <v>37</v>
@@ -27477,7 +27843,7 @@
     </row>
     <row r="445" spans="1:3" ht="19.95" customHeight="1">
       <c r="A445" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B445" s="19" t="s">
         <v>858</v>
@@ -27488,7 +27854,7 @@
     </row>
     <row r="446" spans="1:3" ht="19.95" customHeight="1">
       <c r="A446" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B446" s="19" t="s">
         <v>859</v>
@@ -27499,7 +27865,7 @@
     </row>
     <row r="447" spans="1:3" ht="19.95" customHeight="1">
       <c r="A447" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B447" s="19" t="s">
         <v>860</v>
@@ -27510,7 +27876,7 @@
     </row>
     <row r="448" spans="1:3" ht="19.95" customHeight="1">
       <c r="A448" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B448" s="19" t="s">
         <v>861</v>
@@ -27521,7 +27887,7 @@
     </row>
     <row r="449" spans="1:3" ht="19.95" customHeight="1">
       <c r="A449" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B449" s="19" t="s">
         <v>862</v>
@@ -27532,7 +27898,7 @@
     </row>
     <row r="450" spans="1:3" ht="19.95" customHeight="1">
       <c r="A450" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B450" s="19" t="s">
         <v>863</v>
@@ -27543,7 +27909,7 @@
     </row>
     <row r="451" spans="1:3" ht="19.95" customHeight="1">
       <c r="A451" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B451" s="19" t="s">
         <v>864</v>
@@ -27554,7 +27920,7 @@
     </row>
     <row r="452" spans="1:3" ht="19.95" customHeight="1">
       <c r="A452" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B452" s="19" t="s">
         <v>865</v>
@@ -27565,7 +27931,7 @@
     </row>
     <row r="453" spans="1:3" ht="19.95" customHeight="1">
       <c r="A453" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B453" s="19" t="s">
         <v>866</v>
@@ -27576,7 +27942,7 @@
     </row>
     <row r="454" spans="1:3" ht="19.95" customHeight="1">
       <c r="A454" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B454" s="19" t="s">
         <v>867</v>
@@ -27587,7 +27953,7 @@
     </row>
     <row r="455" spans="1:3" ht="19.95" customHeight="1">
       <c r="A455" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B455" s="19" t="s">
         <v>868</v>
@@ -27598,7 +27964,7 @@
     </row>
     <row r="456" spans="1:3" ht="19.95" customHeight="1">
       <c r="A456" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B456" s="19" t="s">
         <v>869</v>
@@ -27609,7 +27975,7 @@
     </row>
     <row r="457" spans="1:3" ht="19.95" customHeight="1">
       <c r="A457" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B457" s="19" t="s">
         <v>870</v>
@@ -27620,7 +27986,7 @@
     </row>
     <row r="458" spans="1:3" ht="19.95" customHeight="1">
       <c r="A458" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B458" s="19" t="s">
         <v>871</v>
@@ -27631,7 +27997,7 @@
     </row>
     <row r="459" spans="1:3" ht="19.95" customHeight="1">
       <c r="A459" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B459" s="19" t="s">
         <v>872</v>
@@ -27642,7 +28008,7 @@
     </row>
     <row r="460" spans="1:3" ht="19.95" customHeight="1">
       <c r="A460" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B460" s="19" t="s">
         <v>294</v>
@@ -27653,7 +28019,7 @@
     </row>
     <row r="461" spans="1:3" ht="19.95" customHeight="1">
       <c r="A461" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B461" s="19" t="s">
         <v>293</v>
@@ -27664,7 +28030,7 @@
     </row>
     <row r="462" spans="1:3" ht="19.95" customHeight="1">
       <c r="A462" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B462" s="19" t="s">
         <v>873</v>
@@ -27675,7 +28041,7 @@
     </row>
     <row r="463" spans="1:3" ht="19.95" customHeight="1">
       <c r="A463" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B463" s="19" t="s">
         <v>874</v>
@@ -27686,7 +28052,7 @@
     </row>
     <row r="464" spans="1:3" ht="19.95" customHeight="1">
       <c r="A464" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B464" s="19" t="s">
         <v>876</v>
@@ -27697,7 +28063,7 @@
     </row>
     <row r="465" spans="1:3" ht="19.95" customHeight="1">
       <c r="A465" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B465" s="19" t="s">
         <v>877</v>
@@ -27708,7 +28074,7 @@
     </row>
     <row r="466" spans="1:3" ht="19.95" customHeight="1">
       <c r="A466" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B466" s="19" t="s">
         <v>878</v>
@@ -27719,7 +28085,7 @@
     </row>
     <row r="467" spans="1:3" ht="19.95" customHeight="1">
       <c r="A467" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B467" s="19" t="s">
         <v>880</v>
@@ -27730,7 +28096,7 @@
     </row>
     <row r="468" spans="1:3" ht="19.95" customHeight="1">
       <c r="A468" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B468" s="19" t="s">
         <v>881</v>
@@ -27741,7 +28107,7 @@
     </row>
     <row r="469" spans="1:3" ht="19.95" customHeight="1">
       <c r="A469" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B469" s="19" t="s">
         <v>882</v>
@@ -27752,7 +28118,7 @@
     </row>
     <row r="470" spans="1:3" ht="19.95" customHeight="1">
       <c r="A470" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B470" s="19" t="s">
         <v>883</v>
@@ -27763,7 +28129,7 @@
     </row>
     <row r="471" spans="1:3" ht="19.95" customHeight="1">
       <c r="A471" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B471" s="19" t="s">
         <v>884</v>
@@ -27774,7 +28140,7 @@
     </row>
     <row r="472" spans="1:3" ht="19.95" customHeight="1">
       <c r="A472" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B472" s="19" t="s">
         <v>885</v>
@@ -27785,7 +28151,7 @@
     </row>
     <row r="473" spans="1:3" ht="19.95" customHeight="1">
       <c r="A473" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B473" s="19" t="s">
         <v>886</v>
@@ -27796,7 +28162,7 @@
     </row>
     <row r="474" spans="1:3" ht="19.95" customHeight="1">
       <c r="A474" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B474" s="19" t="s">
         <v>887</v>
@@ -27807,7 +28173,7 @@
     </row>
     <row r="475" spans="1:3" ht="19.95" customHeight="1">
       <c r="A475" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B475" s="19" t="s">
         <v>888</v>
@@ -27818,7 +28184,7 @@
     </row>
     <row r="476" spans="1:3" ht="19.95" customHeight="1">
       <c r="A476" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B476" s="19" t="s">
         <v>889</v>
@@ -27829,7 +28195,7 @@
     </row>
     <row r="477" spans="1:3" ht="19.95" customHeight="1">
       <c r="A477" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B477" s="19" t="s">
         <v>388</v>
@@ -27840,7 +28206,7 @@
     </row>
     <row r="478" spans="1:3" ht="19.95" customHeight="1">
       <c r="A478" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B478" s="19" t="s">
         <v>394</v>
@@ -27851,7 +28217,7 @@
     </row>
     <row r="479" spans="1:3" ht="19.95" customHeight="1">
       <c r="A479" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B479" s="19" t="s">
         <v>890</v>
@@ -27862,7 +28228,7 @@
     </row>
     <row r="480" spans="1:3" ht="19.95" customHeight="1">
       <c r="A480" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B480" s="19" t="s">
         <v>891</v>
@@ -27873,7 +28239,7 @@
     </row>
     <row r="481" spans="1:3" ht="19.95" customHeight="1">
       <c r="A481" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B481" s="19" t="s">
         <v>891</v>
@@ -27884,7 +28250,7 @@
     </row>
     <row r="482" spans="1:3" ht="19.95" customHeight="1">
       <c r="A482" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B482" s="19" t="s">
         <v>392</v>
@@ -27895,7 +28261,7 @@
     </row>
     <row r="483" spans="1:3" ht="19.95" customHeight="1">
       <c r="A483" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B483" s="19" t="s">
         <v>892</v>
@@ -27906,7 +28272,7 @@
     </row>
     <row r="484" spans="1:3" ht="19.95" customHeight="1">
       <c r="A484" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B484" s="19" t="s">
         <v>893</v>
@@ -27917,7 +28283,7 @@
     </row>
     <row r="485" spans="1:3" ht="19.95" customHeight="1">
       <c r="A485" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B485" s="19" t="s">
         <v>894</v>
@@ -27928,7 +28294,7 @@
     </row>
     <row r="486" spans="1:3" ht="19.95" customHeight="1">
       <c r="A486" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B486" s="19" t="s">
         <v>718</v>
@@ -27939,7 +28305,7 @@
     </row>
     <row r="487" spans="1:3" ht="19.95" customHeight="1">
       <c r="A487" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B487" s="19" t="s">
         <v>895</v>
@@ -27950,7 +28316,7 @@
     </row>
     <row r="488" spans="1:3" ht="19.95" customHeight="1">
       <c r="A488" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B488" s="19" t="s">
         <v>896</v>
@@ -27961,7 +28327,7 @@
     </row>
     <row r="489" spans="1:3" ht="19.95" customHeight="1">
       <c r="A489" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B489" s="19" t="s">
         <v>389</v>
@@ -27972,7 +28338,7 @@
     </row>
     <row r="490" spans="1:3" ht="19.95" customHeight="1">
       <c r="A490" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B490" s="19" t="s">
         <v>897</v>
@@ -27983,7 +28349,7 @@
     </row>
     <row r="491" spans="1:3" ht="19.95" customHeight="1">
       <c r="A491" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B491" s="19" t="s">
         <v>898</v>
@@ -27994,7 +28360,7 @@
     </row>
     <row r="492" spans="1:3" ht="19.95" customHeight="1">
       <c r="A492" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B492" s="19" t="s">
         <v>900</v>
@@ -28005,7 +28371,7 @@
     </row>
     <row r="493" spans="1:3" ht="19.95" customHeight="1">
       <c r="A493" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B493" s="19" t="s">
         <v>901</v>
@@ -28016,7 +28382,7 @@
     </row>
     <row r="494" spans="1:3" ht="19.95" customHeight="1">
       <c r="A494" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B494" s="19" t="s">
         <v>902</v>
@@ -28027,7 +28393,7 @@
     </row>
     <row r="495" spans="1:3" ht="19.95" customHeight="1">
       <c r="A495" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B495" s="19" t="s">
         <v>903</v>
@@ -28038,7 +28404,7 @@
     </row>
     <row r="496" spans="1:3" ht="19.95" customHeight="1">
       <c r="A496" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B496" s="19" t="s">
         <v>904</v>
@@ -28049,7 +28415,7 @@
     </row>
     <row r="497" spans="1:3" ht="19.95" customHeight="1">
       <c r="A497" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B497" s="19" t="s">
         <v>905</v>
@@ -28060,7 +28426,7 @@
     </row>
     <row r="498" spans="1:3" ht="19.95" customHeight="1">
       <c r="A498" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B498" s="19" t="s">
         <v>207</v>
@@ -28071,7 +28437,7 @@
     </row>
     <row r="499" spans="1:3" ht="19.95" customHeight="1">
       <c r="A499" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B499" s="19" t="s">
         <v>906</v>
@@ -28082,7 +28448,7 @@
     </row>
     <row r="500" spans="1:3" ht="19.95" customHeight="1">
       <c r="A500" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B500" s="19" t="s">
         <v>907</v>
@@ -28093,7 +28459,7 @@
     </row>
     <row r="501" spans="1:3" ht="19.95" customHeight="1">
       <c r="A501" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B501" s="19" t="s">
         <v>908</v>
@@ -28104,7 +28470,7 @@
     </row>
     <row r="502" spans="1:3" ht="19.95" customHeight="1">
       <c r="A502" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B502" s="19" t="s">
         <v>909</v>
@@ -28115,7 +28481,7 @@
     </row>
     <row r="503" spans="1:3" ht="19.95" customHeight="1">
       <c r="A503" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B503" s="19" t="s">
         <v>910</v>
@@ -28126,7 +28492,7 @@
     </row>
     <row r="504" spans="1:3" ht="19.95" customHeight="1">
       <c r="A504" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B504" s="19" t="s">
         <v>202</v>
@@ -28137,7 +28503,7 @@
     </row>
     <row r="505" spans="1:3" ht="19.95" customHeight="1">
       <c r="A505" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B505" s="19" t="s">
         <v>911</v>
@@ -28148,7 +28514,7 @@
     </row>
     <row r="506" spans="1:3" ht="19.95" customHeight="1">
       <c r="A506" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B506" s="19" t="s">
         <v>912</v>
@@ -28159,7 +28525,7 @@
     </row>
     <row r="507" spans="1:3" ht="19.95" customHeight="1">
       <c r="A507" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B507" s="19" t="s">
         <v>913</v>
@@ -28170,7 +28536,7 @@
     </row>
     <row r="508" spans="1:3" ht="19.95" customHeight="1">
       <c r="A508" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B508" s="19" t="s">
         <v>914</v>
@@ -28181,7 +28547,7 @@
     </row>
     <row r="509" spans="1:3" ht="19.95" customHeight="1">
       <c r="A509" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B509" s="19" t="s">
         <v>915</v>
@@ -28192,7 +28558,7 @@
     </row>
     <row r="510" spans="1:3" ht="19.95" customHeight="1">
       <c r="A510" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B510" s="19" t="s">
         <v>205</v>
@@ -28203,7 +28569,7 @@
     </row>
     <row r="511" spans="1:3" ht="19.95" customHeight="1">
       <c r="A511" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B511" s="19" t="s">
         <v>395</v>
@@ -28214,7 +28580,7 @@
     </row>
     <row r="512" spans="1:3" ht="19.95" customHeight="1">
       <c r="A512" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B512" s="19" t="s">
         <v>916</v>
@@ -28225,7 +28591,7 @@
     </row>
     <row r="513" spans="1:3" ht="19.95" customHeight="1">
       <c r="A513" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B513" s="19" t="s">
         <v>744</v>
@@ -28236,7 +28602,7 @@
     </row>
     <row r="514" spans="1:3" ht="19.95" customHeight="1">
       <c r="A514" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B514" s="19" t="s">
         <v>918</v>
@@ -28247,7 +28613,7 @@
     </row>
     <row r="515" spans="1:3" ht="19.95" customHeight="1">
       <c r="A515" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B515" s="19" t="s">
         <v>919</v>
@@ -28258,7 +28624,7 @@
     </row>
     <row r="516" spans="1:3" ht="19.95" customHeight="1">
       <c r="A516" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B516" s="19" t="s">
         <v>920</v>
@@ -28269,7 +28635,7 @@
     </row>
     <row r="517" spans="1:3" ht="19.95" customHeight="1">
       <c r="A517" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B517" s="19" t="s">
         <v>921</v>
@@ -28280,7 +28646,7 @@
     </row>
     <row r="518" spans="1:3" ht="19.95" customHeight="1">
       <c r="A518" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B518" s="19" t="s">
         <v>923</v>
@@ -28291,7 +28657,7 @@
     </row>
     <row r="519" spans="1:3" ht="19.95" customHeight="1">
       <c r="A519" s="145" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B519" s="19" t="s">
         <v>380</v>
@@ -28302,7 +28668,7 @@
     </row>
     <row r="520" spans="1:3" ht="19.95" customHeight="1">
       <c r="A520" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B520" s="9" t="s">
         <v>924</v>
@@ -28313,7 +28679,7 @@
     </row>
     <row r="521" spans="1:3" ht="19.95" customHeight="1">
       <c r="A521" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B521" s="9" t="s">
         <v>925</v>
@@ -28324,7 +28690,7 @@
     </row>
     <row r="522" spans="1:3" ht="19.95" customHeight="1">
       <c r="A522" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B522" s="9" t="s">
         <v>926</v>
@@ -28335,7 +28701,7 @@
     </row>
     <row r="523" spans="1:3" ht="19.95" customHeight="1">
       <c r="A523" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B523" s="9" t="s">
         <v>927</v>
@@ -28346,7 +28712,7 @@
     </row>
     <row r="524" spans="1:3" ht="19.95" customHeight="1">
       <c r="A524" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B524" s="13" t="s">
         <v>928</v>
@@ -28357,7 +28723,7 @@
     </row>
     <row r="525" spans="1:3" ht="19.95" customHeight="1">
       <c r="A525" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B525" s="13" t="s">
         <v>929</v>
@@ -28368,7 +28734,7 @@
     </row>
     <row r="526" spans="1:3" ht="19.95" customHeight="1">
       <c r="A526" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B526" s="9" t="s">
         <v>930</v>
@@ -28379,7 +28745,7 @@
     </row>
     <row r="527" spans="1:3" ht="19.95" customHeight="1">
       <c r="A527" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B527" s="9" t="s">
         <v>931</v>
@@ -28390,7 +28756,7 @@
     </row>
     <row r="528" spans="1:3" ht="19.95" customHeight="1">
       <c r="A528" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B528" s="11" t="s">
         <v>514</v>
@@ -28401,7 +28767,7 @@
     </row>
     <row r="529" spans="1:3" ht="19.95" customHeight="1">
       <c r="A529" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B529" s="11" t="s">
         <v>515</v>
@@ -28412,7 +28778,7 @@
     </row>
     <row r="530" spans="1:3" ht="19.95" customHeight="1">
       <c r="A530" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B530" s="9" t="s">
         <v>526</v>
@@ -28423,7 +28789,7 @@
     </row>
     <row r="531" spans="1:3" ht="19.95" customHeight="1">
       <c r="A531" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B531" s="9" t="s">
         <v>516</v>
@@ -28434,7 +28800,7 @@
     </row>
     <row r="532" spans="1:3" ht="19.95" customHeight="1">
       <c r="A532" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B532" s="9" t="s">
         <v>517</v>
@@ -28445,7 +28811,7 @@
     </row>
     <row r="533" spans="1:3" ht="19.95" customHeight="1">
       <c r="A533" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B533" s="9" t="s">
         <v>518</v>
@@ -28456,7 +28822,7 @@
     </row>
     <row r="534" spans="1:3" ht="19.95" customHeight="1">
       <c r="A534" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B534" s="9" t="s">
         <v>243</v>
@@ -28467,7 +28833,7 @@
     </row>
     <row r="535" spans="1:3" ht="19.95" customHeight="1">
       <c r="A535" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B535" s="9" t="s">
         <v>932</v>
@@ -28478,7 +28844,7 @@
     </row>
     <row r="536" spans="1:3" ht="19.95" customHeight="1">
       <c r="A536" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B536" s="9" t="s">
         <v>933</v>
@@ -28489,7 +28855,7 @@
     </row>
     <row r="537" spans="1:3" ht="19.95" customHeight="1">
       <c r="A537" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B537" s="9" t="s">
         <v>934</v>
@@ -28500,7 +28866,7 @@
     </row>
     <row r="538" spans="1:3" ht="19.95" customHeight="1">
       <c r="A538" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B538" s="9" t="s">
         <v>935</v>
@@ -28511,7 +28877,7 @@
     </row>
     <row r="539" spans="1:3" ht="19.95" customHeight="1">
       <c r="A539" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B539" s="9" t="s">
         <v>936</v>
@@ -28522,7 +28888,7 @@
     </row>
     <row r="540" spans="1:3" ht="19.95" customHeight="1">
       <c r="A540" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B540" s="9" t="s">
         <v>937</v>
@@ -28533,7 +28899,7 @@
     </row>
     <row r="541" spans="1:3" ht="19.95" customHeight="1">
       <c r="A541" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B541" s="9" t="s">
         <v>938</v>
@@ -28544,7 +28910,7 @@
     </row>
     <row r="542" spans="1:3" ht="19.95" customHeight="1">
       <c r="A542" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B542" s="9" t="s">
         <v>939</v>
@@ -28555,7 +28921,7 @@
     </row>
     <row r="543" spans="1:3" ht="19.95" customHeight="1">
       <c r="A543" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B543" s="9" t="s">
         <v>940</v>
@@ -28566,7 +28932,7 @@
     </row>
     <row r="544" spans="1:3" ht="19.95" customHeight="1">
       <c r="A544" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B544" s="9" t="s">
         <v>941</v>
@@ -28577,7 +28943,7 @@
     </row>
     <row r="545" spans="1:3" ht="19.95" customHeight="1">
       <c r="A545" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B545" s="9" t="s">
         <v>942</v>
@@ -28588,7 +28954,7 @@
     </row>
     <row r="546" spans="1:3" ht="19.95" customHeight="1">
       <c r="A546" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B546" s="9" t="s">
         <v>943</v>
@@ -28599,7 +28965,7 @@
     </row>
     <row r="547" spans="1:3" ht="19.95" customHeight="1">
       <c r="A547" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B547" s="9" t="s">
         <v>944</v>
@@ -28610,7 +28976,7 @@
     </row>
     <row r="548" spans="1:3" ht="19.95" customHeight="1">
       <c r="A548" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B548" s="9" t="s">
         <v>945</v>
@@ -28621,7 +28987,7 @@
     </row>
     <row r="549" spans="1:3" ht="19.95" customHeight="1">
       <c r="A549" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B549" s="9" t="s">
         <v>946</v>
@@ -28632,7 +28998,7 @@
     </row>
     <row r="550" spans="1:3" ht="19.95" customHeight="1">
       <c r="A550" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B550" s="9" t="s">
         <v>947</v>
@@ -28643,7 +29009,7 @@
     </row>
     <row r="551" spans="1:3" ht="19.95" customHeight="1">
       <c r="A551" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B551" s="9" t="s">
         <v>948</v>
@@ -28654,7 +29020,7 @@
     </row>
     <row r="552" spans="1:3" ht="19.95" customHeight="1">
       <c r="A552" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B552" s="19" t="s">
         <v>949</v>
@@ -28665,7 +29031,7 @@
     </row>
     <row r="553" spans="1:3" ht="19.95" customHeight="1">
       <c r="A553" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B553" s="19" t="s">
         <v>950</v>
@@ -28676,7 +29042,7 @@
     </row>
     <row r="554" spans="1:3" ht="19.95" customHeight="1">
       <c r="A554" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B554" s="19" t="s">
         <v>951</v>
@@ -28687,7 +29053,7 @@
     </row>
     <row r="555" spans="1:3" ht="19.95" customHeight="1">
       <c r="A555" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B555" s="19" t="s">
         <v>952</v>
@@ -28698,7 +29064,7 @@
     </row>
     <row r="556" spans="1:3" ht="19.95" customHeight="1">
       <c r="A556" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B556" s="19" t="s">
         <v>953</v>
@@ -28709,7 +29075,7 @@
     </row>
     <row r="557" spans="1:3" ht="19.95" customHeight="1">
       <c r="A557" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B557" s="19" t="s">
         <v>954</v>
@@ -28720,7 +29086,7 @@
     </row>
     <row r="558" spans="1:3" ht="19.95" customHeight="1">
       <c r="A558" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B558" s="19" t="s">
         <v>955</v>
@@ -28731,7 +29097,7 @@
     </row>
     <row r="559" spans="1:3" ht="19.95" customHeight="1">
       <c r="A559" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B559" s="19" t="s">
         <v>289</v>
@@ -28742,7 +29108,7 @@
     </row>
     <row r="560" spans="1:3" ht="19.95" customHeight="1">
       <c r="A560" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B560" s="19" t="s">
         <v>956</v>
@@ -28753,7 +29119,7 @@
     </row>
     <row r="561" spans="1:3" ht="19.95" customHeight="1">
       <c r="A561" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B561" s="19" t="s">
         <v>290</v>
@@ -28764,7 +29130,7 @@
     </row>
     <row r="562" spans="1:3" ht="19.95" customHeight="1">
       <c r="A562" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B562" s="19" t="s">
         <v>957</v>
@@ -28775,7 +29141,7 @@
     </row>
     <row r="563" spans="1:3" ht="19.95" customHeight="1">
       <c r="A563" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B563" s="19" t="s">
         <v>958</v>
@@ -28786,7 +29152,7 @@
     </row>
     <row r="564" spans="1:3" ht="19.95" customHeight="1">
       <c r="A564" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B564" s="19" t="s">
         <v>959</v>
@@ -28797,7 +29163,7 @@
     </row>
     <row r="565" spans="1:3" ht="19.95" customHeight="1">
       <c r="A565" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B565" s="19" t="s">
         <v>960</v>
@@ -28808,7 +29174,7 @@
     </row>
     <row r="566" spans="1:3" ht="19.95" customHeight="1">
       <c r="A566" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B566" s="19" t="s">
         <v>961</v>
@@ -28819,7 +29185,7 @@
     </row>
     <row r="567" spans="1:3" ht="19.95" customHeight="1">
       <c r="A567" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B567" s="19" t="s">
         <v>962</v>
@@ -28830,7 +29196,7 @@
     </row>
     <row r="568" spans="1:3" ht="19.95" customHeight="1">
       <c r="A568" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B568" s="19" t="s">
         <v>963</v>
@@ -28841,7 +29207,7 @@
     </row>
     <row r="569" spans="1:3" ht="19.95" customHeight="1">
       <c r="A569" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B569" s="19" t="s">
         <v>964</v>
@@ -28852,7 +29218,7 @@
     </row>
     <row r="570" spans="1:3" ht="19.95" customHeight="1">
       <c r="A570" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B570" s="19" t="s">
         <v>965</v>
@@ -28863,7 +29229,7 @@
     </row>
     <row r="571" spans="1:3" ht="19.95" customHeight="1">
       <c r="A571" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B571" s="19" t="s">
         <v>966</v>
@@ -28874,7 +29240,7 @@
     </row>
     <row r="572" spans="1:3" ht="19.95" customHeight="1">
       <c r="A572" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B572" s="19" t="s">
         <v>967</v>
@@ -28885,7 +29251,7 @@
     </row>
     <row r="573" spans="1:3" ht="19.95" customHeight="1">
       <c r="A573" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B573" s="13" t="s">
         <v>968</v>
@@ -28896,7 +29262,7 @@
     </row>
     <row r="574" spans="1:3" ht="19.95" customHeight="1">
       <c r="A574" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B574" s="13" t="s">
         <v>969</v>
@@ -28907,7 +29273,7 @@
     </row>
     <row r="575" spans="1:3" ht="19.95" customHeight="1">
       <c r="A575" s="146" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="B575" s="13" t="s">
         <v>970</v>

--- a/upload/dict.xlsx
+++ b/upload/dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingz\Documents\GitHub\jw3\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A290FE7B-8F39-400C-81A3-E82DF278F539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7E9F42-2F6E-4F28-8063-01DC026271C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="858" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6336" yWindow="3060" windowWidth="22524" windowHeight="13848" tabRatio="858" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明（请勿修改此页内容）" sheetId="21" r:id="rId1"/>
@@ -110,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5581" uniqueCount="1201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5603" uniqueCount="1213">
   <si>
     <t>模板名称</t>
   </si>
@@ -3994,10 +3994,6 @@
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
-    <t>HP品牌</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
     <t>V3</t>
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
@@ -4141,6 +4137,58 @@
   </si>
   <si>
     <t>ESXI</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>机柜高度</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>05交维机柜导入</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>47</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>43</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>42</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>37</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>36</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>2200</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>1800</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>惠普</t>
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
 </sst>
@@ -5824,7 +5872,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="166">
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6289,6 +6337,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7400,10 +7454,10 @@
         <v>44940</v>
       </c>
       <c r="B13" s="150" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="C13" s="151" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
   </sheetData>
@@ -21024,10 +21078,10 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
@@ -21143,7 +21197,7 @@
         <v>1127</v>
       </c>
       <c r="B9" s="136" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C9" s="136" t="s">
         <v>223</v>
@@ -21155,7 +21209,7 @@
         <v>1127</v>
       </c>
       <c r="B10" s="136" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C10" s="136" t="s">
         <v>223</v>
@@ -21191,7 +21245,7 @@
         <v>1127</v>
       </c>
       <c r="B13" s="136" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="C13" s="136" t="s">
         <v>223</v>
@@ -21215,7 +21269,7 @@
         <v>1127</v>
       </c>
       <c r="B15" s="136" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C15" s="136" t="s">
         <v>241</v>
@@ -21601,10 +21655,10 @@
         <v>1139</v>
       </c>
       <c r="B47" s="136" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="C47" s="136" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D47" s="41"/>
     </row>
@@ -21613,10 +21667,10 @@
         <v>1139</v>
       </c>
       <c r="B48" s="136" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="C48" s="136" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D48" s="41"/>
     </row>
@@ -21625,10 +21679,10 @@
         <v>1139</v>
       </c>
       <c r="B49" s="136" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C49" s="136" t="s">
         <v>1189</v>
-      </c>
-      <c r="C49" s="136" t="s">
-        <v>1190</v>
       </c>
       <c r="D49" s="41"/>
     </row>
@@ -21637,10 +21691,10 @@
         <v>1139</v>
       </c>
       <c r="B50" s="136" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C50" s="136" t="s">
         <v>1191</v>
-      </c>
-      <c r="C50" s="136" t="s">
-        <v>1192</v>
       </c>
       <c r="D50" s="41"/>
     </row>
@@ -21649,10 +21703,10 @@
         <v>1139</v>
       </c>
       <c r="B51" s="136" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C51" s="136" t="s">
         <v>1178</v>
-      </c>
-      <c r="C51" s="136" t="s">
-        <v>1179</v>
       </c>
       <c r="D51" s="41"/>
     </row>
@@ -21973,7 +22027,7 @@
         <v>1141</v>
       </c>
       <c r="B78" s="138" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="C78" s="138" t="s">
         <v>1165</v>
@@ -21987,48 +22041,48 @@
         <v>1141</v>
       </c>
       <c r="B79" s="40" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C79" s="40" t="s">
         <v>1166</v>
       </c>
-      <c r="C79" s="40" t="s">
-        <v>1167</v>
-      </c>
       <c r="D79" s="40"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="138" t="s">
+      <c r="A80" s="40" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B80" s="40" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C80" s="40" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D80" s="40"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="138" t="s">
         <v>1142</v>
       </c>
-      <c r="B80" s="138" t="s">
+      <c r="B81" s="138" t="s">
         <v>1143</v>
       </c>
-      <c r="C80" s="138" t="s">
+      <c r="C81" s="138" t="s">
         <v>1143</v>
       </c>
-      <c r="D80" s="138" t="s">
+      <c r="D81" s="138" t="s">
         <v>1082</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="40" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B81" s="40" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C81" s="40" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D81" s="40"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="40" t="s">
         <v>1142</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="C82" s="40" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="D82" s="40"/>
     </row>
@@ -22037,10 +22091,10 @@
         <v>1142</v>
       </c>
       <c r="B83" s="40" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="C83" s="40" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="D83" s="40"/>
     </row>
@@ -22049,10 +22103,10 @@
         <v>1142</v>
       </c>
       <c r="B84" s="40" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="C84" s="40" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="D84" s="40"/>
     </row>
@@ -22061,10 +22115,10 @@
         <v>1142</v>
       </c>
       <c r="B85" s="40" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="C85" s="40" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D85" s="40"/>
     </row>
@@ -22073,10 +22127,10 @@
         <v>1142</v>
       </c>
       <c r="B86" s="40" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C86" s="40" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="D86" s="40"/>
     </row>
@@ -22085,10 +22139,10 @@
         <v>1142</v>
       </c>
       <c r="B87" s="40" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="C87" s="40" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="D87" s="40"/>
     </row>
@@ -22097,10 +22151,10 @@
         <v>1142</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C88" s="40" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="D88" s="40"/>
     </row>
@@ -22109,7 +22163,7 @@
         <v>1142</v>
       </c>
       <c r="B89" s="40" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="C89" s="40" t="s">
         <v>1150</v>
@@ -22121,7 +22175,7 @@
         <v>1142</v>
       </c>
       <c r="B90" s="40" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="C90" s="40" t="s">
         <v>1150</v>
@@ -22133,301 +22187,301 @@
         <v>1142</v>
       </c>
       <c r="B91" s="40" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C91" s="40" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D91" s="40"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="40" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B92" s="40" t="s">
         <v>1157</v>
       </c>
-      <c r="C91" s="40" t="s">
+      <c r="C92" s="40" t="s">
         <v>1158</v>
       </c>
-      <c r="D91" s="40"/>
-    </row>
-    <row r="92" spans="1:4" ht="14.4">
-      <c r="A92" s="40" t="s">
-        <v>1168</v>
-      </c>
-      <c r="B92" s="136" t="s">
-        <v>445</v>
-      </c>
-      <c r="C92" s="141" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D92" s="41"/>
+      <c r="D92" s="40"/>
     </row>
     <row r="93" spans="1:4" ht="14.4">
       <c r="A93" s="40" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B93" s="136" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C93" s="141" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D93" s="41"/>
     </row>
     <row r="94" spans="1:4" ht="14.4">
       <c r="A94" s="40" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B94" s="136" t="s">
-        <v>1102</v>
+        <v>447</v>
       </c>
       <c r="C94" s="141" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="D94" s="41"/>
     </row>
     <row r="95" spans="1:4" ht="14.4">
       <c r="A95" s="40" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B95" s="136" t="s">
-        <v>1169</v>
+        <v>1102</v>
       </c>
       <c r="C95" s="141" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="D95" s="41"/>
     </row>
     <row r="96" spans="1:4" ht="14.4">
       <c r="A96" s="40" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="B96" s="136" t="s">
-        <v>445</v>
+        <v>1168</v>
       </c>
       <c r="C96" s="141" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="D96" s="41"/>
     </row>
     <row r="97" spans="1:4" ht="14.4">
       <c r="A97" s="40" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B97" s="136" t="s">
+        <v>445</v>
+      </c>
+      <c r="C97" s="141" t="s">
         <v>1174</v>
-      </c>
-      <c r="B97" s="136" t="s">
-        <v>447</v>
-      </c>
-      <c r="C97" s="141" t="s">
-        <v>1175</v>
       </c>
       <c r="D97" s="41"/>
     </row>
     <row r="98" spans="1:4" ht="14.4">
       <c r="A98" s="40" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B98" s="136" t="s">
+        <v>447</v>
+      </c>
+      <c r="C98" s="141" t="s">
         <v>1174</v>
       </c>
-      <c r="B98" s="136" t="s">
+      <c r="D98" s="41"/>
+    </row>
+    <row r="99" spans="1:4" ht="14.4">
+      <c r="A99" s="40" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B99" s="136" t="s">
         <v>1102</v>
       </c>
-      <c r="C98" s="141" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D98" s="41"/>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="40" t="s">
+      <c r="C99" s="141" t="s">
         <v>1174</v>
       </c>
-      <c r="B99" s="136" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C99" s="41"/>
       <c r="D99" s="41"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="138" t="s">
+      <c r="A100" s="40" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B100" s="136" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C100" s="41"/>
+      <c r="D100" s="41"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="138" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B101" s="139" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C101" s="138"/>
+      <c r="D101" s="138" t="s">
         <v>1185</v>
       </c>
-      <c r="B100" s="139" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C100" s="138"/>
-      <c r="D100" s="138" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="40" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B101" s="136" t="s">
-        <v>447</v>
-      </c>
-      <c r="C101" s="41"/>
-      <c r="D101" s="41"/>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="40" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B102" s="136" t="s">
-        <v>1102</v>
+        <v>447</v>
       </c>
       <c r="C102" s="41"/>
       <c r="D102" s="41"/>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="40" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B103" s="136" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C103" s="41"/>
       <c r="D103" s="41"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="40" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B104" s="136" t="s">
-        <v>244</v>
+        <v>1103</v>
       </c>
       <c r="C104" s="41"/>
       <c r="D104" s="41"/>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="40" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B105" s="136" t="s">
-        <v>1104</v>
+        <v>244</v>
       </c>
       <c r="C105" s="41"/>
       <c r="D105" s="41"/>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="40" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B106" s="136" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C106" s="41"/>
       <c r="D106" s="41"/>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="40" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B107" s="136" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C107" s="41"/>
       <c r="D107" s="41"/>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="40" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B108" s="136" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="C108" s="41"/>
       <c r="D108" s="41"/>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="40" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B109" s="136" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C109" s="41"/>
       <c r="D109" s="41"/>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="40" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B110" s="136" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C110" s="41"/>
       <c r="D110" s="41"/>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="40" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B111" s="136" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C111" s="41"/>
       <c r="D111" s="41"/>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="40" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B112" s="136" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C112" s="41"/>
       <c r="D112" s="41"/>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="40" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B113" s="136" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C113" s="41"/>
       <c r="D113" s="41"/>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="40" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B114" s="136" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C114" s="41"/>
       <c r="D114" s="41"/>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="40" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="B115" s="136" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C115" s="41"/>
       <c r="D115" s="41"/>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="138" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B116" s="139" t="s">
+      <c r="A116" s="40" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B116" s="136" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C116" s="41"/>
+      <c r="D116" s="41"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="138" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B117" s="139" t="s">
         <v>1096</v>
       </c>
-      <c r="C116" s="139" t="s">
+      <c r="C117" s="139" t="s">
         <v>1080</v>
       </c>
-      <c r="D116" s="140" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="40" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B117" s="136" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C117" s="136" t="s">
-        <v>1080</v>
-      </c>
-      <c r="D117" s="137"/>
+      <c r="D117" s="140" t="s">
+        <v>1186</v>
+      </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="40" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B118" s="136" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C118" s="136" t="s">
         <v>1080</v>
@@ -22436,10 +22490,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="40" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B119" s="136" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="C119" s="136" t="s">
         <v>1080</v>
@@ -22448,106 +22502,106 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="40" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B120" s="136" t="s">
-        <v>1138</v>
+        <v>1099</v>
       </c>
       <c r="C120" s="136" t="s">
-        <v>223</v>
+        <v>1080</v>
       </c>
       <c r="D120" s="137"/>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="40" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B121" s="136" t="s">
-        <v>1193</v>
+        <v>1138</v>
       </c>
       <c r="C121" s="136" t="s">
-        <v>1194</v>
+        <v>223</v>
       </c>
       <c r="D121" s="137"/>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="40" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B122" s="136" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="C122" s="136" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D122" s="137"/>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="40" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B123" s="136" t="s">
-        <v>1182</v>
+        <v>1194</v>
       </c>
       <c r="C123" s="136" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D123" s="137"/>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="40" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B124" s="136" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="C124" s="136" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D124" s="137"/>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="40" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B125" s="136" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="C125" s="136" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D125" s="137"/>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="40" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B126" s="136" t="s">
-        <v>1178</v>
+        <v>1188</v>
       </c>
       <c r="C126" s="136" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D126" s="137"/>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="40" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B127" s="136" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="C127" s="136" t="s">
-        <v>241</v>
+        <v>1193</v>
       </c>
       <c r="D127" s="137"/>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="40" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B128" s="136" t="s">
-        <v>447</v>
+        <v>1180</v>
       </c>
       <c r="C128" s="136" t="s">
         <v>241</v>
@@ -22556,10 +22610,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="40" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B129" s="136" t="s">
-        <v>1102</v>
+        <v>447</v>
       </c>
       <c r="C129" s="136" t="s">
         <v>241</v>
@@ -22568,34 +22622,34 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="40" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B130" s="136" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="C130" s="136" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D130" s="137"/>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="40" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B131" s="136" t="s">
-        <v>244</v>
+        <v>1103</v>
       </c>
       <c r="C131" s="136" t="s">
-        <v>480</v>
+        <v>252</v>
       </c>
       <c r="D131" s="137"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="40" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B132" s="136" t="s">
-        <v>1104</v>
+        <v>244</v>
       </c>
       <c r="C132" s="136" t="s">
         <v>480</v>
@@ -22604,10 +22658,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="40" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B133" s="136" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="C133" s="136" t="s">
         <v>480</v>
@@ -22616,10 +22670,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="40" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B134" s="136" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="C134" s="136" t="s">
         <v>480</v>
@@ -22628,22 +22682,22 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="40" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B135" s="136" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="C135" s="136" t="s">
-        <v>1120</v>
+        <v>480</v>
       </c>
       <c r="D135" s="137"/>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="40" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B136" s="136" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C136" s="136" t="s">
         <v>1120</v>
@@ -22652,10 +22706,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="40" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B137" s="136" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C137" s="136" t="s">
         <v>1120</v>
@@ -22664,10 +22718,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="40" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B138" s="136" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="C138" s="136" t="s">
         <v>1120</v>
@@ -22676,10 +22730,10 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="40" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B139" s="136" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="C139" s="136" t="s">
         <v>1120</v>
@@ -22688,10 +22742,10 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="40" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B140" s="136" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="C140" s="136" t="s">
         <v>1120</v>
@@ -22700,10 +22754,10 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="40" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B141" s="136" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="C141" s="136" t="s">
         <v>1120</v>
@@ -22712,10 +22766,10 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="40" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="B142" s="136" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="C142" s="136" t="s">
         <v>1120</v>
@@ -22723,26 +22777,112 @@
       <c r="D142" s="137"/>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="138" t="s">
+      <c r="A143" s="40" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B143" s="136" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C143" s="136" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D143" s="137"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="138" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B144" s="139" t="s">
         <v>1198</v>
       </c>
-      <c r="B143" s="138" t="s">
+      <c r="C144" s="138"/>
+      <c r="D144" s="138" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="152" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B145" s="136" t="s">
         <v>1199</v>
       </c>
-      <c r="C143" s="138"/>
-      <c r="D143" s="138" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="152" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B144" s="152" t="s">
+      <c r="C145" s="152"/>
+      <c r="D145" s="152"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="164" t="s">
         <v>1200</v>
       </c>
-      <c r="C144" s="152"/>
-      <c r="D144" s="152"/>
+      <c r="B146" s="165" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C146" s="165" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D146" s="138" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="164" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B147" s="165" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C147" s="165" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D147" s="41"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="164" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B148" s="165" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C148" s="165" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D148" s="41"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="164" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B149" s="165" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C149" s="165" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D149" s="41"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="164" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B150" s="165" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C150" s="165" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D150" s="41"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="164" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B151" s="165" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C151" s="165" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D151" s="41"/>
     </row>
   </sheetData>
   <phoneticPr fontId="51" type="noConversion"/>
@@ -23006,7 +23146,7 @@
         <v>155</v>
       </c>
       <c r="C1" s="126" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19.95" customHeight="1">
@@ -26586,7 +26726,7 @@
     </row>
     <row r="327" spans="1:3" ht="19.95" customHeight="1">
       <c r="A327" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B327" s="9" t="s">
         <v>34</v>
@@ -26597,7 +26737,7 @@
     </row>
     <row r="328" spans="1:3" ht="19.95" customHeight="1">
       <c r="A328" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B328" s="19" t="s">
         <v>759</v>
@@ -26608,7 +26748,7 @@
     </row>
     <row r="329" spans="1:3" ht="19.95" customHeight="1">
       <c r="A329" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B329" s="19" t="s">
         <v>761</v>
@@ -26619,7 +26759,7 @@
     </row>
     <row r="330" spans="1:3" ht="19.95" customHeight="1">
       <c r="A330" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B330" s="19" t="s">
         <v>763</v>
@@ -26630,7 +26770,7 @@
     </row>
     <row r="331" spans="1:3" ht="19.95" customHeight="1">
       <c r="A331" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B331" s="19" t="s">
         <v>765</v>
@@ -26641,7 +26781,7 @@
     </row>
     <row r="332" spans="1:3" ht="19.95" customHeight="1">
       <c r="A332" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B332" s="19" t="s">
         <v>767</v>
@@ -26652,7 +26792,7 @@
     </row>
     <row r="333" spans="1:3" ht="19.95" customHeight="1">
       <c r="A333" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B333" s="19" t="s">
         <v>603</v>
@@ -26663,7 +26803,7 @@
     </row>
     <row r="334" spans="1:3" ht="19.95" customHeight="1">
       <c r="A334" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B334" s="19" t="s">
         <v>338</v>
@@ -26674,7 +26814,7 @@
     </row>
     <row r="335" spans="1:3" ht="19.95" customHeight="1">
       <c r="A335" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B335" s="19" t="s">
         <v>768</v>
@@ -26685,7 +26825,7 @@
     </row>
     <row r="336" spans="1:3" ht="19.95" customHeight="1">
       <c r="A336" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B336" s="19" t="s">
         <v>336</v>
@@ -26696,7 +26836,7 @@
     </row>
     <row r="337" spans="1:3" ht="19.95" customHeight="1">
       <c r="A337" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B337" s="19" t="s">
         <v>769</v>
@@ -26707,7 +26847,7 @@
     </row>
     <row r="338" spans="1:3" ht="19.95" customHeight="1">
       <c r="A338" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B338" s="19" t="s">
         <v>770</v>
@@ -26718,7 +26858,7 @@
     </row>
     <row r="339" spans="1:3" ht="19.95" customHeight="1">
       <c r="A339" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B339" s="19" t="s">
         <v>332</v>
@@ -26729,7 +26869,7 @@
     </row>
     <row r="340" spans="1:3" ht="19.95" customHeight="1">
       <c r="A340" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B340" s="19" t="s">
         <v>771</v>
@@ -26740,7 +26880,7 @@
     </row>
     <row r="341" spans="1:3" ht="19.95" customHeight="1">
       <c r="A341" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B341" s="19" t="s">
         <v>772</v>
@@ -26751,7 +26891,7 @@
     </row>
     <row r="342" spans="1:3" ht="19.95" customHeight="1">
       <c r="A342" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B342" s="19" t="s">
         <v>774</v>
@@ -26762,7 +26902,7 @@
     </row>
     <row r="343" spans="1:3" ht="19.95" customHeight="1">
       <c r="A343" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B343" s="19" t="s">
         <v>744</v>
@@ -26773,7 +26913,7 @@
     </row>
     <row r="344" spans="1:3" ht="19.95" customHeight="1">
       <c r="A344" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B344" s="19" t="s">
         <v>775</v>
@@ -26784,7 +26924,7 @@
     </row>
     <row r="345" spans="1:3" ht="19.95" customHeight="1">
       <c r="A345" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B345" s="19" t="s">
         <v>776</v>
@@ -26795,7 +26935,7 @@
     </row>
     <row r="346" spans="1:3" ht="19.95" customHeight="1">
       <c r="A346" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B346" s="19" t="s">
         <v>777</v>
@@ -26806,7 +26946,7 @@
     </row>
     <row r="347" spans="1:3" ht="19.95" customHeight="1">
       <c r="A347" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B347" s="19" t="s">
         <v>778</v>
@@ -26817,7 +26957,7 @@
     </row>
     <row r="348" spans="1:3" ht="19.95" customHeight="1">
       <c r="A348" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B348" s="19" t="s">
         <v>779</v>
@@ -26828,7 +26968,7 @@
     </row>
     <row r="349" spans="1:3" ht="19.95" customHeight="1">
       <c r="A349" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B349" s="19" t="s">
         <v>780</v>
@@ -26839,7 +26979,7 @@
     </row>
     <row r="350" spans="1:3" ht="19.95" customHeight="1">
       <c r="A350" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B350" s="19" t="s">
         <v>641</v>
@@ -26850,7 +26990,7 @@
     </row>
     <row r="351" spans="1:3" ht="19.95" customHeight="1">
       <c r="A351" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B351" s="19" t="s">
         <v>781</v>
@@ -26861,7 +27001,7 @@
     </row>
     <row r="352" spans="1:3" ht="19.95" customHeight="1">
       <c r="A352" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B352" s="19" t="s">
         <v>782</v>
@@ -26872,7 +27012,7 @@
     </row>
     <row r="353" spans="1:3" ht="19.95" customHeight="1">
       <c r="A353" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B353" s="19" t="s">
         <v>783</v>
@@ -26883,7 +27023,7 @@
     </row>
     <row r="354" spans="1:3" ht="19.95" customHeight="1">
       <c r="A354" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B354" s="19" t="s">
         <v>784</v>
@@ -26894,7 +27034,7 @@
     </row>
     <row r="355" spans="1:3" ht="19.95" customHeight="1">
       <c r="A355" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B355" s="19" t="s">
         <v>785</v>
@@ -26905,7 +27045,7 @@
     </row>
     <row r="356" spans="1:3" ht="19.95" customHeight="1">
       <c r="A356" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B356" s="19" t="s">
         <v>212</v>
@@ -26916,7 +27056,7 @@
     </row>
     <row r="357" spans="1:3" ht="19.95" customHeight="1">
       <c r="A357" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B357" s="19" t="s">
         <v>786</v>
@@ -26927,7 +27067,7 @@
     </row>
     <row r="358" spans="1:3" ht="19.95" customHeight="1">
       <c r="A358" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B358" s="19" t="s">
         <v>787</v>
@@ -26938,7 +27078,7 @@
     </row>
     <row r="359" spans="1:3" ht="19.95" customHeight="1">
       <c r="A359" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B359" s="19" t="s">
         <v>788</v>
@@ -26949,7 +27089,7 @@
     </row>
     <row r="360" spans="1:3" ht="19.95" customHeight="1">
       <c r="A360" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B360" s="19" t="s">
         <v>789</v>
@@ -26960,7 +27100,7 @@
     </row>
     <row r="361" spans="1:3" ht="19.95" customHeight="1">
       <c r="A361" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B361" s="19" t="s">
         <v>790</v>
@@ -26971,7 +27111,7 @@
     </row>
     <row r="362" spans="1:3" ht="19.95" customHeight="1">
       <c r="A362" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B362" s="19" t="s">
         <v>791</v>
@@ -26982,7 +27122,7 @@
     </row>
     <row r="363" spans="1:3" ht="19.95" customHeight="1">
       <c r="A363" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B363" s="19" t="s">
         <v>792</v>
@@ -26993,7 +27133,7 @@
     </row>
     <row r="364" spans="1:3" ht="19.95" customHeight="1">
       <c r="A364" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B364" s="19" t="s">
         <v>793</v>
@@ -27004,7 +27144,7 @@
     </row>
     <row r="365" spans="1:3" ht="19.95" customHeight="1">
       <c r="A365" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B365" s="19" t="s">
         <v>794</v>
@@ -27015,7 +27155,7 @@
     </row>
     <row r="366" spans="1:3" ht="19.95" customHeight="1">
       <c r="A366" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B366" s="19" t="s">
         <v>795</v>
@@ -27026,7 +27166,7 @@
     </row>
     <row r="367" spans="1:3" ht="19.95" customHeight="1">
       <c r="A367" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B367" s="19" t="s">
         <v>796</v>
@@ -27037,7 +27177,7 @@
     </row>
     <row r="368" spans="1:3" ht="19.95" customHeight="1">
       <c r="A368" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B368" s="19" t="s">
         <v>346</v>
@@ -27048,7 +27188,7 @@
     </row>
     <row r="369" spans="1:3" ht="19.95" customHeight="1">
       <c r="A369" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B369" s="19" t="s">
         <v>797</v>
@@ -27059,7 +27199,7 @@
     </row>
     <row r="370" spans="1:3" ht="19.95" customHeight="1">
       <c r="A370" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B370" s="19" t="s">
         <v>798</v>
@@ -27070,7 +27210,7 @@
     </row>
     <row r="371" spans="1:3" ht="19.95" customHeight="1">
       <c r="A371" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B371" s="19" t="s">
         <v>799</v>
@@ -27081,7 +27221,7 @@
     </row>
     <row r="372" spans="1:3" ht="19.95" customHeight="1">
       <c r="A372" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B372" s="19" t="s">
         <v>235</v>
@@ -27092,7 +27232,7 @@
     </row>
     <row r="373" spans="1:3" ht="19.95" customHeight="1">
       <c r="A373" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B373" s="19" t="s">
         <v>800</v>
@@ -27103,7 +27243,7 @@
     </row>
     <row r="374" spans="1:3" ht="19.95" customHeight="1">
       <c r="A374" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B374" s="19" t="s">
         <v>801</v>
@@ -27114,7 +27254,7 @@
     </row>
     <row r="375" spans="1:3" ht="19.95" customHeight="1">
       <c r="A375" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B375" s="19" t="s">
         <v>360</v>
@@ -27125,7 +27265,7 @@
     </row>
     <row r="376" spans="1:3" ht="19.95" customHeight="1">
       <c r="A376" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B376" s="19" t="s">
         <v>802</v>
@@ -27136,7 +27276,7 @@
     </row>
     <row r="377" spans="1:3" ht="19.95" customHeight="1">
       <c r="A377" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B377" s="19" t="s">
         <v>803</v>
@@ -27147,7 +27287,7 @@
     </row>
     <row r="378" spans="1:3" ht="19.95" customHeight="1">
       <c r="A378" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B378" s="19" t="s">
         <v>804</v>
@@ -27158,7 +27298,7 @@
     </row>
     <row r="379" spans="1:3" ht="19.95" customHeight="1">
       <c r="A379" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B379" s="19" t="s">
         <v>355</v>
@@ -27169,7 +27309,7 @@
     </row>
     <row r="380" spans="1:3" ht="19.95" customHeight="1">
       <c r="A380" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B380" s="19" t="s">
         <v>358</v>
@@ -27180,7 +27320,7 @@
     </row>
     <row r="381" spans="1:3" ht="19.95" customHeight="1">
       <c r="A381" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B381" s="19" t="s">
         <v>805</v>
@@ -27191,7 +27331,7 @@
     </row>
     <row r="382" spans="1:3" ht="19.95" customHeight="1">
       <c r="A382" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B382" s="19" t="s">
         <v>807</v>
@@ -27202,7 +27342,7 @@
     </row>
     <row r="383" spans="1:3" ht="19.95" customHeight="1">
       <c r="A383" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B383" s="19" t="s">
         <v>603</v>
@@ -27213,7 +27353,7 @@
     </row>
     <row r="384" spans="1:3" ht="19.95" customHeight="1">
       <c r="A384" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B384" s="19" t="s">
         <v>338</v>
@@ -27224,7 +27364,7 @@
     </row>
     <row r="385" spans="1:3" ht="19.95" customHeight="1">
       <c r="A385" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B385" s="19" t="s">
         <v>768</v>
@@ -27235,7 +27375,7 @@
     </row>
     <row r="386" spans="1:3" ht="19.95" customHeight="1">
       <c r="A386" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B386" s="19" t="s">
         <v>336</v>
@@ -27246,7 +27386,7 @@
     </row>
     <row r="387" spans="1:3" ht="19.95" customHeight="1">
       <c r="A387" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B387" s="19" t="s">
         <v>769</v>
@@ -27257,7 +27397,7 @@
     </row>
     <row r="388" spans="1:3" ht="19.95" customHeight="1">
       <c r="A388" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B388" s="19" t="s">
         <v>770</v>
@@ -27268,7 +27408,7 @@
     </row>
     <row r="389" spans="1:3" ht="19.95" customHeight="1">
       <c r="A389" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B389" s="19" t="s">
         <v>332</v>
@@ -27279,7 +27419,7 @@
     </row>
     <row r="390" spans="1:3" ht="19.95" customHeight="1">
       <c r="A390" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B390" s="19" t="s">
         <v>771</v>
@@ -27290,7 +27430,7 @@
     </row>
     <row r="391" spans="1:3" ht="19.95" customHeight="1">
       <c r="A391" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B391" s="19" t="s">
         <v>772</v>
@@ -27301,7 +27441,7 @@
     </row>
     <row r="392" spans="1:3" ht="19.95" customHeight="1">
       <c r="A392" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B392" s="19" t="s">
         <v>809</v>
@@ -27312,7 +27452,7 @@
     </row>
     <row r="393" spans="1:3" ht="19.95" customHeight="1">
       <c r="A393" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B393" s="19" t="s">
         <v>811</v>
@@ -27323,7 +27463,7 @@
     </row>
     <row r="394" spans="1:3" ht="19.95" customHeight="1">
       <c r="A394" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B394" s="19" t="s">
         <v>812</v>
@@ -27334,7 +27474,7 @@
     </row>
     <row r="395" spans="1:3" ht="19.95" customHeight="1">
       <c r="A395" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B395" s="19" t="s">
         <v>528</v>
@@ -27345,7 +27485,7 @@
     </row>
     <row r="396" spans="1:3" ht="19.95" customHeight="1">
       <c r="A396" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B396" s="19" t="s">
         <v>813</v>
@@ -27356,7 +27496,7 @@
     </row>
     <row r="397" spans="1:3" ht="19.95" customHeight="1">
       <c r="A397" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B397" s="19" t="s">
         <v>814</v>
@@ -27367,7 +27507,7 @@
     </row>
     <row r="398" spans="1:3" ht="19.95" customHeight="1">
       <c r="A398" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B398" s="19" t="s">
         <v>815</v>
@@ -27378,7 +27518,7 @@
     </row>
     <row r="399" spans="1:3" ht="19.95" customHeight="1">
       <c r="A399" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B399" s="19" t="s">
         <v>816</v>
@@ -27389,7 +27529,7 @@
     </row>
     <row r="400" spans="1:3" ht="19.95" customHeight="1">
       <c r="A400" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B400" s="19" t="s">
         <v>817</v>
@@ -27400,7 +27540,7 @@
     </row>
     <row r="401" spans="1:3" ht="19.95" customHeight="1">
       <c r="A401" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B401" s="19" t="s">
         <v>818</v>
@@ -27411,7 +27551,7 @@
     </row>
     <row r="402" spans="1:3" ht="19.95" customHeight="1">
       <c r="A402" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B402" s="19" t="s">
         <v>819</v>
@@ -27422,7 +27562,7 @@
     </row>
     <row r="403" spans="1:3" ht="19.95" customHeight="1">
       <c r="A403" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B403" s="19" t="s">
         <v>820</v>
@@ -27433,7 +27573,7 @@
     </row>
     <row r="404" spans="1:3" ht="19.95" customHeight="1">
       <c r="A404" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B404" s="19" t="s">
         <v>280</v>
@@ -27444,7 +27584,7 @@
     </row>
     <row r="405" spans="1:3" ht="19.95" customHeight="1">
       <c r="A405" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B405" s="19" t="s">
         <v>821</v>
@@ -27455,7 +27595,7 @@
     </row>
     <row r="406" spans="1:3" ht="19.95" customHeight="1">
       <c r="A406" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B406" s="19" t="s">
         <v>822</v>
@@ -27466,7 +27606,7 @@
     </row>
     <row r="407" spans="1:3" ht="19.95" customHeight="1">
       <c r="A407" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B407" s="19" t="s">
         <v>823</v>
@@ -27477,7 +27617,7 @@
     </row>
     <row r="408" spans="1:3" ht="19.95" customHeight="1">
       <c r="A408" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B408" s="19" t="s">
         <v>824</v>
@@ -27488,7 +27628,7 @@
     </row>
     <row r="409" spans="1:3" ht="19.95" customHeight="1">
       <c r="A409" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B409" s="19" t="s">
         <v>825</v>
@@ -27499,7 +27639,7 @@
     </row>
     <row r="410" spans="1:3" ht="19.95" customHeight="1">
       <c r="A410" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B410" s="19" t="s">
         <v>826</v>
@@ -27510,7 +27650,7 @@
     </row>
     <row r="411" spans="1:3" ht="19.95" customHeight="1">
       <c r="A411" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B411" s="19" t="s">
         <v>827</v>
@@ -27521,7 +27661,7 @@
     </row>
     <row r="412" spans="1:3" ht="19.95" customHeight="1">
       <c r="A412" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B412" s="19" t="s">
         <v>574</v>
@@ -27532,7 +27672,7 @@
     </row>
     <row r="413" spans="1:3" ht="19.95" customHeight="1">
       <c r="A413" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B413" s="19" t="s">
         <v>828</v>
@@ -27543,7 +27683,7 @@
     </row>
     <row r="414" spans="1:3" ht="19.95" customHeight="1">
       <c r="A414" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B414" s="19" t="s">
         <v>829</v>
@@ -27554,7 +27694,7 @@
     </row>
     <row r="415" spans="1:3" ht="19.95" customHeight="1">
       <c r="A415" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B415" s="19" t="s">
         <v>830</v>
@@ -27565,7 +27705,7 @@
     </row>
     <row r="416" spans="1:3" ht="19.95" customHeight="1">
       <c r="A416" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B416" s="19" t="s">
         <v>831</v>
@@ -27576,7 +27716,7 @@
     </row>
     <row r="417" spans="1:3" ht="19.95" customHeight="1">
       <c r="A417" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B417" s="19" t="s">
         <v>832</v>
@@ -27587,7 +27727,7 @@
     </row>
     <row r="418" spans="1:3" ht="19.95" customHeight="1">
       <c r="A418" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B418" s="19" t="s">
         <v>833</v>
@@ -27598,7 +27738,7 @@
     </row>
     <row r="419" spans="1:3" ht="19.95" customHeight="1">
       <c r="A419" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B419" s="19" t="s">
         <v>834</v>
@@ -27609,7 +27749,7 @@
     </row>
     <row r="420" spans="1:3" ht="19.95" customHeight="1">
       <c r="A420" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B420" s="19" t="s">
         <v>835</v>
@@ -27620,7 +27760,7 @@
     </row>
     <row r="421" spans="1:3" ht="19.95" customHeight="1">
       <c r="A421" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B421" s="19" t="s">
         <v>836</v>
@@ -27631,7 +27771,7 @@
     </row>
     <row r="422" spans="1:3" ht="19.95" customHeight="1">
       <c r="A422" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B422" s="19" t="s">
         <v>837</v>
@@ -27642,7 +27782,7 @@
     </row>
     <row r="423" spans="1:3" ht="19.95" customHeight="1">
       <c r="A423" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B423" s="19" t="s">
         <v>838</v>
@@ -27653,7 +27793,7 @@
     </row>
     <row r="424" spans="1:3" ht="19.95" customHeight="1">
       <c r="A424" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B424" s="19" t="s">
         <v>839</v>
@@ -27664,7 +27804,7 @@
     </row>
     <row r="425" spans="1:3" ht="19.95" customHeight="1">
       <c r="A425" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B425" s="19" t="s">
         <v>840</v>
@@ -27675,7 +27815,7 @@
     </row>
     <row r="426" spans="1:3" ht="19.95" customHeight="1">
       <c r="A426" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B426" s="19" t="s">
         <v>841</v>
@@ -27686,7 +27826,7 @@
     </row>
     <row r="427" spans="1:3" ht="19.95" customHeight="1">
       <c r="A427" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B427" s="19" t="s">
         <v>842</v>
@@ -27697,7 +27837,7 @@
     </row>
     <row r="428" spans="1:3" ht="19.95" customHeight="1">
       <c r="A428" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B428" s="19" t="s">
         <v>843</v>
@@ -27708,7 +27848,7 @@
     </row>
     <row r="429" spans="1:3" ht="19.95" customHeight="1">
       <c r="A429" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B429" s="19" t="s">
         <v>844</v>
@@ -27719,7 +27859,7 @@
     </row>
     <row r="430" spans="1:3" ht="19.95" customHeight="1">
       <c r="A430" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B430" s="19" t="s">
         <v>845</v>
@@ -27730,7 +27870,7 @@
     </row>
     <row r="431" spans="1:3" ht="19.95" customHeight="1">
       <c r="A431" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B431" s="19" t="s">
         <v>846</v>
@@ -27741,7 +27881,7 @@
     </row>
     <row r="432" spans="1:3" ht="19.95" customHeight="1">
       <c r="A432" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B432" s="19" t="s">
         <v>847</v>
@@ -27752,7 +27892,7 @@
     </row>
     <row r="433" spans="1:3" ht="19.95" customHeight="1">
       <c r="A433" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B433" s="19" t="s">
         <v>848</v>
@@ -27763,7 +27903,7 @@
     </row>
     <row r="434" spans="1:3" ht="19.95" customHeight="1">
       <c r="A434" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B434" s="19" t="s">
         <v>849</v>
@@ -27774,7 +27914,7 @@
     </row>
     <row r="435" spans="1:3" ht="19.95" customHeight="1">
       <c r="A435" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B435" s="19" t="s">
         <v>850</v>
@@ -27785,7 +27925,7 @@
     </row>
     <row r="436" spans="1:3" ht="19.95" customHeight="1">
       <c r="A436" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B436" s="19" t="s">
         <v>851</v>
@@ -27796,7 +27936,7 @@
     </row>
     <row r="437" spans="1:3" ht="19.95" customHeight="1">
       <c r="A437" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B437" s="19" t="s">
         <v>852</v>
@@ -27807,7 +27947,7 @@
     </row>
     <row r="438" spans="1:3" ht="19.95" customHeight="1">
       <c r="A438" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B438" s="19" t="s">
         <v>278</v>
@@ -27818,7 +27958,7 @@
     </row>
     <row r="439" spans="1:3" ht="19.95" customHeight="1">
       <c r="A439" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B439" s="19" t="s">
         <v>853</v>
@@ -27829,7 +27969,7 @@
     </row>
     <row r="440" spans="1:3" ht="19.95" customHeight="1">
       <c r="A440" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B440" s="19" t="s">
         <v>854</v>
@@ -27840,7 +27980,7 @@
     </row>
     <row r="441" spans="1:3" ht="19.95" customHeight="1">
       <c r="A441" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B441" s="19" t="s">
         <v>855</v>
@@ -27851,7 +27991,7 @@
     </row>
     <row r="442" spans="1:3" ht="19.95" customHeight="1">
       <c r="A442" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B442" s="19" t="s">
         <v>856</v>
@@ -27862,7 +28002,7 @@
     </row>
     <row r="443" spans="1:3" ht="19.95" customHeight="1">
       <c r="A443" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B443" s="19" t="s">
         <v>857</v>
@@ -27873,7 +28013,7 @@
     </row>
     <row r="444" spans="1:3" ht="19.95" customHeight="1">
       <c r="A444" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B444" s="19" t="s">
         <v>37</v>
@@ -27884,7 +28024,7 @@
     </row>
     <row r="445" spans="1:3" ht="19.95" customHeight="1">
       <c r="A445" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B445" s="19" t="s">
         <v>858</v>
@@ -27895,7 +28035,7 @@
     </row>
     <row r="446" spans="1:3" ht="19.95" customHeight="1">
       <c r="A446" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B446" s="19" t="s">
         <v>859</v>
@@ -27906,7 +28046,7 @@
     </row>
     <row r="447" spans="1:3" ht="19.95" customHeight="1">
       <c r="A447" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B447" s="19" t="s">
         <v>860</v>
@@ -27917,7 +28057,7 @@
     </row>
     <row r="448" spans="1:3" ht="19.95" customHeight="1">
       <c r="A448" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B448" s="19" t="s">
         <v>861</v>
@@ -27928,7 +28068,7 @@
     </row>
     <row r="449" spans="1:3" ht="19.95" customHeight="1">
       <c r="A449" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B449" s="19" t="s">
         <v>862</v>
@@ -27939,7 +28079,7 @@
     </row>
     <row r="450" spans="1:3" ht="19.95" customHeight="1">
       <c r="A450" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B450" s="19" t="s">
         <v>863</v>
@@ -27950,7 +28090,7 @@
     </row>
     <row r="451" spans="1:3" ht="19.95" customHeight="1">
       <c r="A451" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B451" s="19" t="s">
         <v>864</v>
@@ -27961,7 +28101,7 @@
     </row>
     <row r="452" spans="1:3" ht="19.95" customHeight="1">
       <c r="A452" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B452" s="19" t="s">
         <v>865</v>
@@ -27972,7 +28112,7 @@
     </row>
     <row r="453" spans="1:3" ht="19.95" customHeight="1">
       <c r="A453" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B453" s="19" t="s">
         <v>866</v>
@@ -27983,7 +28123,7 @@
     </row>
     <row r="454" spans="1:3" ht="19.95" customHeight="1">
       <c r="A454" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B454" s="19" t="s">
         <v>867</v>
@@ -27994,7 +28134,7 @@
     </row>
     <row r="455" spans="1:3" ht="19.95" customHeight="1">
       <c r="A455" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B455" s="19" t="s">
         <v>868</v>
@@ -28005,7 +28145,7 @@
     </row>
     <row r="456" spans="1:3" ht="19.95" customHeight="1">
       <c r="A456" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B456" s="19" t="s">
         <v>869</v>
@@ -28016,7 +28156,7 @@
     </row>
     <row r="457" spans="1:3" ht="19.95" customHeight="1">
       <c r="A457" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B457" s="19" t="s">
         <v>870</v>
@@ -28027,7 +28167,7 @@
     </row>
     <row r="458" spans="1:3" ht="19.95" customHeight="1">
       <c r="A458" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B458" s="19" t="s">
         <v>871</v>
@@ -28038,7 +28178,7 @@
     </row>
     <row r="459" spans="1:3" ht="19.95" customHeight="1">
       <c r="A459" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B459" s="19" t="s">
         <v>872</v>
@@ -28049,7 +28189,7 @@
     </row>
     <row r="460" spans="1:3" ht="19.95" customHeight="1">
       <c r="A460" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B460" s="19" t="s">
         <v>294</v>
@@ -28060,7 +28200,7 @@
     </row>
     <row r="461" spans="1:3" ht="19.95" customHeight="1">
       <c r="A461" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B461" s="19" t="s">
         <v>293</v>
@@ -28071,7 +28211,7 @@
     </row>
     <row r="462" spans="1:3" ht="19.95" customHeight="1">
       <c r="A462" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B462" s="19" t="s">
         <v>873</v>
@@ -28082,7 +28222,7 @@
     </row>
     <row r="463" spans="1:3" ht="19.95" customHeight="1">
       <c r="A463" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B463" s="19" t="s">
         <v>874</v>
@@ -28093,7 +28233,7 @@
     </row>
     <row r="464" spans="1:3" ht="19.95" customHeight="1">
       <c r="A464" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B464" s="19" t="s">
         <v>876</v>
@@ -28104,7 +28244,7 @@
     </row>
     <row r="465" spans="1:3" ht="19.95" customHeight="1">
       <c r="A465" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B465" s="19" t="s">
         <v>877</v>
@@ -28115,7 +28255,7 @@
     </row>
     <row r="466" spans="1:3" ht="19.95" customHeight="1">
       <c r="A466" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B466" s="19" t="s">
         <v>878</v>
@@ -28126,7 +28266,7 @@
     </row>
     <row r="467" spans="1:3" ht="19.95" customHeight="1">
       <c r="A467" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B467" s="19" t="s">
         <v>880</v>
@@ -28137,7 +28277,7 @@
     </row>
     <row r="468" spans="1:3" ht="19.95" customHeight="1">
       <c r="A468" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B468" s="19" t="s">
         <v>881</v>
@@ -28148,7 +28288,7 @@
     </row>
     <row r="469" spans="1:3" ht="19.95" customHeight="1">
       <c r="A469" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B469" s="19" t="s">
         <v>882</v>
@@ -28159,7 +28299,7 @@
     </row>
     <row r="470" spans="1:3" ht="19.95" customHeight="1">
       <c r="A470" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B470" s="19" t="s">
         <v>883</v>
@@ -28170,7 +28310,7 @@
     </row>
     <row r="471" spans="1:3" ht="19.95" customHeight="1">
       <c r="A471" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B471" s="19" t="s">
         <v>884</v>
@@ -28181,7 +28321,7 @@
     </row>
     <row r="472" spans="1:3" ht="19.95" customHeight="1">
       <c r="A472" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B472" s="19" t="s">
         <v>885</v>
@@ -28192,7 +28332,7 @@
     </row>
     <row r="473" spans="1:3" ht="19.95" customHeight="1">
       <c r="A473" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B473" s="19" t="s">
         <v>886</v>
@@ -28203,7 +28343,7 @@
     </row>
     <row r="474" spans="1:3" ht="19.95" customHeight="1">
       <c r="A474" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B474" s="19" t="s">
         <v>887</v>
@@ -28214,7 +28354,7 @@
     </row>
     <row r="475" spans="1:3" ht="19.95" customHeight="1">
       <c r="A475" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B475" s="19" t="s">
         <v>888</v>
@@ -28225,7 +28365,7 @@
     </row>
     <row r="476" spans="1:3" ht="19.95" customHeight="1">
       <c r="A476" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B476" s="19" t="s">
         <v>889</v>
@@ -28236,7 +28376,7 @@
     </row>
     <row r="477" spans="1:3" ht="19.95" customHeight="1">
       <c r="A477" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B477" s="19" t="s">
         <v>388</v>
@@ -28247,7 +28387,7 @@
     </row>
     <row r="478" spans="1:3" ht="19.95" customHeight="1">
       <c r="A478" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B478" s="19" t="s">
         <v>394</v>
@@ -28258,7 +28398,7 @@
     </row>
     <row r="479" spans="1:3" ht="19.95" customHeight="1">
       <c r="A479" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B479" s="19" t="s">
         <v>890</v>
@@ -28269,7 +28409,7 @@
     </row>
     <row r="480" spans="1:3" ht="19.95" customHeight="1">
       <c r="A480" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B480" s="19" t="s">
         <v>891</v>
@@ -28280,7 +28420,7 @@
     </row>
     <row r="481" spans="1:3" ht="19.95" customHeight="1">
       <c r="A481" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B481" s="19" t="s">
         <v>891</v>
@@ -28291,7 +28431,7 @@
     </row>
     <row r="482" spans="1:3" ht="19.95" customHeight="1">
       <c r="A482" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B482" s="19" t="s">
         <v>392</v>
@@ -28302,7 +28442,7 @@
     </row>
     <row r="483" spans="1:3" ht="19.95" customHeight="1">
       <c r="A483" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B483" s="19" t="s">
         <v>892</v>
@@ -28313,7 +28453,7 @@
     </row>
     <row r="484" spans="1:3" ht="19.95" customHeight="1">
       <c r="A484" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B484" s="19" t="s">
         <v>893</v>
@@ -28324,7 +28464,7 @@
     </row>
     <row r="485" spans="1:3" ht="19.95" customHeight="1">
       <c r="A485" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B485" s="19" t="s">
         <v>894</v>
@@ -28335,7 +28475,7 @@
     </row>
     <row r="486" spans="1:3" ht="19.95" customHeight="1">
       <c r="A486" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B486" s="19" t="s">
         <v>718</v>
@@ -28346,7 +28486,7 @@
     </row>
     <row r="487" spans="1:3" ht="19.95" customHeight="1">
       <c r="A487" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B487" s="19" t="s">
         <v>895</v>
@@ -28357,7 +28497,7 @@
     </row>
     <row r="488" spans="1:3" ht="19.95" customHeight="1">
       <c r="A488" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B488" s="19" t="s">
         <v>896</v>
@@ -28368,7 +28508,7 @@
     </row>
     <row r="489" spans="1:3" ht="19.95" customHeight="1">
       <c r="A489" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B489" s="19" t="s">
         <v>389</v>
@@ -28379,7 +28519,7 @@
     </row>
     <row r="490" spans="1:3" ht="19.95" customHeight="1">
       <c r="A490" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B490" s="19" t="s">
         <v>897</v>
@@ -28390,7 +28530,7 @@
     </row>
     <row r="491" spans="1:3" ht="19.95" customHeight="1">
       <c r="A491" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B491" s="19" t="s">
         <v>898</v>
@@ -28401,7 +28541,7 @@
     </row>
     <row r="492" spans="1:3" ht="19.95" customHeight="1">
       <c r="A492" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B492" s="19" t="s">
         <v>900</v>
@@ -28412,7 +28552,7 @@
     </row>
     <row r="493" spans="1:3" ht="19.95" customHeight="1">
       <c r="A493" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B493" s="19" t="s">
         <v>901</v>
@@ -28423,7 +28563,7 @@
     </row>
     <row r="494" spans="1:3" ht="19.95" customHeight="1">
       <c r="A494" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B494" s="19" t="s">
         <v>902</v>
@@ -28434,7 +28574,7 @@
     </row>
     <row r="495" spans="1:3" ht="19.95" customHeight="1">
       <c r="A495" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B495" s="19" t="s">
         <v>903</v>
@@ -28445,7 +28585,7 @@
     </row>
     <row r="496" spans="1:3" ht="19.95" customHeight="1">
       <c r="A496" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B496" s="19" t="s">
         <v>904</v>
@@ -28456,7 +28596,7 @@
     </row>
     <row r="497" spans="1:3" ht="19.95" customHeight="1">
       <c r="A497" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B497" s="19" t="s">
         <v>905</v>
@@ -28467,7 +28607,7 @@
     </row>
     <row r="498" spans="1:3" ht="19.95" customHeight="1">
       <c r="A498" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B498" s="19" t="s">
         <v>207</v>
@@ -28478,7 +28618,7 @@
     </row>
     <row r="499" spans="1:3" ht="19.95" customHeight="1">
       <c r="A499" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B499" s="19" t="s">
         <v>906</v>
@@ -28489,7 +28629,7 @@
     </row>
     <row r="500" spans="1:3" ht="19.95" customHeight="1">
       <c r="A500" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B500" s="19" t="s">
         <v>907</v>
@@ -28500,7 +28640,7 @@
     </row>
     <row r="501" spans="1:3" ht="19.95" customHeight="1">
       <c r="A501" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B501" s="19" t="s">
         <v>908</v>
@@ -28511,7 +28651,7 @@
     </row>
     <row r="502" spans="1:3" ht="19.95" customHeight="1">
       <c r="A502" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B502" s="19" t="s">
         <v>909</v>
@@ -28522,7 +28662,7 @@
     </row>
     <row r="503" spans="1:3" ht="19.95" customHeight="1">
       <c r="A503" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B503" s="19" t="s">
         <v>910</v>
@@ -28533,7 +28673,7 @@
     </row>
     <row r="504" spans="1:3" ht="19.95" customHeight="1">
       <c r="A504" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B504" s="19" t="s">
         <v>202</v>
@@ -28544,7 +28684,7 @@
     </row>
     <row r="505" spans="1:3" ht="19.95" customHeight="1">
       <c r="A505" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B505" s="19" t="s">
         <v>911</v>
@@ -28555,7 +28695,7 @@
     </row>
     <row r="506" spans="1:3" ht="19.95" customHeight="1">
       <c r="A506" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B506" s="19" t="s">
         <v>912</v>
@@ -28566,7 +28706,7 @@
     </row>
     <row r="507" spans="1:3" ht="19.95" customHeight="1">
       <c r="A507" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B507" s="19" t="s">
         <v>913</v>
@@ -28577,7 +28717,7 @@
     </row>
     <row r="508" spans="1:3" ht="19.95" customHeight="1">
       <c r="A508" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B508" s="19" t="s">
         <v>914</v>
@@ -28588,7 +28728,7 @@
     </row>
     <row r="509" spans="1:3" ht="19.95" customHeight="1">
       <c r="A509" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B509" s="19" t="s">
         <v>915</v>
@@ -28599,7 +28739,7 @@
     </row>
     <row r="510" spans="1:3" ht="19.95" customHeight="1">
       <c r="A510" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B510" s="19" t="s">
         <v>205</v>
@@ -28610,7 +28750,7 @@
     </row>
     <row r="511" spans="1:3" ht="19.95" customHeight="1">
       <c r="A511" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B511" s="19" t="s">
         <v>395</v>
@@ -28621,7 +28761,7 @@
     </row>
     <row r="512" spans="1:3" ht="19.95" customHeight="1">
       <c r="A512" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B512" s="19" t="s">
         <v>916</v>
@@ -28632,7 +28772,7 @@
     </row>
     <row r="513" spans="1:3" ht="19.95" customHeight="1">
       <c r="A513" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B513" s="19" t="s">
         <v>744</v>
@@ -28643,7 +28783,7 @@
     </row>
     <row r="514" spans="1:3" ht="19.95" customHeight="1">
       <c r="A514" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B514" s="19" t="s">
         <v>918</v>
@@ -28654,7 +28794,7 @@
     </row>
     <row r="515" spans="1:3" ht="19.95" customHeight="1">
       <c r="A515" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B515" s="19" t="s">
         <v>919</v>
@@ -28665,7 +28805,7 @@
     </row>
     <row r="516" spans="1:3" ht="19.95" customHeight="1">
       <c r="A516" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B516" s="19" t="s">
         <v>920</v>
@@ -28676,7 +28816,7 @@
     </row>
     <row r="517" spans="1:3" ht="19.95" customHeight="1">
       <c r="A517" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B517" s="19" t="s">
         <v>921</v>
@@ -28687,7 +28827,7 @@
     </row>
     <row r="518" spans="1:3" ht="19.95" customHeight="1">
       <c r="A518" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B518" s="19" t="s">
         <v>923</v>
@@ -28698,7 +28838,7 @@
     </row>
     <row r="519" spans="1:3" ht="19.95" customHeight="1">
       <c r="A519" s="145" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B519" s="19" t="s">
         <v>380</v>
@@ -28709,7 +28849,7 @@
     </row>
     <row r="520" spans="1:3" ht="19.95" customHeight="1">
       <c r="A520" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B520" s="9" t="s">
         <v>924</v>
@@ -28720,7 +28860,7 @@
     </row>
     <row r="521" spans="1:3" ht="19.95" customHeight="1">
       <c r="A521" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B521" s="9" t="s">
         <v>925</v>
@@ -28731,7 +28871,7 @@
     </row>
     <row r="522" spans="1:3" ht="19.95" customHeight="1">
       <c r="A522" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B522" s="9" t="s">
         <v>926</v>
@@ -28742,7 +28882,7 @@
     </row>
     <row r="523" spans="1:3" ht="19.95" customHeight="1">
       <c r="A523" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B523" s="9" t="s">
         <v>927</v>
@@ -28753,7 +28893,7 @@
     </row>
     <row r="524" spans="1:3" ht="19.95" customHeight="1">
       <c r="A524" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B524" s="13" t="s">
         <v>928</v>
@@ -28764,7 +28904,7 @@
     </row>
     <row r="525" spans="1:3" ht="19.95" customHeight="1">
       <c r="A525" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B525" s="13" t="s">
         <v>929</v>
@@ -28775,7 +28915,7 @@
     </row>
     <row r="526" spans="1:3" ht="19.95" customHeight="1">
       <c r="A526" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B526" s="9" t="s">
         <v>930</v>
@@ -28786,7 +28926,7 @@
     </row>
     <row r="527" spans="1:3" ht="19.95" customHeight="1">
       <c r="A527" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B527" s="9" t="s">
         <v>931</v>
@@ -28797,7 +28937,7 @@
     </row>
     <row r="528" spans="1:3" ht="19.95" customHeight="1">
       <c r="A528" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B528" s="11" t="s">
         <v>514</v>
@@ -28808,7 +28948,7 @@
     </row>
     <row r="529" spans="1:3" ht="19.95" customHeight="1">
       <c r="A529" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B529" s="11" t="s">
         <v>515</v>
@@ -28819,7 +28959,7 @@
     </row>
     <row r="530" spans="1:3" ht="19.95" customHeight="1">
       <c r="A530" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B530" s="9" t="s">
         <v>526</v>
@@ -28830,7 +28970,7 @@
     </row>
     <row r="531" spans="1:3" ht="19.95" customHeight="1">
       <c r="A531" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B531" s="9" t="s">
         <v>516</v>
@@ -28841,7 +28981,7 @@
     </row>
     <row r="532" spans="1:3" ht="19.95" customHeight="1">
       <c r="A532" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B532" s="9" t="s">
         <v>517</v>
@@ -28852,7 +28992,7 @@
     </row>
     <row r="533" spans="1:3" ht="19.95" customHeight="1">
       <c r="A533" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B533" s="9" t="s">
         <v>518</v>
@@ -28863,7 +29003,7 @@
     </row>
     <row r="534" spans="1:3" ht="19.95" customHeight="1">
       <c r="A534" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B534" s="9" t="s">
         <v>243</v>
@@ -28874,7 +29014,7 @@
     </row>
     <row r="535" spans="1:3" ht="19.95" customHeight="1">
       <c r="A535" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B535" s="9" t="s">
         <v>932</v>
@@ -28885,7 +29025,7 @@
     </row>
     <row r="536" spans="1:3" ht="19.95" customHeight="1">
       <c r="A536" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B536" s="9" t="s">
         <v>933</v>
@@ -28896,7 +29036,7 @@
     </row>
     <row r="537" spans="1:3" ht="19.95" customHeight="1">
       <c r="A537" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B537" s="9" t="s">
         <v>934</v>
@@ -28907,7 +29047,7 @@
     </row>
     <row r="538" spans="1:3" ht="19.95" customHeight="1">
       <c r="A538" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B538" s="9" t="s">
         <v>935</v>
@@ -28918,7 +29058,7 @@
     </row>
     <row r="539" spans="1:3" ht="19.95" customHeight="1">
       <c r="A539" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B539" s="9" t="s">
         <v>936</v>
@@ -28929,7 +29069,7 @@
     </row>
     <row r="540" spans="1:3" ht="19.95" customHeight="1">
       <c r="A540" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B540" s="9" t="s">
         <v>937</v>
@@ -28940,7 +29080,7 @@
     </row>
     <row r="541" spans="1:3" ht="19.95" customHeight="1">
       <c r="A541" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B541" s="9" t="s">
         <v>938</v>
@@ -28951,7 +29091,7 @@
     </row>
     <row r="542" spans="1:3" ht="19.95" customHeight="1">
       <c r="A542" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B542" s="9" t="s">
         <v>939</v>
@@ -28962,7 +29102,7 @@
     </row>
     <row r="543" spans="1:3" ht="19.95" customHeight="1">
       <c r="A543" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B543" s="9" t="s">
         <v>940</v>
@@ -28973,7 +29113,7 @@
     </row>
     <row r="544" spans="1:3" ht="19.95" customHeight="1">
       <c r="A544" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B544" s="9" t="s">
         <v>941</v>
@@ -28984,7 +29124,7 @@
     </row>
     <row r="545" spans="1:3" ht="19.95" customHeight="1">
       <c r="A545" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B545" s="9" t="s">
         <v>942</v>
@@ -28995,7 +29135,7 @@
     </row>
     <row r="546" spans="1:3" ht="19.95" customHeight="1">
       <c r="A546" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B546" s="9" t="s">
         <v>943</v>
@@ -29006,7 +29146,7 @@
     </row>
     <row r="547" spans="1:3" ht="19.95" customHeight="1">
       <c r="A547" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B547" s="9" t="s">
         <v>944</v>
@@ -29017,7 +29157,7 @@
     </row>
     <row r="548" spans="1:3" ht="19.95" customHeight="1">
       <c r="A548" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B548" s="9" t="s">
         <v>945</v>
@@ -29028,7 +29168,7 @@
     </row>
     <row r="549" spans="1:3" ht="19.95" customHeight="1">
       <c r="A549" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B549" s="9" t="s">
         <v>946</v>
@@ -29039,7 +29179,7 @@
     </row>
     <row r="550" spans="1:3" ht="19.95" customHeight="1">
       <c r="A550" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B550" s="9" t="s">
         <v>947</v>
@@ -29050,7 +29190,7 @@
     </row>
     <row r="551" spans="1:3" ht="19.95" customHeight="1">
       <c r="A551" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B551" s="9" t="s">
         <v>948</v>
@@ -29061,7 +29201,7 @@
     </row>
     <row r="552" spans="1:3" ht="19.95" customHeight="1">
       <c r="A552" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B552" s="19" t="s">
         <v>949</v>
@@ -29072,7 +29212,7 @@
     </row>
     <row r="553" spans="1:3" ht="19.95" customHeight="1">
       <c r="A553" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B553" s="19" t="s">
         <v>950</v>
@@ -29083,7 +29223,7 @@
     </row>
     <row r="554" spans="1:3" ht="19.95" customHeight="1">
       <c r="A554" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B554" s="19" t="s">
         <v>951</v>
@@ -29094,7 +29234,7 @@
     </row>
     <row r="555" spans="1:3" ht="19.95" customHeight="1">
       <c r="A555" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B555" s="19" t="s">
         <v>952</v>
@@ -29105,7 +29245,7 @@
     </row>
     <row r="556" spans="1:3" ht="19.95" customHeight="1">
       <c r="A556" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B556" s="19" t="s">
         <v>953</v>
@@ -29116,7 +29256,7 @@
     </row>
     <row r="557" spans="1:3" ht="19.95" customHeight="1">
       <c r="A557" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B557" s="19" t="s">
         <v>954</v>
@@ -29127,7 +29267,7 @@
     </row>
     <row r="558" spans="1:3" ht="19.95" customHeight="1">
       <c r="A558" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B558" s="19" t="s">
         <v>955</v>
@@ -29138,7 +29278,7 @@
     </row>
     <row r="559" spans="1:3" ht="19.95" customHeight="1">
       <c r="A559" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B559" s="19" t="s">
         <v>289</v>
@@ -29149,7 +29289,7 @@
     </row>
     <row r="560" spans="1:3" ht="19.95" customHeight="1">
       <c r="A560" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B560" s="19" t="s">
         <v>956</v>
@@ -29160,7 +29300,7 @@
     </row>
     <row r="561" spans="1:3" ht="19.95" customHeight="1">
       <c r="A561" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B561" s="19" t="s">
         <v>290</v>
@@ -29171,7 +29311,7 @@
     </row>
     <row r="562" spans="1:3" ht="19.95" customHeight="1">
       <c r="A562" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B562" s="19" t="s">
         <v>957</v>
@@ -29182,7 +29322,7 @@
     </row>
     <row r="563" spans="1:3" ht="19.95" customHeight="1">
       <c r="A563" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B563" s="19" t="s">
         <v>958</v>
@@ -29193,7 +29333,7 @@
     </row>
     <row r="564" spans="1:3" ht="19.95" customHeight="1">
       <c r="A564" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B564" s="19" t="s">
         <v>959</v>
@@ -29204,7 +29344,7 @@
     </row>
     <row r="565" spans="1:3" ht="19.95" customHeight="1">
       <c r="A565" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B565" s="19" t="s">
         <v>960</v>
@@ -29215,7 +29355,7 @@
     </row>
     <row r="566" spans="1:3" ht="19.95" customHeight="1">
       <c r="A566" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B566" s="19" t="s">
         <v>961</v>
@@ -29226,7 +29366,7 @@
     </row>
     <row r="567" spans="1:3" ht="19.95" customHeight="1">
       <c r="A567" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B567" s="19" t="s">
         <v>962</v>
@@ -29237,7 +29377,7 @@
     </row>
     <row r="568" spans="1:3" ht="19.95" customHeight="1">
       <c r="A568" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B568" s="19" t="s">
         <v>963</v>
@@ -29248,7 +29388,7 @@
     </row>
     <row r="569" spans="1:3" ht="19.95" customHeight="1">
       <c r="A569" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B569" s="19" t="s">
         <v>964</v>
@@ -29259,7 +29399,7 @@
     </row>
     <row r="570" spans="1:3" ht="19.95" customHeight="1">
       <c r="A570" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B570" s="19" t="s">
         <v>965</v>
@@ -29270,7 +29410,7 @@
     </row>
     <row r="571" spans="1:3" ht="19.95" customHeight="1">
       <c r="A571" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B571" s="19" t="s">
         <v>966</v>
@@ -29281,7 +29421,7 @@
     </row>
     <row r="572" spans="1:3" ht="19.95" customHeight="1">
       <c r="A572" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B572" s="19" t="s">
         <v>967</v>
@@ -29292,7 +29432,7 @@
     </row>
     <row r="573" spans="1:3" ht="19.95" customHeight="1">
       <c r="A573" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B573" s="13" t="s">
         <v>968</v>
@@ -29303,7 +29443,7 @@
     </row>
     <row r="574" spans="1:3" ht="19.95" customHeight="1">
       <c r="A574" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B574" s="13" t="s">
         <v>969</v>
@@ -29314,7 +29454,7 @@
     </row>
     <row r="575" spans="1:3" ht="19.95" customHeight="1">
       <c r="A575" s="146" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="B575" s="13" t="s">
         <v>970</v>

--- a/upload/dict.xlsx
+++ b/upload/dict.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingz\Documents\GitHub\jw3\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\python\jw3\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5BE3BC-62DD-4B21-B446-F65AC7654BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACDBE01-01A9-4161-A6A2-F1A024562F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="444" yWindow="1524" windowWidth="22524" windowHeight="13848" tabRatio="858" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="858" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明（请勿修改此页内容）" sheetId="21" r:id="rId1"/>
@@ -4228,13 +4228,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="179" formatCode="[$-409]d/mmm/yy;@"/>
+    <numFmt numFmtId="181" formatCode="[DBNum1][$-804]General"/>
   </numFmts>
-  <fonts count="63">
+  <fonts count="64">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4669,6 +4670,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="21">
     <fill>
@@ -4948,7 +4957,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="429">
+  <cellStyleXfs count="432">
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5903,6 +5912,13 @@
     <xf numFmtId="178" fontId="40" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="63" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="63" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="165">
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -6375,7 +6391,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="429">
+  <cellStyles count="432">
     <cellStyle name="?? 3" xfId="155" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
     <cellStyle name="?? 3 2" xfId="146" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
     <cellStyle name="0,0_x000a__x000a_NA_x000a__x000a_" xfId="418" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
@@ -6462,6 +6478,7 @@
     <cellStyle name="常规 12 5 2" xfId="208" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
     <cellStyle name="常规 12 6" xfId="289" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
     <cellStyle name="常规 12 7" xfId="279" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="常规 12 8" xfId="430" xr:uid="{1E0564E7-2BA5-46FC-BFD4-57144DC3AE9D}"/>
     <cellStyle name="常规 13" xfId="352" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
     <cellStyle name="常规 13 2" xfId="276" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
     <cellStyle name="常规 13 2 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
@@ -6492,6 +6509,7 @@
     <cellStyle name="常规 15 4" xfId="359" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
     <cellStyle name="常规 15 4 2" xfId="370" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
     <cellStyle name="常规 15 5" xfId="232" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="常规 15 6" xfId="431" xr:uid="{C5F4B5E2-C148-4A23-84F4-10091BC0BAEC}"/>
     <cellStyle name="常规 16" xfId="250" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
     <cellStyle name="常规 16 2" xfId="74" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
     <cellStyle name="常规 17" xfId="296" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
@@ -6595,6 +6613,7 @@
     <cellStyle name="常规 22" xfId="295" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
     <cellStyle name="常规 23" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="常规 24" xfId="230" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="常规 25" xfId="429" xr:uid="{F04A7711-07C6-4324-A8FC-39F99543D801}"/>
     <cellStyle name="常规 3" xfId="384" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
     <cellStyle name="常规 3 10" xfId="341" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
     <cellStyle name="常规 3 10 2" xfId="235" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
@@ -6884,7 +6903,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="互联方向-底表"/>
@@ -6933,7 +6952,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="项目属性"/>
@@ -6980,7 +6999,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="下拉表单"/>
@@ -7350,15 +7369,15 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="70.77734375" customWidth="1"/>
-    <col min="3" max="3" width="22.109375" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.4140625" customWidth="1"/>
+    <col min="2" max="2" width="70.75" customWidth="1"/>
+    <col min="3" max="3" width="22.08203125" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="25.05" customHeight="1">
+    <row r="1" spans="1:3" ht="25" customHeight="1">
       <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
@@ -7367,7 +7386,7 @@
       </c>
       <c r="C1" s="154"/>
     </row>
-    <row r="2" spans="1:3" ht="25.05" customHeight="1">
+    <row r="2" spans="1:3" ht="25" customHeight="1">
       <c r="A2" s="112" t="s">
         <v>2</v>
       </c>
@@ -7376,7 +7395,7 @@
       </c>
       <c r="C2" s="154"/>
     </row>
-    <row r="3" spans="1:3" ht="25.05" customHeight="1">
+    <row r="3" spans="1:3" ht="25" customHeight="1">
       <c r="A3" s="112" t="s">
         <v>4</v>
       </c>
@@ -7385,7 +7404,7 @@
       </c>
       <c r="C3" s="154"/>
     </row>
-    <row r="4" spans="1:3" ht="109.95" customHeight="1">
+    <row r="4" spans="1:3" ht="110" customHeight="1">
       <c r="A4" s="112" t="s">
         <v>6</v>
       </c>
@@ -7394,7 +7413,7 @@
       </c>
       <c r="C4" s="154"/>
     </row>
-    <row r="5" spans="1:3" ht="52.05" customHeight="1">
+    <row r="5" spans="1:3" ht="52" customHeight="1">
       <c r="A5" s="156" t="s">
         <v>8</v>
       </c>
@@ -7412,7 +7431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="229.05" customHeight="1">
+    <row r="7" spans="1:3" ht="229" customHeight="1">
       <c r="A7" s="115">
         <v>44783</v>
       </c>
@@ -7423,7 +7442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="55.05" customHeight="1">
+    <row r="8" spans="1:3" ht="55" customHeight="1">
       <c r="A8" s="115">
         <v>44784</v>
       </c>
@@ -7434,7 +7453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="94.95" customHeight="1">
+    <row r="9" spans="1:3" ht="95" customHeight="1">
       <c r="A9" s="115">
         <v>44785</v>
       </c>
@@ -7456,7 +7475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="111" customFormat="1" ht="58.95" customHeight="1">
+    <row r="11" spans="1:3" s="111" customFormat="1" ht="59" customHeight="1">
       <c r="A11" s="118">
         <v>44789</v>
       </c>
@@ -7467,7 +7486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="114">
+    <row r="12" spans="1:3" ht="99.5">
       <c r="A12" s="117">
         <v>44792</v>
       </c>
@@ -7478,7 +7497,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="41.4">
+    <row r="13" spans="1:3" ht="42">
       <c r="A13" s="117">
         <v>44940</v>
       </c>
@@ -7517,14 +7536,14 @@
   <cols>
     <col min="1" max="1" width="9" style="25" customWidth="1"/>
     <col min="2" max="2" width="9" style="44" customWidth="1"/>
-    <col min="3" max="3" width="36.44140625" style="44" customWidth="1"/>
+    <col min="3" max="3" width="36.4140625" style="44" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" style="44" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" style="44" customWidth="1"/>
+    <col min="5" max="5" width="14.4140625" style="44" customWidth="1"/>
     <col min="6" max="6" width="9" style="44" customWidth="1"/>
     <col min="7" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.55" customHeight="1">
+    <row r="1" spans="1:6" ht="14.5" customHeight="1">
       <c r="A1" s="45" t="s">
         <v>154</v>
       </c>
@@ -7544,7 +7563,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.55" customHeight="1">
+    <row r="2" spans="1:6" ht="14.5" customHeight="1">
       <c r="A2" s="47">
         <v>1</v>
       </c>
@@ -7562,7 +7581,7 @@
       </c>
       <c r="F2" s="48"/>
     </row>
-    <row r="3" spans="1:6" ht="14.55" customHeight="1">
+    <row r="3" spans="1:6" ht="14.5" customHeight="1">
       <c r="A3" s="47">
         <v>2</v>
       </c>
@@ -7580,7 +7599,7 @@
       </c>
       <c r="F3" s="48"/>
     </row>
-    <row r="4" spans="1:6" ht="14.55" customHeight="1">
+    <row r="4" spans="1:6" ht="14.5" customHeight="1">
       <c r="A4" s="47">
         <v>3</v>
       </c>
@@ -7598,7 +7617,7 @@
       </c>
       <c r="F4" s="48"/>
     </row>
-    <row r="5" spans="1:6" ht="14.55" customHeight="1">
+    <row r="5" spans="1:6" ht="14.5" customHeight="1">
       <c r="A5" s="47">
         <v>4</v>
       </c>
@@ -7616,7 +7635,7 @@
       </c>
       <c r="F5" s="48"/>
     </row>
-    <row r="6" spans="1:6" ht="14.55" customHeight="1">
+    <row r="6" spans="1:6" ht="14.5" customHeight="1">
       <c r="A6" s="47">
         <v>5</v>
       </c>
@@ -7634,7 +7653,7 @@
       </c>
       <c r="F6" s="48"/>
     </row>
-    <row r="7" spans="1:6" ht="14.55" customHeight="1">
+    <row r="7" spans="1:6" ht="14.5" customHeight="1">
       <c r="A7" s="47">
         <v>6</v>
       </c>
@@ -7652,7 +7671,7 @@
       </c>
       <c r="F7" s="48"/>
     </row>
-    <row r="8" spans="1:6" ht="14.55" customHeight="1">
+    <row r="8" spans="1:6" ht="14.5" customHeight="1">
       <c r="A8" s="47">
         <v>7</v>
       </c>
@@ -7670,7 +7689,7 @@
       </c>
       <c r="F8" s="48"/>
     </row>
-    <row r="9" spans="1:6" ht="14.55" customHeight="1">
+    <row r="9" spans="1:6" ht="14.5" customHeight="1">
       <c r="A9" s="47">
         <v>8</v>
       </c>
@@ -7688,7 +7707,7 @@
       </c>
       <c r="F9" s="48"/>
     </row>
-    <row r="10" spans="1:6" ht="14.55" customHeight="1">
+    <row r="10" spans="1:6" ht="14.5" customHeight="1">
       <c r="A10" s="47">
         <v>9</v>
       </c>
@@ -7706,7 +7725,7 @@
       </c>
       <c r="F10" s="48"/>
     </row>
-    <row r="11" spans="1:6" ht="14.55" customHeight="1">
+    <row r="11" spans="1:6" ht="14.5" customHeight="1">
       <c r="A11" s="47">
         <v>10</v>
       </c>
@@ -7724,7 +7743,7 @@
       </c>
       <c r="F11" s="48"/>
     </row>
-    <row r="12" spans="1:6" ht="14.55" customHeight="1">
+    <row r="12" spans="1:6" ht="14.5" customHeight="1">
       <c r="A12" s="47">
         <v>11</v>
       </c>
@@ -7742,7 +7761,7 @@
       </c>
       <c r="F12" s="48"/>
     </row>
-    <row r="13" spans="1:6" ht="14.55" customHeight="1">
+    <row r="13" spans="1:6" ht="14.5" customHeight="1">
       <c r="A13" s="47">
         <v>12</v>
       </c>
@@ -7760,7 +7779,7 @@
       </c>
       <c r="F13" s="48"/>
     </row>
-    <row r="14" spans="1:6" ht="14.55" customHeight="1">
+    <row r="14" spans="1:6" ht="14.5" customHeight="1">
       <c r="A14" s="47">
         <v>13</v>
       </c>
@@ -7778,7 +7797,7 @@
       </c>
       <c r="F14" s="48"/>
     </row>
-    <row r="15" spans="1:6" ht="14.55" customHeight="1">
+    <row r="15" spans="1:6" ht="14.5" customHeight="1">
       <c r="A15" s="47">
         <v>14</v>
       </c>
@@ -7796,7 +7815,7 @@
       </c>
       <c r="F15" s="48"/>
     </row>
-    <row r="16" spans="1:6" ht="14.55" customHeight="1">
+    <row r="16" spans="1:6" ht="14.5" customHeight="1">
       <c r="A16" s="47">
         <v>15</v>
       </c>
@@ -7814,7 +7833,7 @@
       </c>
       <c r="F16" s="48"/>
     </row>
-    <row r="17" spans="1:6" ht="14.55" customHeight="1">
+    <row r="17" spans="1:6" ht="14.5" customHeight="1">
       <c r="A17" s="47">
         <v>16</v>
       </c>
@@ -7832,7 +7851,7 @@
       </c>
       <c r="F17" s="48"/>
     </row>
-    <row r="18" spans="1:6" ht="14.55" customHeight="1">
+    <row r="18" spans="1:6" ht="14.5" customHeight="1">
       <c r="A18" s="47">
         <v>17</v>
       </c>
@@ -7850,7 +7869,7 @@
       </c>
       <c r="F18" s="48"/>
     </row>
-    <row r="19" spans="1:6" ht="14.55" customHeight="1">
+    <row r="19" spans="1:6" ht="14.5" customHeight="1">
       <c r="A19" s="47">
         <v>18</v>
       </c>
@@ -7868,7 +7887,7 @@
       </c>
       <c r="F19" s="48"/>
     </row>
-    <row r="20" spans="1:6" ht="14.55" customHeight="1">
+    <row r="20" spans="1:6" ht="14.5" customHeight="1">
       <c r="A20" s="47">
         <v>19</v>
       </c>
@@ -7886,7 +7905,7 @@
       </c>
       <c r="F20" s="48"/>
     </row>
-    <row r="21" spans="1:6" ht="14.55" customHeight="1">
+    <row r="21" spans="1:6" ht="14.5" customHeight="1">
       <c r="A21" s="47">
         <v>20</v>
       </c>
@@ -7904,7 +7923,7 @@
       </c>
       <c r="F21" s="48"/>
     </row>
-    <row r="22" spans="1:6" ht="14.55" customHeight="1">
+    <row r="22" spans="1:6" ht="14.5" customHeight="1">
       <c r="A22" s="47">
         <v>21</v>
       </c>
@@ -7922,7 +7941,7 @@
       </c>
       <c r="F22" s="48"/>
     </row>
-    <row r="23" spans="1:6" ht="14.55" customHeight="1">
+    <row r="23" spans="1:6" ht="14.5" customHeight="1">
       <c r="A23" s="47">
         <v>22</v>
       </c>
@@ -7958,7 +7977,7 @@
       </c>
       <c r="F24" s="48"/>
     </row>
-    <row r="25" spans="1:6" ht="16.95" customHeight="1">
+    <row r="25" spans="1:6" ht="17" customHeight="1">
       <c r="A25" s="47">
         <v>24</v>
       </c>
@@ -7976,7 +7995,7 @@
       </c>
       <c r="F25" s="55"/>
     </row>
-    <row r="26" spans="1:6" ht="16.95" customHeight="1">
+    <row r="26" spans="1:6" ht="17" customHeight="1">
       <c r="A26" s="47">
         <v>25</v>
       </c>
@@ -7994,11 +8013,11 @@
       </c>
       <c r="F26" s="55"/>
     </row>
-    <row r="27" spans="1:6" ht="14.4">
+    <row r="27" spans="1:6" ht="14">
       <c r="A27" s="44"/>
     </row>
-    <row r="28" spans="1:6" ht="14.4"/>
-    <row r="29" spans="1:6" ht="14.4">
+    <row r="28" spans="1:6" ht="14"/>
+    <row r="29" spans="1:6" ht="14">
       <c r="B29" t="s">
         <v>198</v>
       </c>
@@ -8009,7 +8028,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.4">
+    <row r="30" spans="1:6" ht="14">
       <c r="C30" t="s">
         <v>266</v>
       </c>
@@ -8017,7 +8036,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.4">
+    <row r="31" spans="1:6" ht="14">
       <c r="B31" t="s">
         <v>268</v>
       </c>
@@ -8028,7 +8047,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.4">
+    <row r="32" spans="1:6" ht="14">
       <c r="C32" t="s">
         <v>271</v>
       </c>
@@ -8036,7 +8055,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="14.4">
+    <row r="33" spans="2:4" ht="14">
       <c r="C33" t="s">
         <v>273</v>
       </c>
@@ -8044,7 +8063,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="14.4">
+    <row r="34" spans="2:4" ht="14">
       <c r="C34" t="s">
         <v>275</v>
       </c>
@@ -8052,7 +8071,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="14.4">
+    <row r="35" spans="2:4" ht="14">
       <c r="C35" t="s">
         <v>37</v>
       </c>
@@ -8060,7 +8079,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="14.4">
+    <row r="36" spans="2:4" ht="14">
       <c r="C36" t="s">
         <v>278</v>
       </c>
@@ -8068,7 +8087,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="14.4">
+    <row r="37" spans="2:4" ht="14">
       <c r="C37" t="s">
         <v>280</v>
       </c>
@@ -8076,7 +8095,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="14.4">
+    <row r="38" spans="2:4" ht="14">
       <c r="C38" t="s">
         <v>282</v>
       </c>
@@ -8084,7 +8103,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="14.4">
+    <row r="39" spans="2:4" ht="14">
       <c r="B39" t="s">
         <v>31</v>
       </c>
@@ -8095,7 +8114,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="14.4">
+    <row r="40" spans="2:4" ht="14">
       <c r="C40" t="s">
         <v>285</v>
       </c>
@@ -8103,7 +8122,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="14.4">
+    <row r="41" spans="2:4" ht="14">
       <c r="C41" t="s">
         <v>287</v>
       </c>
@@ -8111,7 +8130,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="14.4">
+    <row r="42" spans="2:4" ht="14">
       <c r="C42" t="s">
         <v>289</v>
       </c>
@@ -8119,7 +8138,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="14.4">
+    <row r="43" spans="2:4" ht="14">
       <c r="C43" t="s">
         <v>291</v>
       </c>
@@ -8127,7 +8146,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="14.4">
+    <row r="44" spans="2:4" ht="14">
       <c r="C44" t="s">
         <v>293</v>
       </c>
@@ -8135,7 +8154,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="14.4">
+    <row r="45" spans="2:4" ht="14">
       <c r="C45" t="s">
         <v>295</v>
       </c>
@@ -8143,7 +8162,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="14.4">
+    <row r="46" spans="2:4" ht="14">
       <c r="C46" t="s">
         <v>297</v>
       </c>
@@ -8151,7 +8170,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="14.4">
+    <row r="47" spans="2:4" ht="14">
       <c r="C47" t="s">
         <v>298</v>
       </c>
@@ -8159,7 +8178,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="14.4">
+    <row r="48" spans="2:4" ht="14">
       <c r="B48" t="s">
         <v>44</v>
       </c>
@@ -8170,7 +8189,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="14.4">
+    <row r="49" spans="2:4" ht="14">
       <c r="C49" t="s">
         <v>302</v>
       </c>
@@ -8178,7 +8197,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="14.4">
+    <row r="50" spans="2:4" ht="14">
       <c r="B50" t="s">
         <v>44</v>
       </c>
@@ -8189,7 +8208,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="14.4">
+    <row r="51" spans="2:4" ht="14">
       <c r="B51" t="s">
         <v>44</v>
       </c>
@@ -8200,7 +8219,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="14.4">
+    <row r="52" spans="2:4" ht="14">
       <c r="B52" t="s">
         <v>44</v>
       </c>
@@ -8211,7 +8230,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="14.4">
+    <row r="53" spans="2:4" ht="14">
       <c r="B53" t="s">
         <v>310</v>
       </c>
@@ -8222,7 +8241,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="14.4">
+    <row r="54" spans="2:4" ht="14">
       <c r="C54" t="s">
         <v>313</v>
       </c>
@@ -8230,7 +8249,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="14.4">
+    <row r="55" spans="2:4" ht="14">
       <c r="B55" t="s">
         <v>315</v>
       </c>
@@ -8241,7 +8260,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="14.4">
+    <row r="56" spans="2:4" ht="14">
       <c r="B56" t="s">
         <v>318</v>
       </c>
@@ -8252,7 +8271,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="14.4">
+    <row r="57" spans="2:4" ht="14">
       <c r="C57" t="s">
         <v>321</v>
       </c>
@@ -8260,7 +8279,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="58" spans="2:4" ht="14.4">
+    <row r="58" spans="2:4" ht="14">
       <c r="B58" t="s">
         <v>323</v>
       </c>
@@ -8271,7 +8290,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="59" spans="2:4" ht="14.4">
+    <row r="59" spans="2:4" ht="14">
       <c r="C59" t="s">
         <v>326</v>
       </c>
@@ -8279,7 +8298,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="60" spans="2:4" ht="14.4">
+    <row r="60" spans="2:4" ht="14">
       <c r="B60" t="s">
         <v>328</v>
       </c>
@@ -8290,7 +8309,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="61" spans="2:4" ht="14.4">
+    <row r="61" spans="2:4" ht="14">
       <c r="C61" t="s">
         <v>331</v>
       </c>
@@ -8298,7 +8317,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="62" spans="2:4" ht="14.4">
+    <row r="62" spans="2:4" ht="14">
       <c r="B62" t="s">
         <v>47</v>
       </c>
@@ -8309,7 +8328,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="63" spans="2:4" ht="14.4">
+    <row r="63" spans="2:4" ht="14">
       <c r="C63" t="s">
         <v>334</v>
       </c>
@@ -8317,7 +8336,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="64" spans="2:4" ht="14.4">
+    <row r="64" spans="2:4" ht="14">
       <c r="C64" t="s">
         <v>336</v>
       </c>
@@ -8325,7 +8344,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="65" spans="2:4" ht="14.4">
+    <row r="65" spans="2:4" ht="14">
       <c r="C65" t="s">
         <v>338</v>
       </c>
@@ -8333,7 +8352,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="66" spans="2:4" ht="14.4">
+    <row r="66" spans="2:4" ht="14">
       <c r="C66" t="s">
         <v>339</v>
       </c>
@@ -8341,7 +8360,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="67" spans="2:4" ht="14.4">
+    <row r="67" spans="2:4" ht="14">
       <c r="C67" t="s">
         <v>341</v>
       </c>
@@ -8349,7 +8368,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="68" spans="2:4" ht="14.4">
+    <row r="68" spans="2:4" ht="14">
       <c r="C68" t="s">
         <v>343</v>
       </c>
@@ -8357,7 +8376,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="69" spans="2:4" ht="14.4">
+    <row r="69" spans="2:4" ht="14">
       <c r="C69" t="s">
         <v>345</v>
       </c>
@@ -8365,7 +8384,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="70" spans="2:4" ht="14.4">
+    <row r="70" spans="2:4" ht="14">
       <c r="C70" t="s">
         <v>346</v>
       </c>
@@ -8373,7 +8392,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="71" spans="2:4" ht="14.4">
+    <row r="71" spans="2:4" ht="14">
       <c r="B71" t="s">
         <v>348</v>
       </c>
@@ -8384,7 +8403,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="72" spans="2:4" ht="14.4">
+    <row r="72" spans="2:4" ht="14">
       <c r="C72" t="s">
         <v>351</v>
       </c>
@@ -8392,7 +8411,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="73" spans="2:4" ht="14.4">
+    <row r="73" spans="2:4" ht="14">
       <c r="C73" t="s">
         <v>353</v>
       </c>
@@ -8400,7 +8419,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="74" spans="2:4" ht="14.4">
+    <row r="74" spans="2:4" ht="14">
       <c r="C74" t="s">
         <v>355</v>
       </c>
@@ -8408,7 +8427,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="75" spans="2:4" ht="14.4">
+    <row r="75" spans="2:4" ht="14">
       <c r="B75" t="s">
         <v>357</v>
       </c>
@@ -8419,7 +8438,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="76" spans="2:4" ht="14.4">
+    <row r="76" spans="2:4" ht="14">
       <c r="C76" t="s">
         <v>360</v>
       </c>
@@ -8427,7 +8446,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="77" spans="2:4" ht="14.4">
+    <row r="77" spans="2:4" ht="14">
       <c r="C77" t="s">
         <v>362</v>
       </c>
@@ -8435,7 +8454,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="78" spans="2:4" ht="14.4">
+    <row r="78" spans="2:4" ht="14">
       <c r="B78" t="s">
         <v>363</v>
       </c>
@@ -8446,7 +8465,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="79" spans="2:4" ht="14.4">
+    <row r="79" spans="2:4" ht="14">
       <c r="C79" t="s">
         <v>365</v>
       </c>
@@ -8454,7 +8473,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="80" spans="2:4" ht="14.4">
+    <row r="80" spans="2:4" ht="14">
       <c r="C80" t="s">
         <v>367</v>
       </c>
@@ -8462,7 +8481,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="81" spans="2:4" ht="14.4">
+    <row r="81" spans="2:4" ht="14">
       <c r="B81" t="s">
         <v>369</v>
       </c>
@@ -8473,7 +8492,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="82" spans="2:4" ht="14.4">
+    <row r="82" spans="2:4" ht="14">
       <c r="C82" t="s">
         <v>372</v>
       </c>
@@ -8481,8 +8500,8 @@
         <v>373</v>
       </c>
     </row>
-    <row r="83" spans="2:4" ht="14.4"/>
-    <row r="84" spans="2:4" ht="14.4">
+    <row r="83" spans="2:4" ht="14"/>
+    <row r="84" spans="2:4" ht="14">
       <c r="B84" t="s">
         <v>374</v>
       </c>
@@ -8493,7 +8512,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="85" spans="2:4" ht="14.4">
+    <row r="85" spans="2:4" ht="14">
       <c r="B85" t="s">
         <v>376</v>
       </c>
@@ -8504,7 +8523,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="86" spans="2:4" ht="14.4">
+    <row r="86" spans="2:4" ht="14">
       <c r="B86" t="s">
         <v>379</v>
       </c>
@@ -8515,7 +8534,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="87" spans="2:4" ht="14.4">
+    <row r="87" spans="2:4" ht="14">
       <c r="C87" t="s">
         <v>382</v>
       </c>
@@ -8523,7 +8542,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="88" spans="2:4" ht="14.4">
+    <row r="88" spans="2:4" ht="14">
       <c r="B88" t="s">
         <v>384</v>
       </c>
@@ -8534,7 +8553,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="89" spans="2:4" ht="14.4">
+    <row r="89" spans="2:4" ht="14">
       <c r="B89" t="s">
         <v>387</v>
       </c>
@@ -8545,7 +8564,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="90" spans="2:4" ht="14.4">
+    <row r="90" spans="2:4" ht="14">
       <c r="C90" t="s">
         <v>390</v>
       </c>
@@ -8553,8 +8572,8 @@
         <v>391</v>
       </c>
     </row>
-    <row r="91" spans="2:4" ht="14.4"/>
-    <row r="92" spans="2:4" ht="14.4">
+    <row r="91" spans="2:4" ht="14"/>
+    <row r="92" spans="2:4" ht="14">
       <c r="C92" t="s">
         <v>392</v>
       </c>
@@ -8562,7 +8581,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="93" spans="2:4" ht="14.4">
+    <row r="93" spans="2:4" ht="14">
       <c r="B93" t="s">
         <v>387</v>
       </c>
@@ -8573,7 +8592,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="94" spans="2:4" ht="14.4">
+    <row r="94" spans="2:4" ht="14">
       <c r="B94" t="s">
         <v>28</v>
       </c>
@@ -8584,7 +8603,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="95" spans="2:4" ht="14.4">
+    <row r="95" spans="2:4" ht="14">
       <c r="B95" t="s">
         <v>397</v>
       </c>
@@ -8595,7 +8614,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="96" spans="2:4" ht="14.4">
+    <row r="96" spans="2:4" ht="14">
       <c r="B96" t="s">
         <v>397</v>
       </c>
@@ -8624,19 +8643,19 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="10.08203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" style="132" customWidth="1"/>
     <col min="3" max="3" width="48.6640625" style="5" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" style="6" customWidth="1"/>
     <col min="5" max="5" width="13" style="6" customWidth="1"/>
     <col min="6" max="6" width="18.6640625" style="6" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="6"/>
+    <col min="8" max="16384" width="9.08203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="49.95" customHeight="1">
+    <row r="1" spans="1:7" ht="50" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>200</v>
       </c>
@@ -11175,7 +11194,7 @@
       </c>
       <c r="D241" s="20"/>
     </row>
-    <row r="242" spans="1:4" ht="16.95" customHeight="1">
+    <row r="242" spans="1:4" ht="17" customHeight="1">
       <c r="A242" s="159"/>
       <c r="B242" s="124" t="s">
         <v>660</v>
@@ -14239,7 +14258,7 @@
       </c>
       <c r="D547" s="20"/>
     </row>
-    <row r="548" spans="1:4" ht="28.05" customHeight="1">
+    <row r="548" spans="1:4" ht="28" customHeight="1">
       <c r="A548" s="163"/>
       <c r="B548" s="21" t="s">
         <v>419</v>
@@ -14249,7 +14268,7 @@
       </c>
       <c r="D548" s="20"/>
     </row>
-    <row r="549" spans="1:4" ht="15.6">
+    <row r="549" spans="1:4" ht="15.5">
       <c r="A549" s="163"/>
       <c r="B549" s="21" t="s">
         <v>419</v>
@@ -14258,7 +14277,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="550" spans="1:4" ht="15.6">
+    <row r="550" spans="1:4" ht="15.5">
       <c r="A550" s="163"/>
       <c r="B550" s="21" t="s">
         <v>419</v>
@@ -14267,7 +14286,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="551" spans="1:4" ht="15.6">
+    <row r="551" spans="1:4" ht="15.5">
       <c r="A551" s="163"/>
       <c r="B551" s="21" t="s">
         <v>419</v>
@@ -14492,7 +14511,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="576" spans="1:3" ht="14.4">
+    <row r="576" spans="1:3" ht="14.5">
       <c r="B576" s="131" t="s">
         <v>1032</v>
       </c>
@@ -14531,13 +14550,13 @@
       <selection activeCell="J346" sqref="J346"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.44140625" style="125" customWidth="1"/>
+    <col min="3" max="3" width="27.4140625" style="125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6">
+    <row r="1" spans="1:3" ht="15">
       <c r="A1" s="7" t="s">
         <v>200</v>
       </c>
@@ -14548,7 +14567,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.6">
+    <row r="2" spans="1:3" ht="15.5">
       <c r="A2" s="159" t="s">
         <v>76</v>
       </c>
@@ -14559,7 +14578,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6">
+    <row r="3" spans="1:3" ht="15.5">
       <c r="A3" s="159"/>
       <c r="B3" s="122" t="s">
         <v>374</v>
@@ -14568,7 +14587,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.6">
+    <row r="4" spans="1:3" ht="15.5">
       <c r="A4" s="159"/>
       <c r="B4" s="122" t="s">
         <v>374</v>
@@ -14577,7 +14596,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.6">
+    <row r="5" spans="1:3" ht="15.5">
       <c r="A5" s="159"/>
       <c r="B5" s="122" t="s">
         <v>374</v>
@@ -14586,7 +14605,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.6">
+    <row r="6" spans="1:3" ht="15.5">
       <c r="A6" s="159"/>
       <c r="B6" s="122" t="s">
         <v>732</v>
@@ -14595,7 +14614,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.6">
+    <row r="7" spans="1:3" ht="15.5">
       <c r="A7" s="159"/>
       <c r="B7" s="122" t="s">
         <v>733</v>
@@ -14604,7 +14623,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.6">
+    <row r="8" spans="1:3" ht="15.5">
       <c r="A8" s="159"/>
       <c r="B8" s="122" t="s">
         <v>376</v>
@@ -14613,7 +14632,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.6">
+    <row r="9" spans="1:3" ht="15">
       <c r="A9" s="159"/>
       <c r="B9" s="122" t="s">
         <v>38</v>
@@ -14622,7 +14641,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.6">
+    <row r="10" spans="1:3" ht="15.5">
       <c r="A10" s="159"/>
       <c r="B10" s="122" t="s">
         <v>748</v>
@@ -14631,7 +14650,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.6">
+    <row r="11" spans="1:3" ht="15.5">
       <c r="A11" s="159"/>
       <c r="B11" s="122" t="s">
         <v>748</v>
@@ -14640,7 +14659,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.6">
+    <row r="12" spans="1:3" ht="15.5">
       <c r="A12" s="159"/>
       <c r="B12" s="122" t="s">
         <v>748</v>
@@ -14649,7 +14668,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.6">
+    <row r="13" spans="1:3" ht="15.5">
       <c r="A13" s="159"/>
       <c r="B13" s="122" t="s">
         <v>745</v>
@@ -14658,7 +14677,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.6">
+    <row r="14" spans="1:3" ht="15.5">
       <c r="A14" s="159"/>
       <c r="B14" s="122" t="s">
         <v>745</v>
@@ -14667,7 +14686,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.6">
+    <row r="15" spans="1:3" ht="15.5">
       <c r="A15" s="159"/>
       <c r="B15" s="122" t="s">
         <v>250</v>
@@ -14676,7 +14695,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.6">
+    <row r="16" spans="1:3" ht="15.5">
       <c r="A16" s="159"/>
       <c r="B16" s="122" t="s">
         <v>250</v>
@@ -14685,7 +14704,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.6">
+    <row r="17" spans="1:3" ht="15.5">
       <c r="A17" s="159"/>
       <c r="B17" s="122" t="s">
         <v>250</v>
@@ -14694,7 +14713,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.6">
+    <row r="18" spans="1:3" ht="15.5">
       <c r="A18" s="159"/>
       <c r="B18" s="122" t="s">
         <v>250</v>
@@ -14703,7 +14722,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.6">
+    <row r="19" spans="1:3" ht="15.5">
       <c r="A19" s="159"/>
       <c r="B19" s="122" t="s">
         <v>250</v>
@@ -14712,7 +14731,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.6">
+    <row r="20" spans="1:3" ht="15.5">
       <c r="A20" s="159"/>
       <c r="B20" s="122" t="s">
         <v>250</v>
@@ -14721,7 +14740,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.6">
+    <row r="21" spans="1:3" ht="15.5">
       <c r="A21" s="159"/>
       <c r="B21" s="122" t="s">
         <v>250</v>
@@ -14730,7 +14749,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.6">
+    <row r="22" spans="1:3" ht="15.5">
       <c r="A22" s="159"/>
       <c r="B22" s="122" t="s">
         <v>750</v>
@@ -14739,7 +14758,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.6">
+    <row r="23" spans="1:3" ht="15.5">
       <c r="A23" s="159"/>
       <c r="B23" s="122" t="s">
         <v>750</v>
@@ -14748,7 +14767,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.6">
+    <row r="24" spans="1:3" ht="15.5">
       <c r="A24" s="159"/>
       <c r="B24" s="122" t="s">
         <v>752</v>
@@ -14757,7 +14776,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.6">
+    <row r="25" spans="1:3" ht="15.5">
       <c r="A25" s="159"/>
       <c r="B25" s="122" t="s">
         <v>752</v>
@@ -14766,7 +14785,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.6">
+    <row r="26" spans="1:3" ht="15.5">
       <c r="A26" s="159"/>
       <c r="B26" s="122" t="s">
         <v>752</v>
@@ -14775,7 +14794,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.6">
+    <row r="27" spans="1:3" ht="15.5">
       <c r="A27" s="159"/>
       <c r="B27" s="122" t="s">
         <v>752</v>
@@ -14784,7 +14803,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.6">
+    <row r="28" spans="1:3" ht="15.5">
       <c r="A28" s="159"/>
       <c r="B28" s="122" t="s">
         <v>752</v>
@@ -14793,7 +14812,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.6">
+    <row r="29" spans="1:3" ht="15.5">
       <c r="A29" s="159"/>
       <c r="B29" s="122" t="s">
         <v>752</v>
@@ -14802,7 +14821,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.6">
+    <row r="30" spans="1:3" ht="15.5">
       <c r="A30" s="159"/>
       <c r="B30" s="122" t="s">
         <v>752</v>
@@ -14811,7 +14830,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.6">
+    <row r="31" spans="1:3" ht="15.5">
       <c r="A31" s="159"/>
       <c r="B31" s="122" t="s">
         <v>405</v>
@@ -14820,7 +14839,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.6">
+    <row r="32" spans="1:3" ht="15.5">
       <c r="A32" s="159"/>
       <c r="B32" s="122" t="s">
         <v>405</v>
@@ -14829,7 +14848,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.6">
+    <row r="33" spans="1:3" ht="15.5">
       <c r="A33" s="159"/>
       <c r="B33" s="122" t="s">
         <v>405</v>
@@ -14838,7 +14857,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.6">
+    <row r="34" spans="1:3" ht="15.5">
       <c r="A34" s="159"/>
       <c r="B34" s="122" t="s">
         <v>405</v>
@@ -14847,7 +14866,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.6">
+    <row r="35" spans="1:3" ht="15.5">
       <c r="A35" s="159"/>
       <c r="B35" s="122" t="s">
         <v>405</v>
@@ -14856,7 +14875,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.6">
+    <row r="36" spans="1:3" ht="15.5">
       <c r="A36" s="159"/>
       <c r="B36" s="122" t="s">
         <v>405</v>
@@ -14865,7 +14884,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.6">
+    <row r="37" spans="1:3" ht="15.5">
       <c r="A37" s="159"/>
       <c r="B37" s="122" t="s">
         <v>405</v>
@@ -14874,7 +14893,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.6">
+    <row r="38" spans="1:3" ht="15.5">
       <c r="A38" s="159"/>
       <c r="B38" s="122" t="s">
         <v>405</v>
@@ -14883,7 +14902,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.6">
+    <row r="39" spans="1:3" ht="15.5">
       <c r="A39" s="159"/>
       <c r="B39" s="122" t="s">
         <v>405</v>
@@ -15099,7 +15118,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.6">
+    <row r="63" spans="1:3" ht="15.5">
       <c r="A63" s="159"/>
       <c r="B63" s="122" t="s">
         <v>47</v>
@@ -15108,7 +15127,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="15.6">
+    <row r="64" spans="1:3" ht="15.5">
       <c r="A64" s="159"/>
       <c r="B64" s="122" t="s">
         <v>47</v>
@@ -15117,7 +15136,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="15.6">
+    <row r="65" spans="1:3" ht="15.5">
       <c r="A65" s="159"/>
       <c r="B65" s="122" t="s">
         <v>47</v>
@@ -15126,7 +15145,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.6">
+    <row r="66" spans="1:3" ht="15.5">
       <c r="A66" s="159"/>
       <c r="B66" s="122" t="s">
         <v>47</v>
@@ -15135,7 +15154,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="15.6">
+    <row r="67" spans="1:3" ht="15.5">
       <c r="A67" s="159"/>
       <c r="B67" s="122" t="s">
         <v>47</v>
@@ -15144,7 +15163,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="15.6">
+    <row r="68" spans="1:3" ht="15.5">
       <c r="A68" s="159"/>
       <c r="B68" s="122" t="s">
         <v>47</v>
@@ -15153,7 +15172,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.6">
+    <row r="69" spans="1:3" ht="15.5">
       <c r="A69" s="159"/>
       <c r="B69" s="122" t="s">
         <v>47</v>
@@ -15162,7 +15181,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15.6">
+    <row r="70" spans="1:3" ht="15.5">
       <c r="A70" s="159"/>
       <c r="B70" s="122" t="s">
         <v>47</v>
@@ -15171,7 +15190,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="15.6">
+    <row r="71" spans="1:3" ht="15.5">
       <c r="A71" s="159"/>
       <c r="B71" s="122" t="s">
         <v>645</v>
@@ -15180,7 +15199,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="15.6">
+    <row r="72" spans="1:3" ht="15.5">
       <c r="A72" s="159"/>
       <c r="B72" s="122" t="s">
         <v>645</v>
@@ -15189,7 +15208,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="15.6">
+    <row r="73" spans="1:3" ht="15.5">
       <c r="A73" s="159"/>
       <c r="B73" s="122" t="s">
         <v>384</v>
@@ -15198,7 +15217,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="15.6">
+    <row r="74" spans="1:3" ht="15.5">
       <c r="A74" s="159"/>
       <c r="B74" s="122" t="s">
         <v>384</v>
@@ -15207,7 +15226,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="15.6">
+    <row r="75" spans="1:3" ht="15.5">
       <c r="A75" s="159"/>
       <c r="B75" s="122" t="s">
         <v>384</v>
@@ -15216,7 +15235,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="15.6">
+    <row r="76" spans="1:3" ht="15.5">
       <c r="A76" s="159"/>
       <c r="B76" s="122" t="s">
         <v>384</v>
@@ -15225,7 +15244,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="15.6">
+    <row r="77" spans="1:3" ht="15.5">
       <c r="A77" s="159"/>
       <c r="B77" s="122" t="s">
         <v>384</v>
@@ -15234,7 +15253,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.6">
+    <row r="78" spans="1:3" ht="15.5">
       <c r="A78" s="159"/>
       <c r="B78" s="122" t="s">
         <v>384</v>
@@ -15243,7 +15262,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.6">
+    <row r="79" spans="1:3" ht="15.5">
       <c r="A79" s="159"/>
       <c r="B79" s="122" t="s">
         <v>384</v>
@@ -15279,7 +15298,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.6">
+    <row r="83" spans="1:3" ht="15.5">
       <c r="A83" s="159"/>
       <c r="B83" s="122" t="s">
         <v>44</v>
@@ -15288,7 +15307,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.6">
+    <row r="84" spans="1:3" ht="15.5">
       <c r="A84" s="159"/>
       <c r="B84" s="122" t="s">
         <v>44</v>
@@ -15297,7 +15316,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.6">
+    <row r="85" spans="1:3" ht="15.5">
       <c r="A85" s="159"/>
       <c r="B85" s="122" t="s">
         <v>44</v>
@@ -15306,7 +15325,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.6">
+    <row r="86" spans="1:3" ht="15.5">
       <c r="A86" s="159"/>
       <c r="B86" s="122" t="s">
         <v>44</v>
@@ -15315,7 +15334,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.6">
+    <row r="87" spans="1:3" ht="15.5">
       <c r="A87" s="159"/>
       <c r="B87" s="122" t="s">
         <v>44</v>
@@ -15324,7 +15343,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.6">
+    <row r="88" spans="1:3" ht="15.5">
       <c r="A88" s="159"/>
       <c r="B88" s="122" t="s">
         <v>44</v>
@@ -15333,7 +15352,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.6">
+    <row r="89" spans="1:3" ht="15.5">
       <c r="A89" s="159"/>
       <c r="B89" s="122" t="s">
         <v>44</v>
@@ -15342,7 +15361,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15.6">
+    <row r="90" spans="1:3" ht="15.5">
       <c r="A90" s="159"/>
       <c r="B90" s="122" t="s">
         <v>44</v>
@@ -15351,7 +15370,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.6">
+    <row r="91" spans="1:3" ht="15.5">
       <c r="A91" s="159"/>
       <c r="B91" s="122" t="s">
         <v>44</v>
@@ -15360,7 +15379,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.6">
+    <row r="92" spans="1:3" ht="15.5">
       <c r="A92" s="159"/>
       <c r="B92" s="122" t="s">
         <v>44</v>
@@ -15369,7 +15388,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.6">
+    <row r="93" spans="1:3" ht="15.5">
       <c r="A93" s="159"/>
       <c r="B93" s="122" t="s">
         <v>44</v>
@@ -15378,7 +15397,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.6">
+    <row r="94" spans="1:3" ht="15.5">
       <c r="A94" s="159"/>
       <c r="B94" s="122" t="s">
         <v>44</v>
@@ -15387,7 +15406,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.6">
+    <row r="95" spans="1:3" ht="15.5">
       <c r="A95" s="159"/>
       <c r="B95" s="122" t="s">
         <v>44</v>
@@ -15396,7 +15415,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.6">
+    <row r="96" spans="1:3" ht="15.5">
       <c r="A96" s="159"/>
       <c r="B96" s="122" t="s">
         <v>44</v>
@@ -15405,7 +15424,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15.6">
+    <row r="97" spans="1:3" ht="15.5">
       <c r="A97" s="159"/>
       <c r="B97" s="122" t="s">
         <v>44</v>
@@ -15414,7 +15433,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15.6">
+    <row r="98" spans="1:3" ht="15.5">
       <c r="A98" s="159"/>
       <c r="B98" s="122" t="s">
         <v>44</v>
@@ -15423,7 +15442,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.6">
+    <row r="99" spans="1:3" ht="15.5">
       <c r="A99" s="159"/>
       <c r="B99" s="122" t="s">
         <v>44</v>
@@ -15432,7 +15451,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.6">
+    <row r="100" spans="1:3" ht="15.5">
       <c r="A100" s="159"/>
       <c r="B100" s="122" t="s">
         <v>44</v>
@@ -15441,7 +15460,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15.6">
+    <row r="101" spans="1:3" ht="15.5">
       <c r="A101" s="159"/>
       <c r="B101" s="122" t="s">
         <v>44</v>
@@ -15450,7 +15469,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15.6">
+    <row r="102" spans="1:3" ht="15.5">
       <c r="A102" s="159"/>
       <c r="B102" s="122" t="s">
         <v>44</v>
@@ -15459,7 +15478,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.6">
+    <row r="103" spans="1:3" ht="15.5">
       <c r="A103" s="159"/>
       <c r="B103" s="122" t="s">
         <v>44</v>
@@ -15468,7 +15487,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15.6">
+    <row r="104" spans="1:3" ht="15.5">
       <c r="A104" s="159"/>
       <c r="B104" s="122" t="s">
         <v>44</v>
@@ -15477,7 +15496,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.6">
+    <row r="105" spans="1:3" ht="15.5">
       <c r="A105" s="159"/>
       <c r="B105" s="122" t="s">
         <v>44</v>
@@ -15486,7 +15505,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15.6">
+    <row r="106" spans="1:3" ht="15.5">
       <c r="A106" s="159"/>
       <c r="B106" s="122" t="s">
         <v>44</v>
@@ -15495,7 +15514,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15.6">
+    <row r="107" spans="1:3" ht="15.5">
       <c r="A107" s="159"/>
       <c r="B107" s="122" t="s">
         <v>44</v>
@@ -15504,7 +15523,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15.6">
+    <row r="108" spans="1:3" ht="15.5">
       <c r="A108" s="159"/>
       <c r="B108" s="122" t="s">
         <v>44</v>
@@ -15513,7 +15532,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15.6">
+    <row r="109" spans="1:3" ht="15.5">
       <c r="A109" s="159"/>
       <c r="B109" s="122" t="s">
         <v>44</v>
@@ -15522,7 +15541,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15.6">
+    <row r="110" spans="1:3" ht="15.5">
       <c r="A110" s="159"/>
       <c r="B110" s="122" t="s">
         <v>44</v>
@@ -15531,7 +15550,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15.6">
+    <row r="111" spans="1:3" ht="15.5">
       <c r="A111" s="159"/>
       <c r="B111" s="122" t="s">
         <v>44</v>
@@ -15540,7 +15559,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15.6">
+    <row r="112" spans="1:3" ht="15.5">
       <c r="A112" s="159"/>
       <c r="B112" s="122" t="s">
         <v>44</v>
@@ -15549,7 +15568,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15.6">
+    <row r="113" spans="1:3" ht="15.5">
       <c r="A113" s="159"/>
       <c r="B113" s="122" t="s">
         <v>44</v>
@@ -15558,7 +15577,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15.6">
+    <row r="114" spans="1:3" ht="15.5">
       <c r="A114" s="159"/>
       <c r="B114" s="122" t="s">
         <v>44</v>
@@ -15567,7 +15586,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.6">
+    <row r="115" spans="1:3" ht="15.5">
       <c r="A115" s="159"/>
       <c r="B115" s="122" t="s">
         <v>44</v>
@@ -15576,7 +15595,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.6">
+    <row r="116" spans="1:3" ht="15.5">
       <c r="A116" s="159"/>
       <c r="B116" s="122" t="s">
         <v>44</v>
@@ -15585,7 +15604,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.6">
+    <row r="117" spans="1:3" ht="15.5">
       <c r="A117" s="159"/>
       <c r="B117" s="122" t="s">
         <v>44</v>
@@ -15594,7 +15613,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.6">
+    <row r="118" spans="1:3" ht="15.5">
       <c r="A118" s="159"/>
       <c r="B118" s="122" t="s">
         <v>44</v>
@@ -15603,7 +15622,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.6">
+    <row r="119" spans="1:3" ht="15.5">
       <c r="A119" s="159"/>
       <c r="B119" s="122" t="s">
         <v>44</v>
@@ -15612,7 +15631,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.6">
+    <row r="120" spans="1:3" ht="15.5">
       <c r="A120" s="159"/>
       <c r="B120" s="122" t="s">
         <v>44</v>
@@ -15621,7 +15640,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.6">
+    <row r="121" spans="1:3" ht="15.5">
       <c r="A121" s="159"/>
       <c r="B121" s="122" t="s">
         <v>44</v>
@@ -15630,7 +15649,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15.6">
+    <row r="122" spans="1:3" ht="15.5">
       <c r="A122" s="159"/>
       <c r="B122" s="122" t="s">
         <v>44</v>
@@ -15639,7 +15658,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15.6">
+    <row r="123" spans="1:3" ht="15.5">
       <c r="A123" s="159"/>
       <c r="B123" s="122" t="s">
         <v>44</v>
@@ -15648,7 +15667,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15.6">
+    <row r="124" spans="1:3" ht="15.5">
       <c r="A124" s="159"/>
       <c r="B124" s="122" t="s">
         <v>44</v>
@@ -15657,7 +15676,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15.6">
+    <row r="125" spans="1:3" ht="15.5">
       <c r="A125" s="159"/>
       <c r="B125" s="122" t="s">
         <v>44</v>
@@ -15666,7 +15685,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.6">
+    <row r="126" spans="1:3" ht="15.5">
       <c r="A126" s="159"/>
       <c r="B126" s="122" t="s">
         <v>44</v>
@@ -15675,7 +15694,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15.6">
+    <row r="127" spans="1:3" ht="15.5">
       <c r="A127" s="159"/>
       <c r="B127" s="122" t="s">
         <v>44</v>
@@ -15684,7 +15703,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.6">
+    <row r="128" spans="1:3" ht="15.5">
       <c r="A128" s="159"/>
       <c r="B128" s="122" t="s">
         <v>44</v>
@@ -15693,7 +15712,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15.6">
+    <row r="129" spans="1:3" ht="15.5">
       <c r="A129" s="159"/>
       <c r="B129" s="122" t="s">
         <v>44</v>
@@ -15702,7 +15721,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15.6">
+    <row r="130" spans="1:3" ht="15.5">
       <c r="A130" s="159"/>
       <c r="B130" s="122" t="s">
         <v>44</v>
@@ -15711,7 +15730,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15.6">
+    <row r="131" spans="1:3" ht="15.5">
       <c r="A131" s="159"/>
       <c r="B131" s="122" t="s">
         <v>44</v>
@@ -15720,7 +15739,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15.6">
+    <row r="132" spans="1:3" ht="15.5">
       <c r="A132" s="159"/>
       <c r="B132" s="122" t="s">
         <v>44</v>
@@ -15729,7 +15748,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15.6">
+    <row r="133" spans="1:3" ht="15.5">
       <c r="A133" s="159"/>
       <c r="B133" s="122" t="s">
         <v>44</v>
@@ -15738,7 +15757,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15.6">
+    <row r="134" spans="1:3" ht="15.5">
       <c r="A134" s="159"/>
       <c r="B134" s="122" t="s">
         <v>44</v>
@@ -15747,7 +15766,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15.6">
+    <row r="135" spans="1:3" ht="15.5">
       <c r="A135" s="159"/>
       <c r="B135" s="122" t="s">
         <v>44</v>
@@ -15756,7 +15775,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15.6">
+    <row r="136" spans="1:3" ht="15.5">
       <c r="A136" s="159"/>
       <c r="B136" s="122" t="s">
         <v>44</v>
@@ -15765,7 +15784,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.6">
+    <row r="137" spans="1:3" ht="15.5">
       <c r="A137" s="159"/>
       <c r="B137" s="122" t="s">
         <v>44</v>
@@ -15774,7 +15793,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15.6">
+    <row r="138" spans="1:3" ht="15.5">
       <c r="A138" s="159"/>
       <c r="B138" s="122" t="s">
         <v>44</v>
@@ -15783,7 +15802,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15.6">
+    <row r="139" spans="1:3" ht="15.5">
       <c r="A139" s="159"/>
       <c r="B139" s="122" t="s">
         <v>44</v>
@@ -15792,7 +15811,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15.6">
+    <row r="140" spans="1:3" ht="15.5">
       <c r="A140" s="159"/>
       <c r="B140" s="122" t="s">
         <v>44</v>
@@ -15801,7 +15820,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15.6">
+    <row r="141" spans="1:3" ht="15.5">
       <c r="A141" s="159"/>
       <c r="B141" s="122" t="s">
         <v>44</v>
@@ -15810,7 +15829,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15.6">
+    <row r="142" spans="1:3" ht="15.5">
       <c r="A142" s="159"/>
       <c r="B142" s="122" t="s">
         <v>44</v>
@@ -15819,7 +15838,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.6">
+    <row r="143" spans="1:3" ht="15.5">
       <c r="A143" s="159"/>
       <c r="B143" s="122" t="s">
         <v>44</v>
@@ -15828,7 +15847,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.6">
+    <row r="144" spans="1:3" ht="15.5">
       <c r="A144" s="159"/>
       <c r="B144" s="122" t="s">
         <v>44</v>
@@ -15837,7 +15856,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15.6">
+    <row r="145" spans="1:3" ht="15.5">
       <c r="A145" s="159"/>
       <c r="B145" s="122" t="s">
         <v>44</v>
@@ -15846,7 +15865,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15.6">
+    <row r="146" spans="1:3" ht="15.5">
       <c r="A146" s="159"/>
       <c r="B146" s="122" t="s">
         <v>44</v>
@@ -15855,7 +15874,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15.6">
+    <row r="147" spans="1:3" ht="15.5">
       <c r="A147" s="159"/>
       <c r="B147" s="122" t="s">
         <v>44</v>
@@ -15864,7 +15883,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15.6">
+    <row r="148" spans="1:3" ht="15.5">
       <c r="A148" s="159"/>
       <c r="B148" s="122" t="s">
         <v>44</v>
@@ -15873,7 +15892,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15.6">
+    <row r="149" spans="1:3" ht="15.5">
       <c r="A149" s="159"/>
       <c r="B149" s="122" t="s">
         <v>44</v>
@@ -15882,7 +15901,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15.6">
+    <row r="150" spans="1:3" ht="15.5">
       <c r="A150" s="159"/>
       <c r="B150" s="122" t="s">
         <v>44</v>
@@ -15891,7 +15910,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15.6">
+    <row r="151" spans="1:3" ht="15.5">
       <c r="A151" s="159"/>
       <c r="B151" s="122" t="s">
         <v>44</v>
@@ -15954,7 +15973,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15.6">
+    <row r="158" spans="1:3" ht="15.5">
       <c r="A158" s="159"/>
       <c r="B158" s="122" t="s">
         <v>31</v>
@@ -15963,7 +15982,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15.6">
+    <row r="159" spans="1:3" ht="15.5">
       <c r="A159" s="159"/>
       <c r="B159" s="122" t="s">
         <v>31</v>
@@ -15972,7 +15991,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15.6">
+    <row r="160" spans="1:3" ht="15.5">
       <c r="A160" s="159"/>
       <c r="B160" s="122" t="s">
         <v>31</v>
@@ -16620,7 +16639,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="26.4">
+    <row r="232" spans="1:3">
       <c r="A232" s="159"/>
       <c r="B232" s="124" t="s">
         <v>879</v>
@@ -17466,7 +17485,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="15.6">
+    <row r="326" spans="1:3" ht="15.5">
       <c r="A326" s="160" t="s">
         <v>479</v>
       </c>
@@ -18953,7 +18972,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="491" spans="1:3" ht="26.4">
+    <row r="491" spans="1:3">
       <c r="A491" s="161"/>
       <c r="B491" s="22" t="s">
         <v>899</v>
@@ -19205,7 +19224,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="519" spans="1:3" ht="15.6">
+    <row r="519" spans="1:3" ht="15.5">
       <c r="A519" s="162" t="s">
         <v>480</v>
       </c>
@@ -19216,7 +19235,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="520" spans="1:3" ht="15.6">
+    <row r="520" spans="1:3" ht="15.5">
       <c r="A520" s="163"/>
       <c r="B520" s="21" t="s">
         <v>418</v>
@@ -19225,7 +19244,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="521" spans="1:3" ht="15.6">
+    <row r="521" spans="1:3" ht="15.5">
       <c r="A521" s="163"/>
       <c r="B521" s="21" t="s">
         <v>418</v>
@@ -19234,7 +19253,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="522" spans="1:3" ht="15.6">
+    <row r="522" spans="1:3" ht="15.5">
       <c r="A522" s="163"/>
       <c r="B522" s="21" t="s">
         <v>418</v>
@@ -19261,7 +19280,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="525" spans="1:3" ht="15.6">
+    <row r="525" spans="1:3" ht="15.5">
       <c r="A525" s="163"/>
       <c r="B525" s="21" t="s">
         <v>418</v>
@@ -19270,7 +19289,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="526" spans="1:3" ht="15.6">
+    <row r="526" spans="1:3" ht="15.5">
       <c r="A526" s="163"/>
       <c r="B526" s="21" t="s">
         <v>418</v>
@@ -19279,7 +19298,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="527" spans="1:3" ht="15.6">
+    <row r="527" spans="1:3" ht="15.5">
       <c r="A527" s="163"/>
       <c r="B527" s="21" t="s">
         <v>44</v>
@@ -19288,7 +19307,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="528" spans="1:3" ht="15.6">
+    <row r="528" spans="1:3" ht="15.5">
       <c r="A528" s="163"/>
       <c r="B528" s="21" t="s">
         <v>44</v>
@@ -19297,7 +19316,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="529" spans="1:3" ht="15.6">
+    <row r="529" spans="1:3" ht="15.5">
       <c r="A529" s="163"/>
       <c r="B529" s="21" t="s">
         <v>44</v>
@@ -19306,7 +19325,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="530" spans="1:3" ht="15.6">
+    <row r="530" spans="1:3" ht="15.5">
       <c r="A530" s="163"/>
       <c r="B530" s="21" t="s">
         <v>44</v>
@@ -19315,7 +19334,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="531" spans="1:3" ht="15.6">
+    <row r="531" spans="1:3" ht="15.5">
       <c r="A531" s="163"/>
       <c r="B531" s="21" t="s">
         <v>44</v>
@@ -19324,7 +19343,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="532" spans="1:3" ht="15.6">
+    <row r="532" spans="1:3" ht="15.5">
       <c r="A532" s="163"/>
       <c r="B532" s="21" t="s">
         <v>44</v>
@@ -19333,7 +19352,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="533" spans="1:3" ht="15.6">
+    <row r="533" spans="1:3" ht="15.5">
       <c r="A533" s="163"/>
       <c r="B533" s="21" t="s">
         <v>44</v>
@@ -19342,7 +19361,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="534" spans="1:3" ht="15.6">
+    <row r="534" spans="1:3" ht="15.5">
       <c r="A534" s="163"/>
       <c r="B534" s="21" t="s">
         <v>422</v>
@@ -19351,7 +19370,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="535" spans="1:3" ht="15.6">
+    <row r="535" spans="1:3" ht="15.5">
       <c r="A535" s="163"/>
       <c r="B535" s="21" t="s">
         <v>422</v>
@@ -19360,7 +19379,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="536" spans="1:3" ht="15.6">
+    <row r="536" spans="1:3" ht="15.5">
       <c r="A536" s="163"/>
       <c r="B536" s="21" t="s">
         <v>422</v>
@@ -19369,7 +19388,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="537" spans="1:3" ht="15.6">
+    <row r="537" spans="1:3" ht="15.5">
       <c r="A537" s="163"/>
       <c r="B537" s="21" t="s">
         <v>422</v>
@@ -19378,7 +19397,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="538" spans="1:3" ht="15.6">
+    <row r="538" spans="1:3" ht="15.5">
       <c r="A538" s="163"/>
       <c r="B538" s="21" t="s">
         <v>422</v>
@@ -19387,7 +19406,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="539" spans="1:3" ht="15.6">
+    <row r="539" spans="1:3" ht="15.5">
       <c r="A539" s="163"/>
       <c r="B539" s="21" t="s">
         <v>422</v>
@@ -19396,7 +19415,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="540" spans="1:3" ht="15.6">
+    <row r="540" spans="1:3" ht="15.5">
       <c r="A540" s="163"/>
       <c r="B540" s="21" t="s">
         <v>422</v>
@@ -19405,7 +19424,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="541" spans="1:3" ht="15.6">
+    <row r="541" spans="1:3" ht="15.5">
       <c r="A541" s="163"/>
       <c r="B541" s="21" t="s">
         <v>422</v>
@@ -19414,7 +19433,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="542" spans="1:3" ht="15.6">
+    <row r="542" spans="1:3" ht="15.5">
       <c r="A542" s="163"/>
       <c r="B542" s="21" t="s">
         <v>422</v>
@@ -19423,7 +19442,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="543" spans="1:3" ht="15.6">
+    <row r="543" spans="1:3" ht="15.5">
       <c r="A543" s="163"/>
       <c r="B543" s="21" t="s">
         <v>422</v>
@@ -19432,7 +19451,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="544" spans="1:3" ht="15.6">
+    <row r="544" spans="1:3" ht="15.5">
       <c r="A544" s="163"/>
       <c r="B544" s="21" t="s">
         <v>422</v>
@@ -19441,7 +19460,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="545" spans="1:3" ht="15.6">
+    <row r="545" spans="1:3" ht="15.5">
       <c r="A545" s="163"/>
       <c r="B545" s="21" t="s">
         <v>422</v>
@@ -19450,7 +19469,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="546" spans="1:3" ht="15.6">
+    <row r="546" spans="1:3" ht="15.5">
       <c r="A546" s="163"/>
       <c r="B546" s="21" t="s">
         <v>419</v>
@@ -19459,7 +19478,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="547" spans="1:3" ht="15.6">
+    <row r="547" spans="1:3" ht="15.5">
       <c r="A547" s="163"/>
       <c r="B547" s="21" t="s">
         <v>419</v>
@@ -19468,7 +19487,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="548" spans="1:3" ht="15.6">
+    <row r="548" spans="1:3" ht="15.5">
       <c r="A548" s="163"/>
       <c r="B548" s="21" t="s">
         <v>419</v>
@@ -19477,7 +19496,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="549" spans="1:3" ht="15.6">
+    <row r="549" spans="1:3" ht="15.5">
       <c r="A549" s="163"/>
       <c r="B549" s="21" t="s">
         <v>419</v>
@@ -19486,7 +19505,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="550" spans="1:3" ht="15.6">
+    <row r="550" spans="1:3" ht="15.5">
       <c r="A550" s="163"/>
       <c r="B550" s="21" t="s">
         <v>419</v>
@@ -19711,7 +19730,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="575" spans="1:3" ht="14.4">
+    <row r="575" spans="1:3" ht="14.5">
       <c r="A575" s="5"/>
       <c r="B575" s="121" t="s">
         <v>1032</v>
@@ -19748,13 +19767,13 @@
       <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="28.109375" style="125" customWidth="1"/>
+    <col min="2" max="2" width="28.08203125" style="125" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="7" t="s">
         <v>402</v>
       </c>
@@ -20762,7 +20781,7 @@
       <selection activeCell="S39" sqref="S38:T39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="51" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20780,317 +20799,317 @@
       <selection activeCell="O81" sqref="O81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="22.2" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="22.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="33" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="16.95" customHeight="1">
+    <row r="1" spans="1:1" ht="17" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="12.45" customHeight="1">
+    <row r="2" spans="1:1" ht="12.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="12.45" customHeight="1">
+    <row r="3" spans="1:1" ht="12.5" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="12.45" customHeight="1">
+    <row r="4" spans="1:1" ht="12.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="12.45" customHeight="1">
+    <row r="5" spans="1:1" ht="12.5" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="12.45" customHeight="1">
+    <row r="6" spans="1:1" ht="12.5" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="12.45" customHeight="1">
+    <row r="7" spans="1:1" ht="12.5" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="12.45" customHeight="1">
+    <row r="8" spans="1:1" ht="12.5" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="12.45" customHeight="1">
+    <row r="9" spans="1:1" ht="12.5" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="12.45" customHeight="1">
+    <row r="10" spans="1:1" ht="12.5" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="12.45" customHeight="1">
+    <row r="11" spans="1:1" ht="12.5" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="12.45" customHeight="1">
+    <row r="12" spans="1:1" ht="12.5" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="12.45" customHeight="1">
+    <row r="13" spans="1:1" ht="12.5" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="12.45" customHeight="1">
+    <row r="14" spans="1:1" ht="12.5" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="12.45" customHeight="1">
+    <row r="15" spans="1:1" ht="12.5" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="12.45" customHeight="1">
+    <row r="16" spans="1:1" ht="12.5" customHeight="1">
       <c r="A16" s="3" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="12.45" customHeight="1">
+    <row r="17" spans="1:1" ht="12.5" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="12.45" customHeight="1">
+    <row r="18" spans="1:1" ht="12.5" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="12.45" customHeight="1">
+    <row r="19" spans="1:1" ht="12.5" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="12.45" customHeight="1">
+    <row r="20" spans="1:1" ht="12.5" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="12.45" customHeight="1">
+    <row r="21" spans="1:1" ht="12.5" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="12.45" customHeight="1">
+    <row r="22" spans="1:1" ht="12.5" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="12.45" customHeight="1">
+    <row r="23" spans="1:1" ht="12.5" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="12.45" customHeight="1">
+    <row r="24" spans="1:1" ht="12.5" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="12.45" customHeight="1">
+    <row r="25" spans="1:1" ht="12.5" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="12.45" customHeight="1">
+    <row r="26" spans="1:1" ht="12.5" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="12.45" customHeight="1">
+    <row r="27" spans="1:1" ht="12.5" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="12.45" customHeight="1">
+    <row r="28" spans="1:1" ht="12.5" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="12.45" customHeight="1">
+    <row r="29" spans="1:1" ht="12.5" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="12.45" customHeight="1">
+    <row r="30" spans="1:1" ht="12.5" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="12.45" customHeight="1">
+    <row r="31" spans="1:1" ht="12.5" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="12.45" customHeight="1">
+    <row r="32" spans="1:1" ht="12.5" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="12.45" customHeight="1">
+    <row r="33" spans="1:1" ht="12.5" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="12.45" customHeight="1">
+    <row r="34" spans="1:1" ht="12.5" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="12.45" customHeight="1">
+    <row r="35" spans="1:1" ht="12.5" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="12.45" customHeight="1">
+    <row r="36" spans="1:1" ht="12.5" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="12.45" customHeight="1">
+    <row r="37" spans="1:1" ht="12.5" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="12.45" customHeight="1">
+    <row r="38" spans="1:1" ht="12.5" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="12.45" customHeight="1">
+    <row r="39" spans="1:1" ht="12.5" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="12.45" customHeight="1">
+    <row r="40" spans="1:1" ht="12.5" customHeight="1">
       <c r="A40" s="4" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="12.45" customHeight="1">
+    <row r="41" spans="1:1" ht="12.5" customHeight="1">
       <c r="A41" s="4" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="12.45" customHeight="1">
+    <row r="42" spans="1:1" ht="12.5" customHeight="1">
       <c r="A42" s="4" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="12.45" customHeight="1">
+    <row r="43" spans="1:1" ht="12.5" customHeight="1">
       <c r="A43" s="4" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="12.45" customHeight="1">
+    <row r="44" spans="1:1" ht="12.5" customHeight="1">
       <c r="A44" s="4" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="12.45" customHeight="1">
+    <row r="45" spans="1:1" ht="12.5" customHeight="1">
       <c r="A45" s="4" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="12.45" customHeight="1">
+    <row r="46" spans="1:1" ht="12.5" customHeight="1">
       <c r="A46" s="4" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="12.45" customHeight="1">
+    <row r="47" spans="1:1" ht="12.5" customHeight="1">
       <c r="A47" s="4" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="12.45" customHeight="1">
+    <row r="48" spans="1:1" ht="12.5" customHeight="1">
       <c r="A48" s="4" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="12.45" customHeight="1">
+    <row r="49" spans="1:1" ht="12.5" customHeight="1">
       <c r="A49" s="4" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="12.45" customHeight="1">
+    <row r="50" spans="1:1" ht="12.5" customHeight="1">
       <c r="A50" s="4" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="12.45" customHeight="1">
+    <row r="51" spans="1:1" ht="12.5" customHeight="1">
       <c r="A51" s="4" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="12.45" customHeight="1">
+    <row r="52" spans="1:1" ht="12.5" customHeight="1">
       <c r="A52" s="4" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="12.45" customHeight="1">
+    <row r="53" spans="1:1" ht="12.5" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="12.45" customHeight="1">
+    <row r="54" spans="1:1" ht="12.5" customHeight="1">
       <c r="A54" s="4" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="12.45" customHeight="1">
+    <row r="55" spans="1:1" ht="12.5" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="12.45" customHeight="1">
+    <row r="56" spans="1:1" ht="12.5" customHeight="1">
       <c r="A56" s="4" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="12.45" customHeight="1">
+    <row r="57" spans="1:1" ht="12.5" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="12.45" customHeight="1">
+    <row r="58" spans="1:1" ht="12.5" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="12.45" customHeight="1">
+    <row r="59" spans="1:1" ht="12.5" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="12.45" customHeight="1">
+    <row r="60" spans="1:1" ht="12.5" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="12.45" customHeight="1">
+    <row r="61" spans="1:1" ht="12.5" customHeight="1">
       <c r="A61" s="4" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="12.45" customHeight="1">
+    <row r="62" spans="1:1" ht="12.5" customHeight="1">
       <c r="A62" s="4" t="s">
         <v>1031</v>
       </c>
@@ -21109,19 +21128,19 @@
   </sheetPr>
   <dimension ref="A1:D156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A132" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C139" sqref="C139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="26.33203125" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" customWidth="1"/>
     <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4">
+    <row r="1" spans="1:4">
       <c r="A1" s="135" t="s">
         <v>423</v>
       </c>
@@ -21619,7 +21638,7 @@
       </c>
       <c r="D41" s="41"/>
     </row>
-    <row r="42" spans="1:4" ht="16.95" customHeight="1">
+    <row r="42" spans="1:4" ht="17" customHeight="1">
       <c r="A42" s="40" t="s">
         <v>1139</v>
       </c>
@@ -22235,7 +22254,7 @@
       </c>
       <c r="D92" s="40"/>
     </row>
-    <row r="93" spans="1:4" ht="14.4">
+    <row r="93" spans="1:4">
       <c r="A93" s="40" t="s">
         <v>1167</v>
       </c>
@@ -22247,7 +22266,7 @@
       </c>
       <c r="D93" s="41"/>
     </row>
-    <row r="94" spans="1:4" ht="14.4">
+    <row r="94" spans="1:4">
       <c r="A94" s="40" t="s">
         <v>1167</v>
       </c>
@@ -22259,7 +22278,7 @@
       </c>
       <c r="D94" s="41"/>
     </row>
-    <row r="95" spans="1:4" ht="14.4">
+    <row r="95" spans="1:4">
       <c r="A95" s="40" t="s">
         <v>1167</v>
       </c>
@@ -22271,7 +22290,7 @@
       </c>
       <c r="D95" s="41"/>
     </row>
-    <row r="96" spans="1:4" ht="14.4">
+    <row r="96" spans="1:4">
       <c r="A96" s="40" t="s">
         <v>1167</v>
       </c>
@@ -22283,7 +22302,7 @@
       </c>
       <c r="D96" s="41"/>
     </row>
-    <row r="97" spans="1:4" ht="14.4">
+    <row r="97" spans="1:4">
       <c r="A97" s="40" t="s">
         <v>1173</v>
       </c>
@@ -22295,7 +22314,7 @@
       </c>
       <c r="D97" s="41"/>
     </row>
-    <row r="98" spans="1:4" ht="14.4">
+    <row r="98" spans="1:4">
       <c r="A98" s="40" t="s">
         <v>1173</v>
       </c>
@@ -22307,7 +22326,7 @@
       </c>
       <c r="D98" s="41"/>
     </row>
-    <row r="99" spans="1:4" ht="14.4">
+    <row r="99" spans="1:4">
       <c r="A99" s="40" t="s">
         <v>1173</v>
       </c>
@@ -22990,15 +23009,15 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.4140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -23012,7 +23031,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.2" customHeight="1">
+    <row r="2" spans="1:3" ht="13.25" customHeight="1">
       <c r="A2" s="38" t="s">
         <v>47</v>
       </c>
@@ -23023,7 +23042,7 @@
         <v>4008301118</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.2" customHeight="1">
+    <row r="3" spans="1:3" ht="13.25" customHeight="1">
       <c r="A3" s="38" t="s">
         <v>348</v>
       </c>
@@ -23034,7 +23053,7 @@
         <v>4006103888</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.2" customHeight="1">
+    <row r="4" spans="1:3" ht="13.25" customHeight="1">
       <c r="A4" s="38" t="s">
         <v>28</v>
       </c>
@@ -23045,7 +23064,7 @@
         <v>4008600011</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.2" customHeight="1">
+    <row r="5" spans="1:3" ht="13.25" customHeight="1">
       <c r="A5" s="38" t="s">
         <v>262</v>
       </c>
@@ -23056,7 +23075,7 @@
         <v>4000098999</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.2" customHeight="1">
+    <row r="6" spans="1:3" ht="13.25" customHeight="1">
       <c r="A6" s="38" t="s">
         <v>31</v>
       </c>
@@ -23067,7 +23086,7 @@
         <v>4008229999</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="13.2" customHeight="1">
+    <row r="7" spans="1:3" ht="13.25" customHeight="1">
       <c r="A7" s="38" t="s">
         <v>409</v>
       </c>
@@ -23078,7 +23097,7 @@
         <v>4008100504</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="13.2" customHeight="1">
+    <row r="8" spans="1:3" ht="13.25" customHeight="1">
       <c r="A8" s="38" t="s">
         <v>411</v>
       </c>
@@ -23089,7 +23108,7 @@
         <v>4008845117</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="13.2" customHeight="1">
+    <row r="9" spans="1:3" ht="13.25" customHeight="1">
       <c r="A9" s="38" t="s">
         <v>41</v>
       </c>
@@ -23100,7 +23119,7 @@
         <v>4008890787</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="13.2" customHeight="1">
+    <row r="10" spans="1:3" ht="13.25" customHeight="1">
       <c r="A10" s="38" t="s">
         <v>387</v>
       </c>
@@ -23111,7 +23130,7 @@
         <v>4008100466</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.2" customHeight="1">
+    <row r="11" spans="1:3" ht="13.25" customHeight="1">
       <c r="A11" s="38" t="s">
         <v>414</v>
       </c>
@@ -23120,7 +23139,7 @@
         <v>4001068888</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13.2" customHeight="1">
+    <row r="12" spans="1:3" ht="13.25" customHeight="1">
       <c r="A12" s="38" t="s">
         <v>221</v>
       </c>
@@ -23131,7 +23150,7 @@
         <v>4008111000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="13.2" customHeight="1">
+    <row r="13" spans="1:3" ht="13.25" customHeight="1">
       <c r="A13" s="38" t="s">
         <v>416</v>
       </c>
@@ -23140,7 +23159,7 @@
         <v>4009400860</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="13.2" customHeight="1">
+    <row r="14" spans="1:3" ht="13.25" customHeight="1">
       <c r="A14" s="38" t="s">
         <v>357</v>
       </c>
@@ -23149,7 +23168,7 @@
         <v>4008101818</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="13.2" customHeight="1">
+    <row r="15" spans="1:3" ht="13.25" customHeight="1">
       <c r="A15" s="38" t="s">
         <v>417</v>
       </c>
@@ -23158,7 +23177,7 @@
         <v>4008160688</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="13.2" customHeight="1">
+    <row r="16" spans="1:3" ht="13.25" customHeight="1">
       <c r="A16" s="39" t="s">
         <v>418</v>
       </c>
@@ -23167,7 +23186,7 @@
         <v>95015</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="13.2" customHeight="1">
+    <row r="17" spans="1:3" ht="13.25" customHeight="1">
       <c r="A17" s="39" t="s">
         <v>419</v>
       </c>
@@ -23178,7 +23197,7 @@
         <v>4006059110</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="13.2" customHeight="1">
+    <row r="18" spans="1:3" ht="13.25" customHeight="1">
       <c r="A18" s="39" t="s">
         <v>421</v>
       </c>
@@ -23187,7 +23206,7 @@
         <v>4008186868</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="13.2" customHeight="1">
+    <row r="19" spans="1:3" ht="13.25" customHeight="1">
       <c r="A19" s="38" t="s">
         <v>422</v>
       </c>
@@ -23224,14 +23243,14 @@
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="144" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" style="132" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.75" style="144" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.9140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.08203125" style="132" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19.95" customHeight="1">
+    <row r="1" spans="1:3" ht="20" customHeight="1">
       <c r="A1" s="142" t="s">
         <v>200</v>
       </c>
@@ -23242,7 +23261,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="19.95" customHeight="1">
+    <row r="2" spans="1:3" ht="20" customHeight="1">
       <c r="A2" s="143" t="s">
         <v>76</v>
       </c>
@@ -23253,7 +23272,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="19.95" customHeight="1">
+    <row r="3" spans="1:3" ht="20" customHeight="1">
       <c r="A3" s="143" t="s">
         <v>76</v>
       </c>
@@ -23264,7 +23283,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="19.95" customHeight="1">
+    <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="143" t="s">
         <v>76</v>
       </c>
@@ -23275,7 +23294,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19.95" customHeight="1">
+    <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="143" t="s">
         <v>76</v>
       </c>
@@ -23286,7 +23305,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19.95" customHeight="1">
+    <row r="6" spans="1:3" ht="20" customHeight="1">
       <c r="A6" s="143" t="s">
         <v>76</v>
       </c>
@@ -23297,7 +23316,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.95" customHeight="1">
+    <row r="7" spans="1:3" ht="20" customHeight="1">
       <c r="A7" s="143" t="s">
         <v>76</v>
       </c>
@@ -23308,7 +23327,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="19.95" customHeight="1">
+    <row r="8" spans="1:3" ht="20" customHeight="1">
       <c r="A8" s="143" t="s">
         <v>76</v>
       </c>
@@ -23319,7 +23338,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.95" customHeight="1">
+    <row r="9" spans="1:3" ht="20" customHeight="1">
       <c r="A9" s="143" t="s">
         <v>76</v>
       </c>
@@ -23330,7 +23349,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19.95" customHeight="1">
+    <row r="10" spans="1:3" ht="20" customHeight="1">
       <c r="A10" s="143" t="s">
         <v>76</v>
       </c>
@@ -23341,7 +23360,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="19.95" customHeight="1">
+    <row r="11" spans="1:3" ht="20" customHeight="1">
       <c r="A11" s="143" t="s">
         <v>76</v>
       </c>
@@ -23352,7 +23371,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="19.95" customHeight="1">
+    <row r="12" spans="1:3" ht="20" customHeight="1">
       <c r="A12" s="143" t="s">
         <v>76</v>
       </c>
@@ -23363,7 +23382,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="19.95" customHeight="1">
+    <row r="13" spans="1:3" ht="20" customHeight="1">
       <c r="A13" s="143" t="s">
         <v>76</v>
       </c>
@@ -23374,7 +23393,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="19.95" customHeight="1">
+    <row r="14" spans="1:3" ht="20" customHeight="1">
       <c r="A14" s="143" t="s">
         <v>76</v>
       </c>
@@ -23385,7 +23404,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="19.95" customHeight="1">
+    <row r="15" spans="1:3" ht="20" customHeight="1">
       <c r="A15" s="143" t="s">
         <v>76</v>
       </c>
@@ -23396,7 +23415,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="19.95" customHeight="1">
+    <row r="16" spans="1:3" ht="20" customHeight="1">
       <c r="A16" s="143" t="s">
         <v>76</v>
       </c>
@@ -23407,7 +23426,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="19.95" customHeight="1">
+    <row r="17" spans="1:3" ht="20" customHeight="1">
       <c r="A17" s="143" t="s">
         <v>76</v>
       </c>
@@ -23418,7 +23437,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="19.95" customHeight="1">
+    <row r="18" spans="1:3" ht="20" customHeight="1">
       <c r="A18" s="143" t="s">
         <v>76</v>
       </c>
@@ -23429,7 +23448,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="19.95" customHeight="1">
+    <row r="19" spans="1:3" ht="20" customHeight="1">
       <c r="A19" s="143" t="s">
         <v>76</v>
       </c>
@@ -23440,7 +23459,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="19.95" customHeight="1">
+    <row r="20" spans="1:3" ht="20" customHeight="1">
       <c r="A20" s="143" t="s">
         <v>76</v>
       </c>
@@ -23451,7 +23470,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="19.95" customHeight="1">
+    <row r="21" spans="1:3" ht="20" customHeight="1">
       <c r="A21" s="143" t="s">
         <v>76</v>
       </c>
@@ -23462,7 +23481,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="19.95" customHeight="1">
+    <row r="22" spans="1:3" ht="20" customHeight="1">
       <c r="A22" s="143" t="s">
         <v>76</v>
       </c>
@@ -23473,7 +23492,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="19.95" customHeight="1">
+    <row r="23" spans="1:3" ht="20" customHeight="1">
       <c r="A23" s="143" t="s">
         <v>76</v>
       </c>
@@ -23484,7 +23503,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="19.95" customHeight="1">
+    <row r="24" spans="1:3" ht="20" customHeight="1">
       <c r="A24" s="143" t="s">
         <v>76</v>
       </c>
@@ -23495,7 +23514,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="19.95" customHeight="1">
+    <row r="25" spans="1:3" ht="20" customHeight="1">
       <c r="A25" s="143" t="s">
         <v>76</v>
       </c>
@@ -23506,7 +23525,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="19.95" customHeight="1">
+    <row r="26" spans="1:3" ht="20" customHeight="1">
       <c r="A26" s="143" t="s">
         <v>76</v>
       </c>
@@ -23517,7 +23536,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="19.95" customHeight="1">
+    <row r="27" spans="1:3" ht="20" customHeight="1">
       <c r="A27" s="143" t="s">
         <v>76</v>
       </c>
@@ -23528,7 +23547,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="19.95" customHeight="1">
+    <row r="28" spans="1:3" ht="20" customHeight="1">
       <c r="A28" s="143" t="s">
         <v>76</v>
       </c>
@@ -23539,7 +23558,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="19.95" customHeight="1">
+    <row r="29" spans="1:3" ht="20" customHeight="1">
       <c r="A29" s="143" t="s">
         <v>76</v>
       </c>
@@ -23550,7 +23569,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="19.95" customHeight="1">
+    <row r="30" spans="1:3" ht="20" customHeight="1">
       <c r="A30" s="143" t="s">
         <v>76</v>
       </c>
@@ -23561,7 +23580,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="19.95" customHeight="1">
+    <row r="31" spans="1:3" ht="20" customHeight="1">
       <c r="A31" s="143" t="s">
         <v>76</v>
       </c>
@@ -23572,7 +23591,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="19.95" customHeight="1">
+    <row r="32" spans="1:3" ht="20" customHeight="1">
       <c r="A32" s="143" t="s">
         <v>76</v>
       </c>
@@ -23583,7 +23602,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="19.95" customHeight="1">
+    <row r="33" spans="1:3" ht="20" customHeight="1">
       <c r="A33" s="143" t="s">
         <v>76</v>
       </c>
@@ -23594,7 +23613,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="19.95" customHeight="1">
+    <row r="34" spans="1:3" ht="20" customHeight="1">
       <c r="A34" s="143" t="s">
         <v>76</v>
       </c>
@@ -23605,7 +23624,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="19.95" customHeight="1">
+    <row r="35" spans="1:3" ht="20" customHeight="1">
       <c r="A35" s="143" t="s">
         <v>76</v>
       </c>
@@ -23616,7 +23635,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="19.95" customHeight="1">
+    <row r="36" spans="1:3" ht="20" customHeight="1">
       <c r="A36" s="143" t="s">
         <v>76</v>
       </c>
@@ -23627,7 +23646,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="19.95" customHeight="1">
+    <row r="37" spans="1:3" ht="20" customHeight="1">
       <c r="A37" s="143" t="s">
         <v>76</v>
       </c>
@@ -23638,7 +23657,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="19.95" customHeight="1">
+    <row r="38" spans="1:3" ht="20" customHeight="1">
       <c r="A38" s="143" t="s">
         <v>76</v>
       </c>
@@ -23649,7 +23668,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="19.95" customHeight="1">
+    <row r="39" spans="1:3" ht="20" customHeight="1">
       <c r="A39" s="143" t="s">
         <v>76</v>
       </c>
@@ -23660,7 +23679,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="19.95" customHeight="1">
+    <row r="40" spans="1:3" ht="20" customHeight="1">
       <c r="A40" s="143" t="s">
         <v>76</v>
       </c>
@@ -23671,7 +23690,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="19.95" customHeight="1">
+    <row r="41" spans="1:3" ht="20" customHeight="1">
       <c r="A41" s="143" t="s">
         <v>76</v>
       </c>
@@ -23682,7 +23701,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="19.95" customHeight="1">
+    <row r="42" spans="1:3" ht="20" customHeight="1">
       <c r="A42" s="143" t="s">
         <v>76</v>
       </c>
@@ -23693,7 +23712,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="19.95" customHeight="1">
+    <row r="43" spans="1:3" ht="20" customHeight="1">
       <c r="A43" s="143" t="s">
         <v>76</v>
       </c>
@@ -23704,7 +23723,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="19.95" customHeight="1">
+    <row r="44" spans="1:3" ht="20" customHeight="1">
       <c r="A44" s="143" t="s">
         <v>76</v>
       </c>
@@ -23715,7 +23734,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="19.95" customHeight="1">
+    <row r="45" spans="1:3" ht="20" customHeight="1">
       <c r="A45" s="143" t="s">
         <v>76</v>
       </c>
@@ -23726,7 +23745,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="19.95" customHeight="1">
+    <row r="46" spans="1:3" ht="20" customHeight="1">
       <c r="A46" s="143" t="s">
         <v>76</v>
       </c>
@@ -23737,7 +23756,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="19.95" customHeight="1">
+    <row r="47" spans="1:3" ht="20" customHeight="1">
       <c r="A47" s="143" t="s">
         <v>76</v>
       </c>
@@ -23748,7 +23767,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="19.95" customHeight="1">
+    <row r="48" spans="1:3" ht="20" customHeight="1">
       <c r="A48" s="143" t="s">
         <v>76</v>
       </c>
@@ -23759,7 +23778,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="19.95" customHeight="1">
+    <row r="49" spans="1:3" ht="20" customHeight="1">
       <c r="A49" s="143" t="s">
         <v>76</v>
       </c>
@@ -23770,7 +23789,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="19.95" customHeight="1">
+    <row r="50" spans="1:3" ht="20" customHeight="1">
       <c r="A50" s="143" t="s">
         <v>76</v>
       </c>
@@ -23781,7 +23800,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="19.95" customHeight="1">
+    <row r="51" spans="1:3" ht="20" customHeight="1">
       <c r="A51" s="143" t="s">
         <v>76</v>
       </c>
@@ -23792,7 +23811,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="19.95" customHeight="1">
+    <row r="52" spans="1:3" ht="20" customHeight="1">
       <c r="A52" s="143" t="s">
         <v>76</v>
       </c>
@@ -23803,7 +23822,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="19.95" customHeight="1">
+    <row r="53" spans="1:3" ht="20" customHeight="1">
       <c r="A53" s="143" t="s">
         <v>76</v>
       </c>
@@ -23814,7 +23833,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="19.95" customHeight="1">
+    <row r="54" spans="1:3" ht="20" customHeight="1">
       <c r="A54" s="143" t="s">
         <v>76</v>
       </c>
@@ -23825,7 +23844,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="19.95" customHeight="1">
+    <row r="55" spans="1:3" ht="20" customHeight="1">
       <c r="A55" s="143" t="s">
         <v>76</v>
       </c>
@@ -23836,7 +23855,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="19.95" customHeight="1">
+    <row r="56" spans="1:3" ht="20" customHeight="1">
       <c r="A56" s="143" t="s">
         <v>76</v>
       </c>
@@ -23847,7 +23866,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="19.95" customHeight="1">
+    <row r="57" spans="1:3" ht="20" customHeight="1">
       <c r="A57" s="143" t="s">
         <v>76</v>
       </c>
@@ -23858,7 +23877,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="19.95" customHeight="1">
+    <row r="58" spans="1:3" ht="20" customHeight="1">
       <c r="A58" s="143" t="s">
         <v>76</v>
       </c>
@@ -23869,7 +23888,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="19.95" customHeight="1">
+    <row r="59" spans="1:3" ht="20" customHeight="1">
       <c r="A59" s="143" t="s">
         <v>76</v>
       </c>
@@ -23880,7 +23899,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="19.95" customHeight="1">
+    <row r="60" spans="1:3" ht="20" customHeight="1">
       <c r="A60" s="143" t="s">
         <v>76</v>
       </c>
@@ -23891,7 +23910,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="19.95" customHeight="1">
+    <row r="61" spans="1:3" ht="20" customHeight="1">
       <c r="A61" s="143" t="s">
         <v>76</v>
       </c>
@@ -23902,7 +23921,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="19.95" customHeight="1">
+    <row r="62" spans="1:3" ht="20" customHeight="1">
       <c r="A62" s="143" t="s">
         <v>76</v>
       </c>
@@ -23913,7 +23932,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="19.95" customHeight="1">
+    <row r="63" spans="1:3" ht="20" customHeight="1">
       <c r="A63" s="143" t="s">
         <v>76</v>
       </c>
@@ -23924,7 +23943,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="19.95" customHeight="1">
+    <row r="64" spans="1:3" ht="20" customHeight="1">
       <c r="A64" s="143" t="s">
         <v>76</v>
       </c>
@@ -23935,7 +23954,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="19.95" customHeight="1">
+    <row r="65" spans="1:3" ht="20" customHeight="1">
       <c r="A65" s="143" t="s">
         <v>76</v>
       </c>
@@ -23946,7 +23965,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="19.95" customHeight="1">
+    <row r="66" spans="1:3" ht="20" customHeight="1">
       <c r="A66" s="143" t="s">
         <v>76</v>
       </c>
@@ -23957,7 +23976,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="19.95" customHeight="1">
+    <row r="67" spans="1:3" ht="20" customHeight="1">
       <c r="A67" s="143" t="s">
         <v>76</v>
       </c>
@@ -23968,7 +23987,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="19.95" customHeight="1">
+    <row r="68" spans="1:3" ht="20" customHeight="1">
       <c r="A68" s="143" t="s">
         <v>76</v>
       </c>
@@ -23979,7 +23998,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="19.95" customHeight="1">
+    <row r="69" spans="1:3" ht="20" customHeight="1">
       <c r="A69" s="143" t="s">
         <v>76</v>
       </c>
@@ -23990,7 +24009,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="19.95" customHeight="1">
+    <row r="70" spans="1:3" ht="20" customHeight="1">
       <c r="A70" s="143" t="s">
         <v>76</v>
       </c>
@@ -24001,7 +24020,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="19.95" customHeight="1">
+    <row r="71" spans="1:3" ht="20" customHeight="1">
       <c r="A71" s="143" t="s">
         <v>76</v>
       </c>
@@ -24012,7 +24031,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="19.95" customHeight="1">
+    <row r="72" spans="1:3" ht="20" customHeight="1">
       <c r="A72" s="143" t="s">
         <v>76</v>
       </c>
@@ -24023,7 +24042,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="19.95" customHeight="1">
+    <row r="73" spans="1:3" ht="20" customHeight="1">
       <c r="A73" s="143" t="s">
         <v>76</v>
       </c>
@@ -24034,7 +24053,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="19.95" customHeight="1">
+    <row r="74" spans="1:3" ht="20" customHeight="1">
       <c r="A74" s="143" t="s">
         <v>76</v>
       </c>
@@ -24045,7 +24064,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="19.95" customHeight="1">
+    <row r="75" spans="1:3" ht="20" customHeight="1">
       <c r="A75" s="143" t="s">
         <v>76</v>
       </c>
@@ -24056,7 +24075,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="19.95" customHeight="1">
+    <row r="76" spans="1:3" ht="20" customHeight="1">
       <c r="A76" s="143" t="s">
         <v>76</v>
       </c>
@@ -24067,7 +24086,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="19.95" customHeight="1">
+    <row r="77" spans="1:3" ht="20" customHeight="1">
       <c r="A77" s="143" t="s">
         <v>76</v>
       </c>
@@ -24078,7 +24097,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="19.95" customHeight="1">
+    <row r="78" spans="1:3" ht="20" customHeight="1">
       <c r="A78" s="143" t="s">
         <v>76</v>
       </c>
@@ -24089,7 +24108,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="19.95" customHeight="1">
+    <row r="79" spans="1:3" ht="20" customHeight="1">
       <c r="A79" s="143" t="s">
         <v>76</v>
       </c>
@@ -24100,7 +24119,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="19.95" customHeight="1">
+    <row r="80" spans="1:3" ht="20" customHeight="1">
       <c r="A80" s="143" t="s">
         <v>76</v>
       </c>
@@ -24111,7 +24130,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="19.95" customHeight="1">
+    <row r="81" spans="1:3" ht="20" customHeight="1">
       <c r="A81" s="143" t="s">
         <v>76</v>
       </c>
@@ -24122,7 +24141,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="19.95" customHeight="1">
+    <row r="82" spans="1:3" ht="20" customHeight="1">
       <c r="A82" s="143" t="s">
         <v>76</v>
       </c>
@@ -24133,7 +24152,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="19.95" customHeight="1">
+    <row r="83" spans="1:3" ht="20" customHeight="1">
       <c r="A83" s="143" t="s">
         <v>76</v>
       </c>
@@ -24144,7 +24163,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="19.95" customHeight="1">
+    <row r="84" spans="1:3" ht="20" customHeight="1">
       <c r="A84" s="143" t="s">
         <v>76</v>
       </c>
@@ -24155,7 +24174,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="19.95" customHeight="1">
+    <row r="85" spans="1:3" ht="20" customHeight="1">
       <c r="A85" s="143" t="s">
         <v>76</v>
       </c>
@@ -24166,7 +24185,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="19.95" customHeight="1">
+    <row r="86" spans="1:3" ht="20" customHeight="1">
       <c r="A86" s="143" t="s">
         <v>76</v>
       </c>
@@ -24177,7 +24196,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="19.95" customHeight="1">
+    <row r="87" spans="1:3" ht="20" customHeight="1">
       <c r="A87" s="143" t="s">
         <v>76</v>
       </c>
@@ -24188,7 +24207,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="19.95" customHeight="1">
+    <row r="88" spans="1:3" ht="20" customHeight="1">
       <c r="A88" s="143" t="s">
         <v>76</v>
       </c>
@@ -24199,7 +24218,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="19.95" customHeight="1">
+    <row r="89" spans="1:3" ht="20" customHeight="1">
       <c r="A89" s="143" t="s">
         <v>76</v>
       </c>
@@ -24210,7 +24229,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="19.95" customHeight="1">
+    <row r="90" spans="1:3" ht="20" customHeight="1">
       <c r="A90" s="143" t="s">
         <v>76</v>
       </c>
@@ -24221,7 +24240,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="19.95" customHeight="1">
+    <row r="91" spans="1:3" ht="20" customHeight="1">
       <c r="A91" s="143" t="s">
         <v>76</v>
       </c>
@@ -24232,7 +24251,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="19.95" customHeight="1">
+    <row r="92" spans="1:3" ht="20" customHeight="1">
       <c r="A92" s="143" t="s">
         <v>76</v>
       </c>
@@ -24243,7 +24262,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="19.95" customHeight="1">
+    <row r="93" spans="1:3" ht="20" customHeight="1">
       <c r="A93" s="143" t="s">
         <v>76</v>
       </c>
@@ -24254,7 +24273,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="19.95" customHeight="1">
+    <row r="94" spans="1:3" ht="20" customHeight="1">
       <c r="A94" s="143" t="s">
         <v>76</v>
       </c>
@@ -24265,7 +24284,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="19.95" customHeight="1">
+    <row r="95" spans="1:3" ht="20" customHeight="1">
       <c r="A95" s="143" t="s">
         <v>76</v>
       </c>
@@ -24276,7 +24295,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="19.95" customHeight="1">
+    <row r="96" spans="1:3" ht="20" customHeight="1">
       <c r="A96" s="143" t="s">
         <v>76</v>
       </c>
@@ -24287,7 +24306,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="19.95" customHeight="1">
+    <row r="97" spans="1:3" ht="20" customHeight="1">
       <c r="A97" s="143" t="s">
         <v>76</v>
       </c>
@@ -24298,7 +24317,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="19.95" customHeight="1">
+    <row r="98" spans="1:3" ht="20" customHeight="1">
       <c r="A98" s="143" t="s">
         <v>76</v>
       </c>
@@ -24309,7 +24328,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="19.95" customHeight="1">
+    <row r="99" spans="1:3" ht="20" customHeight="1">
       <c r="A99" s="143" t="s">
         <v>76</v>
       </c>
@@ -24320,7 +24339,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="19.95" customHeight="1">
+    <row r="100" spans="1:3" ht="20" customHeight="1">
       <c r="A100" s="143" t="s">
         <v>76</v>
       </c>
@@ -24331,7 +24350,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="19.95" customHeight="1">
+    <row r="101" spans="1:3" ht="20" customHeight="1">
       <c r="A101" s="143" t="s">
         <v>76</v>
       </c>
@@ -24342,7 +24361,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="19.95" customHeight="1">
+    <row r="102" spans="1:3" ht="20" customHeight="1">
       <c r="A102" s="143" t="s">
         <v>76</v>
       </c>
@@ -24353,7 +24372,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="19.95" customHeight="1">
+    <row r="103" spans="1:3" ht="20" customHeight="1">
       <c r="A103" s="143" t="s">
         <v>76</v>
       </c>
@@ -24364,7 +24383,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="19.95" customHeight="1">
+    <row r="104" spans="1:3" ht="20" customHeight="1">
       <c r="A104" s="143" t="s">
         <v>76</v>
       </c>
@@ -24375,7 +24394,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="19.95" customHeight="1">
+    <row r="105" spans="1:3" ht="20" customHeight="1">
       <c r="A105" s="143" t="s">
         <v>76</v>
       </c>
@@ -24386,7 +24405,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="19.95" customHeight="1">
+    <row r="106" spans="1:3" ht="20" customHeight="1">
       <c r="A106" s="143" t="s">
         <v>76</v>
       </c>
@@ -24397,7 +24416,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="19.95" customHeight="1">
+    <row r="107" spans="1:3" ht="20" customHeight="1">
       <c r="A107" s="143" t="s">
         <v>76</v>
       </c>
@@ -24408,7 +24427,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="19.95" customHeight="1">
+    <row r="108" spans="1:3" ht="20" customHeight="1">
       <c r="A108" s="143" t="s">
         <v>76</v>
       </c>
@@ -24419,7 +24438,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="19.95" customHeight="1">
+    <row r="109" spans="1:3" ht="20" customHeight="1">
       <c r="A109" s="143" t="s">
         <v>76</v>
       </c>
@@ -24430,7 +24449,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="19.95" customHeight="1">
+    <row r="110" spans="1:3" ht="20" customHeight="1">
       <c r="A110" s="143" t="s">
         <v>76</v>
       </c>
@@ -24441,7 +24460,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="19.95" customHeight="1">
+    <row r="111" spans="1:3" ht="20" customHeight="1">
       <c r="A111" s="143" t="s">
         <v>76</v>
       </c>
@@ -24452,7 +24471,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="19.95" customHeight="1">
+    <row r="112" spans="1:3" ht="20" customHeight="1">
       <c r="A112" s="143" t="s">
         <v>76</v>
       </c>
@@ -24463,7 +24482,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="19.95" customHeight="1">
+    <row r="113" spans="1:3" ht="20" customHeight="1">
       <c r="A113" s="143" t="s">
         <v>76</v>
       </c>
@@ -24474,7 +24493,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="19.95" customHeight="1">
+    <row r="114" spans="1:3" ht="20" customHeight="1">
       <c r="A114" s="143" t="s">
         <v>76</v>
       </c>
@@ -24485,7 +24504,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="19.95" customHeight="1">
+    <row r="115" spans="1:3" ht="20" customHeight="1">
       <c r="A115" s="143" t="s">
         <v>76</v>
       </c>
@@ -24496,7 +24515,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="19.95" customHeight="1">
+    <row r="116" spans="1:3" ht="20" customHeight="1">
       <c r="A116" s="143" t="s">
         <v>76</v>
       </c>
@@ -24507,7 +24526,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="19.95" customHeight="1">
+    <row r="117" spans="1:3" ht="20" customHeight="1">
       <c r="A117" s="143" t="s">
         <v>76</v>
       </c>
@@ -24518,7 +24537,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="19.95" customHeight="1">
+    <row r="118" spans="1:3" ht="20" customHeight="1">
       <c r="A118" s="143" t="s">
         <v>76</v>
       </c>
@@ -24529,7 +24548,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="19.95" customHeight="1">
+    <row r="119" spans="1:3" ht="20" customHeight="1">
       <c r="A119" s="143" t="s">
         <v>76</v>
       </c>
@@ -24540,7 +24559,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="19.95" customHeight="1">
+    <row r="120" spans="1:3" ht="20" customHeight="1">
       <c r="A120" s="143" t="s">
         <v>76</v>
       </c>
@@ -24551,7 +24570,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="19.95" customHeight="1">
+    <row r="121" spans="1:3" ht="20" customHeight="1">
       <c r="A121" s="143" t="s">
         <v>76</v>
       </c>
@@ -24562,7 +24581,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="19.95" customHeight="1">
+    <row r="122" spans="1:3" ht="20" customHeight="1">
       <c r="A122" s="143" t="s">
         <v>76</v>
       </c>
@@ -24573,7 +24592,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="19.95" customHeight="1">
+    <row r="123" spans="1:3" ht="20" customHeight="1">
       <c r="A123" s="143" t="s">
         <v>76</v>
       </c>
@@ -24584,7 +24603,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="19.95" customHeight="1">
+    <row r="124" spans="1:3" ht="20" customHeight="1">
       <c r="A124" s="143" t="s">
         <v>76</v>
       </c>
@@ -24595,7 +24614,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="19.95" customHeight="1">
+    <row r="125" spans="1:3" ht="20" customHeight="1">
       <c r="A125" s="143" t="s">
         <v>76</v>
       </c>
@@ -24606,7 +24625,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="19.95" customHeight="1">
+    <row r="126" spans="1:3" ht="20" customHeight="1">
       <c r="A126" s="143" t="s">
         <v>76</v>
       </c>
@@ -24617,7 +24636,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="19.95" customHeight="1">
+    <row r="127" spans="1:3" ht="20" customHeight="1">
       <c r="A127" s="143" t="s">
         <v>76</v>
       </c>
@@ -24628,7 +24647,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="19.95" customHeight="1">
+    <row r="128" spans="1:3" ht="20" customHeight="1">
       <c r="A128" s="143" t="s">
         <v>76</v>
       </c>
@@ -24639,7 +24658,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="19.95" customHeight="1">
+    <row r="129" spans="1:3" ht="20" customHeight="1">
       <c r="A129" s="143" t="s">
         <v>76</v>
       </c>
@@ -24650,7 +24669,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="19.95" customHeight="1">
+    <row r="130" spans="1:3" ht="20" customHeight="1">
       <c r="A130" s="143" t="s">
         <v>76</v>
       </c>
@@ -24661,7 +24680,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="19.95" customHeight="1">
+    <row r="131" spans="1:3" ht="20" customHeight="1">
       <c r="A131" s="143" t="s">
         <v>76</v>
       </c>
@@ -24672,7 +24691,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="19.95" customHeight="1">
+    <row r="132" spans="1:3" ht="20" customHeight="1">
       <c r="A132" s="143" t="s">
         <v>76</v>
       </c>
@@ -24683,7 +24702,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="19.95" customHeight="1">
+    <row r="133" spans="1:3" ht="20" customHeight="1">
       <c r="A133" s="143" t="s">
         <v>76</v>
       </c>
@@ -24694,7 +24713,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="19.95" customHeight="1">
+    <row r="134" spans="1:3" ht="20" customHeight="1">
       <c r="A134" s="143" t="s">
         <v>76</v>
       </c>
@@ -24705,7 +24724,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="19.95" customHeight="1">
+    <row r="135" spans="1:3" ht="20" customHeight="1">
       <c r="A135" s="143" t="s">
         <v>76</v>
       </c>
@@ -24716,7 +24735,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="19.95" customHeight="1">
+    <row r="136" spans="1:3" ht="20" customHeight="1">
       <c r="A136" s="143" t="s">
         <v>76</v>
       </c>
@@ -24727,7 +24746,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="19.95" customHeight="1">
+    <row r="137" spans="1:3" ht="20" customHeight="1">
       <c r="A137" s="143" t="s">
         <v>76</v>
       </c>
@@ -24738,7 +24757,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="19.95" customHeight="1">
+    <row r="138" spans="1:3" ht="20" customHeight="1">
       <c r="A138" s="143" t="s">
         <v>76</v>
       </c>
@@ -24749,7 +24768,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="19.95" customHeight="1">
+    <row r="139" spans="1:3" ht="20" customHeight="1">
       <c r="A139" s="143" t="s">
         <v>76</v>
       </c>
@@ -24760,7 +24779,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="19.95" customHeight="1">
+    <row r="140" spans="1:3" ht="20" customHeight="1">
       <c r="A140" s="143" t="s">
         <v>76</v>
       </c>
@@ -24771,7 +24790,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="19.95" customHeight="1">
+    <row r="141" spans="1:3" ht="20" customHeight="1">
       <c r="A141" s="143" t="s">
         <v>76</v>
       </c>
@@ -24782,7 +24801,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="19.95" customHeight="1">
+    <row r="142" spans="1:3" ht="20" customHeight="1">
       <c r="A142" s="143" t="s">
         <v>76</v>
       </c>
@@ -24793,7 +24812,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="19.95" customHeight="1">
+    <row r="143" spans="1:3" ht="20" customHeight="1">
       <c r="A143" s="143" t="s">
         <v>76</v>
       </c>
@@ -24804,7 +24823,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="19.95" customHeight="1">
+    <row r="144" spans="1:3" ht="20" customHeight="1">
       <c r="A144" s="143" t="s">
         <v>76</v>
       </c>
@@ -24815,7 +24834,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="19.95" customHeight="1">
+    <row r="145" spans="1:3" ht="20" customHeight="1">
       <c r="A145" s="143" t="s">
         <v>76</v>
       </c>
@@ -24826,7 +24845,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="19.95" customHeight="1">
+    <row r="146" spans="1:3" ht="20" customHeight="1">
       <c r="A146" s="143" t="s">
         <v>76</v>
       </c>
@@ -24837,7 +24856,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="19.95" customHeight="1">
+    <row r="147" spans="1:3" ht="20" customHeight="1">
       <c r="A147" s="143" t="s">
         <v>76</v>
       </c>
@@ -24848,7 +24867,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="19.95" customHeight="1">
+    <row r="148" spans="1:3" ht="20" customHeight="1">
       <c r="A148" s="143" t="s">
         <v>76</v>
       </c>
@@ -24859,7 +24878,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="19.95" customHeight="1">
+    <row r="149" spans="1:3" ht="20" customHeight="1">
       <c r="A149" s="143" t="s">
         <v>76</v>
       </c>
@@ -24870,7 +24889,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="19.95" customHeight="1">
+    <row r="150" spans="1:3" ht="20" customHeight="1">
       <c r="A150" s="143" t="s">
         <v>76</v>
       </c>
@@ -24881,7 +24900,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="19.95" customHeight="1">
+    <row r="151" spans="1:3" ht="20" customHeight="1">
       <c r="A151" s="143" t="s">
         <v>76</v>
       </c>
@@ -24892,7 +24911,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="19.95" customHeight="1">
+    <row r="152" spans="1:3" ht="20" customHeight="1">
       <c r="A152" s="143" t="s">
         <v>76</v>
       </c>
@@ -24903,7 +24922,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="19.95" customHeight="1">
+    <row r="153" spans="1:3" ht="20" customHeight="1">
       <c r="A153" s="143" t="s">
         <v>76</v>
       </c>
@@ -24914,7 +24933,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="19.95" customHeight="1">
+    <row r="154" spans="1:3" ht="20" customHeight="1">
       <c r="A154" s="143" t="s">
         <v>76</v>
       </c>
@@ -24925,7 +24944,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="19.95" customHeight="1">
+    <row r="155" spans="1:3" ht="20" customHeight="1">
       <c r="A155" s="143" t="s">
         <v>76</v>
       </c>
@@ -24936,7 +24955,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="19.95" customHeight="1">
+    <row r="156" spans="1:3" ht="20" customHeight="1">
       <c r="A156" s="143" t="s">
         <v>76</v>
       </c>
@@ -24947,7 +24966,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="19.95" customHeight="1">
+    <row r="157" spans="1:3" ht="20" customHeight="1">
       <c r="A157" s="143" t="s">
         <v>76</v>
       </c>
@@ -24958,7 +24977,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="19.95" customHeight="1">
+    <row r="158" spans="1:3" ht="20" customHeight="1">
       <c r="A158" s="143" t="s">
         <v>76</v>
       </c>
@@ -24969,7 +24988,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="19.95" customHeight="1">
+    <row r="159" spans="1:3" ht="20" customHeight="1">
       <c r="A159" s="143" t="s">
         <v>76</v>
       </c>
@@ -24980,7 +24999,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="19.95" customHeight="1">
+    <row r="160" spans="1:3" ht="20" customHeight="1">
       <c r="A160" s="143" t="s">
         <v>76</v>
       </c>
@@ -24991,7 +25010,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="19.95" customHeight="1">
+    <row r="161" spans="1:3" ht="20" customHeight="1">
       <c r="A161" s="143" t="s">
         <v>76</v>
       </c>
@@ -25002,7 +25021,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="19.95" customHeight="1">
+    <row r="162" spans="1:3" ht="20" customHeight="1">
       <c r="A162" s="143" t="s">
         <v>76</v>
       </c>
@@ -25013,7 +25032,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="19.95" customHeight="1">
+    <row r="163" spans="1:3" ht="20" customHeight="1">
       <c r="A163" s="143" t="s">
         <v>76</v>
       </c>
@@ -25024,7 +25043,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="19.95" customHeight="1">
+    <row r="164" spans="1:3" ht="20" customHeight="1">
       <c r="A164" s="143" t="s">
         <v>76</v>
       </c>
@@ -25035,7 +25054,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="19.95" customHeight="1">
+    <row r="165" spans="1:3" ht="20" customHeight="1">
       <c r="A165" s="143" t="s">
         <v>76</v>
       </c>
@@ -25046,7 +25065,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="19.95" customHeight="1">
+    <row r="166" spans="1:3" ht="20" customHeight="1">
       <c r="A166" s="143" t="s">
         <v>76</v>
       </c>
@@ -25057,7 +25076,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="19.95" customHeight="1">
+    <row r="167" spans="1:3" ht="20" customHeight="1">
       <c r="A167" s="143" t="s">
         <v>76</v>
       </c>
@@ -25068,7 +25087,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="19.95" customHeight="1">
+    <row r="168" spans="1:3" ht="20" customHeight="1">
       <c r="A168" s="143" t="s">
         <v>76</v>
       </c>
@@ -25079,7 +25098,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="19.95" customHeight="1">
+    <row r="169" spans="1:3" ht="20" customHeight="1">
       <c r="A169" s="143" t="s">
         <v>76</v>
       </c>
@@ -25090,7 +25109,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="19.95" customHeight="1">
+    <row r="170" spans="1:3" ht="20" customHeight="1">
       <c r="A170" s="143" t="s">
         <v>76</v>
       </c>
@@ -25101,7 +25120,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="19.95" customHeight="1">
+    <row r="171" spans="1:3" ht="20" customHeight="1">
       <c r="A171" s="143" t="s">
         <v>76</v>
       </c>
@@ -25112,7 +25131,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="19.95" customHeight="1">
+    <row r="172" spans="1:3" ht="20" customHeight="1">
       <c r="A172" s="143" t="s">
         <v>76</v>
       </c>
@@ -25123,7 +25142,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="19.95" customHeight="1">
+    <row r="173" spans="1:3" ht="20" customHeight="1">
       <c r="A173" s="143" t="s">
         <v>76</v>
       </c>
@@ -25134,7 +25153,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="19.95" customHeight="1">
+    <row r="174" spans="1:3" ht="20" customHeight="1">
       <c r="A174" s="143" t="s">
         <v>76</v>
       </c>
@@ -25145,7 +25164,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="19.95" customHeight="1">
+    <row r="175" spans="1:3" ht="20" customHeight="1">
       <c r="A175" s="143" t="s">
         <v>76</v>
       </c>
@@ -25156,7 +25175,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="19.95" customHeight="1">
+    <row r="176" spans="1:3" ht="20" customHeight="1">
       <c r="A176" s="143" t="s">
         <v>76</v>
       </c>
@@ -25167,7 +25186,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="19.95" customHeight="1">
+    <row r="177" spans="1:3" ht="20" customHeight="1">
       <c r="A177" s="143" t="s">
         <v>76</v>
       </c>
@@ -25178,7 +25197,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="19.95" customHeight="1">
+    <row r="178" spans="1:3" ht="20" customHeight="1">
       <c r="A178" s="143" t="s">
         <v>76</v>
       </c>
@@ -25189,7 +25208,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="19.95" customHeight="1">
+    <row r="179" spans="1:3" ht="20" customHeight="1">
       <c r="A179" s="143" t="s">
         <v>76</v>
       </c>
@@ -25200,7 +25219,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="19.95" customHeight="1">
+    <row r="180" spans="1:3" ht="20" customHeight="1">
       <c r="A180" s="143" t="s">
         <v>76</v>
       </c>
@@ -25211,7 +25230,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="19.95" customHeight="1">
+    <row r="181" spans="1:3" ht="20" customHeight="1">
       <c r="A181" s="143" t="s">
         <v>76</v>
       </c>
@@ -25222,7 +25241,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="19.95" customHeight="1">
+    <row r="182" spans="1:3" ht="20" customHeight="1">
       <c r="A182" s="143" t="s">
         <v>76</v>
       </c>
@@ -25233,7 +25252,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="19.95" customHeight="1">
+    <row r="183" spans="1:3" ht="20" customHeight="1">
       <c r="A183" s="143" t="s">
         <v>76</v>
       </c>
@@ -25244,7 +25263,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="19.95" customHeight="1">
+    <row r="184" spans="1:3" ht="20" customHeight="1">
       <c r="A184" s="143" t="s">
         <v>76</v>
       </c>
@@ -25255,7 +25274,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="19.95" customHeight="1">
+    <row r="185" spans="1:3" ht="20" customHeight="1">
       <c r="A185" s="143" t="s">
         <v>76</v>
       </c>
@@ -25266,7 +25285,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="19.95" customHeight="1">
+    <row r="186" spans="1:3" ht="20" customHeight="1">
       <c r="A186" s="143" t="s">
         <v>76</v>
       </c>
@@ -25277,7 +25296,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="19.95" customHeight="1">
+    <row r="187" spans="1:3" ht="20" customHeight="1">
       <c r="A187" s="143" t="s">
         <v>76</v>
       </c>
@@ -25288,7 +25307,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="19.95" customHeight="1">
+    <row r="188" spans="1:3" ht="20" customHeight="1">
       <c r="A188" s="143" t="s">
         <v>76</v>
       </c>
@@ -25299,7 +25318,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="19.95" customHeight="1">
+    <row r="189" spans="1:3" ht="20" customHeight="1">
       <c r="A189" s="143" t="s">
         <v>76</v>
       </c>
@@ -25310,7 +25329,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="19.95" customHeight="1">
+    <row r="190" spans="1:3" ht="20" customHeight="1">
       <c r="A190" s="143" t="s">
         <v>76</v>
       </c>
@@ -25321,7 +25340,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="19.95" customHeight="1">
+    <row r="191" spans="1:3" ht="20" customHeight="1">
       <c r="A191" s="143" t="s">
         <v>76</v>
       </c>
@@ -25332,7 +25351,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="19.95" customHeight="1">
+    <row r="192" spans="1:3" ht="20" customHeight="1">
       <c r="A192" s="143" t="s">
         <v>76</v>
       </c>
@@ -25343,7 +25362,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="19.95" customHeight="1">
+    <row r="193" spans="1:3" ht="20" customHeight="1">
       <c r="A193" s="143" t="s">
         <v>76</v>
       </c>
@@ -25354,7 +25373,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="19.95" customHeight="1">
+    <row r="194" spans="1:3" ht="20" customHeight="1">
       <c r="A194" s="143" t="s">
         <v>76</v>
       </c>
@@ -25365,7 +25384,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="19.95" customHeight="1">
+    <row r="195" spans="1:3" ht="20" customHeight="1">
       <c r="A195" s="143" t="s">
         <v>76</v>
       </c>
@@ -25376,7 +25395,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="19.95" customHeight="1">
+    <row r="196" spans="1:3" ht="20" customHeight="1">
       <c r="A196" s="143" t="s">
         <v>76</v>
       </c>
@@ -25387,7 +25406,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="19.95" customHeight="1">
+    <row r="197" spans="1:3" ht="20" customHeight="1">
       <c r="A197" s="143" t="s">
         <v>76</v>
       </c>
@@ -25398,7 +25417,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="19.95" customHeight="1">
+    <row r="198" spans="1:3" ht="20" customHeight="1">
       <c r="A198" s="143" t="s">
         <v>76</v>
       </c>
@@ -25409,7 +25428,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="19.95" customHeight="1">
+    <row r="199" spans="1:3" ht="20" customHeight="1">
       <c r="A199" s="143" t="s">
         <v>76</v>
       </c>
@@ -25420,7 +25439,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="19.95" customHeight="1">
+    <row r="200" spans="1:3" ht="20" customHeight="1">
       <c r="A200" s="143" t="s">
         <v>76</v>
       </c>
@@ -25431,7 +25450,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="19.95" customHeight="1">
+    <row r="201" spans="1:3" ht="20" customHeight="1">
       <c r="A201" s="143" t="s">
         <v>76</v>
       </c>
@@ -25442,7 +25461,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="19.95" customHeight="1">
+    <row r="202" spans="1:3" ht="20" customHeight="1">
       <c r="A202" s="143" t="s">
         <v>76</v>
       </c>
@@ -25453,7 +25472,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="19.95" customHeight="1">
+    <row r="203" spans="1:3" ht="20" customHeight="1">
       <c r="A203" s="143" t="s">
         <v>76</v>
       </c>
@@ -25464,7 +25483,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="19.95" customHeight="1">
+    <row r="204" spans="1:3" ht="20" customHeight="1">
       <c r="A204" s="143" t="s">
         <v>76</v>
       </c>
@@ -25475,7 +25494,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="19.95" customHeight="1">
+    <row r="205" spans="1:3" ht="20" customHeight="1">
       <c r="A205" s="143" t="s">
         <v>76</v>
       </c>
@@ -25486,7 +25505,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="19.95" customHeight="1">
+    <row r="206" spans="1:3" ht="20" customHeight="1">
       <c r="A206" s="143" t="s">
         <v>76</v>
       </c>
@@ -25497,7 +25516,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="19.95" customHeight="1">
+    <row r="207" spans="1:3" ht="20" customHeight="1">
       <c r="A207" s="143" t="s">
         <v>76</v>
       </c>
@@ -25508,7 +25527,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="19.95" customHeight="1">
+    <row r="208" spans="1:3" ht="20" customHeight="1">
       <c r="A208" s="143" t="s">
         <v>76</v>
       </c>
@@ -25519,7 +25538,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="19.95" customHeight="1">
+    <row r="209" spans="1:3" ht="20" customHeight="1">
       <c r="A209" s="143" t="s">
         <v>76</v>
       </c>
@@ -25530,7 +25549,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="19.95" customHeight="1">
+    <row r="210" spans="1:3" ht="20" customHeight="1">
       <c r="A210" s="143" t="s">
         <v>76</v>
       </c>
@@ -25541,7 +25560,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="19.95" customHeight="1">
+    <row r="211" spans="1:3" ht="20" customHeight="1">
       <c r="A211" s="143" t="s">
         <v>76</v>
       </c>
@@ -25552,7 +25571,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="19.95" customHeight="1">
+    <row r="212" spans="1:3" ht="20" customHeight="1">
       <c r="A212" s="143" t="s">
         <v>76</v>
       </c>
@@ -25563,7 +25582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="19.95" customHeight="1">
+    <row r="213" spans="1:3" ht="20" customHeight="1">
       <c r="A213" s="143" t="s">
         <v>76</v>
       </c>
@@ -25574,7 +25593,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="19.95" customHeight="1">
+    <row r="214" spans="1:3" ht="20" customHeight="1">
       <c r="A214" s="143" t="s">
         <v>76</v>
       </c>
@@ -25585,7 +25604,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="19.95" customHeight="1">
+    <row r="215" spans="1:3" ht="20" customHeight="1">
       <c r="A215" s="143" t="s">
         <v>76</v>
       </c>
@@ -25596,7 +25615,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="19.95" customHeight="1">
+    <row r="216" spans="1:3" ht="20" customHeight="1">
       <c r="A216" s="143" t="s">
         <v>76</v>
       </c>
@@ -25607,7 +25626,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="19.95" customHeight="1">
+    <row r="217" spans="1:3" ht="20" customHeight="1">
       <c r="A217" s="143" t="s">
         <v>76</v>
       </c>
@@ -25618,7 +25637,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="19.95" customHeight="1">
+    <row r="218" spans="1:3" ht="20" customHeight="1">
       <c r="A218" s="143" t="s">
         <v>76</v>
       </c>
@@ -25629,7 +25648,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="19.95" customHeight="1">
+    <row r="219" spans="1:3" ht="20" customHeight="1">
       <c r="A219" s="143" t="s">
         <v>76</v>
       </c>
@@ -25640,7 +25659,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="19.95" customHeight="1">
+    <row r="220" spans="1:3" ht="20" customHeight="1">
       <c r="A220" s="143" t="s">
         <v>76</v>
       </c>
@@ -25651,7 +25670,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="19.95" customHeight="1">
+    <row r="221" spans="1:3" ht="20" customHeight="1">
       <c r="A221" s="143" t="s">
         <v>76</v>
       </c>
@@ -25662,7 +25681,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="19.95" customHeight="1">
+    <row r="222" spans="1:3" ht="20" customHeight="1">
       <c r="A222" s="143" t="s">
         <v>76</v>
       </c>
@@ -25673,7 +25692,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="19.95" customHeight="1">
+    <row r="223" spans="1:3" ht="20" customHeight="1">
       <c r="A223" s="143" t="s">
         <v>76</v>
       </c>
@@ -25684,7 +25703,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="19.95" customHeight="1">
+    <row r="224" spans="1:3" ht="20" customHeight="1">
       <c r="A224" s="143" t="s">
         <v>76</v>
       </c>
@@ -25695,7 +25714,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="19.95" customHeight="1">
+    <row r="225" spans="1:3" ht="20" customHeight="1">
       <c r="A225" s="143" t="s">
         <v>76</v>
       </c>
@@ -25706,7 +25725,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="19.95" customHeight="1">
+    <row r="226" spans="1:3" ht="20" customHeight="1">
       <c r="A226" s="143" t="s">
         <v>76</v>
       </c>
@@ -25717,7 +25736,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="19.95" customHeight="1">
+    <row r="227" spans="1:3" ht="20" customHeight="1">
       <c r="A227" s="143" t="s">
         <v>76</v>
       </c>
@@ -25728,7 +25747,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="19.95" customHeight="1">
+    <row r="228" spans="1:3" ht="20" customHeight="1">
       <c r="A228" s="143" t="s">
         <v>76</v>
       </c>
@@ -25739,7 +25758,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="19.95" customHeight="1">
+    <row r="229" spans="1:3" ht="20" customHeight="1">
       <c r="A229" s="143" t="s">
         <v>76</v>
       </c>
@@ -25750,7 +25769,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="19.95" customHeight="1">
+    <row r="230" spans="1:3" ht="20" customHeight="1">
       <c r="A230" s="143" t="s">
         <v>76</v>
       </c>
@@ -25761,7 +25780,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="19.95" customHeight="1">
+    <row r="231" spans="1:3" ht="20" customHeight="1">
       <c r="A231" s="143" t="s">
         <v>76</v>
       </c>
@@ -25772,7 +25791,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="19.95" customHeight="1">
+    <row r="232" spans="1:3" ht="20" customHeight="1">
       <c r="A232" s="143" t="s">
         <v>76</v>
       </c>
@@ -25783,7 +25802,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="19.95" customHeight="1">
+    <row r="233" spans="1:3" ht="20" customHeight="1">
       <c r="A233" s="143" t="s">
         <v>76</v>
       </c>
@@ -25794,7 +25813,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="19.95" customHeight="1">
+    <row r="234" spans="1:3" ht="20" customHeight="1">
       <c r="A234" s="143" t="s">
         <v>76</v>
       </c>
@@ -25805,7 +25824,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="19.95" customHeight="1">
+    <row r="235" spans="1:3" ht="20" customHeight="1">
       <c r="A235" s="143" t="s">
         <v>76</v>
       </c>
@@ -25816,7 +25835,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="19.95" customHeight="1">
+    <row r="236" spans="1:3" ht="20" customHeight="1">
       <c r="A236" s="143" t="s">
         <v>76</v>
       </c>
@@ -25827,7 +25846,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="19.95" customHeight="1">
+    <row r="237" spans="1:3" ht="20" customHeight="1">
       <c r="A237" s="143" t="s">
         <v>76</v>
       </c>
@@ -25838,7 +25857,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="19.95" customHeight="1">
+    <row r="238" spans="1:3" ht="20" customHeight="1">
       <c r="A238" s="143" t="s">
         <v>76</v>
       </c>
@@ -25849,7 +25868,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="19.95" customHeight="1">
+    <row r="239" spans="1:3" ht="20" customHeight="1">
       <c r="A239" s="143" t="s">
         <v>76</v>
       </c>
@@ -25860,7 +25879,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="19.95" customHeight="1">
+    <row r="240" spans="1:3" ht="20" customHeight="1">
       <c r="A240" s="143" t="s">
         <v>76</v>
       </c>
@@ -25871,7 +25890,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="19.95" customHeight="1">
+    <row r="241" spans="1:3" ht="20" customHeight="1">
       <c r="A241" s="143" t="s">
         <v>76</v>
       </c>
@@ -25882,7 +25901,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="19.95" customHeight="1">
+    <row r="242" spans="1:3" ht="20" customHeight="1">
       <c r="A242" s="143" t="s">
         <v>76</v>
       </c>
@@ -25893,7 +25912,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="19.95" customHeight="1">
+    <row r="243" spans="1:3" ht="20" customHeight="1">
       <c r="A243" s="143" t="s">
         <v>76</v>
       </c>
@@ -25904,7 +25923,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="19.95" customHeight="1">
+    <row r="244" spans="1:3" ht="20" customHeight="1">
       <c r="A244" s="143" t="s">
         <v>76</v>
       </c>
@@ -25915,7 +25934,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="19.95" customHeight="1">
+    <row r="245" spans="1:3" ht="20" customHeight="1">
       <c r="A245" s="143" t="s">
         <v>76</v>
       </c>
@@ -25926,7 +25945,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="19.95" customHeight="1">
+    <row r="246" spans="1:3" ht="20" customHeight="1">
       <c r="A246" s="143" t="s">
         <v>76</v>
       </c>
@@ -25937,7 +25956,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="19.95" customHeight="1">
+    <row r="247" spans="1:3" ht="20" customHeight="1">
       <c r="A247" s="143" t="s">
         <v>76</v>
       </c>
@@ -25948,7 +25967,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="19.95" customHeight="1">
+    <row r="248" spans="1:3" ht="20" customHeight="1">
       <c r="A248" s="143" t="s">
         <v>76</v>
       </c>
@@ -25959,7 +25978,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="19.95" customHeight="1">
+    <row r="249" spans="1:3" ht="20" customHeight="1">
       <c r="A249" s="143" t="s">
         <v>76</v>
       </c>
@@ -25970,7 +25989,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="19.95" customHeight="1">
+    <row r="250" spans="1:3" ht="20" customHeight="1">
       <c r="A250" s="143" t="s">
         <v>76</v>
       </c>
@@ -25981,7 +26000,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="19.95" customHeight="1">
+    <row r="251" spans="1:3" ht="20" customHeight="1">
       <c r="A251" s="143" t="s">
         <v>76</v>
       </c>
@@ -25992,7 +26011,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="19.95" customHeight="1">
+    <row r="252" spans="1:3" ht="20" customHeight="1">
       <c r="A252" s="143" t="s">
         <v>76</v>
       </c>
@@ -26003,7 +26022,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="19.95" customHeight="1">
+    <row r="253" spans="1:3" ht="20" customHeight="1">
       <c r="A253" s="143" t="s">
         <v>76</v>
       </c>
@@ -26014,7 +26033,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="19.95" customHeight="1">
+    <row r="254" spans="1:3" ht="20" customHeight="1">
       <c r="A254" s="143" t="s">
         <v>76</v>
       </c>
@@ -26025,7 +26044,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="19.95" customHeight="1">
+    <row r="255" spans="1:3" ht="20" customHeight="1">
       <c r="A255" s="143" t="s">
         <v>76</v>
       </c>
@@ -26036,7 +26055,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="19.95" customHeight="1">
+    <row r="256" spans="1:3" ht="20" customHeight="1">
       <c r="A256" s="143" t="s">
         <v>76</v>
       </c>
@@ -26047,7 +26066,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="19.95" customHeight="1">
+    <row r="257" spans="1:3" ht="20" customHeight="1">
       <c r="A257" s="143" t="s">
         <v>76</v>
       </c>
@@ -26058,7 +26077,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="19.95" customHeight="1">
+    <row r="258" spans="1:3" ht="20" customHeight="1">
       <c r="A258" s="143" t="s">
         <v>76</v>
       </c>
@@ -26069,7 +26088,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="19.95" customHeight="1">
+    <row r="259" spans="1:3" ht="20" customHeight="1">
       <c r="A259" s="143" t="s">
         <v>76</v>
       </c>
@@ -26080,7 +26099,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="19.95" customHeight="1">
+    <row r="260" spans="1:3" ht="20" customHeight="1">
       <c r="A260" s="143" t="s">
         <v>76</v>
       </c>
@@ -26091,7 +26110,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="19.95" customHeight="1">
+    <row r="261" spans="1:3" ht="20" customHeight="1">
       <c r="A261" s="143" t="s">
         <v>76</v>
       </c>
@@ -26102,7 +26121,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="19.95" customHeight="1">
+    <row r="262" spans="1:3" ht="20" customHeight="1">
       <c r="A262" s="143" t="s">
         <v>76</v>
       </c>
@@ -26113,7 +26132,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="19.95" customHeight="1">
+    <row r="263" spans="1:3" ht="20" customHeight="1">
       <c r="A263" s="143" t="s">
         <v>76</v>
       </c>
@@ -26124,7 +26143,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="19.95" customHeight="1">
+    <row r="264" spans="1:3" ht="20" customHeight="1">
       <c r="A264" s="143" t="s">
         <v>76</v>
       </c>
@@ -26135,7 +26154,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="19.95" customHeight="1">
+    <row r="265" spans="1:3" ht="20" customHeight="1">
       <c r="A265" s="143" t="s">
         <v>76</v>
       </c>
@@ -26146,7 +26165,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="19.95" customHeight="1">
+    <row r="266" spans="1:3" ht="20" customHeight="1">
       <c r="A266" s="143" t="s">
         <v>76</v>
       </c>
@@ -26157,7 +26176,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="19.95" customHeight="1">
+    <row r="267" spans="1:3" ht="20" customHeight="1">
       <c r="A267" s="143" t="s">
         <v>76</v>
       </c>
@@ -26168,7 +26187,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="19.95" customHeight="1">
+    <row r="268" spans="1:3" ht="20" customHeight="1">
       <c r="A268" s="143" t="s">
         <v>76</v>
       </c>
@@ -26179,7 +26198,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="19.95" customHeight="1">
+    <row r="269" spans="1:3" ht="20" customHeight="1">
       <c r="A269" s="143" t="s">
         <v>76</v>
       </c>
@@ -26190,7 +26209,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="19.95" customHeight="1">
+    <row r="270" spans="1:3" ht="20" customHeight="1">
       <c r="A270" s="143" t="s">
         <v>76</v>
       </c>
@@ -26201,7 +26220,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="19.95" customHeight="1">
+    <row r="271" spans="1:3" ht="20" customHeight="1">
       <c r="A271" s="143" t="s">
         <v>76</v>
       </c>
@@ -26212,7 +26231,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="19.95" customHeight="1">
+    <row r="272" spans="1:3" ht="20" customHeight="1">
       <c r="A272" s="143" t="s">
         <v>76</v>
       </c>
@@ -26223,7 +26242,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="19.95" customHeight="1">
+    <row r="273" spans="1:3" ht="20" customHeight="1">
       <c r="A273" s="143" t="s">
         <v>76</v>
       </c>
@@ -26234,7 +26253,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="19.95" customHeight="1">
+    <row r="274" spans="1:3" ht="20" customHeight="1">
       <c r="A274" s="143" t="s">
         <v>76</v>
       </c>
@@ -26245,7 +26264,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="19.95" customHeight="1">
+    <row r="275" spans="1:3" ht="20" customHeight="1">
       <c r="A275" s="143" t="s">
         <v>76</v>
       </c>
@@ -26256,7 +26275,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="19.95" customHeight="1">
+    <row r="276" spans="1:3" ht="20" customHeight="1">
       <c r="A276" s="143" t="s">
         <v>76</v>
       </c>
@@ -26267,7 +26286,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="19.95" customHeight="1">
+    <row r="277" spans="1:3" ht="20" customHeight="1">
       <c r="A277" s="143" t="s">
         <v>76</v>
       </c>
@@ -26278,7 +26297,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="19.95" customHeight="1">
+    <row r="278" spans="1:3" ht="20" customHeight="1">
       <c r="A278" s="143" t="s">
         <v>76</v>
       </c>
@@ -26289,7 +26308,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="19.95" customHeight="1">
+    <row r="279" spans="1:3" ht="20" customHeight="1">
       <c r="A279" s="143" t="s">
         <v>76</v>
       </c>
@@ -26300,7 +26319,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="19.95" customHeight="1">
+    <row r="280" spans="1:3" ht="20" customHeight="1">
       <c r="A280" s="143" t="s">
         <v>76</v>
       </c>
@@ -26311,7 +26330,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="19.95" customHeight="1">
+    <row r="281" spans="1:3" ht="20" customHeight="1">
       <c r="A281" s="143" t="s">
         <v>76</v>
       </c>
@@ -26322,7 +26341,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="19.95" customHeight="1">
+    <row r="282" spans="1:3" ht="20" customHeight="1">
       <c r="A282" s="143" t="s">
         <v>76</v>
       </c>
@@ -26333,7 +26352,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="19.95" customHeight="1">
+    <row r="283" spans="1:3" ht="20" customHeight="1">
       <c r="A283" s="143" t="s">
         <v>76</v>
       </c>
@@ -26344,7 +26363,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="19.95" customHeight="1">
+    <row r="284" spans="1:3" ht="20" customHeight="1">
       <c r="A284" s="143" t="s">
         <v>76</v>
       </c>
@@ -26355,7 +26374,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="19.95" customHeight="1">
+    <row r="285" spans="1:3" ht="20" customHeight="1">
       <c r="A285" s="143" t="s">
         <v>76</v>
       </c>
@@ -26366,7 +26385,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="19.95" customHeight="1">
+    <row r="286" spans="1:3" ht="20" customHeight="1">
       <c r="A286" s="143" t="s">
         <v>76</v>
       </c>
@@ -26377,7 +26396,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="19.95" customHeight="1">
+    <row r="287" spans="1:3" ht="20" customHeight="1">
       <c r="A287" s="143" t="s">
         <v>76</v>
       </c>
@@ -26388,7 +26407,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="19.95" customHeight="1">
+    <row r="288" spans="1:3" ht="20" customHeight="1">
       <c r="A288" s="143" t="s">
         <v>76</v>
       </c>
@@ -26399,7 +26418,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="19.95" customHeight="1">
+    <row r="289" spans="1:3" ht="20" customHeight="1">
       <c r="A289" s="143" t="s">
         <v>76</v>
       </c>
@@ -26410,7 +26429,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="19.95" customHeight="1">
+    <row r="290" spans="1:3" ht="20" customHeight="1">
       <c r="A290" s="143" t="s">
         <v>76</v>
       </c>
@@ -26421,7 +26440,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="19.95" customHeight="1">
+    <row r="291" spans="1:3" ht="20" customHeight="1">
       <c r="A291" s="143" t="s">
         <v>76</v>
       </c>
@@ -26432,7 +26451,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="19.95" customHeight="1">
+    <row r="292" spans="1:3" ht="20" customHeight="1">
       <c r="A292" s="143" t="s">
         <v>76</v>
       </c>
@@ -26443,7 +26462,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="19.95" customHeight="1">
+    <row r="293" spans="1:3" ht="20" customHeight="1">
       <c r="A293" s="143" t="s">
         <v>76</v>
       </c>
@@ -26454,7 +26473,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="19.95" customHeight="1">
+    <row r="294" spans="1:3" ht="20" customHeight="1">
       <c r="A294" s="143" t="s">
         <v>76</v>
       </c>
@@ -26465,7 +26484,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="19.95" customHeight="1">
+    <row r="295" spans="1:3" ht="20" customHeight="1">
       <c r="A295" s="143" t="s">
         <v>76</v>
       </c>
@@ -26476,7 +26495,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="19.95" customHeight="1">
+    <row r="296" spans="1:3" ht="20" customHeight="1">
       <c r="A296" s="143" t="s">
         <v>76</v>
       </c>
@@ -26487,7 +26506,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="19.95" customHeight="1">
+    <row r="297" spans="1:3" ht="20" customHeight="1">
       <c r="A297" s="143" t="s">
         <v>76</v>
       </c>
@@ -26498,7 +26517,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="19.95" customHeight="1">
+    <row r="298" spans="1:3" ht="20" customHeight="1">
       <c r="A298" s="143" t="s">
         <v>76</v>
       </c>
@@ -26509,7 +26528,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="19.95" customHeight="1">
+    <row r="299" spans="1:3" ht="20" customHeight="1">
       <c r="A299" s="143" t="s">
         <v>76</v>
       </c>
@@ -26520,7 +26539,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="19.95" customHeight="1">
+    <row r="300" spans="1:3" ht="20" customHeight="1">
       <c r="A300" s="143" t="s">
         <v>76</v>
       </c>
@@ -26531,7 +26550,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="19.95" customHeight="1">
+    <row r="301" spans="1:3" ht="20" customHeight="1">
       <c r="A301" s="143" t="s">
         <v>76</v>
       </c>
@@ -26542,7 +26561,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="19.95" customHeight="1">
+    <row r="302" spans="1:3" ht="20" customHeight="1">
       <c r="A302" s="143" t="s">
         <v>76</v>
       </c>
@@ -26553,7 +26572,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="19.95" customHeight="1">
+    <row r="303" spans="1:3" ht="20" customHeight="1">
       <c r="A303" s="143" t="s">
         <v>76</v>
       </c>
@@ -26564,7 +26583,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="19.95" customHeight="1">
+    <row r="304" spans="1:3" ht="20" customHeight="1">
       <c r="A304" s="143" t="s">
         <v>76</v>
       </c>
@@ -26575,7 +26594,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="19.95" customHeight="1">
+    <row r="305" spans="1:3" ht="20" customHeight="1">
       <c r="A305" s="143" t="s">
         <v>76</v>
       </c>
@@ -26586,7 +26605,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="19.95" customHeight="1">
+    <row r="306" spans="1:3" ht="20" customHeight="1">
       <c r="A306" s="143" t="s">
         <v>76</v>
       </c>
@@ -26597,7 +26616,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="19.95" customHeight="1">
+    <row r="307" spans="1:3" ht="20" customHeight="1">
       <c r="A307" s="143" t="s">
         <v>76</v>
       </c>
@@ -26608,7 +26627,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="19.95" customHeight="1">
+    <row r="308" spans="1:3" ht="20" customHeight="1">
       <c r="A308" s="143" t="s">
         <v>76</v>
       </c>
@@ -26619,7 +26638,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="19.95" customHeight="1">
+    <row r="309" spans="1:3" ht="20" customHeight="1">
       <c r="A309" s="143" t="s">
         <v>76</v>
       </c>
@@ -26630,7 +26649,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="19.95" customHeight="1">
+    <row r="310" spans="1:3" ht="20" customHeight="1">
       <c r="A310" s="143" t="s">
         <v>76</v>
       </c>
@@ -26641,7 +26660,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="19.95" customHeight="1">
+    <row r="311" spans="1:3" ht="20" customHeight="1">
       <c r="A311" s="143" t="s">
         <v>76</v>
       </c>
@@ -26652,7 +26671,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="19.95" customHeight="1">
+    <row r="312" spans="1:3" ht="20" customHeight="1">
       <c r="A312" s="143" t="s">
         <v>76</v>
       </c>
@@ -26663,7 +26682,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="19.95" customHeight="1">
+    <row r="313" spans="1:3" ht="20" customHeight="1">
       <c r="A313" s="143" t="s">
         <v>76</v>
       </c>
@@ -26674,7 +26693,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="19.95" customHeight="1">
+    <row r="314" spans="1:3" ht="20" customHeight="1">
       <c r="A314" s="143" t="s">
         <v>76</v>
       </c>
@@ -26685,7 +26704,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="19.95" customHeight="1">
+    <row r="315" spans="1:3" ht="20" customHeight="1">
       <c r="A315" s="143" t="s">
         <v>76</v>
       </c>
@@ -26696,7 +26715,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="19.95" customHeight="1">
+    <row r="316" spans="1:3" ht="20" customHeight="1">
       <c r="A316" s="143" t="s">
         <v>76</v>
       </c>
@@ -26707,7 +26726,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="19.95" customHeight="1">
+    <row r="317" spans="1:3" ht="20" customHeight="1">
       <c r="A317" s="143" t="s">
         <v>76</v>
       </c>
@@ -26718,7 +26737,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="19.95" customHeight="1">
+    <row r="318" spans="1:3" ht="20" customHeight="1">
       <c r="A318" s="143" t="s">
         <v>76</v>
       </c>
@@ -26729,7 +26748,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="19.95" customHeight="1">
+    <row r="319" spans="1:3" ht="20" customHeight="1">
       <c r="A319" s="143" t="s">
         <v>76</v>
       </c>
@@ -26740,7 +26759,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="19.95" customHeight="1">
+    <row r="320" spans="1:3" ht="20" customHeight="1">
       <c r="A320" s="143" t="s">
         <v>76</v>
       </c>
@@ -26751,7 +26770,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="19.95" customHeight="1">
+    <row r="321" spans="1:3" ht="20" customHeight="1">
       <c r="A321" s="143" t="s">
         <v>76</v>
       </c>
@@ -26762,7 +26781,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="19.95" customHeight="1">
+    <row r="322" spans="1:3" ht="20" customHeight="1">
       <c r="A322" s="143" t="s">
         <v>76</v>
       </c>
@@ -26773,7 +26792,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="19.95" customHeight="1">
+    <row r="323" spans="1:3" ht="20" customHeight="1">
       <c r="A323" s="143" t="s">
         <v>76</v>
       </c>
@@ -26784,7 +26803,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="19.95" customHeight="1">
+    <row r="324" spans="1:3" ht="20" customHeight="1">
       <c r="A324" s="143" t="s">
         <v>76</v>
       </c>
@@ -26795,7 +26814,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="19.95" customHeight="1">
+    <row r="325" spans="1:3" ht="20" customHeight="1">
       <c r="A325" s="143" t="s">
         <v>76</v>
       </c>
@@ -26806,7 +26825,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="19.95" customHeight="1">
+    <row r="326" spans="1:3" ht="20" customHeight="1">
       <c r="A326" s="143" t="s">
         <v>76</v>
       </c>
@@ -26817,7 +26836,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="19.95" customHeight="1">
+    <row r="327" spans="1:3" ht="20" customHeight="1">
       <c r="A327" s="145" t="s">
         <v>1171</v>
       </c>
@@ -26828,7 +26847,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="19.95" customHeight="1">
+    <row r="328" spans="1:3" ht="20" customHeight="1">
       <c r="A328" s="145" t="s">
         <v>1171</v>
       </c>
@@ -26839,7 +26858,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="19.95" customHeight="1">
+    <row r="329" spans="1:3" ht="20" customHeight="1">
       <c r="A329" s="145" t="s">
         <v>1171</v>
       </c>
@@ -26850,7 +26869,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="19.95" customHeight="1">
+    <row r="330" spans="1:3" ht="20" customHeight="1">
       <c r="A330" s="145" t="s">
         <v>1171</v>
       </c>
@@ -26861,7 +26880,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="19.95" customHeight="1">
+    <row r="331" spans="1:3" ht="20" customHeight="1">
       <c r="A331" s="145" t="s">
         <v>1171</v>
       </c>
@@ -26872,7 +26891,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="19.95" customHeight="1">
+    <row r="332" spans="1:3" ht="20" customHeight="1">
       <c r="A332" s="145" t="s">
         <v>1171</v>
       </c>
@@ -26883,7 +26902,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="19.95" customHeight="1">
+    <row r="333" spans="1:3" ht="20" customHeight="1">
       <c r="A333" s="145" t="s">
         <v>1171</v>
       </c>
@@ -26894,7 +26913,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="19.95" customHeight="1">
+    <row r="334" spans="1:3" ht="20" customHeight="1">
       <c r="A334" s="145" t="s">
         <v>1171</v>
       </c>
@@ -26905,7 +26924,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="19.95" customHeight="1">
+    <row r="335" spans="1:3" ht="20" customHeight="1">
       <c r="A335" s="145" t="s">
         <v>1171</v>
       </c>
@@ -26916,7 +26935,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="19.95" customHeight="1">
+    <row r="336" spans="1:3" ht="20" customHeight="1">
       <c r="A336" s="145" t="s">
         <v>1171</v>
       </c>
@@ -26927,7 +26946,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="19.95" customHeight="1">
+    <row r="337" spans="1:3" ht="20" customHeight="1">
       <c r="A337" s="145" t="s">
         <v>1171</v>
       </c>
@@ -26938,7 +26957,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="19.95" customHeight="1">
+    <row r="338" spans="1:3" ht="20" customHeight="1">
       <c r="A338" s="145" t="s">
         <v>1171</v>
       </c>
@@ -26949,7 +26968,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="19.95" customHeight="1">
+    <row r="339" spans="1:3" ht="20" customHeight="1">
       <c r="A339" s="145" t="s">
         <v>1171</v>
       </c>
@@ -26960,7 +26979,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="19.95" customHeight="1">
+    <row r="340" spans="1:3" ht="20" customHeight="1">
       <c r="A340" s="145" t="s">
         <v>1171</v>
       </c>
@@ -26971,7 +26990,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="19.95" customHeight="1">
+    <row r="341" spans="1:3" ht="20" customHeight="1">
       <c r="A341" s="145" t="s">
         <v>1171</v>
       </c>
@@ -26982,7 +27001,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="342" spans="1:3" ht="19.95" customHeight="1">
+    <row r="342" spans="1:3" ht="20" customHeight="1">
       <c r="A342" s="145" t="s">
         <v>1171</v>
       </c>
@@ -26993,7 +27012,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="343" spans="1:3" ht="19.95" customHeight="1">
+    <row r="343" spans="1:3" ht="20" customHeight="1">
       <c r="A343" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27004,7 +27023,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="344" spans="1:3" ht="19.95" customHeight="1">
+    <row r="344" spans="1:3" ht="20" customHeight="1">
       <c r="A344" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27015,7 +27034,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="345" spans="1:3" ht="19.95" customHeight="1">
+    <row r="345" spans="1:3" ht="20" customHeight="1">
       <c r="A345" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27026,7 +27045,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="346" spans="1:3" ht="19.95" customHeight="1">
+    <row r="346" spans="1:3" ht="20" customHeight="1">
       <c r="A346" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27037,7 +27056,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="347" spans="1:3" ht="19.95" customHeight="1">
+    <row r="347" spans="1:3" ht="20" customHeight="1">
       <c r="A347" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27048,7 +27067,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="348" spans="1:3" ht="19.95" customHeight="1">
+    <row r="348" spans="1:3" ht="20" customHeight="1">
       <c r="A348" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27059,7 +27078,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="349" spans="1:3" ht="19.95" customHeight="1">
+    <row r="349" spans="1:3" ht="20" customHeight="1">
       <c r="A349" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27070,7 +27089,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="350" spans="1:3" ht="19.95" customHeight="1">
+    <row r="350" spans="1:3" ht="20" customHeight="1">
       <c r="A350" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27081,7 +27100,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="351" spans="1:3" ht="19.95" customHeight="1">
+    <row r="351" spans="1:3" ht="20" customHeight="1">
       <c r="A351" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27092,7 +27111,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="352" spans="1:3" ht="19.95" customHeight="1">
+    <row r="352" spans="1:3" ht="20" customHeight="1">
       <c r="A352" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27103,7 +27122,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="353" spans="1:3" ht="19.95" customHeight="1">
+    <row r="353" spans="1:3" ht="20" customHeight="1">
       <c r="A353" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27114,7 +27133,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="354" spans="1:3" ht="19.95" customHeight="1">
+    <row r="354" spans="1:3" ht="20" customHeight="1">
       <c r="A354" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27125,7 +27144,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="355" spans="1:3" ht="19.95" customHeight="1">
+    <row r="355" spans="1:3" ht="20" customHeight="1">
       <c r="A355" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27136,7 +27155,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="356" spans="1:3" ht="19.95" customHeight="1">
+    <row r="356" spans="1:3" ht="20" customHeight="1">
       <c r="A356" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27147,7 +27166,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="357" spans="1:3" ht="19.95" customHeight="1">
+    <row r="357" spans="1:3" ht="20" customHeight="1">
       <c r="A357" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27158,7 +27177,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="358" spans="1:3" ht="19.95" customHeight="1">
+    <row r="358" spans="1:3" ht="20" customHeight="1">
       <c r="A358" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27169,7 +27188,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="359" spans="1:3" ht="19.95" customHeight="1">
+    <row r="359" spans="1:3" ht="20" customHeight="1">
       <c r="A359" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27180,7 +27199,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="360" spans="1:3" ht="19.95" customHeight="1">
+    <row r="360" spans="1:3" ht="20" customHeight="1">
       <c r="A360" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27191,7 +27210,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="361" spans="1:3" ht="19.95" customHeight="1">
+    <row r="361" spans="1:3" ht="20" customHeight="1">
       <c r="A361" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27202,7 +27221,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="362" spans="1:3" ht="19.95" customHeight="1">
+    <row r="362" spans="1:3" ht="20" customHeight="1">
       <c r="A362" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27213,7 +27232,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="363" spans="1:3" ht="19.95" customHeight="1">
+    <row r="363" spans="1:3" ht="20" customHeight="1">
       <c r="A363" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27224,7 +27243,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="364" spans="1:3" ht="19.95" customHeight="1">
+    <row r="364" spans="1:3" ht="20" customHeight="1">
       <c r="A364" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27235,7 +27254,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="365" spans="1:3" ht="19.95" customHeight="1">
+    <row r="365" spans="1:3" ht="20" customHeight="1">
       <c r="A365" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27246,7 +27265,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="366" spans="1:3" ht="19.95" customHeight="1">
+    <row r="366" spans="1:3" ht="20" customHeight="1">
       <c r="A366" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27257,7 +27276,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="367" spans="1:3" ht="19.95" customHeight="1">
+    <row r="367" spans="1:3" ht="20" customHeight="1">
       <c r="A367" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27268,7 +27287,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="368" spans="1:3" ht="19.95" customHeight="1">
+    <row r="368" spans="1:3" ht="20" customHeight="1">
       <c r="A368" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27279,7 +27298,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="369" spans="1:3" ht="19.95" customHeight="1">
+    <row r="369" spans="1:3" ht="20" customHeight="1">
       <c r="A369" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27290,7 +27309,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="370" spans="1:3" ht="19.95" customHeight="1">
+    <row r="370" spans="1:3" ht="20" customHeight="1">
       <c r="A370" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27301,7 +27320,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="371" spans="1:3" ht="19.95" customHeight="1">
+    <row r="371" spans="1:3" ht="20" customHeight="1">
       <c r="A371" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27312,7 +27331,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="372" spans="1:3" ht="19.95" customHeight="1">
+    <row r="372" spans="1:3" ht="20" customHeight="1">
       <c r="A372" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27323,7 +27342,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="373" spans="1:3" ht="19.95" customHeight="1">
+    <row r="373" spans="1:3" ht="20" customHeight="1">
       <c r="A373" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27334,7 +27353,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="374" spans="1:3" ht="19.95" customHeight="1">
+    <row r="374" spans="1:3" ht="20" customHeight="1">
       <c r="A374" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27345,7 +27364,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="375" spans="1:3" ht="19.95" customHeight="1">
+    <row r="375" spans="1:3" ht="20" customHeight="1">
       <c r="A375" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27356,7 +27375,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="376" spans="1:3" ht="19.95" customHeight="1">
+    <row r="376" spans="1:3" ht="20" customHeight="1">
       <c r="A376" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27367,7 +27386,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="377" spans="1:3" ht="19.95" customHeight="1">
+    <row r="377" spans="1:3" ht="20" customHeight="1">
       <c r="A377" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27378,7 +27397,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="378" spans="1:3" ht="19.95" customHeight="1">
+    <row r="378" spans="1:3" ht="20" customHeight="1">
       <c r="A378" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27389,7 +27408,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="379" spans="1:3" ht="19.95" customHeight="1">
+    <row r="379" spans="1:3" ht="20" customHeight="1">
       <c r="A379" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27400,7 +27419,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="380" spans="1:3" ht="19.95" customHeight="1">
+    <row r="380" spans="1:3" ht="20" customHeight="1">
       <c r="A380" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27411,7 +27430,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="381" spans="1:3" ht="19.95" customHeight="1">
+    <row r="381" spans="1:3" ht="20" customHeight="1">
       <c r="A381" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27422,7 +27441,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="382" spans="1:3" ht="19.95" customHeight="1">
+    <row r="382" spans="1:3" ht="20" customHeight="1">
       <c r="A382" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27433,7 +27452,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="383" spans="1:3" ht="19.95" customHeight="1">
+    <row r="383" spans="1:3" ht="20" customHeight="1">
       <c r="A383" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27444,7 +27463,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="384" spans="1:3" ht="19.95" customHeight="1">
+    <row r="384" spans="1:3" ht="20" customHeight="1">
       <c r="A384" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27455,7 +27474,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="385" spans="1:3" ht="19.95" customHeight="1">
+    <row r="385" spans="1:3" ht="20" customHeight="1">
       <c r="A385" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27466,7 +27485,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="386" spans="1:3" ht="19.95" customHeight="1">
+    <row r="386" spans="1:3" ht="20" customHeight="1">
       <c r="A386" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27477,7 +27496,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="387" spans="1:3" ht="19.95" customHeight="1">
+    <row r="387" spans="1:3" ht="20" customHeight="1">
       <c r="A387" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27488,7 +27507,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="388" spans="1:3" ht="19.95" customHeight="1">
+    <row r="388" spans="1:3" ht="20" customHeight="1">
       <c r="A388" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27499,7 +27518,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="389" spans="1:3" ht="19.95" customHeight="1">
+    <row r="389" spans="1:3" ht="20" customHeight="1">
       <c r="A389" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27510,7 +27529,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="390" spans="1:3" ht="19.95" customHeight="1">
+    <row r="390" spans="1:3" ht="20" customHeight="1">
       <c r="A390" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27521,7 +27540,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="391" spans="1:3" ht="19.95" customHeight="1">
+    <row r="391" spans="1:3" ht="20" customHeight="1">
       <c r="A391" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27532,7 +27551,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="392" spans="1:3" ht="19.95" customHeight="1">
+    <row r="392" spans="1:3" ht="20" customHeight="1">
       <c r="A392" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27543,7 +27562,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="393" spans="1:3" ht="19.95" customHeight="1">
+    <row r="393" spans="1:3" ht="20" customHeight="1">
       <c r="A393" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27554,7 +27573,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="394" spans="1:3" ht="19.95" customHeight="1">
+    <row r="394" spans="1:3" ht="20" customHeight="1">
       <c r="A394" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27565,7 +27584,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="395" spans="1:3" ht="19.95" customHeight="1">
+    <row r="395" spans="1:3" ht="20" customHeight="1">
       <c r="A395" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27576,7 +27595,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="396" spans="1:3" ht="19.95" customHeight="1">
+    <row r="396" spans="1:3" ht="20" customHeight="1">
       <c r="A396" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27587,7 +27606,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="397" spans="1:3" ht="19.95" customHeight="1">
+    <row r="397" spans="1:3" ht="20" customHeight="1">
       <c r="A397" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27598,7 +27617,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="398" spans="1:3" ht="19.95" customHeight="1">
+    <row r="398" spans="1:3" ht="20" customHeight="1">
       <c r="A398" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27609,7 +27628,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="399" spans="1:3" ht="19.95" customHeight="1">
+    <row r="399" spans="1:3" ht="20" customHeight="1">
       <c r="A399" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27620,7 +27639,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="400" spans="1:3" ht="19.95" customHeight="1">
+    <row r="400" spans="1:3" ht="20" customHeight="1">
       <c r="A400" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27631,7 +27650,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="401" spans="1:3" ht="19.95" customHeight="1">
+    <row r="401" spans="1:3" ht="20" customHeight="1">
       <c r="A401" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27642,7 +27661,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="402" spans="1:3" ht="19.95" customHeight="1">
+    <row r="402" spans="1:3" ht="20" customHeight="1">
       <c r="A402" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27653,7 +27672,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="403" spans="1:3" ht="19.95" customHeight="1">
+    <row r="403" spans="1:3" ht="20" customHeight="1">
       <c r="A403" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27664,7 +27683,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="404" spans="1:3" ht="19.95" customHeight="1">
+    <row r="404" spans="1:3" ht="20" customHeight="1">
       <c r="A404" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27675,7 +27694,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="405" spans="1:3" ht="19.95" customHeight="1">
+    <row r="405" spans="1:3" ht="20" customHeight="1">
       <c r="A405" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27686,7 +27705,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="406" spans="1:3" ht="19.95" customHeight="1">
+    <row r="406" spans="1:3" ht="20" customHeight="1">
       <c r="A406" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27697,7 +27716,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="407" spans="1:3" ht="19.95" customHeight="1">
+    <row r="407" spans="1:3" ht="20" customHeight="1">
       <c r="A407" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27708,7 +27727,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="408" spans="1:3" ht="19.95" customHeight="1">
+    <row r="408" spans="1:3" ht="20" customHeight="1">
       <c r="A408" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27719,7 +27738,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="409" spans="1:3" ht="19.95" customHeight="1">
+    <row r="409" spans="1:3" ht="20" customHeight="1">
       <c r="A409" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27730,7 +27749,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="410" spans="1:3" ht="19.95" customHeight="1">
+    <row r="410" spans="1:3" ht="20" customHeight="1">
       <c r="A410" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27741,7 +27760,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="411" spans="1:3" ht="19.95" customHeight="1">
+    <row r="411" spans="1:3" ht="20" customHeight="1">
       <c r="A411" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27752,7 +27771,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="412" spans="1:3" ht="19.95" customHeight="1">
+    <row r="412" spans="1:3" ht="20" customHeight="1">
       <c r="A412" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27763,7 +27782,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="413" spans="1:3" ht="19.95" customHeight="1">
+    <row r="413" spans="1:3" ht="20" customHeight="1">
       <c r="A413" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27774,7 +27793,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="414" spans="1:3" ht="19.95" customHeight="1">
+    <row r="414" spans="1:3" ht="20" customHeight="1">
       <c r="A414" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27785,7 +27804,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="415" spans="1:3" ht="19.95" customHeight="1">
+    <row r="415" spans="1:3" ht="20" customHeight="1">
       <c r="A415" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27796,7 +27815,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="416" spans="1:3" ht="19.95" customHeight="1">
+    <row r="416" spans="1:3" ht="20" customHeight="1">
       <c r="A416" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27807,7 +27826,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="417" spans="1:3" ht="19.95" customHeight="1">
+    <row r="417" spans="1:3" ht="20" customHeight="1">
       <c r="A417" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27818,7 +27837,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="418" spans="1:3" ht="19.95" customHeight="1">
+    <row r="418" spans="1:3" ht="20" customHeight="1">
       <c r="A418" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27829,7 +27848,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="419" spans="1:3" ht="19.95" customHeight="1">
+    <row r="419" spans="1:3" ht="20" customHeight="1">
       <c r="A419" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27840,7 +27859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="420" spans="1:3" ht="19.95" customHeight="1">
+    <row r="420" spans="1:3" ht="20" customHeight="1">
       <c r="A420" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27851,7 +27870,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="421" spans="1:3" ht="19.95" customHeight="1">
+    <row r="421" spans="1:3" ht="20" customHeight="1">
       <c r="A421" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27862,7 +27881,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="422" spans="1:3" ht="19.95" customHeight="1">
+    <row r="422" spans="1:3" ht="20" customHeight="1">
       <c r="A422" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27873,7 +27892,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="423" spans="1:3" ht="19.95" customHeight="1">
+    <row r="423" spans="1:3" ht="20" customHeight="1">
       <c r="A423" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27884,7 +27903,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="424" spans="1:3" ht="19.95" customHeight="1">
+    <row r="424" spans="1:3" ht="20" customHeight="1">
       <c r="A424" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27895,7 +27914,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="425" spans="1:3" ht="19.95" customHeight="1">
+    <row r="425" spans="1:3" ht="20" customHeight="1">
       <c r="A425" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27906,7 +27925,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="426" spans="1:3" ht="19.95" customHeight="1">
+    <row r="426" spans="1:3" ht="20" customHeight="1">
       <c r="A426" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27917,7 +27936,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="427" spans="1:3" ht="19.95" customHeight="1">
+    <row r="427" spans="1:3" ht="20" customHeight="1">
       <c r="A427" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27928,7 +27947,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="428" spans="1:3" ht="19.95" customHeight="1">
+    <row r="428" spans="1:3" ht="20" customHeight="1">
       <c r="A428" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27939,7 +27958,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="429" spans="1:3" ht="19.95" customHeight="1">
+    <row r="429" spans="1:3" ht="20" customHeight="1">
       <c r="A429" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27950,7 +27969,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="430" spans="1:3" ht="19.95" customHeight="1">
+    <row r="430" spans="1:3" ht="20" customHeight="1">
       <c r="A430" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27961,7 +27980,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="431" spans="1:3" ht="19.95" customHeight="1">
+    <row r="431" spans="1:3" ht="20" customHeight="1">
       <c r="A431" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27972,7 +27991,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="432" spans="1:3" ht="19.95" customHeight="1">
+    <row r="432" spans="1:3" ht="20" customHeight="1">
       <c r="A432" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27983,7 +28002,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="433" spans="1:3" ht="19.95" customHeight="1">
+    <row r="433" spans="1:3" ht="20" customHeight="1">
       <c r="A433" s="145" t="s">
         <v>1171</v>
       </c>
@@ -27994,7 +28013,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="434" spans="1:3" ht="19.95" customHeight="1">
+    <row r="434" spans="1:3" ht="20" customHeight="1">
       <c r="A434" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28005,7 +28024,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="435" spans="1:3" ht="19.95" customHeight="1">
+    <row r="435" spans="1:3" ht="20" customHeight="1">
       <c r="A435" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28016,7 +28035,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="436" spans="1:3" ht="19.95" customHeight="1">
+    <row r="436" spans="1:3" ht="20" customHeight="1">
       <c r="A436" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28027,7 +28046,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="437" spans="1:3" ht="19.95" customHeight="1">
+    <row r="437" spans="1:3" ht="20" customHeight="1">
       <c r="A437" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28038,7 +28057,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="438" spans="1:3" ht="19.95" customHeight="1">
+    <row r="438" spans="1:3" ht="20" customHeight="1">
       <c r="A438" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28049,7 +28068,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="439" spans="1:3" ht="19.95" customHeight="1">
+    <row r="439" spans="1:3" ht="20" customHeight="1">
       <c r="A439" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28060,7 +28079,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="440" spans="1:3" ht="19.95" customHeight="1">
+    <row r="440" spans="1:3" ht="20" customHeight="1">
       <c r="A440" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28071,7 +28090,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="441" spans="1:3" ht="19.95" customHeight="1">
+    <row r="441" spans="1:3" ht="20" customHeight="1">
       <c r="A441" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28082,7 +28101,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="442" spans="1:3" ht="19.95" customHeight="1">
+    <row r="442" spans="1:3" ht="20" customHeight="1">
       <c r="A442" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28093,7 +28112,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="443" spans="1:3" ht="19.95" customHeight="1">
+    <row r="443" spans="1:3" ht="20" customHeight="1">
       <c r="A443" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28104,7 +28123,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="444" spans="1:3" ht="19.95" customHeight="1">
+    <row r="444" spans="1:3" ht="20" customHeight="1">
       <c r="A444" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28115,7 +28134,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="445" spans="1:3" ht="19.95" customHeight="1">
+    <row r="445" spans="1:3" ht="20" customHeight="1">
       <c r="A445" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28126,7 +28145,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="446" spans="1:3" ht="19.95" customHeight="1">
+    <row r="446" spans="1:3" ht="20" customHeight="1">
       <c r="A446" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28137,7 +28156,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="447" spans="1:3" ht="19.95" customHeight="1">
+    <row r="447" spans="1:3" ht="20" customHeight="1">
       <c r="A447" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28148,7 +28167,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="448" spans="1:3" ht="19.95" customHeight="1">
+    <row r="448" spans="1:3" ht="20" customHeight="1">
       <c r="A448" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28159,7 +28178,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="449" spans="1:3" ht="19.95" customHeight="1">
+    <row r="449" spans="1:3" ht="20" customHeight="1">
       <c r="A449" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28170,7 +28189,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="450" spans="1:3" ht="19.95" customHeight="1">
+    <row r="450" spans="1:3" ht="20" customHeight="1">
       <c r="A450" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28181,7 +28200,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="451" spans="1:3" ht="19.95" customHeight="1">
+    <row r="451" spans="1:3" ht="20" customHeight="1">
       <c r="A451" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28192,7 +28211,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="452" spans="1:3" ht="19.95" customHeight="1">
+    <row r="452" spans="1:3" ht="20" customHeight="1">
       <c r="A452" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28203,7 +28222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="453" spans="1:3" ht="19.95" customHeight="1">
+    <row r="453" spans="1:3" ht="20" customHeight="1">
       <c r="A453" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28214,7 +28233,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="454" spans="1:3" ht="19.95" customHeight="1">
+    <row r="454" spans="1:3" ht="20" customHeight="1">
       <c r="A454" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28225,7 +28244,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="455" spans="1:3" ht="19.95" customHeight="1">
+    <row r="455" spans="1:3" ht="20" customHeight="1">
       <c r="A455" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28236,7 +28255,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="456" spans="1:3" ht="19.95" customHeight="1">
+    <row r="456" spans="1:3" ht="20" customHeight="1">
       <c r="A456" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28247,7 +28266,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="457" spans="1:3" ht="19.95" customHeight="1">
+    <row r="457" spans="1:3" ht="20" customHeight="1">
       <c r="A457" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28258,7 +28277,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="458" spans="1:3" ht="19.95" customHeight="1">
+    <row r="458" spans="1:3" ht="20" customHeight="1">
       <c r="A458" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28269,7 +28288,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="459" spans="1:3" ht="19.95" customHeight="1">
+    <row r="459" spans="1:3" ht="20" customHeight="1">
       <c r="A459" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28280,7 +28299,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="460" spans="1:3" ht="19.95" customHeight="1">
+    <row r="460" spans="1:3" ht="20" customHeight="1">
       <c r="A460" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28291,7 +28310,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="461" spans="1:3" ht="19.95" customHeight="1">
+    <row r="461" spans="1:3" ht="20" customHeight="1">
       <c r="A461" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28302,7 +28321,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="462" spans="1:3" ht="19.95" customHeight="1">
+    <row r="462" spans="1:3" ht="20" customHeight="1">
       <c r="A462" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28313,7 +28332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="463" spans="1:3" ht="19.95" customHeight="1">
+    <row r="463" spans="1:3" ht="20" customHeight="1">
       <c r="A463" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28324,7 +28343,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="464" spans="1:3" ht="19.95" customHeight="1">
+    <row r="464" spans="1:3" ht="20" customHeight="1">
       <c r="A464" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28335,7 +28354,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="465" spans="1:3" ht="19.95" customHeight="1">
+    <row r="465" spans="1:3" ht="20" customHeight="1">
       <c r="A465" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28346,7 +28365,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="466" spans="1:3" ht="19.95" customHeight="1">
+    <row r="466" spans="1:3" ht="20" customHeight="1">
       <c r="A466" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28357,7 +28376,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="467" spans="1:3" ht="19.95" customHeight="1">
+    <row r="467" spans="1:3" ht="20" customHeight="1">
       <c r="A467" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28368,7 +28387,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="468" spans="1:3" ht="19.95" customHeight="1">
+    <row r="468" spans="1:3" ht="20" customHeight="1">
       <c r="A468" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28379,7 +28398,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="469" spans="1:3" ht="19.95" customHeight="1">
+    <row r="469" spans="1:3" ht="20" customHeight="1">
       <c r="A469" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28390,7 +28409,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="470" spans="1:3" ht="19.95" customHeight="1">
+    <row r="470" spans="1:3" ht="20" customHeight="1">
       <c r="A470" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28401,7 +28420,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="471" spans="1:3" ht="19.95" customHeight="1">
+    <row r="471" spans="1:3" ht="20" customHeight="1">
       <c r="A471" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28412,7 +28431,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="472" spans="1:3" ht="19.95" customHeight="1">
+    <row r="472" spans="1:3" ht="20" customHeight="1">
       <c r="A472" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28423,7 +28442,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="473" spans="1:3" ht="19.95" customHeight="1">
+    <row r="473" spans="1:3" ht="20" customHeight="1">
       <c r="A473" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28434,7 +28453,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="474" spans="1:3" ht="19.95" customHeight="1">
+    <row r="474" spans="1:3" ht="20" customHeight="1">
       <c r="A474" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28445,7 +28464,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="475" spans="1:3" ht="19.95" customHeight="1">
+    <row r="475" spans="1:3" ht="20" customHeight="1">
       <c r="A475" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28456,7 +28475,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="476" spans="1:3" ht="19.95" customHeight="1">
+    <row r="476" spans="1:3" ht="20" customHeight="1">
       <c r="A476" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28467,7 +28486,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="477" spans="1:3" ht="19.95" customHeight="1">
+    <row r="477" spans="1:3" ht="20" customHeight="1">
       <c r="A477" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28478,7 +28497,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="478" spans="1:3" ht="19.95" customHeight="1">
+    <row r="478" spans="1:3" ht="20" customHeight="1">
       <c r="A478" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28489,7 +28508,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="479" spans="1:3" ht="19.95" customHeight="1">
+    <row r="479" spans="1:3" ht="20" customHeight="1">
       <c r="A479" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28500,7 +28519,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="480" spans="1:3" ht="19.95" customHeight="1">
+    <row r="480" spans="1:3" ht="20" customHeight="1">
       <c r="A480" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28511,7 +28530,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="481" spans="1:3" ht="19.95" customHeight="1">
+    <row r="481" spans="1:3" ht="20" customHeight="1">
       <c r="A481" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28522,7 +28541,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="482" spans="1:3" ht="19.95" customHeight="1">
+    <row r="482" spans="1:3" ht="20" customHeight="1">
       <c r="A482" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28533,7 +28552,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="483" spans="1:3" ht="19.95" customHeight="1">
+    <row r="483" spans="1:3" ht="20" customHeight="1">
       <c r="A483" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28544,7 +28563,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="484" spans="1:3" ht="19.95" customHeight="1">
+    <row r="484" spans="1:3" ht="20" customHeight="1">
       <c r="A484" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28555,7 +28574,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="485" spans="1:3" ht="19.95" customHeight="1">
+    <row r="485" spans="1:3" ht="20" customHeight="1">
       <c r="A485" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28566,7 +28585,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="486" spans="1:3" ht="19.95" customHeight="1">
+    <row r="486" spans="1:3" ht="20" customHeight="1">
       <c r="A486" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28577,7 +28596,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="487" spans="1:3" ht="19.95" customHeight="1">
+    <row r="487" spans="1:3" ht="20" customHeight="1">
       <c r="A487" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28588,7 +28607,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="488" spans="1:3" ht="19.95" customHeight="1">
+    <row r="488" spans="1:3" ht="20" customHeight="1">
       <c r="A488" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28599,7 +28618,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="489" spans="1:3" ht="19.95" customHeight="1">
+    <row r="489" spans="1:3" ht="20" customHeight="1">
       <c r="A489" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28610,7 +28629,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="490" spans="1:3" ht="19.95" customHeight="1">
+    <row r="490" spans="1:3" ht="20" customHeight="1">
       <c r="A490" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28621,7 +28640,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="491" spans="1:3" ht="19.95" customHeight="1">
+    <row r="491" spans="1:3" ht="20" customHeight="1">
       <c r="A491" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28632,7 +28651,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="492" spans="1:3" ht="19.95" customHeight="1">
+    <row r="492" spans="1:3" ht="20" customHeight="1">
       <c r="A492" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28643,7 +28662,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="493" spans="1:3" ht="19.95" customHeight="1">
+    <row r="493" spans="1:3" ht="20" customHeight="1">
       <c r="A493" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28654,7 +28673,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="494" spans="1:3" ht="19.95" customHeight="1">
+    <row r="494" spans="1:3" ht="20" customHeight="1">
       <c r="A494" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28665,7 +28684,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="495" spans="1:3" ht="19.95" customHeight="1">
+    <row r="495" spans="1:3" ht="20" customHeight="1">
       <c r="A495" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28676,7 +28695,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="496" spans="1:3" ht="19.95" customHeight="1">
+    <row r="496" spans="1:3" ht="20" customHeight="1">
       <c r="A496" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28687,7 +28706,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="497" spans="1:3" ht="19.95" customHeight="1">
+    <row r="497" spans="1:3" ht="20" customHeight="1">
       <c r="A497" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28698,7 +28717,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="498" spans="1:3" ht="19.95" customHeight="1">
+    <row r="498" spans="1:3" ht="20" customHeight="1">
       <c r="A498" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28709,7 +28728,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="499" spans="1:3" ht="19.95" customHeight="1">
+    <row r="499" spans="1:3" ht="20" customHeight="1">
       <c r="A499" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28720,7 +28739,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="500" spans="1:3" ht="19.95" customHeight="1">
+    <row r="500" spans="1:3" ht="20" customHeight="1">
       <c r="A500" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28731,7 +28750,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="501" spans="1:3" ht="19.95" customHeight="1">
+    <row r="501" spans="1:3" ht="20" customHeight="1">
       <c r="A501" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28742,7 +28761,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="502" spans="1:3" ht="19.95" customHeight="1">
+    <row r="502" spans="1:3" ht="20" customHeight="1">
       <c r="A502" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28753,7 +28772,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="503" spans="1:3" ht="19.95" customHeight="1">
+    <row r="503" spans="1:3" ht="20" customHeight="1">
       <c r="A503" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28764,7 +28783,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="504" spans="1:3" ht="19.95" customHeight="1">
+    <row r="504" spans="1:3" ht="20" customHeight="1">
       <c r="A504" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28775,7 +28794,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="505" spans="1:3" ht="19.95" customHeight="1">
+    <row r="505" spans="1:3" ht="20" customHeight="1">
       <c r="A505" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28786,7 +28805,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="506" spans="1:3" ht="19.95" customHeight="1">
+    <row r="506" spans="1:3" ht="20" customHeight="1">
       <c r="A506" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28797,7 +28816,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="507" spans="1:3" ht="19.95" customHeight="1">
+    <row r="507" spans="1:3" ht="20" customHeight="1">
       <c r="A507" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28808,7 +28827,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="508" spans="1:3" ht="19.95" customHeight="1">
+    <row r="508" spans="1:3" ht="20" customHeight="1">
       <c r="A508" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28819,7 +28838,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="509" spans="1:3" ht="19.95" customHeight="1">
+    <row r="509" spans="1:3" ht="20" customHeight="1">
       <c r="A509" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28830,7 +28849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="510" spans="1:3" ht="19.95" customHeight="1">
+    <row r="510" spans="1:3" ht="20" customHeight="1">
       <c r="A510" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28841,7 +28860,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="511" spans="1:3" ht="19.95" customHeight="1">
+    <row r="511" spans="1:3" ht="20" customHeight="1">
       <c r="A511" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28852,7 +28871,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="512" spans="1:3" ht="19.95" customHeight="1">
+    <row r="512" spans="1:3" ht="20" customHeight="1">
       <c r="A512" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28863,7 +28882,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="513" spans="1:3" ht="19.95" customHeight="1">
+    <row r="513" spans="1:3" ht="20" customHeight="1">
       <c r="A513" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28874,7 +28893,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="514" spans="1:3" ht="19.95" customHeight="1">
+    <row r="514" spans="1:3" ht="20" customHeight="1">
       <c r="A514" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28885,7 +28904,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="515" spans="1:3" ht="19.95" customHeight="1">
+    <row r="515" spans="1:3" ht="20" customHeight="1">
       <c r="A515" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28896,7 +28915,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="516" spans="1:3" ht="19.95" customHeight="1">
+    <row r="516" spans="1:3" ht="20" customHeight="1">
       <c r="A516" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28907,7 +28926,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="517" spans="1:3" ht="19.95" customHeight="1">
+    <row r="517" spans="1:3" ht="20" customHeight="1">
       <c r="A517" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28918,7 +28937,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="518" spans="1:3" ht="19.95" customHeight="1">
+    <row r="518" spans="1:3" ht="20" customHeight="1">
       <c r="A518" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28929,7 +28948,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="519" spans="1:3" ht="19.95" customHeight="1">
+    <row r="519" spans="1:3" ht="20" customHeight="1">
       <c r="A519" s="145" t="s">
         <v>1171</v>
       </c>
@@ -28940,7 +28959,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="520" spans="1:3" ht="19.95" customHeight="1">
+    <row r="520" spans="1:3" ht="20" customHeight="1">
       <c r="A520" s="146" t="s">
         <v>1172</v>
       </c>
@@ -28951,7 +28970,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="521" spans="1:3" ht="19.95" customHeight="1">
+    <row r="521" spans="1:3" ht="20" customHeight="1">
       <c r="A521" s="146" t="s">
         <v>1172</v>
       </c>
@@ -28962,7 +28981,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="522" spans="1:3" ht="19.95" customHeight="1">
+    <row r="522" spans="1:3" ht="20" customHeight="1">
       <c r="A522" s="146" t="s">
         <v>1172</v>
       </c>
@@ -28973,7 +28992,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="523" spans="1:3" ht="19.95" customHeight="1">
+    <row r="523" spans="1:3" ht="20" customHeight="1">
       <c r="A523" s="146" t="s">
         <v>1172</v>
       </c>
@@ -28984,7 +29003,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="524" spans="1:3" ht="19.95" customHeight="1">
+    <row r="524" spans="1:3" ht="20" customHeight="1">
       <c r="A524" s="146" t="s">
         <v>1172</v>
       </c>
@@ -28995,7 +29014,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="525" spans="1:3" ht="19.95" customHeight="1">
+    <row r="525" spans="1:3" ht="20" customHeight="1">
       <c r="A525" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29006,7 +29025,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="526" spans="1:3" ht="19.95" customHeight="1">
+    <row r="526" spans="1:3" ht="20" customHeight="1">
       <c r="A526" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29017,7 +29036,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="527" spans="1:3" ht="19.95" customHeight="1">
+    <row r="527" spans="1:3" ht="20" customHeight="1">
       <c r="A527" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29028,7 +29047,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="528" spans="1:3" ht="19.95" customHeight="1">
+    <row r="528" spans="1:3" ht="20" customHeight="1">
       <c r="A528" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29039,7 +29058,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="529" spans="1:3" ht="19.95" customHeight="1">
+    <row r="529" spans="1:3" ht="20" customHeight="1">
       <c r="A529" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29050,7 +29069,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="530" spans="1:3" ht="19.95" customHeight="1">
+    <row r="530" spans="1:3" ht="20" customHeight="1">
       <c r="A530" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29061,7 +29080,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="531" spans="1:3" ht="19.95" customHeight="1">
+    <row r="531" spans="1:3" ht="20" customHeight="1">
       <c r="A531" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29072,7 +29091,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="532" spans="1:3" ht="19.95" customHeight="1">
+    <row r="532" spans="1:3" ht="20" customHeight="1">
       <c r="A532" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29083,7 +29102,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="533" spans="1:3" ht="19.95" customHeight="1">
+    <row r="533" spans="1:3" ht="20" customHeight="1">
       <c r="A533" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29094,7 +29113,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="534" spans="1:3" ht="19.95" customHeight="1">
+    <row r="534" spans="1:3" ht="20" customHeight="1">
       <c r="A534" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29105,7 +29124,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="535" spans="1:3" ht="19.95" customHeight="1">
+    <row r="535" spans="1:3" ht="20" customHeight="1">
       <c r="A535" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29116,7 +29135,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="536" spans="1:3" ht="19.95" customHeight="1">
+    <row r="536" spans="1:3" ht="20" customHeight="1">
       <c r="A536" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29127,7 +29146,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="537" spans="1:3" ht="19.95" customHeight="1">
+    <row r="537" spans="1:3" ht="20" customHeight="1">
       <c r="A537" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29138,7 +29157,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="538" spans="1:3" ht="19.95" customHeight="1">
+    <row r="538" spans="1:3" ht="20" customHeight="1">
       <c r="A538" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29149,7 +29168,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="539" spans="1:3" ht="19.95" customHeight="1">
+    <row r="539" spans="1:3" ht="20" customHeight="1">
       <c r="A539" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29160,7 +29179,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="540" spans="1:3" ht="19.95" customHeight="1">
+    <row r="540" spans="1:3" ht="20" customHeight="1">
       <c r="A540" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29171,7 +29190,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="541" spans="1:3" ht="19.95" customHeight="1">
+    <row r="541" spans="1:3" ht="20" customHeight="1">
       <c r="A541" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29182,7 +29201,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="542" spans="1:3" ht="19.95" customHeight="1">
+    <row r="542" spans="1:3" ht="20" customHeight="1">
       <c r="A542" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29193,7 +29212,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="543" spans="1:3" ht="19.95" customHeight="1">
+    <row r="543" spans="1:3" ht="20" customHeight="1">
       <c r="A543" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29204,7 +29223,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="544" spans="1:3" ht="19.95" customHeight="1">
+    <row r="544" spans="1:3" ht="20" customHeight="1">
       <c r="A544" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29215,7 +29234,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="545" spans="1:3" ht="19.95" customHeight="1">
+    <row r="545" spans="1:3" ht="20" customHeight="1">
       <c r="A545" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29226,7 +29245,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="546" spans="1:3" ht="19.95" customHeight="1">
+    <row r="546" spans="1:3" ht="20" customHeight="1">
       <c r="A546" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29237,7 +29256,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="547" spans="1:3" ht="19.95" customHeight="1">
+    <row r="547" spans="1:3" ht="20" customHeight="1">
       <c r="A547" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29248,7 +29267,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="548" spans="1:3" ht="19.95" customHeight="1">
+    <row r="548" spans="1:3" ht="20" customHeight="1">
       <c r="A548" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29259,7 +29278,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="549" spans="1:3" ht="19.95" customHeight="1">
+    <row r="549" spans="1:3" ht="20" customHeight="1">
       <c r="A549" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29270,7 +29289,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="550" spans="1:3" ht="19.95" customHeight="1">
+    <row r="550" spans="1:3" ht="20" customHeight="1">
       <c r="A550" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29281,7 +29300,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="551" spans="1:3" ht="19.95" customHeight="1">
+    <row r="551" spans="1:3" ht="20" customHeight="1">
       <c r="A551" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29292,7 +29311,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="552" spans="1:3" ht="19.95" customHeight="1">
+    <row r="552" spans="1:3" ht="20" customHeight="1">
       <c r="A552" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29303,7 +29322,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="553" spans="1:3" ht="19.95" customHeight="1">
+    <row r="553" spans="1:3" ht="20" customHeight="1">
       <c r="A553" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29314,7 +29333,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="554" spans="1:3" ht="19.95" customHeight="1">
+    <row r="554" spans="1:3" ht="20" customHeight="1">
       <c r="A554" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29325,7 +29344,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="555" spans="1:3" ht="19.95" customHeight="1">
+    <row r="555" spans="1:3" ht="20" customHeight="1">
       <c r="A555" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29336,7 +29355,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="556" spans="1:3" ht="19.95" customHeight="1">
+    <row r="556" spans="1:3" ht="20" customHeight="1">
       <c r="A556" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29347,7 +29366,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="557" spans="1:3" ht="19.95" customHeight="1">
+    <row r="557" spans="1:3" ht="20" customHeight="1">
       <c r="A557" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29358,7 +29377,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="558" spans="1:3" ht="19.95" customHeight="1">
+    <row r="558" spans="1:3" ht="20" customHeight="1">
       <c r="A558" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29369,7 +29388,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="559" spans="1:3" ht="19.95" customHeight="1">
+    <row r="559" spans="1:3" ht="20" customHeight="1">
       <c r="A559" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29380,7 +29399,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="560" spans="1:3" ht="19.95" customHeight="1">
+    <row r="560" spans="1:3" ht="20" customHeight="1">
       <c r="A560" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29391,7 +29410,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="561" spans="1:3" ht="19.95" customHeight="1">
+    <row r="561" spans="1:3" ht="20" customHeight="1">
       <c r="A561" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29402,7 +29421,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="562" spans="1:3" ht="19.95" customHeight="1">
+    <row r="562" spans="1:3" ht="20" customHeight="1">
       <c r="A562" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29413,7 +29432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="563" spans="1:3" ht="19.95" customHeight="1">
+    <row r="563" spans="1:3" ht="20" customHeight="1">
       <c r="A563" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29424,7 +29443,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="564" spans="1:3" ht="19.95" customHeight="1">
+    <row r="564" spans="1:3" ht="20" customHeight="1">
       <c r="A564" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29435,7 +29454,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="565" spans="1:3" ht="19.95" customHeight="1">
+    <row r="565" spans="1:3" ht="20" customHeight="1">
       <c r="A565" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29446,7 +29465,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="566" spans="1:3" ht="19.95" customHeight="1">
+    <row r="566" spans="1:3" ht="20" customHeight="1">
       <c r="A566" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29457,7 +29476,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="567" spans="1:3" ht="19.95" customHeight="1">
+    <row r="567" spans="1:3" ht="20" customHeight="1">
       <c r="A567" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29468,7 +29487,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="568" spans="1:3" ht="19.95" customHeight="1">
+    <row r="568" spans="1:3" ht="20" customHeight="1">
       <c r="A568" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29479,7 +29498,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="569" spans="1:3" ht="19.95" customHeight="1">
+    <row r="569" spans="1:3" ht="20" customHeight="1">
       <c r="A569" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29490,7 +29509,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="570" spans="1:3" ht="19.95" customHeight="1">
+    <row r="570" spans="1:3" ht="20" customHeight="1">
       <c r="A570" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29501,7 +29520,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="571" spans="1:3" ht="19.95" customHeight="1">
+    <row r="571" spans="1:3" ht="20" customHeight="1">
       <c r="A571" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29512,7 +29531,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="572" spans="1:3" ht="19.95" customHeight="1">
+    <row r="572" spans="1:3" ht="20" customHeight="1">
       <c r="A572" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29523,7 +29542,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="573" spans="1:3" ht="19.95" customHeight="1">
+    <row r="573" spans="1:3" ht="20" customHeight="1">
       <c r="A573" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29534,7 +29553,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="574" spans="1:3" ht="19.95" customHeight="1">
+    <row r="574" spans="1:3" ht="20" customHeight="1">
       <c r="A574" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29545,7 +29564,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="575" spans="1:3" ht="19.95" customHeight="1">
+    <row r="575" spans="1:3" ht="20" customHeight="1">
       <c r="A575" s="146" t="s">
         <v>1172</v>
       </c>
@@ -29556,7 +29575,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="576" spans="1:3" ht="19.95" customHeight="1">
+    <row r="576" spans="1:3" ht="20" customHeight="1">
       <c r="A576" s="147"/>
       <c r="B576" s="148" t="s">
         <v>305</v>
@@ -29591,15 +29610,15 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="25.05" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" style="134" customWidth="1"/>
+    <col min="1" max="1" width="18.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.75" style="134" customWidth="1"/>
     <col min="3" max="3" width="58.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.08203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.05" customHeight="1">
+    <row r="1" spans="1:8" ht="25" customHeight="1">
       <c r="A1" s="24" t="s">
         <v>423</v>
       </c>
@@ -29617,7 +29636,7 @@
       <c r="G1" s="25"/>
       <c r="H1" s="25"/>
     </row>
-    <row r="2" spans="1:8" ht="22.95" customHeight="1">
+    <row r="2" spans="1:8" ht="23" customHeight="1">
       <c r="A2" s="25" t="s">
         <v>426</v>
       </c>
@@ -29633,7 +29652,7 @@
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
     </row>
-    <row r="3" spans="1:8" ht="22.95" customHeight="1">
+    <row r="3" spans="1:8" ht="23" customHeight="1">
       <c r="A3" s="25" t="s">
         <v>426</v>
       </c>
@@ -29649,7 +29668,7 @@
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
     </row>
-    <row r="4" spans="1:8" ht="22.95" customHeight="1">
+    <row r="4" spans="1:8" ht="23" customHeight="1">
       <c r="A4" s="25" t="s">
         <v>426</v>
       </c>
@@ -29665,7 +29684,7 @@
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
     </row>
-    <row r="5" spans="1:8" ht="22.95" customHeight="1">
+    <row r="5" spans="1:8" ht="23" customHeight="1">
       <c r="A5" s="25" t="s">
         <v>426</v>
       </c>
@@ -29681,7 +29700,7 @@
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" spans="1:8" ht="22.95" customHeight="1">
+    <row r="6" spans="1:8" ht="23" customHeight="1">
       <c r="A6" s="25" t="s">
         <v>426</v>
       </c>
@@ -29697,7 +29716,7 @@
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:8" ht="22.95" customHeight="1">
+    <row r="7" spans="1:8" ht="23" customHeight="1">
       <c r="A7" s="25" t="s">
         <v>426</v>
       </c>
@@ -29713,7 +29732,7 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" ht="22.95" customHeight="1">
+    <row r="8" spans="1:8" ht="23" customHeight="1">
       <c r="A8" s="25" t="s">
         <v>426</v>
       </c>
@@ -29729,7 +29748,7 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:8" ht="22.95" customHeight="1">
+    <row r="9" spans="1:8" ht="23" customHeight="1">
       <c r="A9" s="25" t="s">
         <v>426</v>
       </c>
@@ -29745,7 +29764,7 @@
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:8" ht="22.95" customHeight="1">
+    <row r="10" spans="1:8" ht="23" customHeight="1">
       <c r="A10" s="25" t="s">
         <v>426</v>
       </c>
@@ -29761,7 +29780,7 @@
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:8" ht="22.95" customHeight="1">
+    <row r="11" spans="1:8" ht="23" customHeight="1">
       <c r="A11" s="25" t="s">
         <v>426</v>
       </c>
@@ -29777,7 +29796,7 @@
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" ht="22.95" customHeight="1">
+    <row r="12" spans="1:8" ht="23" customHeight="1">
       <c r="A12" s="25" t="s">
         <v>426</v>
       </c>
@@ -29793,7 +29812,7 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" ht="22.95" customHeight="1">
+    <row r="13" spans="1:8" ht="23" customHeight="1">
       <c r="A13" s="25" t="s">
         <v>426</v>
       </c>
@@ -29809,7 +29828,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" ht="22.95" customHeight="1">
+    <row r="14" spans="1:8" ht="23" customHeight="1">
       <c r="A14" s="25" t="s">
         <v>430</v>
       </c>
@@ -29825,7 +29844,7 @@
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="1:8" ht="22.95" customHeight="1">
+    <row r="15" spans="1:8" ht="23" customHeight="1">
       <c r="A15" s="25" t="s">
         <v>430</v>
       </c>
@@ -29841,7 +29860,7 @@
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
     </row>
-    <row r="16" spans="1:8" ht="22.95" customHeight="1">
+    <row r="16" spans="1:8" ht="23" customHeight="1">
       <c r="A16" s="25" t="s">
         <v>430</v>
       </c>
@@ -29857,7 +29876,7 @@
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
     </row>
-    <row r="17" spans="1:8" ht="22.95" customHeight="1">
+    <row r="17" spans="1:8" ht="23" customHeight="1">
       <c r="A17" s="25" t="s">
         <v>430</v>
       </c>
@@ -29873,7 +29892,7 @@
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
     </row>
-    <row r="18" spans="1:8" ht="22.95" customHeight="1">
+    <row r="18" spans="1:8" ht="23" customHeight="1">
       <c r="A18" s="25" t="s">
         <v>430</v>
       </c>
@@ -29889,7 +29908,7 @@
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
     </row>
-    <row r="19" spans="1:8" ht="22.95" customHeight="1">
+    <row r="19" spans="1:8" ht="23" customHeight="1">
       <c r="A19" s="25" t="s">
         <v>434</v>
       </c>
@@ -29905,7 +29924,7 @@
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
     </row>
-    <row r="20" spans="1:8" ht="22.95" customHeight="1">
+    <row r="20" spans="1:8" ht="23" customHeight="1">
       <c r="A20" s="25" t="s">
         <v>434</v>
       </c>
@@ -29923,7 +29942,7 @@
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
     </row>
-    <row r="21" spans="1:8" ht="22.95" customHeight="1">
+    <row r="21" spans="1:8" ht="23" customHeight="1">
       <c r="A21" s="25" t="s">
         <v>434</v>
       </c>
@@ -29939,7 +29958,7 @@
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
     </row>
-    <row r="22" spans="1:8" ht="22.95" customHeight="1">
+    <row r="22" spans="1:8" ht="23" customHeight="1">
       <c r="A22" s="25" t="s">
         <v>434</v>
       </c>
@@ -29955,7 +29974,7 @@
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
     </row>
-    <row r="23" spans="1:8" ht="22.95" customHeight="1">
+    <row r="23" spans="1:8" ht="23" customHeight="1">
       <c r="A23" s="25" t="s">
         <v>434</v>
       </c>
@@ -29971,7 +29990,7 @@
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
     </row>
-    <row r="24" spans="1:8" ht="22.95" customHeight="1">
+    <row r="24" spans="1:8" ht="23" customHeight="1">
       <c r="A24" s="25" t="s">
         <v>434</v>
       </c>
@@ -29987,7 +30006,7 @@
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
     </row>
-    <row r="25" spans="1:8" ht="22.95" customHeight="1">
+    <row r="25" spans="1:8" ht="23" customHeight="1">
       <c r="A25" s="25" t="s">
         <v>434</v>
       </c>
@@ -30003,7 +30022,7 @@
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
     </row>
-    <row r="26" spans="1:8" ht="22.95" customHeight="1">
+    <row r="26" spans="1:8" ht="23" customHeight="1">
       <c r="A26" s="25" t="s">
         <v>434</v>
       </c>
@@ -30014,7 +30033,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="22.95" customHeight="1">
+    <row r="27" spans="1:8" ht="23" customHeight="1">
       <c r="A27" s="29" t="s">
         <v>450</v>
       </c>
@@ -30025,7 +30044,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="22.95" customHeight="1">
+    <row r="28" spans="1:8" ht="23" customHeight="1">
       <c r="A28" s="29" t="s">
         <v>450</v>
       </c>
@@ -30036,7 +30055,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="22.95" customHeight="1">
+    <row r="29" spans="1:8" ht="23" customHeight="1">
       <c r="A29" s="29" t="s">
         <v>452</v>
       </c>
@@ -30047,7 +30066,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="22.95" customHeight="1">
+    <row r="30" spans="1:8" ht="23" customHeight="1">
       <c r="A30" s="29" t="s">
         <v>452</v>
       </c>
@@ -30058,7 +30077,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="22.95" customHeight="1">
+    <row r="31" spans="1:8" ht="23" customHeight="1">
       <c r="A31" s="29" t="s">
         <v>454</v>
       </c>
@@ -30069,7 +30088,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="22.95" customHeight="1">
+    <row r="32" spans="1:8" ht="23" customHeight="1">
       <c r="A32" s="29" t="s">
         <v>454</v>
       </c>
@@ -30080,7 +30099,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="22.95" customHeight="1">
+    <row r="33" spans="1:4" ht="23" customHeight="1">
       <c r="A33" s="29" t="s">
         <v>455</v>
       </c>
@@ -30091,7 +30110,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="22.95" customHeight="1">
+    <row r="34" spans="1:4" ht="23" customHeight="1">
       <c r="A34" s="29" t="s">
         <v>455</v>
       </c>
@@ -30102,7 +30121,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="22.95" customHeight="1">
+    <row r="35" spans="1:4" ht="23" customHeight="1">
       <c r="A35" s="29" t="s">
         <v>456</v>
       </c>
@@ -30113,7 +30132,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="22.95" customHeight="1">
+    <row r="36" spans="1:4" ht="23" customHeight="1">
       <c r="A36" s="29" t="s">
         <v>456</v>
       </c>
@@ -30125,7 +30144,7 @@
       </c>
       <c r="D36" s="30"/>
     </row>
-    <row r="37" spans="1:4" ht="22.95" customHeight="1">
+    <row r="37" spans="1:4" ht="23" customHeight="1">
       <c r="A37" s="29" t="s">
         <v>460</v>
       </c>
@@ -30137,7 +30156,7 @@
       </c>
       <c r="D37" s="30"/>
     </row>
-    <row r="38" spans="1:4" ht="22.95" customHeight="1">
+    <row r="38" spans="1:4" ht="23" customHeight="1">
       <c r="A38" s="29" t="s">
         <v>460</v>
       </c>
@@ -30149,7 +30168,7 @@
       </c>
       <c r="D38" s="29"/>
     </row>
-    <row r="39" spans="1:4" ht="22.95" customHeight="1">
+    <row r="39" spans="1:4" ht="23" customHeight="1">
       <c r="A39" s="29" t="s">
         <v>460</v>
       </c>
@@ -30161,7 +30180,7 @@
       </c>
       <c r="D39" s="29"/>
     </row>
-    <row r="40" spans="1:4" ht="22.95" customHeight="1">
+    <row r="40" spans="1:4" ht="23" customHeight="1">
       <c r="A40" s="29" t="s">
         <v>460</v>
       </c>
@@ -30173,7 +30192,7 @@
       </c>
       <c r="D40" s="29"/>
     </row>
-    <row r="41" spans="1:4" ht="22.95" customHeight="1">
+    <row r="41" spans="1:4" ht="23" customHeight="1">
       <c r="A41" s="29" t="s">
         <v>460</v>
       </c>
@@ -30185,7 +30204,7 @@
       </c>
       <c r="D41" s="29"/>
     </row>
-    <row r="42" spans="1:4" ht="22.95" customHeight="1">
+    <row r="42" spans="1:4" ht="23" customHeight="1">
       <c r="A42" s="29" t="s">
         <v>460</v>
       </c>
@@ -30197,7 +30216,7 @@
       </c>
       <c r="D42" s="29"/>
     </row>
-    <row r="43" spans="1:4" ht="22.95" customHeight="1">
+    <row r="43" spans="1:4" ht="23" customHeight="1">
       <c r="A43" s="29" t="s">
         <v>76</v>
       </c>
@@ -30209,7 +30228,7 @@
       </c>
       <c r="D43" s="34"/>
     </row>
-    <row r="44" spans="1:4" ht="22.95" customHeight="1">
+    <row r="44" spans="1:4" ht="23" customHeight="1">
       <c r="A44" s="29" t="s">
         <v>76</v>
       </c>
@@ -30221,7 +30240,7 @@
       </c>
       <c r="D44" s="34"/>
     </row>
-    <row r="45" spans="1:4" ht="22.95" customHeight="1">
+    <row r="45" spans="1:4" ht="23" customHeight="1">
       <c r="A45" s="29" t="s">
         <v>76</v>
       </c>
@@ -30233,7 +30252,7 @@
       </c>
       <c r="D45" s="34"/>
     </row>
-    <row r="46" spans="1:4" ht="22.95" customHeight="1">
+    <row r="46" spans="1:4" ht="23" customHeight="1">
       <c r="A46" s="29" t="s">
         <v>474</v>
       </c>
@@ -30245,7 +30264,7 @@
       </c>
       <c r="D46" s="34"/>
     </row>
-    <row r="47" spans="1:4" ht="22.95" customHeight="1">
+    <row r="47" spans="1:4" ht="23" customHeight="1">
       <c r="A47" s="29" t="s">
         <v>474</v>
       </c>
@@ -30257,7 +30276,7 @@
       </c>
       <c r="D47" s="34"/>
     </row>
-    <row r="48" spans="1:4" ht="22.95" customHeight="1">
+    <row r="48" spans="1:4" ht="23" customHeight="1">
       <c r="A48" s="29" t="s">
         <v>474</v>
       </c>
@@ -30269,7 +30288,7 @@
       </c>
       <c r="D48" s="34"/>
     </row>
-    <row r="49" spans="1:4" ht="22.95" customHeight="1">
+    <row r="49" spans="1:4" ht="23" customHeight="1">
       <c r="A49" s="29" t="s">
         <v>56</v>
       </c>
@@ -30283,7 +30302,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="22.95" customHeight="1">
+    <row r="50" spans="1:4" ht="23" customHeight="1">
       <c r="A50" s="29" t="s">
         <v>56</v>
       </c>
@@ -30314,17 +30333,17 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.44140625" style="102" customWidth="1"/>
-    <col min="3" max="3" width="117.44140625" style="102" customWidth="1"/>
+    <col min="1" max="1" width="24.4140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.4140625" style="102" customWidth="1"/>
+    <col min="3" max="3" width="117.4140625" style="102" customWidth="1"/>
     <col min="4" max="7" width="11.6640625" style="102" customWidth="1"/>
     <col min="8" max="9" width="10.33203125" style="102" customWidth="1"/>
     <col min="10" max="10" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="16.95" customHeight="1">
+    <row r="2" spans="1:9" ht="17" customHeight="1">
       <c r="A2" s="103" t="s">
         <v>21</v>
       </c>
@@ -30396,7 +30415,7 @@
       <c r="H5" s="93"/>
       <c r="I5" s="93"/>
     </row>
-    <row r="6" spans="1:9" s="44" customFormat="1" ht="235.95" customHeight="1">
+    <row r="6" spans="1:9" s="44" customFormat="1" ht="236" customHeight="1">
       <c r="A6" s="158"/>
       <c r="B6" s="105" t="s">
         <v>35</v>
@@ -30464,7 +30483,7 @@
       <c r="H9" s="93"/>
       <c r="I9" s="93"/>
     </row>
-    <row r="10" spans="1:9" s="44" customFormat="1" ht="151.94999999999999" customHeight="1">
+    <row r="10" spans="1:9" s="44" customFormat="1" ht="152" customHeight="1">
       <c r="A10" s="99" t="s">
         <v>47</v>
       </c>
@@ -30504,22 +30523,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="93" customWidth="1"/>
+    <col min="1" max="1" width="7.4140625" style="93" customWidth="1"/>
     <col min="2" max="3" width="11.33203125" style="93" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="93" customWidth="1"/>
+    <col min="4" max="4" width="14.4140625" style="93" customWidth="1"/>
     <col min="5" max="5" width="22.6640625" style="93" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="93" customWidth="1"/>
-    <col min="7" max="7" width="27.44140625" style="44" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" style="44" customWidth="1"/>
+    <col min="7" max="7" width="27.4140625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="10.08203125" style="44" customWidth="1"/>
     <col min="9" max="9" width="9.6640625" style="93" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="93" customWidth="1"/>
-    <col min="11" max="12" width="11.109375" style="93" customWidth="1"/>
-    <col min="13" max="15" width="8.44140625" style="93" customWidth="1"/>
+    <col min="10" max="10" width="11.4140625" style="93" customWidth="1"/>
+    <col min="11" max="12" width="11.08203125" style="93" customWidth="1"/>
+    <col min="13" max="15" width="8.4140625" style="93" customWidth="1"/>
     <col min="16" max="16" width="9" style="44" customWidth="1"/>
     <col min="17" max="16384" width="9" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.95" customHeight="1">
+    <row r="1" spans="1:7" ht="17" customHeight="1">
       <c r="A1" s="94" t="s">
         <v>50</v>
       </c>
@@ -30539,7 +30558,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.95" customHeight="1">
+    <row r="2" spans="1:7" ht="17" customHeight="1">
       <c r="A2" s="95">
         <v>2</v>
       </c>
@@ -30559,7 +30578,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.95" customHeight="1">
+    <row r="3" spans="1:7" ht="17" customHeight="1">
       <c r="A3" s="95">
         <v>3</v>
       </c>
@@ -30579,7 +30598,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.95" customHeight="1">
+    <row r="4" spans="1:7" ht="17" customHeight="1">
       <c r="A4" s="95">
         <v>4</v>
       </c>
@@ -30599,7 +30618,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16.95" customHeight="1">
+    <row r="5" spans="1:7" ht="17" customHeight="1">
       <c r="A5" s="95">
         <v>4</v>
       </c>
@@ -30619,7 +30638,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.95" customHeight="1">
+    <row r="6" spans="1:7" ht="17" customHeight="1">
       <c r="A6" s="95">
         <v>5</v>
       </c>
@@ -30639,7 +30658,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.95" customHeight="1">
+    <row r="7" spans="1:7" ht="17" customHeight="1">
       <c r="A7" s="95">
         <v>6</v>
       </c>
@@ -30659,7 +30678,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="16.95" customHeight="1">
+    <row r="8" spans="1:7" ht="17" customHeight="1">
       <c r="A8" s="95">
         <v>7</v>
       </c>
@@ -30679,7 +30698,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="16.95" customHeight="1">
+    <row r="9" spans="1:7" ht="17" customHeight="1">
       <c r="A9" s="95">
         <v>8</v>
       </c>
@@ -30699,7 +30718,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="16.95" customHeight="1">
+    <row r="10" spans="1:7" ht="17" customHeight="1">
       <c r="A10" s="95" t="s">
         <v>75</v>
       </c>
@@ -30719,7 +30738,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="16.95" customHeight="1">
+    <row r="11" spans="1:7" ht="17" customHeight="1">
       <c r="A11" s="95" t="s">
         <v>75</v>
       </c>
@@ -30742,7 +30761,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16.95" customHeight="1">
+    <row r="12" spans="1:7" ht="17" customHeight="1">
       <c r="A12" s="95" t="s">
         <v>75</v>
       </c>
@@ -30762,7 +30781,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="16.95" customHeight="1">
+    <row r="13" spans="1:7" ht="17" customHeight="1">
       <c r="A13" s="95" t="s">
         <v>75</v>
       </c>
@@ -30782,7 +30801,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="16.95" customHeight="1">
+    <row r="14" spans="1:7" ht="17" customHeight="1">
       <c r="A14" s="95" t="s">
         <v>75</v>
       </c>
@@ -30802,7 +30821,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="16.95" customHeight="1">
+    <row r="15" spans="1:7" ht="17" customHeight="1">
       <c r="A15" s="95" t="s">
         <v>75</v>
       </c>
@@ -30846,25 +30865,25 @@
       <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="19.6640625" style="71" customWidth="1"/>
     <col min="2" max="2" width="33.33203125" style="71" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" style="71" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="71" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="71" customWidth="1"/>
     <col min="5" max="5" width="29" style="71" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" style="71" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" style="71" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" style="71" customWidth="1"/>
-    <col min="9" max="9" width="19.109375" style="71" customWidth="1"/>
+    <col min="9" max="9" width="19.08203125" style="71" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="71" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" style="71" customWidth="1"/>
+    <col min="11" max="11" width="14.08203125" style="71" customWidth="1"/>
     <col min="12" max="12" width="13.33203125" style="71" customWidth="1"/>
-    <col min="13" max="13" width="14.77734375" style="71" customWidth="1"/>
+    <col min="13" max="13" width="14.75" style="71" customWidth="1"/>
     <col min="14" max="14" width="8.6640625" style="71" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" style="71" customWidth="1"/>
+    <col min="15" max="15" width="7.4140625" style="71" customWidth="1"/>
     <col min="16" max="16" width="14.6640625" style="71" customWidth="1"/>
-    <col min="17" max="17" width="14.77734375" style="71" customWidth="1"/>
+    <col min="17" max="17" width="14.75" style="71" customWidth="1"/>
     <col min="18" max="18" width="4.6640625" style="71" customWidth="1"/>
     <col min="19" max="16384" width="9" style="71"/>
   </cols>
@@ -30890,7 +30909,7 @@
       </c>
       <c r="Q1" s="88"/>
     </row>
-    <row r="2" spans="1:17" s="70" customFormat="1" ht="19.2">
+    <row r="2" spans="1:17" s="70" customFormat="1" ht="19">
       <c r="A2" s="72" t="s">
         <v>92</v>
       </c>
@@ -30990,7 +31009,7 @@
       </c>
       <c r="Q3" s="88"/>
     </row>
-    <row r="4" spans="1:17" s="70" customFormat="1" ht="10.8">
+    <row r="4" spans="1:17" s="70" customFormat="1" ht="12">
       <c r="A4" s="73" t="s">
         <v>114</v>
       </c>
@@ -31033,7 +31052,7 @@
       <c r="P4" s="92"/>
       <c r="Q4" s="88"/>
     </row>
-    <row r="5" spans="1:17" s="70" customFormat="1" ht="10.8">
+    <row r="5" spans="1:17" s="70" customFormat="1" ht="12">
       <c r="A5" s="73" t="s">
         <v>117</v>
       </c>
@@ -31076,7 +31095,7 @@
       <c r="P5" s="92"/>
       <c r="Q5" s="88"/>
     </row>
-    <row r="6" spans="1:17" s="70" customFormat="1" ht="10.8">
+    <row r="6" spans="1:17" s="70" customFormat="1" ht="12">
       <c r="A6" s="73" t="s">
         <v>119</v>
       </c>
@@ -32390,14 +32409,14 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.109375" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="18.08203125" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="44" customWidth="1"/>
+    <col min="1" max="1" width="9.08203125" style="44" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" style="44" customWidth="1"/>
-    <col min="3" max="4" width="18.109375" style="44" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="57" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" style="44" customWidth="1"/>
-    <col min="7" max="16384" width="18.109375" style="44"/>
+    <col min="3" max="4" width="18.08203125" style="44" customWidth="1"/>
+    <col min="5" max="5" width="18.08203125" style="57" customWidth="1"/>
+    <col min="6" max="6" width="18.08203125" style="44" customWidth="1"/>
+    <col min="7" max="16384" width="18.08203125" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="39" customHeight="1">

--- a/upload/dict.xlsx
+++ b/upload/dict.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingz\Documents\GitHub\jw3\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0A3A38-FE55-481A-8F4A-5B741EDD49E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E712A4B-AB45-4A57-B42F-945C770EF140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="858" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="858" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明（请勿修改此页内容）" sheetId="21" r:id="rId1"/>
@@ -21235,7 +21235,7 @@
   </sheetPr>
   <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
@@ -22596,12 +22596,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B141A2-62D4-4B27-86F4-8BD415804E5D}">
   <sheetPr>
-    <tabColor theme="5"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:D160"/>
   <sheetViews>
-    <sheetView topLeftCell="A144" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C163" sqref="C163"/>
+    <sheetView topLeftCell="A145" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
@@ -24528,13 +24528,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E49A500-EF35-4F5E-8A10-808434FD7FE1}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -27563,8 +27566,8 @@
   </sheetPr>
   <dimension ref="A1:C576"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>

--- a/upload/dict.xlsx
+++ b/upload/dict.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kingz\Documents\GitHub\jw3\upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E712A4B-AB45-4A57-B42F-945C770EF140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E269F4-8ECE-449C-8E62-FD281A087795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" tabRatio="858" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="22524" windowHeight="10284" tabRatio="858" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="说明（请勿修改此页内容）" sheetId="21" r:id="rId1"/>
     <sheet name="字典表" sheetId="24" r:id="rId2"/>
-    <sheet name="设备维保" sheetId="28" r:id="rId3"/>
+    <sheet name="设备维保" sheetId="29" r:id="rId3"/>
     <sheet name="厂商" sheetId="14" r:id="rId4"/>
     <sheet name="型号" sheetId="26" r:id="rId5"/>
     <sheet name="字典表-备份" sheetId="15" r:id="rId6"/>
@@ -34,40 +34,64 @@
     <externalReference r:id="rId17"/>
     <externalReference r:id="rId18"/>
     <externalReference r:id="rId19"/>
+    <externalReference r:id="rId20"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">品牌字典表!$A$1:$C$716</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">设备维保!$A$1:$AE$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">设备维保!$A$1:$AE$32</definedName>
     <definedName name="_prefix">[1]设备数据!$I$5</definedName>
     <definedName name="AAA_DOCTOPS" hidden="1">"AAA_SET"</definedName>
     <definedName name="AAA_duser" hidden="1">"OFF"</definedName>
     <definedName name="AAB_Addin5" hidden="1">"AAB_Description for addin 5,Description for addin 5,Description for addin 5,Description for addin 5,Description for addin 5,Description for addin 5"</definedName>
+    <definedName name="as" localSheetId="2" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="as" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
+    <definedName name="bs" localSheetId="2" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="bs" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
+    <definedName name="cccc" localSheetId="2" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="cccc" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="DC1备份">#REF!</definedName>
+    <definedName name="DC1存储" localSheetId="2">#REF!</definedName>
     <definedName name="DC1存储">#REF!</definedName>
+    <definedName name="DC2备份" localSheetId="2">#REF!</definedName>
     <definedName name="DC2备份">#REF!</definedName>
+    <definedName name="DC2存储" localSheetId="2">#REF!</definedName>
     <definedName name="DC2存储">#REF!</definedName>
+    <definedName name="fa" localSheetId="2" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="fa" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
+    <definedName name="fuck" localSheetId="2" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="fuck" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
+    <definedName name="fuckyu" localSheetId="2" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="fuckyu" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
+    <definedName name="gg" localSheetId="2" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="gg" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
+    <definedName name="gggg" localSheetId="2" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="gggg" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
+    <definedName name="hg" localSheetId="2" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="hg" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
+    <definedName name="k" localSheetId="2" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="k" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="select_itembuildtype">[2]建设性质!$A$2:$A$65536</definedName>
     <definedName name="select_jsdw">[2]建设单位!$A$2:$A$65536</definedName>
+    <definedName name="TACS1" localSheetId="2" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="TACS1" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
+    <definedName name="TACS3" localSheetId="2" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="TACS3" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
+    <definedName name="wrn.output." localSheetId="2" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="wrn.output." hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
+    <definedName name="yy" localSheetId="2" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="yy" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
+    <definedName name="感尴尴尬尬" localSheetId="2" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="感尴尴尬尬" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="任务导出表" localSheetId="8">#REF!</definedName>
+    <definedName name="任务导出表" localSheetId="2">#REF!</definedName>
     <definedName name="任务导出表">#REF!</definedName>
+    <definedName name="怎么" localSheetId="2" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="怎么" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
+    <definedName name="怎么2" localSheetId="2" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="怎么2" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
+    <definedName name="资金规划关键控制指标体系" localSheetId="2" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="资金规划关键控制指标体系" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
+    <definedName name="综合" localSheetId="2" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="综合" hidden="1">{"scenario 1",#N/A,FALSE,"scenario1";"drivers",#N/A,FALSE,"Input-Module";"Op Stats",#N/A,FALSE,"Input-Module";"income stmt",#N/A,FALSE,"Ebit-calc";"Cash Flow",#N/A,FALSE,"Input-Module";"Balance Sheet",#N/A,FALSE,"Balance-Sheet";"workings",#N/A,FALSE,"Ebit-calc";"working cap",#N/A,FALSE,"Working-Capital";"dcf value",#N/A,FALSE,"DCF";"check",#N/A,FALSE,"Input-Module"}</definedName>
     <definedName name="总计.公式2">[3]表五!$D$20</definedName>
   </definedNames>
@@ -112,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6422" uniqueCount="1374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6523" uniqueCount="1377">
   <si>
     <t>模板名称</t>
   </si>
@@ -4009,7 +4033,6 @@
         <sz val="10.5"/>
         <color theme="1"/>
         <rFont val="DengXian"/>
-        <charset val="134"/>
       </rPr>
       <t>其他</t>
     </r>
@@ -4708,67 +4731,79 @@
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
+    <t>EV_S_Avocent</t>
+  </si>
+  <si>
+    <t>郭钟元</t>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>4008876510</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>天融信</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>EV_S_TG</t>
+  </si>
+  <si>
+    <t>孙志</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>4006105119</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>启明星辰</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>QMXC</t>
+  </si>
+  <si>
+    <t>8008106038</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络设备</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪潮</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>原厂联系人</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式1</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式2</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <t>华讯</t>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
     <t>Avocent</t>
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
-    <t>EV_S_Avocent</t>
-  </si>
-  <si>
-    <t>郭钟元</t>
-  </si>
-  <si>
-    <t>否</t>
+    <t>新华三</t>
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
   <si>
-    <t>4008876510</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>天融信</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>EV_S_TG</t>
-  </si>
-  <si>
-    <t>孙志</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>4006105119</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>启明星辰</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>QMXC</t>
-  </si>
-  <si>
-    <t>8008106038</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>网络设备</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>浪潮</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>原厂联系人</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系方式1</t>
-    <phoneticPr fontId="51" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系方式2</t>
+    <t>戴尔</t>
     <phoneticPr fontId="51" type="noConversion"/>
   </si>
 </sst>
@@ -5189,7 +5224,6 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -5216,7 +5250,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -7809,6 +7842,22 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="设备维保"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -24527,17 +24576,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E49A500-EF35-4F5E-8A10-808434FD7FE1}">
-  <sheetPr>
-    <tabColor rgb="FFFF0000"/>
-  </sheetPr>
-  <dimension ref="A1:AE31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{210548C0-1373-44BC-A0B1-DED0AF832E19}">
+  <dimension ref="A1:AE35"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E40" sqref="E40"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -24599,10 +24645,10 @@
         <v>1233</v>
       </c>
       <c r="H1" s="202" t="s">
+        <v>1370</v>
+      </c>
+      <c r="I1" s="202" t="s">
         <v>1371</v>
-      </c>
-      <c r="I1" s="202" t="s">
-        <v>1372</v>
       </c>
       <c r="J1" s="202" t="s">
         <v>1235</v>
@@ -24611,7 +24657,7 @@
         <v>1236</v>
       </c>
       <c r="L1" s="202" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="M1" s="202" t="s">
         <v>1237</v>
@@ -24767,7 +24813,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="161" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="C3" s="161" t="s">
         <v>1272</v>
@@ -25035,12 +25081,15 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="176" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B6" s="162" t="s">
-        <v>1295</v>
+    <row r="6" spans="1:31" s="180" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A6" s="180">
+        <v>4</v>
+      </c>
+      <c r="B6" s="161" t="s">
+        <v>1375</v>
       </c>
       <c r="C6" s="198" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
       <c r="D6" s="162" t="s">
         <v>56</v>
@@ -25054,11 +25103,11 @@
       <c r="G6" s="165" t="s">
         <v>1256</v>
       </c>
-      <c r="H6" s="155" t="s">
-        <v>1297</v>
-      </c>
-      <c r="I6" s="162">
-        <v>13366741856</v>
+      <c r="H6" s="163" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I6" s="163" t="s">
+        <v>1288</v>
       </c>
       <c r="J6" s="161" t="s">
         <v>1258</v>
@@ -25078,31 +25127,31 @@
       <c r="O6" s="161" t="s">
         <v>1290</v>
       </c>
-      <c r="P6" s="162" t="s">
-        <v>1298</v>
-      </c>
-      <c r="Q6" s="162"/>
-      <c r="R6" s="184"/>
+      <c r="P6" s="161" t="s">
+        <v>1291</v>
+      </c>
+      <c r="Q6" s="182"/>
+      <c r="R6" s="181"/>
       <c r="S6" s="161" t="s">
         <v>1264</v>
       </c>
       <c r="T6" s="163">
-        <v>4008845117</v>
+        <v>4008100504</v>
       </c>
       <c r="U6" s="155" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="V6" s="162">
-        <v>18501619888</v>
-      </c>
-      <c r="W6" s="161" t="s">
-        <v>1259</v>
-      </c>
-      <c r="X6" s="161" t="s">
-        <v>1259</v>
+        <v>18610488558</v>
+      </c>
+      <c r="W6" s="155" t="s">
+        <v>1293</v>
+      </c>
+      <c r="X6" s="161">
+        <v>18647963715</v>
       </c>
       <c r="Y6" s="161" t="s">
-        <v>1259</v>
+        <v>1294</v>
       </c>
       <c r="Z6" s="161" t="s">
         <v>1269</v>
@@ -25125,10 +25174,10 @@
     </row>
     <row r="7" spans="1:31" s="176" customFormat="1" ht="19.95" customHeight="1">
       <c r="B7" s="162" t="s">
-        <v>1300</v>
-      </c>
-      <c r="C7" s="162" t="s">
-        <v>1301</v>
+        <v>1295</v>
+      </c>
+      <c r="C7" s="198" t="s">
+        <v>1296</v>
       </c>
       <c r="D7" s="162" t="s">
         <v>56</v>
@@ -25142,11 +25191,11 @@
       <c r="G7" s="165" t="s">
         <v>1256</v>
       </c>
-      <c r="H7" s="187" t="s">
-        <v>1302</v>
+      <c r="H7" s="155" t="s">
+        <v>1297</v>
       </c>
       <c r="I7" s="162">
-        <v>13639971034</v>
+        <v>13366741856</v>
       </c>
       <c r="J7" s="161" t="s">
         <v>1258</v>
@@ -25174,14 +25223,14 @@
       <c r="S7" s="161" t="s">
         <v>1264</v>
       </c>
-      <c r="T7" s="187">
-        <v>4008890787</v>
-      </c>
-      <c r="U7" s="187" t="s">
-        <v>1302</v>
+      <c r="T7" s="163">
+        <v>4008845117</v>
+      </c>
+      <c r="U7" s="155" t="s">
+        <v>1299</v>
       </c>
       <c r="V7" s="162">
-        <v>13639971034</v>
+        <v>18501619888</v>
       </c>
       <c r="W7" s="161" t="s">
         <v>1259</v>
@@ -25212,11 +25261,11 @@
       </c>
     </row>
     <row r="8" spans="1:31" s="176" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B8" s="166" t="s">
-        <v>1303</v>
-      </c>
-      <c r="C8" s="166" t="s">
-        <v>1304</v>
+      <c r="B8" s="162" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C8" s="198" t="s">
+        <v>1296</v>
       </c>
       <c r="D8" s="162" t="s">
         <v>56</v>
@@ -25230,11 +25279,11 @@
       <c r="G8" s="165" t="s">
         <v>1256</v>
       </c>
-      <c r="H8" s="187" t="s">
-        <v>1305</v>
+      <c r="H8" s="155" t="s">
+        <v>1297</v>
       </c>
       <c r="I8" s="162">
-        <v>18001051428</v>
+        <v>13366741856</v>
       </c>
       <c r="J8" s="161" t="s">
         <v>1258</v>
@@ -25262,14 +25311,14 @@
       <c r="S8" s="161" t="s">
         <v>1264</v>
       </c>
-      <c r="T8" s="187">
-        <v>4008100466</v>
-      </c>
-      <c r="U8" s="187" t="s">
-        <v>1305</v>
+      <c r="T8" s="163">
+        <v>4008845117</v>
+      </c>
+      <c r="U8" s="155" t="s">
+        <v>1299</v>
       </c>
       <c r="V8" s="162">
-        <v>18001051428</v>
+        <v>18501619888</v>
       </c>
       <c r="W8" s="161" t="s">
         <v>1259</v>
@@ -25286,25 +25335,25 @@
       <c r="AA8" s="161" t="s">
         <v>1270</v>
       </c>
-      <c r="AB8" s="162" t="s">
-        <v>1306</v>
+      <c r="AB8" s="166" t="s">
+        <v>1284</v>
       </c>
       <c r="AC8" s="161" t="s">
         <v>1270</v>
       </c>
-      <c r="AD8" s="162" t="s">
-        <v>1306</v>
+      <c r="AD8" s="166" t="s">
+        <v>1284</v>
       </c>
       <c r="AE8" s="161" t="s">
         <v>1270</v>
       </c>
     </row>
     <row r="9" spans="1:31" s="176" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B9" s="166" t="s">
-        <v>1307</v>
-      </c>
-      <c r="C9" s="198" t="s">
-        <v>1308</v>
+      <c r="B9" s="162" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C9" s="162" t="s">
+        <v>1301</v>
       </c>
       <c r="D9" s="162" t="s">
         <v>56</v>
@@ -25318,11 +25367,11 @@
       <c r="G9" s="165" t="s">
         <v>1256</v>
       </c>
-      <c r="H9" s="166" t="s">
-        <v>1309</v>
+      <c r="H9" s="187" t="s">
+        <v>1302</v>
       </c>
       <c r="I9" s="162">
-        <v>18611897101</v>
+        <v>13639971034</v>
       </c>
       <c r="J9" s="161" t="s">
         <v>1258</v>
@@ -25351,13 +25400,13 @@
         <v>1264</v>
       </c>
       <c r="T9" s="187">
-        <v>4000870780</v>
-      </c>
-      <c r="U9" s="166" t="s">
-        <v>1309</v>
+        <v>4008890787</v>
+      </c>
+      <c r="U9" s="187" t="s">
+        <v>1302</v>
       </c>
       <c r="V9" s="162">
-        <v>18611897101</v>
+        <v>13639971034</v>
       </c>
       <c r="W9" s="161" t="s">
         <v>1259</v>
@@ -25372,27 +25421,27 @@
         <v>1269</v>
       </c>
       <c r="AA9" s="161" t="s">
-        <v>1310</v>
-      </c>
-      <c r="AB9" s="162" t="s">
-        <v>1306</v>
+        <v>1270</v>
+      </c>
+      <c r="AB9" s="166" t="s">
+        <v>1284</v>
       </c>
       <c r="AC9" s="161" t="s">
-        <v>1310</v>
-      </c>
-      <c r="AD9" s="162" t="s">
-        <v>1306</v>
+        <v>1270</v>
+      </c>
+      <c r="AD9" s="166" t="s">
+        <v>1284</v>
       </c>
       <c r="AE9" s="161" t="s">
-        <v>1310</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="10" spans="1:31" s="176" customFormat="1" ht="19.95" customHeight="1">
       <c r="B10" s="166" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C10" s="198" t="s">
-        <v>1126</v>
+        <v>1303</v>
+      </c>
+      <c r="C10" s="166" t="s">
+        <v>1304</v>
       </c>
       <c r="D10" s="162" t="s">
         <v>56</v>
@@ -25406,11 +25455,11 @@
       <c r="G10" s="165" t="s">
         <v>1256</v>
       </c>
-      <c r="H10" s="199" t="s">
-        <v>1312</v>
+      <c r="H10" s="187" t="s">
+        <v>1305</v>
       </c>
       <c r="I10" s="162">
-        <v>13501205434</v>
+        <v>18001051428</v>
       </c>
       <c r="J10" s="161" t="s">
         <v>1258</v>
@@ -25439,13 +25488,13 @@
         <v>1264</v>
       </c>
       <c r="T10" s="187">
-        <v>4008870872</v>
-      </c>
-      <c r="U10" s="199" t="s">
-        <v>1312</v>
+        <v>4008100466</v>
+      </c>
+      <c r="U10" s="187" t="s">
+        <v>1305</v>
       </c>
       <c r="V10" s="162">
-        <v>13501205434</v>
+        <v>18001051428</v>
       </c>
       <c r="W10" s="161" t="s">
         <v>1259</v>
@@ -25460,27 +25509,27 @@
         <v>1269</v>
       </c>
       <c r="AA10" s="161" t="s">
-        <v>1310</v>
+        <v>1270</v>
       </c>
       <c r="AB10" s="162" t="s">
         <v>1306</v>
       </c>
       <c r="AC10" s="161" t="s">
-        <v>1310</v>
+        <v>1270</v>
       </c>
       <c r="AD10" s="162" t="s">
         <v>1306</v>
       </c>
       <c r="AE10" s="161" t="s">
-        <v>1310</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="11" spans="1:31" s="176" customFormat="1" ht="19.95" customHeight="1">
       <c r="B11" s="166" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C11" s="198" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="D11" s="162" t="s">
         <v>56</v>
@@ -25494,11 +25543,11 @@
       <c r="G11" s="165" t="s">
         <v>1256</v>
       </c>
-      <c r="H11" s="161" t="s">
-        <v>1259</v>
-      </c>
-      <c r="I11" s="161" t="s">
-        <v>1259</v>
+      <c r="H11" s="166" t="s">
+        <v>1309</v>
+      </c>
+      <c r="I11" s="162">
+        <v>18611897101</v>
       </c>
       <c r="J11" s="161" t="s">
         <v>1258</v>
@@ -25527,11 +25576,13 @@
         <v>1264</v>
       </c>
       <c r="T11" s="187">
-        <v>4008981286</v>
-      </c>
-      <c r="U11" s="196"/>
-      <c r="V11" s="161" t="s">
-        <v>1259</v>
+        <v>4000870780</v>
+      </c>
+      <c r="U11" s="166" t="s">
+        <v>1309</v>
+      </c>
+      <c r="V11" s="162">
+        <v>18611897101</v>
       </c>
       <c r="W11" s="161" t="s">
         <v>1259</v>
@@ -25563,10 +25614,10 @@
     </row>
     <row r="12" spans="1:31" s="176" customFormat="1" ht="19.95" customHeight="1">
       <c r="B12" s="166" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="C12" s="198" t="s">
-        <v>1316</v>
+        <v>1126</v>
       </c>
       <c r="D12" s="162" t="s">
         <v>56</v>
@@ -25580,11 +25631,11 @@
       <c r="G12" s="165" t="s">
         <v>1256</v>
       </c>
-      <c r="H12" s="161" t="s">
-        <v>1259</v>
-      </c>
-      <c r="I12" s="161" t="s">
-        <v>1259</v>
+      <c r="H12" s="199" t="s">
+        <v>1312</v>
+      </c>
+      <c r="I12" s="162">
+        <v>13501205434</v>
       </c>
       <c r="J12" s="161" t="s">
         <v>1258</v>
@@ -25612,12 +25663,14 @@
       <c r="S12" s="161" t="s">
         <v>1264</v>
       </c>
-      <c r="T12" s="187" t="s">
-        <v>1317</v>
-      </c>
-      <c r="U12" s="196"/>
-      <c r="V12" s="161" t="s">
-        <v>1259</v>
+      <c r="T12" s="187">
+        <v>4008870872</v>
+      </c>
+      <c r="U12" s="199" t="s">
+        <v>1312</v>
+      </c>
+      <c r="V12" s="162">
+        <v>13501205434</v>
       </c>
       <c r="W12" s="161" t="s">
         <v>1259</v>
@@ -25649,10 +25702,10 @@
     </row>
     <row r="13" spans="1:31" s="176" customFormat="1" ht="19.95" customHeight="1">
       <c r="B13" s="166" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="C13" s="198" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="D13" s="162" t="s">
         <v>56</v>
@@ -25699,7 +25752,7 @@
         <v>1264</v>
       </c>
       <c r="T13" s="187">
-        <v>4006105888</v>
+        <v>4008981286</v>
       </c>
       <c r="U13" s="196"/>
       <c r="V13" s="161" t="s">
@@ -25735,10 +25788,10 @@
     </row>
     <row r="14" spans="1:31" s="176" customFormat="1" ht="19.95" customHeight="1">
       <c r="B14" s="166" t="s">
-        <v>1320</v>
-      </c>
-      <c r="C14" s="197" t="s">
-        <v>1321</v>
+        <v>1315</v>
+      </c>
+      <c r="C14" s="198" t="s">
+        <v>1316</v>
       </c>
       <c r="D14" s="162" t="s">
         <v>56</v>
@@ -25784,8 +25837,8 @@
       <c r="S14" s="161" t="s">
         <v>1264</v>
       </c>
-      <c r="T14" s="187">
-        <v>4008653885</v>
+      <c r="T14" s="187" t="s">
+        <v>1317</v>
       </c>
       <c r="U14" s="196"/>
       <c r="V14" s="161" t="s">
@@ -25819,59 +25872,61 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="15" spans="1:31" s="185" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B15" s="194" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C15" s="194"/>
-      <c r="D15" s="190" t="s">
+    <row r="15" spans="1:31" s="176" customFormat="1" ht="19.95" customHeight="1">
+      <c r="B15" s="166" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C15" s="198" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D15" s="162" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="188" t="s">
+      <c r="E15" s="161" t="s">
         <v>1254</v>
       </c>
-      <c r="F15" s="190" t="s">
+      <c r="F15" s="162" t="s">
         <v>1255</v>
       </c>
-      <c r="G15" s="193" t="s">
+      <c r="G15" s="165" t="s">
         <v>1256</v>
       </c>
-      <c r="H15" s="192" t="s">
-        <v>1323</v>
-      </c>
-      <c r="I15" s="191">
-        <v>18911723423</v>
-      </c>
-      <c r="J15" s="188" t="s">
+      <c r="H15" s="161" t="s">
+        <v>1259</v>
+      </c>
+      <c r="I15" s="161" t="s">
+        <v>1259</v>
+      </c>
+      <c r="J15" s="161" t="s">
         <v>1258</v>
       </c>
-      <c r="K15" s="188" t="s">
+      <c r="K15" s="161" t="s">
         <v>1259</v>
       </c>
-      <c r="L15" s="188" t="s">
+      <c r="L15" s="161" t="s">
         <v>1259</v>
       </c>
-      <c r="M15" s="188" t="s">
+      <c r="M15" s="161" t="s">
         <v>1260</v>
       </c>
-      <c r="N15" s="188" t="s">
+      <c r="N15" s="161" t="s">
         <v>1289</v>
       </c>
-      <c r="O15" s="188" t="s">
+      <c r="O15" s="161" t="s">
         <v>1290</v>
       </c>
-      <c r="P15" s="190" t="s">
+      <c r="P15" s="162" t="s">
         <v>1298</v>
       </c>
-      <c r="Q15" s="190"/>
-      <c r="R15" s="189"/>
-      <c r="S15" s="188" t="s">
+      <c r="Q15" s="162"/>
+      <c r="R15" s="184"/>
+      <c r="S15" s="161" t="s">
         <v>1264</v>
       </c>
       <c r="T15" s="187">
-        <v>4008787229</v>
-      </c>
-      <c r="U15" s="186"/>
+        <v>4006105888</v>
+      </c>
+      <c r="U15" s="196"/>
       <c r="V15" s="161" t="s">
         <v>1259</v>
       </c>
@@ -25888,74 +25943,76 @@
         <v>1269</v>
       </c>
       <c r="AA15" s="161" t="s">
-        <v>1324</v>
+        <v>1310</v>
       </c>
       <c r="AB15" s="162" t="s">
         <v>1306</v>
       </c>
       <c r="AC15" s="161" t="s">
-        <v>1324</v>
+        <v>1310</v>
       </c>
       <c r="AD15" s="162" t="s">
         <v>1306</v>
       </c>
       <c r="AE15" s="161" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" s="185" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B16" s="194" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C16" s="194"/>
-      <c r="D16" s="190" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" s="176" customFormat="1" ht="19.95" customHeight="1">
+      <c r="B16" s="166" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C16" s="197" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D16" s="162" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="188" t="s">
+      <c r="E16" s="161" t="s">
         <v>1254</v>
       </c>
-      <c r="F16" s="190" t="s">
+      <c r="F16" s="162" t="s">
         <v>1255</v>
       </c>
-      <c r="G16" s="193" t="s">
+      <c r="G16" s="165" t="s">
         <v>1256</v>
       </c>
-      <c r="H16" s="195" t="s">
-        <v>1326</v>
-      </c>
-      <c r="I16" s="191">
-        <v>18570037575</v>
-      </c>
-      <c r="J16" s="188" t="s">
+      <c r="H16" s="161" t="s">
+        <v>1259</v>
+      </c>
+      <c r="I16" s="161" t="s">
+        <v>1259</v>
+      </c>
+      <c r="J16" s="161" t="s">
         <v>1258</v>
       </c>
-      <c r="K16" s="188" t="s">
+      <c r="K16" s="161" t="s">
         <v>1259</v>
       </c>
-      <c r="L16" s="188" t="s">
+      <c r="L16" s="161" t="s">
         <v>1259</v>
       </c>
-      <c r="M16" s="188" t="s">
+      <c r="M16" s="161" t="s">
         <v>1260</v>
       </c>
-      <c r="N16" s="188" t="s">
+      <c r="N16" s="161" t="s">
         <v>1289</v>
       </c>
-      <c r="O16" s="188" t="s">
+      <c r="O16" s="161" t="s">
         <v>1290</v>
       </c>
-      <c r="P16" s="190" t="s">
-        <v>1327</v>
-      </c>
-      <c r="Q16" s="190"/>
-      <c r="R16" s="189"/>
-      <c r="S16" s="188" t="s">
+      <c r="P16" s="162" t="s">
+        <v>1298</v>
+      </c>
+      <c r="Q16" s="162"/>
+      <c r="R16" s="184"/>
+      <c r="S16" s="161" t="s">
         <v>1264</v>
       </c>
       <c r="T16" s="187">
-        <v>4009600082</v>
-      </c>
-      <c r="U16" s="186"/>
+        <v>4008653885</v>
+      </c>
+      <c r="U16" s="196"/>
       <c r="V16" s="161" t="s">
         <v>1259</v>
       </c>
@@ -25972,24 +26029,24 @@
         <v>1269</v>
       </c>
       <c r="AA16" s="161" t="s">
-        <v>1324</v>
+        <v>1310</v>
       </c>
       <c r="AB16" s="162" t="s">
         <v>1306</v>
       </c>
       <c r="AC16" s="161" t="s">
-        <v>1324</v>
+        <v>1310</v>
       </c>
       <c r="AD16" s="162" t="s">
         <v>1306</v>
       </c>
       <c r="AE16" s="161" t="s">
-        <v>1324</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="17" spans="1:31" s="185" customFormat="1" ht="19.95" customHeight="1">
       <c r="B17" s="194" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="C17" s="194"/>
       <c r="D17" s="190" t="s">
@@ -26005,10 +26062,10 @@
         <v>1256</v>
       </c>
       <c r="H17" s="192" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="I17" s="191">
-        <v>18638396333</v>
+        <v>18911723423</v>
       </c>
       <c r="J17" s="188" t="s">
         <v>1258</v>
@@ -26037,7 +26094,7 @@
         <v>1264</v>
       </c>
       <c r="T17" s="187">
-        <v>4000967667</v>
+        <v>4008787229</v>
       </c>
       <c r="U17" s="186"/>
       <c r="V17" s="161" t="s">
@@ -26073,7 +26130,7 @@
     </row>
     <row r="18" spans="1:31" s="185" customFormat="1" ht="19.95" customHeight="1">
       <c r="B18" s="194" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="C18" s="194"/>
       <c r="D18" s="190" t="s">
@@ -26088,11 +26145,11 @@
       <c r="G18" s="193" t="s">
         <v>1256</v>
       </c>
-      <c r="H18" s="192" t="s">
-        <v>1331</v>
+      <c r="H18" s="195" t="s">
+        <v>1326</v>
       </c>
       <c r="I18" s="191">
-        <v>15230417928</v>
+        <v>18570037575</v>
       </c>
       <c r="J18" s="188" t="s">
         <v>1258</v>
@@ -26113,7 +26170,7 @@
         <v>1290</v>
       </c>
       <c r="P18" s="190" t="s">
-        <v>1298</v>
+        <v>1327</v>
       </c>
       <c r="Q18" s="190"/>
       <c r="R18" s="189"/>
@@ -26121,7 +26178,7 @@
         <v>1264</v>
       </c>
       <c r="T18" s="187">
-        <v>4009109998</v>
+        <v>4009600082</v>
       </c>
       <c r="U18" s="186"/>
       <c r="V18" s="161" t="s">
@@ -26155,200 +26212,186 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="19" spans="1:31" s="180" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A19" s="180">
-        <v>5</v>
-      </c>
-      <c r="B19" s="161" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C19" s="167" t="s">
-        <v>415</v>
-      </c>
-      <c r="D19" s="161" t="s">
-        <v>1369</v>
-      </c>
-      <c r="E19" s="161" t="s">
+    <row r="19" spans="1:31" s="185" customFormat="1" ht="19.95" customHeight="1">
+      <c r="B19" s="194" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C19" s="194"/>
+      <c r="D19" s="190" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="188" t="s">
         <v>1254</v>
       </c>
-      <c r="F19" s="162" t="s">
+      <c r="F19" s="190" t="s">
         <v>1255</v>
       </c>
-      <c r="G19" s="165" t="s">
+      <c r="G19" s="193" t="s">
         <v>1256</v>
       </c>
-      <c r="H19" s="156" t="s">
-        <v>1333</v>
-      </c>
-      <c r="I19" s="169">
-        <v>18521304966</v>
-      </c>
-      <c r="J19" s="161" t="s">
+      <c r="H19" s="192" t="s">
+        <v>1329</v>
+      </c>
+      <c r="I19" s="191">
+        <v>18638396333</v>
+      </c>
+      <c r="J19" s="188" t="s">
         <v>1258</v>
       </c>
-      <c r="K19" s="161" t="s">
+      <c r="K19" s="188" t="s">
         <v>1259</v>
       </c>
-      <c r="L19" s="161" t="s">
+      <c r="L19" s="188" t="s">
         <v>1259</v>
       </c>
-      <c r="M19" s="161" t="s">
+      <c r="M19" s="188" t="s">
         <v>1260</v>
       </c>
-      <c r="N19" s="161" t="s">
+      <c r="N19" s="188" t="s">
         <v>1289</v>
       </c>
-      <c r="O19" s="161" t="s">
+      <c r="O19" s="188" t="s">
         <v>1290</v>
       </c>
-      <c r="P19" s="161" t="s">
-        <v>1334</v>
-      </c>
-      <c r="Q19" s="182"/>
-      <c r="R19" s="181"/>
-      <c r="S19" s="161" t="s">
+      <c r="P19" s="190" t="s">
+        <v>1298</v>
+      </c>
+      <c r="Q19" s="190"/>
+      <c r="R19" s="189"/>
+      <c r="S19" s="188" t="s">
         <v>1264</v>
       </c>
-      <c r="T19" s="163">
-        <v>4008111000</v>
-      </c>
-      <c r="U19" s="163" t="s">
-        <v>1333</v>
-      </c>
-      <c r="V19" s="163">
-        <v>18521304966</v>
-      </c>
-      <c r="W19" s="155" t="s">
-        <v>1335</v>
-      </c>
-      <c r="X19" s="161">
-        <v>18347140054</v>
+      <c r="T19" s="187">
+        <v>4000967667</v>
+      </c>
+      <c r="U19" s="186"/>
+      <c r="V19" s="161" t="s">
+        <v>1259</v>
+      </c>
+      <c r="W19" s="161" t="s">
+        <v>1259</v>
+      </c>
+      <c r="X19" s="161" t="s">
+        <v>1259</v>
       </c>
       <c r="Y19" s="161" t="s">
-        <v>1335</v>
+        <v>1259</v>
       </c>
       <c r="Z19" s="161" t="s">
         <v>1269</v>
       </c>
       <c r="AA19" s="161" t="s">
-        <v>1270</v>
-      </c>
-      <c r="AB19" s="161" t="s">
-        <v>1271</v>
+        <v>1324</v>
+      </c>
+      <c r="AB19" s="162" t="s">
+        <v>1306</v>
       </c>
       <c r="AC19" s="161" t="s">
-        <v>1270</v>
-      </c>
-      <c r="AD19" s="161" t="s">
-        <v>1271</v>
+        <v>1324</v>
+      </c>
+      <c r="AD19" s="162" t="s">
+        <v>1306</v>
       </c>
       <c r="AE19" s="161" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="20" spans="1:31" s="180" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A20" s="180">
-        <v>4</v>
-      </c>
-      <c r="B20" s="161" t="s">
-        <v>1285</v>
-      </c>
-      <c r="C20" s="167" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D20" s="161" t="s">
-        <v>1369</v>
-      </c>
-      <c r="E20" s="161" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" s="185" customFormat="1" ht="19.95" customHeight="1">
+      <c r="B20" s="194" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C20" s="194"/>
+      <c r="D20" s="190" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="188" t="s">
         <v>1254</v>
       </c>
-      <c r="F20" s="162" t="s">
+      <c r="F20" s="190" t="s">
         <v>1255</v>
       </c>
-      <c r="G20" s="165" t="s">
+      <c r="G20" s="193" t="s">
         <v>1256</v>
       </c>
-      <c r="H20" s="163" t="s">
-        <v>1287</v>
-      </c>
-      <c r="I20" s="163" t="s">
-        <v>1288</v>
-      </c>
-      <c r="J20" s="161" t="s">
+      <c r="H20" s="192" t="s">
+        <v>1331</v>
+      </c>
+      <c r="I20" s="191">
+        <v>15230417928</v>
+      </c>
+      <c r="J20" s="188" t="s">
         <v>1258</v>
       </c>
-      <c r="K20" s="161" t="s">
+      <c r="K20" s="188" t="s">
         <v>1259</v>
       </c>
-      <c r="L20" s="161" t="s">
+      <c r="L20" s="188" t="s">
         <v>1259</v>
       </c>
-      <c r="M20" s="161" t="s">
+      <c r="M20" s="188" t="s">
         <v>1260</v>
       </c>
-      <c r="N20" s="161" t="s">
+      <c r="N20" s="188" t="s">
         <v>1289</v>
       </c>
-      <c r="O20" s="161" t="s">
+      <c r="O20" s="188" t="s">
         <v>1290</v>
       </c>
-      <c r="P20" s="161" t="s">
-        <v>1291</v>
-      </c>
-      <c r="Q20" s="182"/>
-      <c r="R20" s="181"/>
-      <c r="S20" s="161" t="s">
+      <c r="P20" s="190" t="s">
+        <v>1298</v>
+      </c>
+      <c r="Q20" s="190"/>
+      <c r="R20" s="189"/>
+      <c r="S20" s="188" t="s">
         <v>1264</v>
       </c>
-      <c r="T20" s="163">
-        <v>4008100504</v>
-      </c>
-      <c r="U20" s="163" t="s">
-        <v>1287</v>
-      </c>
+      <c r="T20" s="187">
+        <v>4009109998</v>
+      </c>
+      <c r="U20" s="186"/>
       <c r="V20" s="161" t="s">
         <v>1259</v>
       </c>
-      <c r="W20" s="155" t="s">
-        <v>1293</v>
-      </c>
-      <c r="X20" s="161">
-        <v>18647963715</v>
+      <c r="W20" s="161" t="s">
+        <v>1259</v>
+      </c>
+      <c r="X20" s="161" t="s">
+        <v>1259</v>
       </c>
       <c r="Y20" s="161" t="s">
-        <v>1294</v>
+        <v>1259</v>
       </c>
       <c r="Z20" s="161" t="s">
         <v>1269</v>
       </c>
       <c r="AA20" s="161" t="s">
-        <v>1270</v>
-      </c>
-      <c r="AB20" s="161" t="s">
-        <v>1271</v>
+        <v>1324</v>
+      </c>
+      <c r="AB20" s="162" t="s">
+        <v>1306</v>
       </c>
       <c r="AC20" s="161" t="s">
-        <v>1270</v>
-      </c>
-      <c r="AD20" s="161" t="s">
-        <v>1271</v>
+        <v>1324</v>
+      </c>
+      <c r="AD20" s="162" t="s">
+        <v>1306</v>
       </c>
       <c r="AE20" s="161" t="s">
-        <v>1270</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="21" spans="1:31" s="180" customFormat="1" ht="19.95" customHeight="1">
       <c r="A21" s="180">
-        <v>2</v>
-      </c>
-      <c r="B21" s="166" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="166" t="s">
-        <v>1253</v>
+        <v>5</v>
+      </c>
+      <c r="B21" s="161" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C21" s="167" t="s">
+        <v>415</v>
       </c>
       <c r="D21" s="161" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E21" s="161" t="s">
         <v>1254</v>
@@ -26359,11 +26402,11 @@
       <c r="G21" s="165" t="s">
         <v>1256</v>
       </c>
-      <c r="H21" s="170" t="s">
-        <v>1257</v>
+      <c r="H21" s="156" t="s">
+        <v>1333</v>
       </c>
       <c r="I21" s="169">
-        <v>18189243756</v>
+        <v>18521304966</v>
       </c>
       <c r="J21" s="161" t="s">
         <v>1258</v>
@@ -26378,36 +26421,36 @@
         <v>1260</v>
       </c>
       <c r="N21" s="161" t="s">
-        <v>1261</v>
+        <v>1289</v>
       </c>
       <c r="O21" s="161" t="s">
-        <v>1262</v>
+        <v>1290</v>
       </c>
       <c r="P21" s="161" t="s">
-        <v>1263</v>
+        <v>1334</v>
       </c>
       <c r="Q21" s="182"/>
       <c r="R21" s="181"/>
       <c r="S21" s="161" t="s">
         <v>1264</v>
       </c>
-      <c r="T21" s="163" t="s">
-        <v>1265</v>
+      <c r="T21" s="163">
+        <v>4008111000</v>
       </c>
       <c r="U21" s="163" t="s">
-        <v>1266</v>
+        <v>1333</v>
       </c>
       <c r="V21" s="163">
-        <v>18447072651</v>
+        <v>18521304966</v>
       </c>
       <c r="W21" s="155" t="s">
-        <v>1267</v>
+        <v>1335</v>
       </c>
       <c r="X21" s="161">
-        <v>18686047699</v>
+        <v>18347140054</v>
       </c>
       <c r="Y21" s="161" t="s">
-        <v>1268</v>
+        <v>1335</v>
       </c>
       <c r="Z21" s="161" t="s">
         <v>1269</v>
@@ -26428,18 +26471,18 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="22" spans="1:31" s="176" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A22" s="168">
-        <v>10</v>
-      </c>
-      <c r="B22" s="166" t="s">
-        <v>1032</v>
+    <row r="22" spans="1:31" s="180" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A22" s="180">
+        <v>4</v>
+      </c>
+      <c r="B22" s="161" t="s">
+        <v>1285</v>
       </c>
       <c r="C22" s="167" t="s">
-        <v>408</v>
+        <v>1286</v>
       </c>
       <c r="D22" s="161" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E22" s="161" t="s">
         <v>1254</v>
@@ -26450,11 +26493,11 @@
       <c r="G22" s="165" t="s">
         <v>1256</v>
       </c>
-      <c r="H22" s="183" t="s">
-        <v>1336</v>
-      </c>
-      <c r="I22" s="169">
-        <v>17310889627</v>
+      <c r="H22" s="163" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I22" s="163" t="s">
+        <v>1288</v>
       </c>
       <c r="J22" s="161" t="s">
         <v>1258</v>
@@ -26468,35 +26511,37 @@
       <c r="M22" s="161" t="s">
         <v>1260</v>
       </c>
-      <c r="N22" s="178" t="s">
-        <v>1282</v>
+      <c r="N22" s="161" t="s">
+        <v>1289</v>
       </c>
       <c r="O22" s="161" t="s">
         <v>1290</v>
       </c>
       <c r="P22" s="161" t="s">
-        <v>1263</v>
-      </c>
-      <c r="Q22" s="177"/>
-      <c r="R22" s="166"/>
+        <v>1291</v>
+      </c>
+      <c r="Q22" s="182"/>
+      <c r="R22" s="181"/>
       <c r="S22" s="161" t="s">
         <v>1264</v>
       </c>
-      <c r="T22" s="163" t="s">
-        <v>1337</v>
-      </c>
-      <c r="U22" s="163"/>
+      <c r="T22" s="163">
+        <v>4008100504</v>
+      </c>
+      <c r="U22" s="163" t="s">
+        <v>1287</v>
+      </c>
       <c r="V22" s="161" t="s">
         <v>1259</v>
       </c>
-      <c r="W22" s="161" t="s">
-        <v>1259</v>
-      </c>
-      <c r="X22" s="161" t="s">
-        <v>1259</v>
+      <c r="W22" s="155" t="s">
+        <v>1293</v>
+      </c>
+      <c r="X22" s="161">
+        <v>18647963715</v>
       </c>
       <c r="Y22" s="161" t="s">
-        <v>1259</v>
+        <v>1294</v>
       </c>
       <c r="Z22" s="161" t="s">
         <v>1269</v>
@@ -26517,18 +26562,18 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="23" spans="1:31" s="168" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A23" s="168">
-        <v>6</v>
-      </c>
-      <c r="B23" s="162" t="s">
-        <v>1338</v>
+    <row r="23" spans="1:31" s="180" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A23" s="180">
+        <v>4</v>
+      </c>
+      <c r="B23" s="161" t="s">
+        <v>1375</v>
       </c>
       <c r="C23" s="167" t="s">
-        <v>1339</v>
+        <v>1286</v>
       </c>
       <c r="D23" s="161" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E23" s="161" t="s">
         <v>1254</v>
@@ -26539,11 +26584,11 @@
       <c r="G23" s="165" t="s">
         <v>1256</v>
       </c>
-      <c r="H23" s="171" t="s">
-        <v>1340</v>
-      </c>
-      <c r="I23" s="169">
-        <v>18611329140</v>
+      <c r="H23" s="163" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I23" s="163" t="s">
+        <v>1288</v>
       </c>
       <c r="J23" s="161" t="s">
         <v>1258</v>
@@ -26563,29 +26608,31 @@
       <c r="O23" s="161" t="s">
         <v>1290</v>
       </c>
-      <c r="P23" s="162" t="s">
-        <v>1298</v>
-      </c>
-      <c r="Q23" s="162"/>
-      <c r="R23" s="184"/>
+      <c r="P23" s="161" t="s">
+        <v>1291</v>
+      </c>
+      <c r="Q23" s="182"/>
+      <c r="R23" s="181"/>
       <c r="S23" s="161" t="s">
         <v>1264</v>
       </c>
-      <c r="T23" s="163" t="s">
-        <v>1341</v>
-      </c>
-      <c r="U23" s="163"/>
-      <c r="V23" s="163" t="s">
-        <v>1341</v>
-      </c>
-      <c r="W23" s="162" t="s">
-        <v>744</v>
-      </c>
-      <c r="X23" s="161" t="s">
+      <c r="T23" s="163">
+        <v>4008100504</v>
+      </c>
+      <c r="U23" s="163" t="s">
+        <v>1287</v>
+      </c>
+      <c r="V23" s="161" t="s">
         <v>1259</v>
       </c>
+      <c r="W23" s="155" t="s">
+        <v>1293</v>
+      </c>
+      <c r="X23" s="161">
+        <v>18647963715</v>
+      </c>
       <c r="Y23" s="161" t="s">
-        <v>1259</v>
+        <v>1294</v>
       </c>
       <c r="Z23" s="161" t="s">
         <v>1269</v>
@@ -26593,31 +26640,31 @@
       <c r="AA23" s="161" t="s">
         <v>1270</v>
       </c>
-      <c r="AB23" s="162" t="s">
-        <v>1306</v>
+      <c r="AB23" s="161" t="s">
+        <v>1271</v>
       </c>
       <c r="AC23" s="161" t="s">
         <v>1270</v>
       </c>
-      <c r="AD23" s="162" t="s">
-        <v>1306</v>
+      <c r="AD23" s="161" t="s">
+        <v>1271</v>
       </c>
       <c r="AE23" s="161" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="24" spans="1:31" s="168" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A24" s="168">
-        <v>7</v>
-      </c>
-      <c r="B24" s="162" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C24" s="167" t="s">
-        <v>1343</v>
+    <row r="24" spans="1:31" s="180" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A24" s="180">
+        <v>2</v>
+      </c>
+      <c r="B24" s="166" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="166" t="s">
+        <v>1253</v>
       </c>
       <c r="D24" s="161" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E24" s="161" t="s">
         <v>1254</v>
@@ -26628,11 +26675,11 @@
       <c r="G24" s="165" t="s">
         <v>1256</v>
       </c>
-      <c r="H24" s="161" t="s">
-        <v>1259</v>
-      </c>
-      <c r="I24" s="161" t="s">
-        <v>1259</v>
+      <c r="H24" s="170" t="s">
+        <v>1257</v>
+      </c>
+      <c r="I24" s="169">
+        <v>18189243756</v>
       </c>
       <c r="J24" s="161" t="s">
         <v>1258</v>
@@ -26647,34 +26694,36 @@
         <v>1260</v>
       </c>
       <c r="N24" s="161" t="s">
-        <v>1289</v>
+        <v>1261</v>
       </c>
       <c r="O24" s="161" t="s">
-        <v>1290</v>
-      </c>
-      <c r="P24" s="162" t="s">
-        <v>1298</v>
-      </c>
-      <c r="Q24" s="162"/>
-      <c r="R24" s="184"/>
+        <v>1262</v>
+      </c>
+      <c r="P24" s="161" t="s">
+        <v>1263</v>
+      </c>
+      <c r="Q24" s="182"/>
+      <c r="R24" s="181"/>
       <c r="S24" s="161" t="s">
         <v>1264</v>
       </c>
       <c r="T24" s="163" t="s">
-        <v>1344</v>
-      </c>
-      <c r="U24" s="163"/>
-      <c r="V24" s="163" t="s">
-        <v>1344</v>
-      </c>
-      <c r="W24" s="162" t="s">
-        <v>744</v>
-      </c>
-      <c r="X24" s="161" t="s">
-        <v>1259</v>
+        <v>1265</v>
+      </c>
+      <c r="U24" s="163" t="s">
+        <v>1266</v>
+      </c>
+      <c r="V24" s="163">
+        <v>18447072651</v>
+      </c>
+      <c r="W24" s="155" t="s">
+        <v>1267</v>
+      </c>
+      <c r="X24" s="161">
+        <v>18686047699</v>
       </c>
       <c r="Y24" s="161" t="s">
-        <v>1259</v>
+        <v>1268</v>
       </c>
       <c r="Z24" s="161" t="s">
         <v>1269</v>
@@ -26682,14 +26731,14 @@
       <c r="AA24" s="161" t="s">
         <v>1270</v>
       </c>
-      <c r="AB24" s="162" t="s">
-        <v>1306</v>
+      <c r="AB24" s="161" t="s">
+        <v>1271</v>
       </c>
       <c r="AC24" s="161" t="s">
         <v>1270</v>
       </c>
-      <c r="AD24" s="162" t="s">
-        <v>1306</v>
+      <c r="AD24" s="161" t="s">
+        <v>1271</v>
       </c>
       <c r="AE24" s="161" t="s">
         <v>1270</v>
@@ -26700,13 +26749,13 @@
         <v>10</v>
       </c>
       <c r="B25" s="166" t="s">
-        <v>1345</v>
+        <v>1032</v>
       </c>
       <c r="C25" s="167" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="D25" s="161" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E25" s="161" t="s">
         <v>1254</v>
@@ -26718,10 +26767,10 @@
         <v>1256</v>
       </c>
       <c r="H25" s="183" t="s">
-        <v>1346</v>
+        <v>1336</v>
       </c>
       <c r="I25" s="169">
-        <v>18910175320</v>
+        <v>17310889627</v>
       </c>
       <c r="J25" s="161" t="s">
         <v>1258</v>
@@ -26750,7 +26799,7 @@
         <v>1264</v>
       </c>
       <c r="T25" s="163" t="s">
-        <v>1347</v>
+        <v>1337</v>
       </c>
       <c r="U25" s="163"/>
       <c r="V25" s="161" t="s">
@@ -26771,31 +26820,31 @@
       <c r="AA25" s="161" t="s">
         <v>1270</v>
       </c>
-      <c r="AB25" s="162" t="s">
-        <v>1306</v>
+      <c r="AB25" s="161" t="s">
+        <v>1271</v>
       </c>
       <c r="AC25" s="161" t="s">
         <v>1270</v>
       </c>
-      <c r="AD25" s="162" t="s">
-        <v>1306</v>
+      <c r="AD25" s="161" t="s">
+        <v>1271</v>
       </c>
       <c r="AE25" s="161" t="s">
         <v>1270</v>
       </c>
     </row>
-    <row r="26" spans="1:31" s="180" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A26" s="180">
-        <v>9</v>
-      </c>
-      <c r="B26" s="161" t="s">
-        <v>1348</v>
+    <row r="26" spans="1:31" s="168" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A26" s="168">
+        <v>6</v>
+      </c>
+      <c r="B26" s="162" t="s">
+        <v>1338</v>
       </c>
       <c r="C26" s="167" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="D26" s="161" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E26" s="161" t="s">
         <v>1254</v>
@@ -26806,11 +26855,11 @@
       <c r="G26" s="165" t="s">
         <v>1256</v>
       </c>
-      <c r="H26" s="156" t="s">
-        <v>1350</v>
+      <c r="H26" s="171" t="s">
+        <v>1340</v>
       </c>
       <c r="I26" s="169">
-        <v>17747963091</v>
+        <v>18611329140</v>
       </c>
       <c r="J26" s="161" t="s">
         <v>1258</v>
@@ -26828,33 +26877,31 @@
         <v>1289</v>
       </c>
       <c r="O26" s="161" t="s">
-        <v>1262</v>
-      </c>
-      <c r="P26" s="161" t="s">
-        <v>1263</v>
-      </c>
-      <c r="Q26" s="182"/>
-      <c r="R26" s="181"/>
+        <v>1290</v>
+      </c>
+      <c r="P26" s="162" t="s">
+        <v>1298</v>
+      </c>
+      <c r="Q26" s="162"/>
+      <c r="R26" s="184"/>
       <c r="S26" s="161" t="s">
         <v>1264</v>
       </c>
       <c r="T26" s="163" t="s">
-        <v>1351</v>
-      </c>
-      <c r="U26" s="163" t="s">
-        <v>1350</v>
-      </c>
-      <c r="V26" s="163">
-        <v>17747963091</v>
-      </c>
-      <c r="W26" s="155" t="s">
-        <v>1350</v>
-      </c>
-      <c r="X26" s="161">
-        <v>17747963091</v>
+        <v>1341</v>
+      </c>
+      <c r="U26" s="163"/>
+      <c r="V26" s="163" t="s">
+        <v>1341</v>
+      </c>
+      <c r="W26" s="162" t="s">
+        <v>744</v>
+      </c>
+      <c r="X26" s="161" t="s">
+        <v>1259</v>
       </c>
       <c r="Y26" s="161" t="s">
-        <v>1350</v>
+        <v>1259</v>
       </c>
       <c r="Z26" s="161" t="s">
         <v>1269</v>
@@ -26875,18 +26922,18 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="27" spans="1:31" s="176" customFormat="1" ht="19.95" customHeight="1">
+    <row r="27" spans="1:31" s="168" customFormat="1" ht="19.95" customHeight="1">
       <c r="A27" s="168">
-        <v>5</v>
-      </c>
-      <c r="B27" s="179" t="s">
-        <v>1352</v>
+        <v>7</v>
+      </c>
+      <c r="B27" s="162" t="s">
+        <v>1342</v>
       </c>
       <c r="C27" s="167" t="s">
-        <v>428</v>
+        <v>1343</v>
       </c>
       <c r="D27" s="161" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E27" s="161" t="s">
         <v>1254</v>
@@ -26897,11 +26944,11 @@
       <c r="G27" s="165" t="s">
         <v>1256</v>
       </c>
-      <c r="H27" s="171" t="s">
-        <v>1353</v>
-      </c>
-      <c r="I27" s="169">
-        <v>18701009869</v>
+      <c r="H27" s="161" t="s">
+        <v>1259</v>
+      </c>
+      <c r="I27" s="161" t="s">
+        <v>1259</v>
       </c>
       <c r="J27" s="161" t="s">
         <v>1258</v>
@@ -26915,29 +26962,29 @@
       <c r="M27" s="161" t="s">
         <v>1260</v>
       </c>
-      <c r="N27" s="178" t="s">
-        <v>1282</v>
+      <c r="N27" s="161" t="s">
+        <v>1289</v>
       </c>
       <c r="O27" s="161" t="s">
-        <v>1262</v>
-      </c>
-      <c r="P27" s="161" t="s">
-        <v>1263</v>
-      </c>
-      <c r="Q27" s="177"/>
-      <c r="R27" s="166"/>
+        <v>1290</v>
+      </c>
+      <c r="P27" s="162" t="s">
+        <v>1298</v>
+      </c>
+      <c r="Q27" s="162"/>
+      <c r="R27" s="184"/>
       <c r="S27" s="161" t="s">
         <v>1264</v>
       </c>
-      <c r="T27" s="163">
-        <v>95015</v>
+      <c r="T27" s="163" t="s">
+        <v>1344</v>
       </c>
       <c r="U27" s="163"/>
-      <c r="V27" s="161" t="s">
-        <v>1259</v>
-      </c>
-      <c r="W27" s="161" t="s">
-        <v>1259</v>
+      <c r="V27" s="163" t="s">
+        <v>1344</v>
+      </c>
+      <c r="W27" s="162" t="s">
+        <v>744</v>
       </c>
       <c r="X27" s="161" t="s">
         <v>1259</v>
@@ -26964,15 +27011,18 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="28" spans="1:31" s="172" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B28" s="175" t="s">
-        <v>1354</v>
+    <row r="28" spans="1:31" s="176" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A28" s="168">
+        <v>10</v>
+      </c>
+      <c r="B28" s="166" t="s">
+        <v>1345</v>
       </c>
       <c r="C28" s="167" t="s">
-        <v>1355</v>
+        <v>420</v>
       </c>
       <c r="D28" s="161" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E28" s="161" t="s">
         <v>1254</v>
@@ -26983,11 +27033,11 @@
       <c r="G28" s="165" t="s">
         <v>1256</v>
       </c>
-      <c r="H28" s="174" t="s">
-        <v>1356</v>
+      <c r="H28" s="183" t="s">
+        <v>1346</v>
       </c>
       <c r="I28" s="169">
-        <v>13301331382</v>
+        <v>18910175320</v>
       </c>
       <c r="J28" s="161" t="s">
         <v>1258</v>
@@ -27001,24 +27051,24 @@
       <c r="M28" s="161" t="s">
         <v>1260</v>
       </c>
-      <c r="N28" s="161" t="s">
-        <v>1289</v>
+      <c r="N28" s="178" t="s">
+        <v>1282</v>
       </c>
       <c r="O28" s="161" t="s">
         <v>1290</v>
       </c>
       <c r="P28" s="161" t="s">
-        <v>1291</v>
-      </c>
-      <c r="Q28" s="173"/>
-      <c r="R28" s="173"/>
+        <v>1263</v>
+      </c>
+      <c r="Q28" s="177"/>
+      <c r="R28" s="166"/>
       <c r="S28" s="161" t="s">
         <v>1264</v>
       </c>
-      <c r="T28" s="163">
-        <v>4008186868</v>
-      </c>
-      <c r="U28" s="173"/>
+      <c r="T28" s="163" t="s">
+        <v>1347</v>
+      </c>
+      <c r="U28" s="163"/>
       <c r="V28" s="161" t="s">
         <v>1259</v>
       </c>
@@ -27050,18 +27100,18 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="29" spans="1:31" s="160" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A29" s="168">
-        <v>5</v>
-      </c>
-      <c r="B29" s="162" t="s">
-        <v>1357</v>
+    <row r="29" spans="1:31" s="180" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A29" s="180">
+        <v>9</v>
+      </c>
+      <c r="B29" s="161" t="s">
+        <v>1348</v>
       </c>
       <c r="C29" s="167" t="s">
-        <v>1358</v>
+        <v>1349</v>
       </c>
       <c r="D29" s="161" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E29" s="161" t="s">
         <v>1254</v>
@@ -27072,14 +27122,14 @@
       <c r="G29" s="165" t="s">
         <v>1256</v>
       </c>
-      <c r="H29" s="171" t="s">
-        <v>1359</v>
+      <c r="H29" s="156" t="s">
+        <v>1350</v>
       </c>
       <c r="I29" s="169">
-        <v>18515294666</v>
+        <v>17747963091</v>
       </c>
       <c r="J29" s="161" t="s">
-        <v>1360</v>
+        <v>1258</v>
       </c>
       <c r="K29" s="161" t="s">
         <v>1259</v>
@@ -27090,35 +27140,37 @@
       <c r="M29" s="161" t="s">
         <v>1260</v>
       </c>
-      <c r="N29" s="162" t="s">
-        <v>1263</v>
+      <c r="N29" s="161" t="s">
+        <v>1289</v>
       </c>
       <c r="O29" s="161" t="s">
         <v>1262</v>
       </c>
-      <c r="P29" s="162" t="s">
-        <v>1298</v>
-      </c>
-      <c r="Q29" s="162"/>
-      <c r="R29" s="164"/>
+      <c r="P29" s="161" t="s">
+        <v>1263</v>
+      </c>
+      <c r="Q29" s="182"/>
+      <c r="R29" s="181"/>
       <c r="S29" s="161" t="s">
         <v>1264</v>
       </c>
       <c r="T29" s="163" t="s">
-        <v>1361</v>
-      </c>
-      <c r="U29" s="163"/>
+        <v>1351</v>
+      </c>
+      <c r="U29" s="163" t="s">
+        <v>1350</v>
+      </c>
       <c r="V29" s="163">
-        <v>4008876526</v>
-      </c>
-      <c r="W29" s="162" t="s">
-        <v>744</v>
-      </c>
-      <c r="X29" s="161" t="s">
-        <v>1259</v>
+        <v>17747963091</v>
+      </c>
+      <c r="W29" s="155" t="s">
+        <v>1350</v>
+      </c>
+      <c r="X29" s="161">
+        <v>17747963091</v>
       </c>
       <c r="Y29" s="161" t="s">
-        <v>1259</v>
+        <v>1350</v>
       </c>
       <c r="Z29" s="161" t="s">
         <v>1269</v>
@@ -27139,18 +27191,18 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="30" spans="1:31" s="160" customFormat="1" ht="19.95" customHeight="1">
+    <row r="30" spans="1:31" s="176" customFormat="1" ht="19.95" customHeight="1">
       <c r="A30" s="168">
         <v>5</v>
       </c>
-      <c r="B30" s="162" t="s">
-        <v>1362</v>
+      <c r="B30" s="179" t="s">
+        <v>1352</v>
       </c>
       <c r="C30" s="167" t="s">
-        <v>1363</v>
+        <v>428</v>
       </c>
       <c r="D30" s="161" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E30" s="161" t="s">
         <v>1254</v>
@@ -27161,14 +27213,14 @@
       <c r="G30" s="165" t="s">
         <v>1256</v>
       </c>
-      <c r="H30" s="170" t="s">
-        <v>1364</v>
+      <c r="H30" s="171" t="s">
+        <v>1353</v>
       </c>
       <c r="I30" s="169">
-        <v>18621774035</v>
+        <v>18701009869</v>
       </c>
       <c r="J30" s="161" t="s">
-        <v>1360</v>
+        <v>1258</v>
       </c>
       <c r="K30" s="161" t="s">
         <v>1259</v>
@@ -27179,29 +27231,29 @@
       <c r="M30" s="161" t="s">
         <v>1260</v>
       </c>
-      <c r="N30" s="162" t="s">
-        <v>1263</v>
+      <c r="N30" s="178" t="s">
+        <v>1282</v>
       </c>
       <c r="O30" s="161" t="s">
         <v>1262</v>
       </c>
-      <c r="P30" s="162" t="s">
-        <v>1298</v>
-      </c>
-      <c r="Q30" s="162"/>
-      <c r="R30" s="164"/>
+      <c r="P30" s="161" t="s">
+        <v>1263</v>
+      </c>
+      <c r="Q30" s="177"/>
+      <c r="R30" s="166"/>
       <c r="S30" s="161" t="s">
         <v>1264</v>
       </c>
-      <c r="T30" s="163" t="s">
-        <v>1365</v>
+      <c r="T30" s="163">
+        <v>95015</v>
       </c>
       <c r="U30" s="163"/>
-      <c r="V30" s="163">
-        <v>4008876526</v>
-      </c>
-      <c r="W30" s="162" t="s">
-        <v>744</v>
+      <c r="V30" s="161" t="s">
+        <v>1259</v>
+      </c>
+      <c r="W30" s="161" t="s">
+        <v>1259</v>
       </c>
       <c r="X30" s="161" t="s">
         <v>1259</v>
@@ -27228,18 +27280,15 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="31" spans="1:31" s="160" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A31" s="168">
-        <v>5</v>
-      </c>
-      <c r="B31" s="162" t="s">
-        <v>1366</v>
+    <row r="31" spans="1:31" s="172" customFormat="1" ht="19.95" customHeight="1">
+      <c r="B31" s="175" t="s">
+        <v>1354</v>
       </c>
       <c r="C31" s="167" t="s">
-        <v>1367</v>
+        <v>1355</v>
       </c>
       <c r="D31" s="161" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E31" s="161" t="s">
         <v>1254</v>
@@ -27250,14 +27299,14 @@
       <c r="G31" s="165" t="s">
         <v>1256</v>
       </c>
-      <c r="H31" s="161" t="s">
-        <v>1259</v>
-      </c>
-      <c r="I31" s="161" t="s">
-        <v>1259</v>
+      <c r="H31" s="174" t="s">
+        <v>1356</v>
+      </c>
+      <c r="I31" s="169">
+        <v>13301331382</v>
       </c>
       <c r="J31" s="161" t="s">
-        <v>1360</v>
+        <v>1258</v>
       </c>
       <c r="K31" s="161" t="s">
         <v>1259</v>
@@ -27268,29 +27317,29 @@
       <c r="M31" s="161" t="s">
         <v>1260</v>
       </c>
-      <c r="N31" s="162" t="s">
-        <v>1263</v>
+      <c r="N31" s="161" t="s">
+        <v>1289</v>
       </c>
       <c r="O31" s="161" t="s">
-        <v>1262</v>
-      </c>
-      <c r="P31" s="162" t="s">
-        <v>1298</v>
-      </c>
-      <c r="Q31" s="162"/>
-      <c r="R31" s="164"/>
+        <v>1290</v>
+      </c>
+      <c r="P31" s="161" t="s">
+        <v>1291</v>
+      </c>
+      <c r="Q31" s="173"/>
+      <c r="R31" s="173"/>
       <c r="S31" s="161" t="s">
         <v>1264</v>
       </c>
-      <c r="T31" s="163" t="s">
-        <v>1368</v>
-      </c>
-      <c r="U31" s="163"/>
-      <c r="V31" s="163">
-        <v>4008876526</v>
-      </c>
-      <c r="W31" s="162" t="s">
-        <v>744</v>
+      <c r="T31" s="163">
+        <v>4008186868</v>
+      </c>
+      <c r="U31" s="173"/>
+      <c r="V31" s="161" t="s">
+        <v>1259</v>
+      </c>
+      <c r="W31" s="161" t="s">
+        <v>1259</v>
       </c>
       <c r="X31" s="161" t="s">
         <v>1259</v>
@@ -27317,12 +27366,368 @@
         <v>1270</v>
       </c>
     </row>
+    <row r="32" spans="1:31" s="160" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A32" s="168">
+        <v>5</v>
+      </c>
+      <c r="B32" s="162" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C32" s="167" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D32" s="161" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E32" s="161" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F32" s="162" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G32" s="165" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H32" s="171" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I32" s="169">
+        <v>18515294666</v>
+      </c>
+      <c r="J32" s="161" t="s">
+        <v>1359</v>
+      </c>
+      <c r="K32" s="161" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L32" s="161" t="s">
+        <v>1259</v>
+      </c>
+      <c r="M32" s="161" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N32" s="162" t="s">
+        <v>1263</v>
+      </c>
+      <c r="O32" s="161" t="s">
+        <v>1262</v>
+      </c>
+      <c r="P32" s="162" t="s">
+        <v>1298</v>
+      </c>
+      <c r="Q32" s="162"/>
+      <c r="R32" s="164"/>
+      <c r="S32" s="161" t="s">
+        <v>1264</v>
+      </c>
+      <c r="T32" s="163" t="s">
+        <v>1360</v>
+      </c>
+      <c r="U32" s="163"/>
+      <c r="V32" s="163">
+        <v>4008876526</v>
+      </c>
+      <c r="W32" s="162" t="s">
+        <v>744</v>
+      </c>
+      <c r="X32" s="161" t="s">
+        <v>1259</v>
+      </c>
+      <c r="Y32" s="161" t="s">
+        <v>1259</v>
+      </c>
+      <c r="Z32" s="161" t="s">
+        <v>1269</v>
+      </c>
+      <c r="AA32" s="161" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AB32" s="162" t="s">
+        <v>1306</v>
+      </c>
+      <c r="AC32" s="161" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AD32" s="162" t="s">
+        <v>1306</v>
+      </c>
+      <c r="AE32" s="161" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" s="160" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A33" s="168">
+        <v>5</v>
+      </c>
+      <c r="B33" s="162" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C33" s="167" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D33" s="161" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E33" s="161" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F33" s="162" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G33" s="165" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H33" s="171" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I33" s="169">
+        <v>18515294666</v>
+      </c>
+      <c r="J33" s="161" t="s">
+        <v>1359</v>
+      </c>
+      <c r="K33" s="161" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L33" s="161" t="s">
+        <v>1259</v>
+      </c>
+      <c r="M33" s="161" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N33" s="162" t="s">
+        <v>1263</v>
+      </c>
+      <c r="O33" s="161" t="s">
+        <v>1262</v>
+      </c>
+      <c r="P33" s="162" t="s">
+        <v>1298</v>
+      </c>
+      <c r="Q33" s="162"/>
+      <c r="R33" s="164"/>
+      <c r="S33" s="161" t="s">
+        <v>1264</v>
+      </c>
+      <c r="T33" s="163" t="s">
+        <v>1360</v>
+      </c>
+      <c r="U33" s="163"/>
+      <c r="V33" s="163">
+        <v>4008876526</v>
+      </c>
+      <c r="W33" s="162" t="s">
+        <v>744</v>
+      </c>
+      <c r="X33" s="161" t="s">
+        <v>1259</v>
+      </c>
+      <c r="Y33" s="161" t="s">
+        <v>1259</v>
+      </c>
+      <c r="Z33" s="161" t="s">
+        <v>1269</v>
+      </c>
+      <c r="AA33" s="161" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AB33" s="162" t="s">
+        <v>1306</v>
+      </c>
+      <c r="AC33" s="161" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AD33" s="162" t="s">
+        <v>1306</v>
+      </c>
+      <c r="AE33" s="161" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" s="160" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A34" s="168">
+        <v>5</v>
+      </c>
+      <c r="B34" s="162" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C34" s="167" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D34" s="161" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E34" s="161" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F34" s="162" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G34" s="165" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H34" s="170" t="s">
+        <v>1363</v>
+      </c>
+      <c r="I34" s="169">
+        <v>18621774035</v>
+      </c>
+      <c r="J34" s="161" t="s">
+        <v>1359</v>
+      </c>
+      <c r="K34" s="161" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L34" s="161" t="s">
+        <v>1259</v>
+      </c>
+      <c r="M34" s="161" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N34" s="162" t="s">
+        <v>1263</v>
+      </c>
+      <c r="O34" s="161" t="s">
+        <v>1262</v>
+      </c>
+      <c r="P34" s="162" t="s">
+        <v>1298</v>
+      </c>
+      <c r="Q34" s="162"/>
+      <c r="R34" s="164"/>
+      <c r="S34" s="161" t="s">
+        <v>1264</v>
+      </c>
+      <c r="T34" s="163" t="s">
+        <v>1364</v>
+      </c>
+      <c r="U34" s="163"/>
+      <c r="V34" s="163">
+        <v>4008876526</v>
+      </c>
+      <c r="W34" s="162" t="s">
+        <v>744</v>
+      </c>
+      <c r="X34" s="161" t="s">
+        <v>1259</v>
+      </c>
+      <c r="Y34" s="161" t="s">
+        <v>1259</v>
+      </c>
+      <c r="Z34" s="161" t="s">
+        <v>1269</v>
+      </c>
+      <c r="AA34" s="161" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AB34" s="162" t="s">
+        <v>1306</v>
+      </c>
+      <c r="AC34" s="161" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AD34" s="162" t="s">
+        <v>1306</v>
+      </c>
+      <c r="AE34" s="161" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" s="160" customFormat="1" ht="19.95" customHeight="1">
+      <c r="A35" s="168">
+        <v>5</v>
+      </c>
+      <c r="B35" s="162" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C35" s="167" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D35" s="161" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E35" s="161" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F35" s="162" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G35" s="165" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H35" s="161" t="s">
+        <v>1259</v>
+      </c>
+      <c r="I35" s="161" t="s">
+        <v>1259</v>
+      </c>
+      <c r="J35" s="161" t="s">
+        <v>1359</v>
+      </c>
+      <c r="K35" s="161" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L35" s="161" t="s">
+        <v>1259</v>
+      </c>
+      <c r="M35" s="161" t="s">
+        <v>1260</v>
+      </c>
+      <c r="N35" s="162" t="s">
+        <v>1263</v>
+      </c>
+      <c r="O35" s="161" t="s">
+        <v>1262</v>
+      </c>
+      <c r="P35" s="162" t="s">
+        <v>1298</v>
+      </c>
+      <c r="Q35" s="162"/>
+      <c r="R35" s="164"/>
+      <c r="S35" s="161" t="s">
+        <v>1264</v>
+      </c>
+      <c r="T35" s="163" t="s">
+        <v>1367</v>
+      </c>
+      <c r="U35" s="163"/>
+      <c r="V35" s="163">
+        <v>4008876526</v>
+      </c>
+      <c r="W35" s="162" t="s">
+        <v>744</v>
+      </c>
+      <c r="X35" s="161" t="s">
+        <v>1259</v>
+      </c>
+      <c r="Y35" s="161" t="s">
+        <v>1259</v>
+      </c>
+      <c r="Z35" s="161" t="s">
+        <v>1269</v>
+      </c>
+      <c r="AA35" s="161" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AB35" s="162" t="s">
+        <v>1306</v>
+      </c>
+      <c r="AC35" s="161" t="s">
+        <v>1270</v>
+      </c>
+      <c r="AD35" s="162" t="s">
+        <v>1306</v>
+      </c>
+      <c r="AE35" s="161" t="s">
+        <v>1270</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AE29" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AE32" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="51" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="18189243756" xr:uid="{987CA1BB-46BF-4A8B-818C-71CA7E800F17}"/>
-    <hyperlink ref="I21" r:id="rId2" display="18189243756" xr:uid="{67F92480-025E-4599-A3CA-B63640531860}"/>
+    <hyperlink ref="I2" r:id="rId1" display="18189243756" xr:uid="{FD3E9A7B-7CCD-4D92-B16B-A8880DDA8888}"/>
+    <hyperlink ref="I24" r:id="rId2" display="18189243756" xr:uid="{A87C093C-2633-4E0A-B1D5-ACD20ECDA50B}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -27337,7 +27742,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -27566,7 +27971,7 @@
   </sheetPr>
   <dimension ref="A1:C576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
